--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>38426.9227632158</v>
+        <v>40784.29618366806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>38471.83835726183</v>
+        <v>40831.96721114341</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>38517.39935330921</v>
+        <v>40880.32323404615</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>38563.61496271595</v>
+        <v>40929.37402882271</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>38610.49452657035</v>
+        <v>40979.1295096084</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>38658.04751747172</v>
+        <v>41029.59973011738</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>38706.28354133416</v>
+        <v>41080.79488555698</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>38755.21233921374</v>
+        <v>41132.72531456708</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>38804.8437891598</v>
+        <v>41185.40150118493</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>38855.18790809009</v>
+        <v>41238.83407683537</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>38906.25485369037</v>
+        <v>41293.03382234688</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>38958.05492633867</v>
+        <v>41348.011669994</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>39010.59857105459</v>
+        <v>41403.77870556615</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>39063.89637947376</v>
+        <v>41460.34617046314</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>39117.95909184781</v>
+        <v>41517.72546381802</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>39172.79759907037</v>
+        <v>41575.92814464717</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>39228.42294472901</v>
+        <v>41634.96593402833</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>39284.8463271838</v>
+        <v>41694.85071730648</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>39342.07910167265</v>
+        <v>41755.59454632838</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>39400.13278244352</v>
+        <v>41817.20964170563</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39459.01904491425</v>
+        <v>41879.70839510715</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39518.74972786021</v>
+        <v>41943.10337158055</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>39579.33683562939</v>
+        <v>42007.40731190375</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>39640.79254038674</v>
+        <v>42072.63313496653</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>39703.12918438651</v>
+        <v>42138.79394018239</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>39766.35928227392</v>
+        <v>42205.90300993158</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>39830.49552341616</v>
+        <v>42273.97381203484</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39895.55077426304</v>
+        <v>42343.02000225909</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>39961.53808073775</v>
+        <v>42413.05542685477</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40028.470670658</v>
+        <v>42484.09412512548</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>40096.36195618797</v>
+        <v>42556.15033203033</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>40165.22553632117</v>
+        <v>42629.23848081931</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>40235.07519939502</v>
+        <v>42703.37320570182</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>40305.92492563707</v>
+        <v>42778.56934454939</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>40377.78888974354</v>
+        <v>42854.84194163224</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>40450.68146349041</v>
+        <v>42932.20625039044</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>40524.61721837735</v>
+        <v>43010.67773624041</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>40599.61092830497</v>
+        <v>43090.27207941612</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>40675.67757228618</v>
+        <v>43171.00517784668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>40752.83233719091</v>
+        <v>43252.89315006985</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>40831.09062052608</v>
+        <v>43335.95233818214</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>40910.46803324996</v>
+        <v>43420.19931082614</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>40990.98040262214</v>
+        <v>43505.65086621495</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>41072.64377508883</v>
+        <v>43592.32403519499</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>41155.47441920489</v>
+        <v>43680.23608434683</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>41239.48882859175</v>
+        <v>43769.40451912479</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>41324.7037249327</v>
+        <v>43859.84708703597</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>41411.13606100551</v>
+        <v>43951.58178085886</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>41498.80302375287</v>
+        <v>44044.6268419022</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>41587.72203739097</v>
+        <v>44139.0007633042</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>41677.91076655722</v>
+        <v>44234.72229337336</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>41769.38711949669</v>
+        <v>44331.81043897053</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>41862.16925128848</v>
+        <v>44430.2844689329</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>41956.27556711213</v>
+        <v>44530.16391754126</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>42051.72472555475</v>
+        <v>44631.46858802952</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>42148.53564195896</v>
+        <v>44734.21855613836</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>42246.7274918129</v>
+        <v>44838.4341737131</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>42346.31971418174</v>
+        <v>44944.13607234573</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>42447.33201518223</v>
+        <v>45051.34516706252</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>42549.78437150009</v>
+        <v>45160.08266005751</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>42653.69703395144</v>
+        <v>45270.37004447188</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>42759.0905310875</v>
+        <v>45382.22910822041</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>42865.98567284538</v>
+        <v>45495.68193786569</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>42974.40355424277</v>
+        <v>45610.75092253996</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>43084.36555911952</v>
+        <v>45727.45875791562</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>43195.89336392489</v>
+        <v>45845.82845022542</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>43309.00894155208</v>
+        <v>45965.88332033208</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>43423.73456522082</v>
+        <v>46087.64700784852</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>43540.09281240725</v>
+        <v>46211.14347530978</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>43658.1065688233</v>
+        <v>46336.39701239573</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>43777.79903244557</v>
+        <v>46463.43224020729</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>43899.1937175938</v>
+        <v>46592.27411559551</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>44022.3144590608</v>
+        <v>46722.94793554415</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>44147.18541629314</v>
+        <v>46855.47934160764</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>44273.83107762471</v>
+        <v>46989.89432440373</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>44402.27626456247</v>
+        <v>47126.21922816231</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>44532.54613612643</v>
+        <v>47264.48075533202</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>44664.66619324357</v>
+        <v>47404.70597124307</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>44798.66228319691</v>
+        <v>47546.92230882974</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>44934.56060413051</v>
+        <v>47691.15757341158</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>45072.3877096113</v>
+        <v>47837.4399475352</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>45212.17051324817</v>
+        <v>47985.7979958764</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>45353.93629336951</v>
+        <v>48136.26067020511</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>45497.71269776014</v>
+        <v>48288.85731441265</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>45643.52774845793</v>
+        <v>48443.61766960273</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>45791.40984661209</v>
+        <v>48600.57187924751</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>45941.38777740259</v>
+        <v>48759.7504944092</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>46093.4907150233</v>
+        <v>48921.18447902858</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>46247.74822772835</v>
+        <v>49084.9052152813</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>46404.1902829442</v>
+        <v>49250.9445090031</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>46562.84725244695</v>
+        <v>49419.33459518495</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>46723.74991760704</v>
+        <v>49590.10814353977</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>46886.92947470236</v>
+        <v>49763.29826414103</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>47052.41754030048</v>
+        <v>49938.93851313531</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>47220.24615671123</v>
+        <v>50117.06289852958</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>47390.44779751142</v>
+        <v>50297.70588605465</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>47563.05537314245</v>
+        <v>50480.90240510611</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>47738.10223658215</v>
+        <v>50666.68785476434</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>47915.62218909232</v>
+        <v>50855.09810989453</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>48095.64948604354</v>
+        <v>51046.16952732878</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>48278.21884281818</v>
+        <v>51239.93895213129</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>48463.36544079376</v>
+        <v>51436.4437239488</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>48651.12493340759</v>
+        <v>51635.72168344716</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>48841.53345230463</v>
+        <v>51837.81117883674</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>49034.6276135702</v>
+        <v>52042.75107248678</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>49230.44452404908</v>
+        <v>52250.58074763283</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>49429.02178775295</v>
+        <v>52461.34011517693</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>49630.39751235792</v>
+        <v>52675.06962058385</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>49834.61031579404</v>
+        <v>52891.81025087463</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>50041.69933292858</v>
+        <v>53111.60354172023</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>50251.70422234556</v>
+        <v>53334.49158463687</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>50464.66517322351</v>
+        <v>53560.51703428533</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>50680.62291231286</v>
+        <v>53789.72311587682</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>50899.6187110167</v>
+        <v>54022.15363268791</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>51121.69439257582</v>
+        <v>54257.85297368663</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>51346.89233936145</v>
+        <v>54496.86612127213</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>51575.25550027794</v>
+        <v>54739.23865913168</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>51806.82739827753</v>
+        <v>54985.01678021688</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>52041.6521379909</v>
+        <v>55234.24729484171</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>52279.77441347564</v>
+        <v>55486.97763890646</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>52521.23951608541</v>
+        <v>55743.25588225004</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>52766.09334246381</v>
+        <v>56003.13073713387</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>53014.38240266517</v>
+        <v>56266.65156686078</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>53266.15382840556</v>
+        <v>56533.86839453276</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>53521.45538144882</v>
+        <v>56804.83191195063</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>53780.33546212892</v>
+        <v>57079.59348865996</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>54042.84311801451</v>
+        <v>57358.2051811468</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>54309.02805271817</v>
+        <v>57640.71974218717</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>54578.94063485474</v>
+        <v>57927.1906303556</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>54852.63190715294</v>
+        <v>58217.67201969492</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>55130.15359572471</v>
+        <v>58512.21880955492</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>55411.55811949636</v>
+        <v>58810.88663460159</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>55696.89859980631</v>
+        <v>59113.73187500407</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>55986.22887017504</v>
+        <v>59420.81166680342</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>56279.60348625045</v>
+        <v>59732.18391246874</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>56577.07773593618</v>
+        <v>60047.90729164622</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>56878.70764970632</v>
+        <v>60368.0412721073</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>57184.55001111358</v>
+        <v>60692.64612090057</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>57494.66236749547</v>
+        <v>61021.78291571571</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>57809.10304088618</v>
+        <v>61355.51355646421</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>58127.93113913888</v>
+        <v>61693.90077708392</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>58451.20656726618</v>
+        <v>62037.00815757566</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>58778.99003900497</v>
+        <v>62384.90013627721</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>59111.343088613</v>
+        <v>62737.64202238353</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>59448.32808290467</v>
+        <v>63095.30000872118</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>59790.00823353323</v>
+        <v>63457.94118478364</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>60136.44760952806</v>
+        <v>63825.63355003814</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>60487.71115009443</v>
+        <v>64198.44602751022</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>60843.86467768547</v>
+        <v>64576.4484776579</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>61204.97491135402</v>
+        <v>64959.71171254248</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>61571.10948039455</v>
+        <v>65348.30751030758</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>61942.33693828437</v>
+        <v>65742.3086299752</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>62318.72677693422</v>
+        <v>66141.78882657092</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>62700.34944125842</v>
+        <v>66546.82286658774</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>63087.27634407569</v>
+        <v>66957.48654380091</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>63479.57988135161</v>
+        <v>67373.85669544563</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>63877.33344779395</v>
+        <v>67796.01121876917</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>64280.61145281385</v>
+        <v>68224.02908797089</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>64689.48933686392</v>
+        <v>68657.99037154294</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>65104.04358816759</v>
+        <v>69097.97625002581</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>65524.35175985218</v>
+        <v>69544.06903419252</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>65950.4924875</v>
+        <v>69996.35218367616</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>66382.5455071316</v>
+        <v>70454.91032605675</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>66820.59167363643</v>
+        <v>70919.82927642237</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>67264.71297966606</v>
+        <v>71391.19605742123</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>67714.9925750062</v>
+        <v>71869.0989198225</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>68171.51478644426</v>
+        <v>72353.62736360246</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>68634.36513814876</v>
+        <v>72844.87215957408</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>69103.63037258004</v>
+        <v>73342.92537158052</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>69579.39847194862</v>
+        <v>73847.88037927017</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>70061.7586802421</v>
+        <v>74359.83190147451</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>70550.80152583939</v>
+        <v>74878.87602020979</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>71046.61884473247</v>
+        <v>75405.11020532348</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>71549.30380437775</v>
+        <v>75938.63333980861</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>72058.95092819777</v>
+        <v>76479.54574580869</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>72575.65612075628</v>
+        <v>77027.94921133728</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>73099.5166936302</v>
+        <v>77583.94701773688</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>73630.63139200209</v>
+        <v>78147.6439679031</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>74169.1004219981</v>
+        <v>78719.14641529952</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>74715.02547879731</v>
+        <v>79298.5622937913</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>75268.50977553854</v>
+        <v>79886.00114832567</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>75829.65807305231</v>
+        <v>80481.57416648757</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>76398.57671044578</v>
+        <v>81085.39421096102</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>76975.37363656992</v>
+        <v>81697.57585292676</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>77560.15844239901</v>
+        <v>82318.23540642801</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>78153.04239435305</v>
+        <v>82947.49096373697</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>78754.13846859465</v>
+        <v>83585.4624317562</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>79363.56138633395</v>
+        <v>84232.27156948886</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>79981.42765017413</v>
+        <v>84888.04202661416</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>80607.85558153327</v>
+        <v>85552.89938320503</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>81242.96535917695</v>
+        <v>86226.97119062435</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>81886.87905889974</v>
+        <v>86910.38701364095</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>82539.72069439154</v>
+        <v>87603.27847380268</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>83201.61625932844</v>
+        <v>88305.77929410995</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>83872.69377072788</v>
+        <v>89018.02534503007</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>84553.08331360776</v>
+        <v>89740.1546918964</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>85242.91708699224</v>
+        <v>90472.30764373632</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>85942.32945130703</v>
+        <v>91214.62680357379</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>86651.45697720614</v>
+        <v>91967.25712025235</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>87370.43849587775</v>
+        <v>92730.34594182612</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>88099.41515087316</v>
+        <v>93504.04307056872</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>88838.53045150566</v>
+        <v>94288.50081964795</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>89587.93032786786</v>
+        <v>95083.87407151863</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>90347.76318751698</v>
+        <v>95890.32033808452</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>91118.17997387612</v>
+        <v>96707.99982268317</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>91899.33422640389</v>
+        <v>97537.07548394649</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>92691.38214258477</v>
+        <v>98377.71310159359</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>93494.48264179043</v>
+        <v>99230.08134421038</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>94308.79743106816</v>
+        <v>100094.3518390738</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>95134.4910729097</v>
+        <v>100970.699244078</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>95971.73105505682</v>
+        <v>101859.3013218218</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>96820.68786239794</v>
+        <v>102760.339015917</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>97681.53505101401</v>
+        <v>103673.9965295757</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>98554.44932443147</v>
+        <v>104600.4614065418</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>99439.61061213919</v>
+        <v>105539.9246144246</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>100337.2021504289</v>
+        <v>106492.5806304978</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>101247.4105656176</v>
+        <v>107458.6275300289</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>102170.4259597125</v>
+        <v>108438.2670771977</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>103106.4419985759</v>
+        <v>109431.7048186712</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>104055.6560026546</v>
+        <v>110439.1501798983</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>105018.2690403276</v>
+        <v>111460.8165641839</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>105994.4860239377</v>
+        <v>112496.9214546123</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>106984.5158085632</v>
+        <v>113547.6865188778</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>107988.5712935918</v>
+        <v>114613.3377170905</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>109006.8695271529</v>
+        <v>115694.1054126141</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>110039.6318134699</v>
+        <v>116790.2244860047</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>111087.0838231873</v>
+        <v>117901.9344521065</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>112149.4557067317</v>
+        <v>119029.4795803663</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>113226.9822107604</v>
+        <v>120173.109018426</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>114319.9027977522</v>
+        <v>121333.0769190504</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>115428.4617687937</v>
+        <v>122509.6425704457</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>116552.9083896103</v>
+        <v>123703.0705300222</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>117693.4970198917</v>
+        <v>124913.6307616536</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>118850.4872459573</v>
+        <v>126141.5987764808</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>120024.1440168046</v>
+        <v>127387.2557773069</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>121214.7377835823</v>
+        <v>128650.888806626</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>122422.5446425236</v>
+        <v>129932.7908983252</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>123647.8464813735</v>
+        <v>131233.2612330949</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>124890.9311293412</v>
+        <v>132552.6052975801</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>126152.0925105985</v>
+        <v>133891.1350472961</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>127431.6308013493</v>
+        <v>135249.1690733326</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>128729.8525904808</v>
+        <v>136627.0327728614</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>130047.0710438071</v>
+        <v>138025.0585234552</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>131383.6060719086</v>
+        <v>139443.5858612236</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>132739.7845015613</v>
+        <v>140882.9616627594</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>134115.9402507468</v>
+        <v>142343.5403308845</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>135512.4145072234</v>
+        <v>143825.6839841755</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>136929.5559106292</v>
+        <v>145329.7626502394</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>138367.7207380838</v>
+        <v>146856.1544627004</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>139827.2730932404</v>
+        <v>148405.2458618501</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>141308.5850987322</v>
+        <v>149977.4317988991</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>142812.0370919462</v>
+        <v>151573.1159437627</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>144338.0178240463</v>
+        <v>153192.7108962921</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>145886.9246621522</v>
+        <v>154836.6384008565</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>147459.1637945716</v>
+        <v>156505.3295641657</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>149055.1504389656</v>
+        <v>158199.2250762064</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>150675.3090533154</v>
+        <v>159918.77543415</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>152320.0735495386</v>
+        <v>161664.4411690749</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>153989.8875095942</v>
+        <v>163436.6930753275</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>155685.2044038872</v>
+        <v>165236.0124423264</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>157406.487811777</v>
+        <v>167062.8912885973</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>159154.2116439657</v>
+        <v>168917.8325978055</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>160928.8603665257</v>
+        <v>170801.3505565254</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>162730.9292263067</v>
+        <v>172713.9707934761</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>164560.9244774332</v>
+        <v>174656.2306199147</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>166419.3636085897</v>
+        <v>176628.679270863</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>168306.7755707585</v>
+        <v>178631.8781468183</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>170223.7010050529</v>
+        <v>180666.4010555615</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>172170.6924702627</v>
+        <v>182732.8344536633</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>174148.3146696996</v>
+        <v>184831.7776872454</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>176157.144676904</v>
+        <v>186963.8432315334</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>178197.7721597418</v>
+        <v>189129.6569287014</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>180270.7996023917</v>
+        <v>191329.8582234778</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>182376.8425246905</v>
+        <v>193565.1003959469</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>184516.5296982726</v>
+        <v>195836.0507909473</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>186690.5033589037</v>
+        <v>198143.3910434315</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>188899.4194143754</v>
+        <v>200487.8172991153</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>191143.9476472925</v>
+        <v>202870.0404297045</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>193424.7719120458</v>
+        <v>205290.7862419516</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>195742.5903252292</v>
+        <v>207750.7956797542</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>198098.1154487164</v>
+        <v>210250.8250184641</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>200492.0744645814</v>
+        <v>212791.6460505362</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>202925.2093409959</v>
+        <v>215374.0462616067</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>205398.2769882123</v>
+        <v>217998.8289960407</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>207912.0494036815</v>
+        <v>220666.8136109567</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>210467.3138053312</v>
+        <v>223378.8356176792</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>213064.8727519771</v>
+        <v>226135.7468095364</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>215705.5442498043</v>
+        <v>228938.4153748749</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>218390.1618438121</v>
+        <v>231787.7259941138</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>221119.574693075</v>
+        <v>234684.5799196228</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>223894.6476286328</v>
+        <v>237629.8950371634</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>226716.2611927798</v>
+        <v>240624.6059075895</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>229585.3116584891</v>
+        <v>243669.663787462</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>232502.7110276618</v>
+        <v>246766.0366271911</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>235469.387006859</v>
+        <v>249914.7090452793</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>238486.28295914</v>
+        <v>253116.6822772063</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>241554.3578305904</v>
+        <v>256372.9740974476</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>244674.5860500929</v>
+        <v>259684.6187130981</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>247847.9574008714</v>
+        <v>263052.6666275361</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>251075.4768622995</v>
+        <v>266478.1844725258</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>254358.1644204474</v>
+        <v>269962.2548071432</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>257697.0548458225</v>
+        <v>273505.9758818803</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>261093.197436732</v>
+        <v>277110.461366266</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>264547.6557266923</v>
+        <v>280776.8400383239</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>268061.5071542939</v>
+        <v>284506.2554341852</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>271635.842693928</v>
+        <v>288299.8654561615</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>275271.7664457828</v>
+        <v>292158.8419375892</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>278970.3951835218</v>
+        <v>296084.3701627576</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>282732.8578580705</v>
+        <v>300077.6483402564</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>286560.2950559503</v>
+        <v>304139.8870280794</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>290453.8584106338</v>
+        <v>308272.3085088674</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>294414.7099654211</v>
+        <v>312476.1461136995</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>298444.0214863736</v>
+        <v>316752.6434928783</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>302542.9737238997</v>
+        <v>321103.0538322148</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>306712.7556216367</v>
+        <v>325528.6390133778</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>310954.563471336</v>
+        <v>330030.6687169362</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>315269.6000125463</v>
+        <v>334610.4194668072</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>319659.073475956</v>
+        <v>339269.1736149127</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>324124.1965693621</v>
+        <v>344008.2182649396</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>328666.1854053412</v>
+        <v>348828.8441342273</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>333286.2583697947</v>
+        <v>353732.3443529022</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>337985.6349306949</v>
+        <v>358720.0131995425</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>342765.5343864626</v>
+        <v>363793.1447727734</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>347627.174553588</v>
+        <v>368953.0315983786</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>352571.7703932406</v>
+        <v>374200.9631716546</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>357600.5325767986</v>
+        <v>379538.2244349424</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>362714.66599041</v>
+        <v>384966.0941904457</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>367915.3681788848</v>
+        <v>390485.8434486625</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>373203.8277294277</v>
+        <v>396098.733712963</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>378581.2225959378</v>
+        <v>401806.0152010925</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>384048.718364826</v>
+        <v>407608.9250046</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>389607.466463534</v>
+        <v>413508.6851874563</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>395258.6023131948</v>
+        <v>419506.5008253857</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>401003.2434271208</v>
+        <v>425603.5579877014</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>406842.4874570754</v>
+        <v>431801.0216637248</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>412777.4101895579</v>
+        <v>438100.0336361447</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>418809.0634946011</v>
+        <v>444501.7103039828</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>424938.4732298753</v>
+        <v>451007.1404581182</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>431166.6371031786</v>
+        <v>457617.3830126533</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>437494.5224966909</v>
+        <v>464333.4646956848</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>443923.0642566463</v>
+        <v>471156.3777033868</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>450453.162452405</v>
+        <v>478087.0773216033</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>457085.6801091749</v>
+        <v>485126.4795194823</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>463821.4409189417</v>
+        <v>492275.4585199777</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>470661.2269344451</v>
+        <v>499534.8443523562</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>477605.776251336</v>
+        <v>506905.4203921661</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>484655.7806839114</v>
+        <v>514387.9208943802</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>491811.8834401011</v>
+        <v>521983.0285257566</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>499074.6768016313</v>
+        <v>529691.3719026812</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>506444.6998155321</v>
+        <v>537513.52314106</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>513922.4360033834</v>
+        <v>545449.9954250338</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>521508.3110949049</v>
+        <v>553501.2406015298</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>529202.6907926792</v>
+        <v>561667.6468078581</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>537005.8785749733</v>
+        <v>569949.5361397436</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>544918.1135437624</v>
+        <v>578347.1623673313</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>552939.5683251782</v>
+        <v>586860.7087068351</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>551546.1503592361</v>
+        <v>585381.8088380942</v>
       </c>
       <c r="C358" t="n">
-        <v>9524.196670467645</v>
+        <v>9648.301437308586</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>550135.7182971154</v>
+        <v>583884.8511107493</v>
       </c>
       <c r="C359" t="n">
-        <v>19174.7649823706</v>
+        <v>19424.62119803925</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>548707.9359637384</v>
+        <v>582369.4787264174</v>
       </c>
       <c r="C360" t="n">
-        <v>28952.00234644349</v>
+        <v>29329.26056832849</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>547262.4571616047</v>
+        <v>580835.3242494451</v>
       </c>
       <c r="C361" t="n">
-        <v>38856.1419931421</v>
+        <v>39362.45581773478</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>545798.9253833327</v>
+        <v>579282.0093018222</v>
       </c>
       <c r="C362" t="n">
-        <v>48887.35153320328</v>
+        <v>49524.37674104178</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>544316.9735179174</v>
+        <v>577709.1442514133</v>
       </c>
       <c r="C363" t="n">
-        <v>59045.73162111091</v>
+        <v>59815.12530430865</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>542816.223551055</v>
+        <v>576116.3278939002</v>
       </c>
       <c r="C364" t="n">
-        <v>69331.3147283211</v>
+        <v>70234.7344021099</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>541296.2862599859</v>
+        <v>574503.1471289052</v>
       </c>
       <c r="C365" t="n">
-        <v>79744.0640328452</v>
+        <v>80783.16673264901</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>539756.7609034104</v>
+        <v>572869.1766308837</v>
       </c>
       <c r="C366" t="n">
-        <v>90283.87243151906</v>
+        <v>91460.3137971572</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>538197.234907132</v>
+        <v>571213.9785154823</v>
       </c>
       <c r="C367" t="n">
-        <v>100950.5616809699</v>
+        <v>102265.9950296666</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>536617.2835462129</v>
+        <v>569537.102002196</v>
       </c>
       <c r="C368" t="n">
-        <v>111743.881672893</v>
+        <v>113199.9570628435</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>535016.4696245489</v>
+        <v>567838.0830742847</v>
       </c>
       <c r="C369" t="n">
-        <v>122663.5098488553</v>
+        <v>124261.8731351666</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>533394.3431529192</v>
+        <v>566116.4441370746</v>
       </c>
       <c r="C370" t="n">
-        <v>133709.050759345</v>
+        <v>135451.3426442309</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>531750.4410267189</v>
+        <v>564371.6936759191</v>
       </c>
       <c r="C371" t="n">
-        <v>144880.035771282</v>
+        <v>146767.8908504464</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>530084.2867047463</v>
+        <v>562603.3259152797</v>
       </c>
       <c r="C372" t="n">
-        <v>156175.922927635</v>
+        <v>158210.9687348266</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>528395.3898905922</v>
+        <v>560810.8204805735</v>
       </c>
       <c r="C373" t="n">
-        <v>156175.025299989</v>
+        <v>158210.0594106697</v>
       </c>
       <c r="D373" t="n">
-        <v>11421.07166217851</v>
+        <v>12525.3417161311</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>526683.2462183782</v>
+        <v>558993.642064627</v>
       </c>
       <c r="C374" t="n">
-        <v>156173.9866233498</v>
+        <v>158209.0071995849</v>
       </c>
       <c r="D374" t="n">
-        <v>22965.88284833731</v>
+        <v>25186.38696932843</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>524947.3369447771</v>
+        <v>557151.2401008066</v>
       </c>
       <c r="C375" t="n">
-        <v>156172.7862875664</v>
+        <v>158207.7912228612</v>
       </c>
       <c r="D375" t="n">
-        <v>34633.69295990205</v>
+        <v>37982.32355470503</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>523187.1286494759</v>
+        <v>555283.048445105</v>
       </c>
       <c r="C376" t="n">
-        <v>156171.4009271525</v>
+        <v>158206.3878105488</v>
       </c>
       <c r="D376" t="n">
-        <v>46423.69183961894</v>
+        <v>50912.26298326901</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>521402.072946459</v>
+        <v>553388.4850697136</v>
       </c>
       <c r="C377" t="n">
-        <v>156169.8040930613</v>
+        <v>158204.7701689575</v>
       </c>
       <c r="D377" t="n">
-        <v>58335.00075154362</v>
+        <v>63975.24155666468</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>519591.6062087301</v>
+        <v>551466.9517708543</v>
       </c>
       <c r="C378" t="n">
-        <v>156167.9658913196</v>
+        <v>158202.9080145816</v>
       </c>
       <c r="D378" t="n">
-        <v>70366.67355374906</v>
+        <v>77170.22165326608</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>517755.1493093324</v>
+        <v>549517.8338939142</v>
       </c>
       <c r="C379" t="n">
-        <v>156165.8525860158</v>
+        <v>158200.7671719147</v>
       </c>
       <c r="D379" t="n">
-        <v>82517.69806474255</v>
+        <v>90496.09322670892</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>515892.1073817875</v>
+        <v>547540.5000791877</v>
       </c>
       <c r="C380" t="n">
-        <v>156163.4261640645</v>
+        <v>158198.3091325429</v>
       </c>
       <c r="D380" t="n">
-        <v>94786.99762378035</v>
+        <v>103951.6755170675</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>514001.8696033382</v>
+        <v>545534.3020318224</v>
       </c>
       <c r="C381" t="n">
-        <v>156160.6438591148</v>
+        <v>158195.4905728498</v>
       </c>
       <c r="D381" t="n">
-        <v>107173.4328444319</v>
+        <v>117535.7189739657</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>512083.809004653</v>
+        <v>543498.5743198475</v>
       </c>
       <c r="C382" t="n">
-        <v>156157.4576319293</v>
+        <v>158192.2628276239</v>
       </c>
       <c r="D382" t="n">
-        <v>119675.8035598631</v>
+        <v>131246.9073899446</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>510137.2823099214</v>
+        <v>541432.6342044616</v>
       </c>
       <c r="C383" t="n">
-        <v>156153.8136045473</v>
+        <v>158188.5713168494</v>
       </c>
       <c r="D383" t="n">
-        <v>119675.5794164918</v>
+        <v>131246.6615748056</v>
       </c>
       <c r="E383" t="n">
-        <v>12617.27154091486</v>
+        <v>14792.36548681183</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>508161.6298115648</v>
+        <v>539335.7815070582</v>
       </c>
       <c r="C384" t="n">
-        <v>156149.6514455541</v>
+        <v>158184.3549229649</v>
       </c>
       <c r="D384" t="n">
-        <v>119675.3121940665</v>
+        <v>131246.3685154246</v>
       </c>
       <c r="E384" t="n">
-        <v>25347.94770495521</v>
+        <v>29717.68544224445</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>506156.175284063</v>
+        <v>537207.2985177615</v>
       </c>
       <c r="C385" t="n">
-        <v>156144.9037038226</v>
+        <v>158179.5453159233</v>
       </c>
       <c r="D385" t="n">
-        <v>119674.9941458251</v>
+        <v>131246.0197160279</v>
       </c>
       <c r="E385" t="n">
-        <v>38190.66727746384</v>
+        <v>44774.36399157561</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>504120.2259416766</v>
+        <v>535046.4499505608</v>
       </c>
       <c r="C386" t="n">
-        <v>156139.4950881636</v>
+        <v>158174.0662234558</v>
       </c>
       <c r="D386" t="n">
-        <v>119674.6162381413</v>
+        <v>131245.6052695541</v>
       </c>
       <c r="E386" t="n">
-        <v>51144.01918541974</v>
+        <v>59960.74680662612</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>502053.0724451456</v>
+        <v>532852.4829504155</v>
       </c>
       <c r="C387" t="n">
-        <v>156133.3416904388</v>
+        <v>158167.8326440614</v>
       </c>
       <c r="D387" t="n">
-        <v>119674.1679568662</v>
+        <v>131245.1136452721</v>
       </c>
       <c r="E387" t="n">
-        <v>64206.5455389947</v>
+        <v>75275.1246716508</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>499953.988962702</v>
+        <v>530624.6271580133</v>
       </c>
       <c r="C388" t="n">
-        <v>156126.350149843</v>
+        <v>158160.7500003999</v>
       </c>
       <c r="D388" t="n">
-        <v>119673.6370881322</v>
+        <v>131244.5314483911</v>
       </c>
       <c r="E388" t="n">
-        <v>77376.7448609234</v>
+        <v>90715.73726942047</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>497822.2332910107</v>
+        <v>528362.0948381288</v>
       </c>
       <c r="C389" t="n">
-        <v>156118.4167562684</v>
+        <v>158152.7132309717</v>
       </c>
       <c r="D389" t="n">
-        <v>119673.0094708617</v>
+        <v>131243.8431486402</v>
       </c>
       <c r="E389" t="n">
-        <v>90653.07549788662</v>
+        <v>106280.7771806942</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>495657.047041911</v>
+        <v>526064.0810778231</v>
       </c>
       <c r="C390" t="n">
-        <v>156109.4264909161</v>
+        <v>158143.6058182291</v>
       </c>
       <c r="D390" t="n">
-        <v>119672.2687180259</v>
+        <v>131243.0307745767</v>
       </c>
       <c r="E390" t="n">
-        <v>104033.9592072042</v>
+        <v>121968.3940892228</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>493457.6559010688</v>
+        <v>523729.76406096</v>
       </c>
       <c r="C391" t="n">
-        <v>156099.2520026332</v>
+        <v>158133.2987515735</v>
       </c>
       <c r="D391" t="n">
-        <v>119671.395903502</v>
+        <v>131242.0735701663</v>
       </c>
       <c r="E391" t="n">
-        <v>117517.7849112014</v>
+        <v>137776.6991833312</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>491223.2699648645</v>
+        <v>521358.3054257656</v>
       </c>
       <c r="C392" t="n">
-        <v>156087.7525188227</v>
+        <v>158121.6494240747</v>
       </c>
       <c r="D392" t="n">
-        <v>119670.3692111852</v>
+        <v>131240.9476099687</v>
       </c>
       <c r="E392" t="n">
-        <v>131102.9126106759</v>
+        <v>153703.7697440292</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>488953.0841620579</v>
+        <v>518948.8507123571</v>
       </c>
       <c r="C393" t="n">
-        <v>156074.7726902138</v>
+        <v>158108.5004621878</v>
       </c>
       <c r="D393" t="n">
-        <v>119669.1635428303</v>
+        <v>131239.6253690627</v>
       </c>
       <c r="E393" t="n">
-        <v>131102.7507757251</v>
+        <v>153703.5800103192</v>
       </c>
       <c r="F393" t="n">
-        <v>13684.92667219096</v>
+        <v>12477.97423064338</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>486646.278766911</v>
+        <v>516500.5299073452</v>
       </c>
       <c r="C394" t="n">
-        <v>156060.1413692787</v>
+        <v>158093.6784882521</v>
       </c>
       <c r="D394" t="n">
-        <v>119667.7500809278</v>
+        <v>131238.0752436582</v>
       </c>
       <c r="E394" t="n">
-        <v>131102.5547672297</v>
+        <v>153703.3502118803</v>
       </c>
       <c r="F394" t="n">
-        <v>27467.83914152586</v>
+        <v>25045.29232706106</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>484302.0200106152</v>
+        <v>514012.4580927725</v>
       </c>
       <c r="C395" t="n">
-        <v>156043.6703226621</v>
+        <v>158076.9928161431</v>
       </c>
       <c r="D395" t="n">
-        <v>119666.0958027695</v>
+        <v>131236.2610181775</v>
       </c>
       <c r="E395" t="n">
-        <v>131102.317819907</v>
+        <v>153703.0724171616</v>
       </c>
       <c r="F395" t="n">
-        <v>41347.04233221064</v>
+        <v>37700.40871194858</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>481919.4607979497</v>
+        <v>511483.7362067336</v>
       </c>
       <c r="C396" t="n">
-        <v>156025.1528786389</v>
+        <v>158058.2340811059</v>
       </c>
       <c r="D396" t="n">
-        <v>119664.1629417313</v>
+        <v>131234.1412744521</v>
       </c>
       <c r="E396" t="n">
-        <v>131102.0319274743</v>
+        <v>153702.7372396757</v>
       </c>
       <c r="F396" t="n">
-        <v>55320.83052702446</v>
+        <v>50441.76810510342</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>479497.7415361566</v>
+        <v>508913.4519231005</v>
       </c>
       <c r="C397" t="n">
-        <v>156004.3625113406</v>
+        <v>158037.172805533</v>
       </c>
       <c r="D397" t="n">
-        <v>119661.9083917051</v>
+        <v>131231.6687385702</v>
       </c>
       <c r="E397" t="n">
-        <v>131101.687635372</v>
+        <v>153702.3335949895</v>
       </c>
       <c r="F397" t="n">
-        <v>69387.49212039993</v>
+        <v>63267.80985730368</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>477035.9910830332</v>
+        <v>506300.6806577789</v>
       </c>
       <c r="C398" t="n">
-        <v>155981.0513642979</v>
+        <v>158013.5579032688</v>
       </c>
       <c r="D398" t="n">
-        <v>119659.2830505525</v>
+        <v>131228.789560851</v>
       </c>
       <c r="E398" t="n">
-        <v>131101.2738028634</v>
+        <v>153701.8484218126</v>
       </c>
       <c r="F398" t="n">
-        <v>83545.31448875707</v>
+        <v>76176.97239109922</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>474533.3278211897</v>
+        <v>503644.4867088659</v>
       </c>
       <c r="C399" t="n">
-        <v>155954.9487167308</v>
+        <v>157987.1151259142</v>
       </c>
       <c r="D399" t="n">
-        <v>119656.2310984364</v>
+        <v>131225.4425244008</v>
       </c>
       <c r="E399" t="n">
-        <v>131100.7773307245</v>
+        <v>153701.2663627431</v>
       </c>
       <c r="F399" t="n">
-        <v>97792.58896609486</v>
+        <v>89167.69773757725</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>471988.8608653232</v>
+        <v>500943.9245379872</v>
       </c>
       <c r="C400" t="n">
-        <v>155925.7593969778</v>
+        <v>157957.5454555819</v>
       </c>
       <c r="D400" t="n">
-        <v>119652.6892069268</v>
+        <v>131221.5581777482</v>
       </c>
       <c r="E400" t="n">
-        <v>131100.1828504054</v>
+        <v>153700.5693998437</v>
       </c>
       <c r="F400" t="n">
-        <v>112127.6159120279</v>
+        <v>102238.4361574196</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>469401.6914091882</v>
+        <v>498198.0401999015</v>
       </c>
       <c r="C401" t="n">
-        <v>155893.162148496</v>
+        <v>157924.5234496047</v>
       </c>
       <c r="D401" t="n">
-        <v>119648.585674869</v>
+        <v>131217.0578871636</v>
       </c>
       <c r="E401" t="n">
-        <v>131099.4723701962</v>
+        <v>153699.7364398103</v>
       </c>
       <c r="F401" t="n">
-        <v>126548.7098586812</v>
+        <v>115387.6508338631</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>466770.9142187194</v>
+        <v>495405.8729272196</v>
       </c>
       <c r="C402" t="n">
-        <v>155856.8079549758</v>
+        <v>157887.6955438265</v>
       </c>
       <c r="D402" t="n">
-        <v>119643.8394871756</v>
+        <v>131211.8528044474</v>
       </c>
       <c r="E402" t="n">
-        <v>131098.624873587</v>
+        <v>153698.7428430924</v>
       </c>
       <c r="F402" t="n">
-        <v>141054.2047219803</v>
+        <v>128613.8226243765</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>464095.619277444</v>
+        <v>492566.4568767598</v>
       </c>
       <c r="C403" t="n">
-        <v>155816.3183322968</v>
+        <v>157846.6783223004</v>
       </c>
       <c r="D403" t="n">
-        <v>119638.3592929423</v>
+        <v>131205.8427462434</v>
       </c>
       <c r="E403" t="n">
-        <v>131097.6158646633</v>
+        <v>153697.55989092</v>
       </c>
       <c r="F403" t="n">
-        <v>141054.0812296754</v>
+        <v>128613.7100235687</v>
       </c>
       <c r="G403" t="n">
-        <v>14588.37783237004</v>
+        <v>9407.880085329012</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>461374.8935899542</v>
+        <v>489678.8230436571</v>
       </c>
       <c r="C404" t="n">
-        <v>155771.2835962977</v>
+        <v>157801.0567624879</v>
       </c>
       <c r="D404" t="n">
-        <v>119632.0422996225</v>
+        <v>131198.9149812938</v>
       </c>
       <c r="E404" t="n">
-        <v>131096.4168550458</v>
+        <v>153696.1541837965</v>
       </c>
       <c r="F404" t="n">
-        <v>141053.9296290535</v>
+        <v>128613.5717934781</v>
       </c>
       <c r="G404" t="n">
-        <v>29257.93174743422</v>
+        <v>18868.10970948671</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>458607.8231487291</v>
+        <v>486742.0013488419</v>
       </c>
       <c r="C405" t="n">
-        <v>155721.261116635</v>
+        <v>157750.3824663634</v>
       </c>
       <c r="D405" t="n">
-        <v>119624.7730804205</v>
+        <v>131190.9429225231</v>
       </c>
       <c r="E405" t="n">
-        <v>131094.9947865623</v>
+        <v>153694.4869646448</v>
       </c>
       <c r="F405" t="n">
-        <v>141053.7439137648</v>
+        <v>128613.4024574894</v>
       </c>
       <c r="G405" t="n">
-        <v>44007.09149568758</v>
+        <v>28379.67623630365</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>455793.4950690605</v>
+        <v>483755.0229049399</v>
       </c>
       <c r="C406" t="n">
-        <v>155665.7735683578</v>
+        <v>157694.1718892072</v>
       </c>
       <c r="D406" t="n">
-        <v>119616.422292599</v>
+        <v>131181.7847214228</v>
       </c>
       <c r="E406" t="n">
-        <v>131093.3113835457</v>
+        <v>153692.5133594479</v>
       </c>
       <c r="F406" t="n">
-        <v>141053.5168856565</v>
+        <v>128613.1954522967</v>
       </c>
       <c r="G406" t="n">
-        <v>58834.32857263938</v>
+        <v>37941.59395049852</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>452930.9998961968</v>
+        <v>480716.9224649496</v>
       </c>
       <c r="C407" t="n">
-        <v>155604.3071942117</v>
+        <v>157631.9045792661</v>
       </c>
       <c r="D407" t="n">
-        <v>119606.8453050399</v>
+        <v>131171.2817629145</v>
       </c>
       <c r="E407" t="n">
-        <v>131091.3224283922</v>
+        <v>153690.1815279206</v>
       </c>
       <c r="F407" t="n">
-        <v>141053.2399386949</v>
+        <v>128612.9429308814</v>
       </c>
       <c r="G407" t="n">
-        <v>73738.16172004027</v>
+        <v>47552.90760535745</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>450019.434088087</v>
+        <v>477626.7410572972</v>
       </c>
       <c r="C408" t="n">
-        <v>155536.310092099</v>
+        <v>157563.0214428982</v>
       </c>
       <c r="D408" t="n">
-        <v>119595.8807341674</v>
+        <v>131159.2570597157</v>
       </c>
       <c r="E408" t="n">
-        <v>131088.9769538027</v>
+        <v>153687.4317165009</v>
       </c>
       <c r="F408" t="n">
-        <v>141052.9028080106</v>
+        <v>128612.6355336924</v>
       </c>
       <c r="G408" t="n">
-        <v>88717.16242018953</v>
+        <v>57212.69596595062</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>447057.902676298</v>
+        <v>474483.5288099909</v>
       </c>
       <c r="C409" t="n">
-        <v>155461.1905435425</v>
+        <v>157486.9230512559</v>
       </c>
       <c r="D409" t="n">
-        <v>119583.3488882367</v>
+        <v>131145.5135462119</v>
       </c>
       <c r="E409" t="n">
-        <v>131086.2163449724</v>
+        <v>153684.1952057663</v>
       </c>
       <c r="F409" t="n">
-        <v>141052.4932792973</v>
+        <v>128612.2621236732</v>
       </c>
       <c r="G409" t="n">
-        <v>103769.960366714</v>
+        <v>66920.07533717586</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>444045.5221067574</v>
+        <v>471286.3479656354</v>
       </c>
       <c r="C410" t="n">
-        <v>155378.3154004158</v>
+        <v>157402.9680059945</v>
       </c>
       <c r="D410" t="n">
-        <v>119569.0501210267</v>
+        <v>131129.8322729724</v>
       </c>
       <c r="E410" t="n">
-        <v>131082.9733449134</v>
+        <v>153680.3931442833</v>
       </c>
       <c r="F410" t="n">
-        <v>141051.9968532959</v>
+        <v>128611.8094803379</v>
       </c>
       <c r="G410" t="n">
-        <v>118895.2488944232</v>
+        <v>76674.20306541101</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>440981.4232609748</v>
+        <v>468034.276087997</v>
       </c>
       <c r="C411" t="n">
-        <v>155287.0085485966</v>
+        <v>157310.4713829067</v>
       </c>
       <c r="D411" t="n">
-        <v>119552.7630971434</v>
+        <v>131111.97050433</v>
       </c>
       <c r="E411" t="n">
-        <v>131079.170956097</v>
+        <v>153675.935260904</v>
       </c>
       <c r="F411" t="n">
-        <v>141051.3963595902</v>
+        <v>128611.261947628</v>
       </c>
       <c r="G411" t="n">
-        <v>134091.7903501381</v>
+        <v>86474.28100210028</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>437864.7546572973</v>
+        <v>464726.4094596446</v>
       </c>
       <c r="C412" t="n">
-        <v>155186.5494685439</v>
+        <v>157208.7032737424</v>
       </c>
       <c r="D412" t="n">
-        <v>119534.2429724547</v>
+        <v>131091.6597228891</v>
       </c>
       <c r="E412" t="n">
-        <v>131074.7212317093</v>
+        <v>153670.7184476456</v>
       </c>
       <c r="F412" t="n">
-        <v>141050.6715134079</v>
+        <v>128610.6010298021</v>
       </c>
       <c r="G412" t="n">
-        <v>149358.4213854907</v>
+        <v>96319.55891702158</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>434694.6858305606</v>
+        <v>461361.866668932</v>
       </c>
       <c r="C413" t="n">
-        <v>155076.171914082</v>
+        <v>157096.8874477773</v>
       </c>
       <c r="D413" t="n">
-        <v>119513.2194946376</v>
+        <v>131068.6035464191</v>
       </c>
       <c r="E413" t="n">
-        <v>131069.5239500369</v>
+        <v>153664.6252055539</v>
       </c>
       <c r="F413" t="n">
-        <v>141049.7984085842</v>
+        <v>128609.8049291176</v>
       </c>
       <c r="G413" t="n">
-        <v>149358.3213152663</v>
+        <v>96319.49438286414</v>
       </c>
       <c r="H413" t="n">
-        <v>15335.7368365923</v>
+        <v>9991.868392263759</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>431470.4108872275</v>
+        <v>457939.7923832349</v>
       </c>
       <c r="C414" t="n">
-        <v>154955.0627318684</v>
+        <v>156974.2001558984</v>
       </c>
       <c r="D414" t="n">
-        <v>119489.3950304171</v>
+        <v>131042.4755643529</v>
       </c>
       <c r="E414" t="n">
-        <v>131063.4651658622</v>
+        <v>153657.5219463724</v>
       </c>
       <c r="F414" t="n">
-        <v>141048.7489393094</v>
+        <v>128608.848018578</v>
       </c>
       <c r="G414" t="n">
-        <v>149358.1971315221</v>
+        <v>96319.41429817016</v>
       </c>
       <c r="H414" t="n">
-        <v>30739.50424506315</v>
+        <v>20028.06152275848</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>428191.1522317505</v>
+        <v>454459.3613039121</v>
       </c>
       <c r="C415" t="n">
-        <v>154822.3608451012</v>
+        <v>156839.7691010672</v>
       </c>
       <c r="D415" t="n">
-        <v>119462.4425278148</v>
+        <v>131012.9171030119</v>
       </c>
       <c r="E415" t="n">
-        <v>131056.4156332595</v>
+        <v>153649.2571434448</v>
       </c>
       <c r="F415" t="n">
-        <v>141047.490142749</v>
+        <v>128607.7002425307</v>
       </c>
       <c r="G415" t="n">
-        <v>149358.0433740261</v>
+        <v>96319.31514169772</v>
       </c>
       <c r="H415" t="n">
-        <v>46210.39792460196</v>
+        <v>30107.99020201236</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>424856.1644584393</v>
+        <v>450919.782296929</v>
       </c>
       <c r="C416" t="n">
-        <v>154677.1564259631</v>
+        <v>156692.6725999819</v>
       </c>
       <c r="D416" t="n">
-        <v>119432.0034236005</v>
+        <v>130979.5349307347</v>
       </c>
       <c r="E416" t="n">
-        <v>131048.2290948706</v>
+        <v>153639.6593260777</v>
       </c>
       <c r="F416" t="n">
-        <v>141045.9834541191</v>
+        <v>128606.3264374423</v>
       </c>
       <c r="G416" t="n">
-        <v>149357.85343276</v>
+        <v>96319.19265072068</v>
       </c>
       <c r="H416" t="n">
-        <v>61747.60900787919</v>
+        <v>40231.12741942333</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>421464.7384016325</v>
+        <v>447320.3026914942</v>
       </c>
       <c r="C417" t="n">
-        <v>154518.4902820784</v>
+        <v>156531.9389615385</v>
       </c>
       <c r="D417" t="n">
-        <v>119397.685508131</v>
+        <v>130941.8989162736</v>
       </c>
       <c r="E417" t="n">
-        <v>131038.7404336133</v>
+        <v>153628.5349126224</v>
       </c>
       <c r="F417" t="n">
-        <v>141044.183865326</v>
+        <v>128604.6855647417</v>
       </c>
       <c r="G417" t="n">
-        <v>149357.6193261645</v>
+        <v>96319.0416780215</v>
       </c>
       <c r="H417" t="n">
-        <v>77350.42886711752</v>
+        <v>50397.01147461366</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>418016.2053353736</v>
+        <v>443660.2127373719</v>
       </c>
       <c r="C418" t="n">
-        <v>154345.3534828433</v>
+        <v>156356.5461082924</v>
       </c>
       <c r="D418" t="n">
-        <v>119359.0607618666</v>
+        <v>130899.5396561295</v>
       </c>
       <c r="E418" t="n">
-        <v>131027.7636838549</v>
+        <v>153615.665878794</v>
       </c>
       <c r="F418" t="n">
-        <v>141042.0389778551</v>
+        <v>128602.7298472409</v>
       </c>
       <c r="G418" t="n">
-        <v>149357.3314411466</v>
+        <v>96318.85602422517</v>
       </c>
       <c r="H418" t="n">
-        <v>93018.25374512178</v>
+        <v>60605.248994738</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>414509.9413121834</v>
+        <v>439938.8502098261</v>
       </c>
       <c r="C419" t="n">
-        <v>154156.6872518601</v>
+        <v>156165.4214674908</v>
       </c>
       <c r="D419" t="n">
-        <v>119315.6631800511</v>
+        <v>130851.9460889083</v>
       </c>
       <c r="E419" t="n">
-        <v>131015.0899003894</v>
+        <v>153600.8072592806</v>
       </c>
       <c r="F419" t="n">
-        <v>141039.487940241</v>
+        <v>128600.4038003156</v>
       </c>
       <c r="G419" t="n">
-        <v>149356.9782292102</v>
+        <v>96318.62824183695</v>
       </c>
       <c r="H419" t="n">
-        <v>108750.5891900107</v>
+        <v>70855.51782389496</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>410945.3716288375</v>
+        <v>436155.6051493587</v>
       </c>
       <c r="C420" t="n">
-        <v>153951.38315183</v>
+        <v>155957.4421583752</v>
       </c>
       <c r="D420" t="n">
-        <v>119266.9866043132</v>
+        <v>130798.5631172641</v>
       </c>
       <c r="E420" t="n">
-        <v>131000.4848850908</v>
+        <v>153583.6844824951</v>
       </c>
       <c r="F420" t="n">
-        <v>141036.4602601877</v>
+        <v>128597.6431487908</v>
       </c>
       <c r="G420" t="n">
-        <v>149356.5458524243</v>
+        <v>96318.34940693156</v>
       </c>
       <c r="H420" t="n">
-        <v>124547.0542715327</v>
+        <v>81147.56977023173</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>407321.9754053603</v>
+        <v>432309.9247216106</v>
       </c>
       <c r="C421" t="n">
-        <v>153728.2835881141</v>
+        <v>155731.4355023032</v>
       </c>
       <c r="D421" t="n">
-        <v>119212.4825822598</v>
+        <v>130738.7892605442</v>
       </c>
       <c r="E421" t="n">
-        <v>130983.6867729074</v>
+        <v>153563.9905404175</v>
       </c>
       <c r="F421" t="n">
-        <v>141032.8744812525</v>
+        <v>128594.3736203364</v>
       </c>
       <c r="G421" t="n">
-        <v>149356.0177722693</v>
+        <v>96318.00885400441</v>
       </c>
       <c r="H421" t="n">
-        <v>140407.385555948</v>
+        <v>91481.23319574437</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>403639.2902617187</v>
+        <v>428401.3181809578</v>
       </c>
       <c r="C422" t="n">
-        <v>153486.1826567294</v>
+        <v>155486.1798817955</v>
       </c>
       <c r="D422" t="n">
-        <v>119151.5582784713</v>
+        <v>130671.9743638043</v>
       </c>
       <c r="E422" t="n">
-        <v>130964.4034809023</v>
+        <v>153541.3829978752</v>
       </c>
       <c r="F422" t="n">
-        <v>141028.6367139936</v>
+        <v>128590.509606161</v>
       </c>
       <c r="G422" t="n">
-        <v>149355.3742736856</v>
+        <v>96317.59386903617</v>
       </c>
       <c r="H422" t="n">
-        <v>156331.4408154649</v>
+        <v>101856.4154331297</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>399896.9170749778</v>
+        <v>424429.3619195012</v>
       </c>
       <c r="C423" t="n">
-        <v>153223.8273617931</v>
+        <v>155220.4059738429</v>
       </c>
       <c r="D423" t="n">
-        <v>119083.5744626313</v>
+        <v>130597.4173914159</v>
       </c>
       <c r="E423" t="n">
-        <v>130942.310026355</v>
+        <v>153515.4808483121</v>
       </c>
       <c r="F423" t="n">
-        <v>141023.6390116272</v>
+        <v>128585.9526799287</v>
       </c>
       <c r="G423" t="n">
-        <v>149354.5919159185</v>
+        <v>96317.08933534911</v>
       </c>
       <c r="H423" t="n">
-        <v>172319.2024472224</v>
+        <v>112273.1050133939</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>396094.5247979479</v>
+        <v>420393.7045813255</v>
       </c>
       <c r="C424" t="n">
-        <v>152939.919226329</v>
+        <v>154932.7983817029</v>
       </c>
       <c r="D424" t="n">
-        <v>119007.8436027945</v>
+        <v>130514.3643359786</v>
       </c>
       <c r="E424" t="n">
-        <v>130917.045722513</v>
+        <v>153485.8612261149</v>
       </c>
       <c r="F424" t="n">
-        <v>141017.7575805765</v>
+        <v>128580.5899661306</v>
       </c>
       <c r="G424" t="n">
-        <v>149353.6429010046</v>
+        <v>96316.47732635048</v>
       </c>
       <c r="H424" t="n">
-        <v>188370.7805756647</v>
+        <v>122731.3736871784</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>392231.8553186777</v>
+        <v>416294.0722201059</v>
       </c>
       <c r="C425" t="n">
-        <v>152633.1163188975</v>
+        <v>154621.9976879372</v>
       </c>
       <c r="D425" t="n">
-        <v>118923.6280939852</v>
+        <v>130422.0062756464</v>
       </c>
       <c r="E425" t="n">
-        <v>130888.2112634159</v>
+        <v>153452.0559888896</v>
       </c>
       <c r="F425" t="n">
-        <v>141010.8508168532</v>
+        <v>128574.2923496492</v>
       </c>
       <c r="G425" t="n">
-        <v>149352.4943499891</v>
+        <v>96315.73663877367</v>
       </c>
       <c r="H425" t="n">
-        <v>204486.4158110508</v>
+        <v>133231.3782220427</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>388308.7283384825</v>
+        <v>412130.2734763881</v>
       </c>
       <c r="C426" t="n">
-        <v>152302.0357166885</v>
+        <v>154286.6029496006</v>
       </c>
       <c r="D426" t="n">
-        <v>118830.138654365</v>
+        <v>130319.4776152256</v>
       </c>
       <c r="E426" t="n">
-        <v>130855.3657123047</v>
+        <v>153413.5481867013</v>
       </c>
       <c r="F426" t="n">
-        <v>141002.7571600197</v>
+        <v>128566.9125189918</v>
       </c>
       <c r="G426" t="n">
-        <v>149351.1074762311</v>
+        <v>96314.84225955218</v>
       </c>
       <c r="H426" t="n">
-        <v>220666.4816355642</v>
+        <v>143773.3619571149</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>384325.0462446173</v>
+        <v>407902.2047491857</v>
       </c>
       <c r="C427" t="n">
-        <v>151945.2564235105</v>
+        <v>153925.1746542521</v>
       </c>
       <c r="D427" t="n">
-        <v>118726.5329230846</v>
+        <v>130205.8545484574</v>
       </c>
       <c r="E427" t="n">
-        <v>130818.0234114551</v>
+        <v>153369.7684391945</v>
       </c>
       <c r="F427" t="n">
-        <v>140993.2927575661</v>
+        <v>128558.2828366593</v>
       </c>
       <c r="G427" t="n">
-        <v>149349.4366444417</v>
+        <v>96313.76475900352</v>
       </c>
       <c r="H427" t="n">
-        <v>236911.4863872565</v>
+        <v>154357.6560957118</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>380280.7989521935</v>
+        <v>403609.8553349334</v>
       </c>
       <c r="C428" t="n">
-        <v>151561.322758512</v>
+        <v>153536.2381528334</v>
       </c>
       <c r="D428" t="n">
-        <v>118611.9142955788</v>
+        <v>130080.1537807003</v>
       </c>
       <c r="E428" t="n">
-        <v>130775.6508348242</v>
+        <v>153320.0912456659</v>
       </c>
       <c r="F428" t="n">
-        <v>140982.2489339332</v>
+        <v>128548.2130313911</v>
       </c>
       <c r="G428" t="n">
-        <v>149347.4283034419</v>
+        <v>96312.46960257743</v>
       </c>
       <c r="H428" t="n">
-        <v>253222.0748107137</v>
+        <v>164984.6807156634</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>376176.0686885272</v>
+        <v>399253.3125053397</v>
       </c>
       <c r="C429" t="n">
-        <v>151148.7482284898</v>
+        <v>153118.2875824346</v>
       </c>
       <c r="D429" t="n">
-        <v>118485.3310334271</v>
+        <v>129941.3315527265</v>
       </c>
       <c r="E429" t="n">
-        <v>130727.6634086299</v>
+        <v>153263.8312575427</v>
       </c>
       <c r="F429" t="n">
-        <v>140969.3894601499</v>
+        <v>128536.4877086085</v>
       </c>
       <c r="G429" t="n">
-        <v>149345.0197800493</v>
+        <v>96310.91637304638</v>
       </c>
       <c r="H429" t="n">
-        <v>269599.0291419503</v>
+        <v>175654.9454761659</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>372011.0346918132</v>
+        <v>394832.7664943115</v>
       </c>
       <c r="C430" t="n">
-        <v>150706.0198932611</v>
+        <v>152669.7902885505</v>
       </c>
       <c r="D430" t="n">
-        <v>118345.7756869427</v>
+        <v>129788.283007482</v>
       </c>
       <c r="E430" t="n">
-        <v>130673.4223288742</v>
+        <v>153200.2395472793</v>
       </c>
       <c r="F430" t="n">
-        <v>140954.4476221494</v>
+        <v>128522.8636772933</v>
       </c>
       <c r="G430" t="n">
-        <v>149342.1379210174</v>
+        <v>96309.05789470786</v>
       </c>
       <c r="H430" t="n">
-        <v>286043.2696936494</v>
+        <v>186369.0499990898</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>367785.9777948667</v>
+        <v>390348.5153628921</v>
       </c>
       <c r="C431" t="n">
-        <v>150231.6032298313</v>
+        <v>152189.1917526294</v>
       </c>
       <c r="D431" t="n">
-        <v>118192.1848693024</v>
+        <v>129619.8419423781</v>
       </c>
       <c r="E431" t="n">
-        <v>130612.2314088223</v>
+        <v>153128.4999123711</v>
       </c>
       <c r="F431" t="n">
-        <v>140937.1230883205</v>
+        <v>128507.0670938074</v>
       </c>
       <c r="G431" t="n">
-        <v>149338.697569609</v>
+        <v>96306.83925094403</v>
       </c>
       <c r="H431" t="n">
-        <v>302555.854905425</v>
+        <v>197127.6839017283</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>363501.2848636684</v>
+        <v>385800.9697100994</v>
       </c>
       <c r="C432" t="n">
-        <v>149723.9474969679</v>
+        <v>151674.9210265501</v>
       </c>
       <c r="D432" t="n">
-        <v>118023.439421253</v>
+        <v>129434.780989923</v>
       </c>
       <c r="E432" t="n">
-        <v>130543.3339934986</v>
+        <v>153047.7252579413</v>
       </c>
       <c r="F432" t="n">
-        <v>140917.0785797412</v>
+        <v>128488.7904257982</v>
       </c>
       <c r="G432" t="n">
-        <v>149334.5998632064</v>
+        <v>96304.19668636947</v>
       </c>
       <c r="H432" t="n">
-        <v>319137.9808223338</v>
+        <v>207931.6264570254</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>359157.453059627</v>
+        <v>381190.6571966641</v>
       </c>
       <c r="C433" t="n">
-        <v>149181.4915973392</v>
+        <v>151125.3966711477</v>
       </c>
       <c r="D433" t="n">
-        <v>117838.3650051654</v>
+        <v>129231.8122692129</v>
       </c>
       <c r="E433" t="n">
-        <v>130465.9099823196</v>
+        <v>152956.9541061039</v>
       </c>
       <c r="F433" t="n">
-        <v>140893.9363498596</v>
+        <v>128467.689242356</v>
       </c>
       <c r="G433" t="n">
-        <v>149329.730338386</v>
+        <v>96301.05638481511</v>
       </c>
       <c r="H433" t="n">
-        <v>335790.9799634599</v>
+        <v>218781.7458564129</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>354755.0938938399</v>
+        <v>376518.2268480072</v>
       </c>
       <c r="C434" t="n">
-        <v>148602.6704296031</v>
+        <v>150539.0331910728</v>
       </c>
       <c r="D434" t="n">
-        <v>117635.7331664143</v>
+        <v>129009.5885499336</v>
       </c>
       <c r="E434" t="n">
-        <v>130379.0730049594</v>
+        <v>152855.1472849764</v>
       </c>
       <c r="F434" t="n">
-        <v>140867.274484129</v>
+        <v>128443.3788400063</v>
       </c>
       <c r="G434" t="n">
-        <v>149323.9568301559</v>
+        <v>96297.33311457044</v>
       </c>
       <c r="H434" t="n">
-        <v>352516.3195409634</v>
+        <v>229678.9980494461</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>350294.9370412012</v>
+        <v>371784.4531023313</v>
       </c>
       <c r="C435" t="n">
-        <v>147985.9217177806</v>
+        <v>149914.2479531548</v>
       </c>
       <c r="D435" t="n">
-        <v>117414.262898696</v>
+        <v>128766.704969024</v>
       </c>
       <c r="E435" t="n">
-        <v>130281.8677993768</v>
+        <v>152741.1848547049</v>
       </c>
       <c r="F435" t="n">
-        <v>140836.6230342764</v>
+        <v>128415.4307179188</v>
       </c>
       <c r="G435" t="n">
-        <v>149317.1271526141</v>
+        <v>96292.92873266643</v>
       </c>
       <c r="H435" t="n">
-        <v>369315.5989886813</v>
+        <v>240624.4251335848</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>345777.8338820118</v>
+        <v>366990.2395694977</v>
       </c>
       <c r="C436" t="n">
-        <v>147329.6932999577</v>
+        <v>149249.4685700793</v>
       </c>
       <c r="D436" t="n">
-        <v>117172.6227479167</v>
+        <v>128501.7013379838</v>
       </c>
       <c r="E436" t="n">
-        <v>130173.267844536</v>
+        <v>152613.8633320883</v>
       </c>
       <c r="F436" t="n">
-        <v>140801.4600064708</v>
+        <v>128383.3689199027</v>
       </c>
       <c r="G436" t="n">
-        <v>149309.0665491747</v>
+        <v>96287.73054055452</v>
       </c>
       <c r="H436" t="n">
-        <v>386190.5467580599</v>
+        <v>251619.1532666101</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>341204.7607387818</v>
+        <v>362136.6224663969</v>
       </c>
       <c r="C437" t="n">
-        <v>146632.4508528762</v>
+        <v>148543.1407256335</v>
       </c>
       <c r="D437" t="n">
-        <v>116909.4334866681</v>
+        <v>128213.0650759356</v>
       </c>
       <c r="E437" t="n">
-        <v>130052.1733036291</v>
+        <v>152471.893279233</v>
       </c>
       <c r="F437" t="n">
-        <v>140761.2072276467</v>
+        <v>128346.6662653024</v>
       </c>
       <c r="G437" t="n">
-        <v>149299.5749017691</v>
+        <v>96281.60948435281</v>
       </c>
       <c r="H437" t="n">
-        <v>403143.0163381163</v>
+        <v>262664.3900734655</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>336576.8217762051</v>
+        <v>357224.7736948282</v>
       </c>
       <c r="C438" t="n">
-        <v>145892.6860233522</v>
+        <v>147793.7364120816</v>
       </c>
       <c r="D438" t="n">
-        <v>116623.2713880155</v>
+        <v>127899.2347999469</v>
       </c>
       <c r="E438" t="n">
-        <v>129917.409336477</v>
+        <v>152313.8973250283</v>
       </c>
       <c r="F438" t="n">
-        <v>140715.226119591</v>
+        <v>128304.7404957928</v>
       </c>
       <c r="G438" t="n">
-        <v>149288.423690122</v>
+        <v>96274.41819391683</v>
       </c>
       <c r="H438" t="n">
-        <v>420174.9814550925</v>
+        <v>273761.4215186315</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>331895.251532839</v>
+        <v>352256.0035284889</v>
       </c>
       <c r="C439" t="n">
-        <v>145108.9249317605</v>
+        <v>146999.7625444524</v>
       </c>
       <c r="D439" t="n">
-        <v>116312.6721233615</v>
+        <v>127558.6045997658</v>
       </c>
       <c r="E439" t="n">
-        <v>129767.7248421323</v>
+        <v>152138.408690986</v>
       </c>
       <c r="F439" t="n">
-        <v>140662.8134160806</v>
+        <v>128256.9503702461</v>
       </c>
       <c r="G439" t="n">
-        <v>149275.3526943434</v>
+        <v>96265.9888563788</v>
       </c>
       <c r="H439" t="n">
-        <v>437288.5304067314</v>
+        <v>284911.6082146713</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>327161.4170538437</v>
+        <v>347231.7628765517</v>
       </c>
       <c r="C440" t="n">
-        <v>144279.7370071035</v>
+        <v>146159.7699107352</v>
       </c>
       <c r="D440" t="n">
-        <v>115976.1353044892</v>
+        <v>127189.5290190219</v>
       </c>
       <c r="E440" t="n">
-        <v>129601.791694447</v>
+        <v>151943.8702950279</v>
       </c>
       <c r="F440" t="n">
-        <v>140603.1968643023</v>
+        <v>128202.5917452692</v>
       </c>
       <c r="G440" t="n">
-        <v>149260.0664367377</v>
+        <v>96256.13092151034</v>
       </c>
       <c r="H440" t="n">
-        <v>454485.8594855263</v>
+        <v>296116.3811372063</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>322376.8195952364</v>
+        <v>342153.645092469</v>
       </c>
       <c r="C441" t="n">
-        <v>143403.7441075248</v>
+        <v>145272.3624112362</v>
       </c>
       <c r="D441" t="n">
-        <v>115612.1296845588</v>
+        <v>126790.3287590919</v>
       </c>
       <c r="E441" t="n">
-        <v>129418.2045343835</v>
+        <v>151728.6345079928</v>
       </c>
       <c r="F441" t="n">
-        <v>140535.5309579273</v>
+        <v>128140.8936846025</v>
       </c>
       <c r="G441" t="n">
-        <v>149242.2303619252</v>
+        <v>96244.62863832597</v>
       </c>
       <c r="H441" t="n">
-        <v>471769.2654451086</v>
+        <v>307377.2367164536</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>317543.0958714966</v>
+        <v>337023.3872981148</v>
       </c>
       <c r="C442" t="n">
-        <v>142479.6298745854</v>
+        <v>144336.2065347459</v>
       </c>
       <c r="D442" t="n">
-        <v>115219.0990268306</v>
+        <v>126359.2971152521</v>
       </c>
       <c r="E442" t="n">
-        <v>129215.4811830543</v>
+        <v>151490.9636378804</v>
       </c>
       <c r="F442" t="n">
-        <v>140458.8927554656</v>
+        <v>128071.0146462776</v>
       </c>
       <c r="G442" t="n">
-        <v>149221.4667581419</v>
+        <v>96231.23842477535</v>
       </c>
       <c r="H442" t="n">
-        <v>489141.1369640446</v>
+        <v>318695.7312755384</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>312662.0188200182</v>
+        <v>331842.871195135</v>
       </c>
       <c r="C443" t="n">
-        <v>141506.149264292</v>
+        <v>143350.041013762</v>
       </c>
       <c r="D443" t="n">
-        <v>114795.4686432588</v>
+        <v>125894.7071474698</v>
       </c>
       <c r="E443" t="n">
-        <v>128992.0637387675</v>
+        <v>151229.0312160171</v>
       </c>
       <c r="F443" t="n">
-        <v>140372.2778437861</v>
+        <v>127992.0388021378</v>
       </c>
       <c r="G443" t="n">
-        <v>149197.3504269519</v>
+        <v>96215.68607518989</v>
       </c>
       <c r="H443" t="n">
-        <v>506603.9450618728</v>
+        <v>330073.4747861415</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>307735.4978578543</v>
+        <v>326614.1233374411</v>
       </c>
       <c r="C444" t="n">
-        <v>140482.1381928129</v>
+        <v>142312.6865958921</v>
       </c>
       <c r="D444" t="n">
-        <v>114339.6525978807</v>
+        <v>125394.8195802669</v>
       </c>
       <c r="E444" t="n">
-        <v>128746.3204196485</v>
+        <v>150940.9241573267</v>
       </c>
       <c r="F444" t="n">
-        <v>140274.5965128521</v>
+        <v>127902.9725499462</v>
       </c>
       <c r="G444" t="n">
-        <v>149169.4041135889</v>
+        <v>96197.66381336152</v>
       </c>
       <c r="H444" t="n">
-        <v>524160.2324232758</v>
+        <v>341512.1239127577</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>302765.5786084051</v>
+        <v>321339.3148411312</v>
       </c>
       <c r="C445" t="n">
-        <v>139406.5232301237</v>
+        <v>141223.0558638132</v>
       </c>
       <c r="D445" t="n">
-        <v>113850.0615621729</v>
+        <v>124857.8914175882</v>
       </c>
       <c r="E445" t="n">
-        <v>128476.5482106182</v>
+        <v>150624.6458636227</v>
       </c>
       <c r="F445" t="n">
-        <v>140164.6702136493</v>
+        <v>127802.7412837085</v>
       </c>
       <c r="G445" t="n">
-        <v>149137.0937157388</v>
+        <v>96176.82720274069</v>
       </c>
       <c r="H445" t="n">
-        <v>541812.6015878965</v>
+        <v>353013.3743178696</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>297754.4420781979</v>
+        <v>316020.7605107696</v>
       </c>
       <c r="C446" t="n">
-        <v>138278.3312705756</v>
+        <v>140080.1630318518</v>
       </c>
       <c r="D446" t="n">
-        <v>113325.1113013346</v>
+        <v>124282.1852495981</v>
       </c>
       <c r="E446" t="n">
-        <v>128180.9763695751</v>
+        <v>150278.120334221</v>
       </c>
       <c r="F446" t="n">
-        <v>140041.2283768447</v>
+        <v>127690.1864929138</v>
       </c>
       <c r="G446" t="n">
-        <v>149099.8232947797</v>
+        <v>96152.79192924136</v>
       </c>
       <c r="H446" t="n">
-        <v>559563.701965571</v>
+        <v>364578.9522018338</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>292704.4032666369</v>
+        <v>310660.9173638477</v>
       </c>
       <c r="C447" t="n">
-        <v>137096.699105642</v>
+        <v>138883.1336434678</v>
       </c>
       <c r="D447" t="n">
-        <v>112763.2317618642</v>
+        <v>123665.9792189088</v>
       </c>
       <c r="E447" t="n">
-        <v>127857.7708424829</v>
+        <v>149899.1973421461</v>
       </c>
       <c r="F447" t="n">
-        <v>139902.905674754</v>
+        <v>127564.0632659835</v>
       </c>
       <c r="G447" t="n">
-        <v>149056.9299202818</v>
+        <v>96125.13047651725</v>
       </c>
       <c r="H447" t="n">
-        <v>577416.2156397436</v>
+        <v>376210.6050532175</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>287617.9091945929</v>
+        <v>305262.3825384338</v>
       </c>
       <c r="C448" t="n">
-        <v>135860.8828209574</v>
+        <v>137631.2140907412</v>
       </c>
       <c r="D448" t="n">
-        <v>112162.876721923</v>
+        <v>123007.577604009</v>
       </c>
       <c r="E448" t="n">
-        <v>127505.039630688</v>
+        <v>149485.6587267207</v>
       </c>
       <c r="F448" t="n">
-        <v>139748.2398135509</v>
+        <v>127423.0382771997</v>
       </c>
       <c r="G448" t="n">
-        <v>149007.6783858935</v>
+        <v>96093.36871829655</v>
       </c>
       <c r="H448" t="n">
-        <v>595372.8419256225</v>
+        <v>387910.0915877973</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>282497.5363409039</v>
+        <v>299827.8905724111</v>
       </c>
       <c r="C449" t="n">
-        <v>134570.2669372838</v>
+        <v>136323.7808744498</v>
       </c>
       <c r="D449" t="n">
-        <v>111522.5339569358</v>
+        <v>122305.3219677471</v>
       </c>
       <c r="E449" t="n">
-        <v>127120.8391461473</v>
+        <v>149035.2258443731</v>
       </c>
       <c r="F449" t="n">
-        <v>139575.6699461624</v>
+        <v>127265.6883395757</v>
       </c>
       <c r="G449" t="n">
-        <v>148951.2558425452</v>
+        <v>96056.98245739566</v>
       </c>
       <c r="H449" t="n">
-        <v>613436.2806543617</v>
+        <v>399679.1708575079</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>277345.9874792732</v>
+        <v>294360.3100463298</v>
       </c>
       <c r="C450" t="n">
-        <v>133224.3732132912</v>
+        <v>134960.3495215538</v>
       </c>
       <c r="D450" t="n">
-        <v>110840.7358637791</v>
+        <v>121557.6028087408</v>
       </c>
       <c r="E450" t="n">
-        <v>126703.181581353</v>
+        <v>148545.5682090647</v>
       </c>
       <c r="F450" t="n">
-        <v>139383.5357987846</v>
+        <v>127090.4996084092</v>
       </c>
       <c r="G450" t="n">
-        <v>148886.7664031053</v>
+        <v>96015.39394632247</v>
       </c>
       <c r="H450" t="n">
-        <v>631609.2141601362</v>
+        <v>411519.5905142796</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>272166.087911648</v>
+        <v>288862.6395857145</v>
       </c>
       <c r="C451" t="n">
-        <v>131822.8690270776</v>
+        <v>133540.5830759315</v>
       </c>
       <c r="D451" t="n">
-        <v>110116.0704778904</v>
+        <v>120762.8716436991</v>
       </c>
       <c r="E451" t="n">
-        <v>126250.0433106153</v>
+        <v>148014.3133418712</v>
       </c>
       <c r="F451" t="n">
-        <v>139170.0776052548</v>
+        <v>126895.8675214433</v>
       </c>
       <c r="G451" t="n">
-        <v>148813.2257811181</v>
+        <v>95967.96842985961</v>
       </c>
       <c r="H451" t="n">
-        <v>649894.2879538009</v>
+        <v>423433.0742181201</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>266960.78109791</v>
+        <v>283338.0032226493</v>
       </c>
       <c r="C452" t="n">
-        <v>130365.5752532366</v>
+        <v>132064.3000780877</v>
       </c>
       <c r="D452" t="n">
-        <v>109347.1928088271</v>
+        <v>119919.6534389826</v>
       </c>
       <c r="E452" t="n">
-        <v>125759.3743280672</v>
+        <v>147439.057836007</v>
       </c>
       <c r="F452" t="n">
-        <v>138933.4369434653</v>
+        <v>126680.0975615113</v>
       </c>
       <c r="G452" t="n">
-        <v>148729.5560349305</v>
+        <v>95914.01075561038</v>
       </c>
       <c r="H452" t="n">
-        <v>668294.0900745789</v>
+        <v>435421.3081838876</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>40784.29618366806</v>
+        <v>72114.86845643715</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>40831.96721114341</v>
+        <v>72199.16045598732</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>40880.32323404615</v>
+        <v>72284.66366572774</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>40929.37402882271</v>
+        <v>72371.39537238918</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>40979.1295096084</v>
+        <v>72459.37310616417</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>41029.59973011738</v>
+        <v>72548.61464404879</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>41080.79488555698</v>
+        <v>72639.13801322764</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>41132.72531456708</v>
+        <v>72730.96149450299</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>41185.40150118493</v>
+        <v>72824.10362576906</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>41238.83407683537</v>
+        <v>72918.58320553102</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>41293.03382234688</v>
+        <v>73014.41929646982</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>41348.011669994</v>
+        <v>73111.63122905382</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>41403.77870556615</v>
+        <v>73210.2386051963</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>41460.34617046314</v>
+        <v>73310.26130196149</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>41517.72546381802</v>
+        <v>73411.71947531759</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>41575.92814464717</v>
+        <v>73514.633563939</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>41634.96593402833</v>
+        <v>73619.02429305707</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>41694.85071730648</v>
+        <v>73724.912678361</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>41755.59454632838</v>
+        <v>73832.32002994863</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>41817.20964170563</v>
+        <v>73941.26795632826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>41879.70839510715</v>
+        <v>74051.77836847182</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>41943.10337158055</v>
+        <v>74163.87348391998</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>42007.40731190375</v>
+        <v>74277.57583093985</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>42072.63313496653</v>
+        <v>74392.90825273648</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42138.79394018239</v>
+        <v>74509.89391171731</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42205.90300993158</v>
+        <v>74628.55629381166</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>42273.97381203484</v>
+        <v>74748.91921284537</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>42343.02000225909</v>
+        <v>74871.00681497085</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>42413.05542685477</v>
+        <v>74994.84358315401</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>42484.09412512548</v>
+        <v>75120.45434171749</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>42556.15033203033</v>
+        <v>75247.86426094259</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>42629.23848081931</v>
+        <v>75377.09886172877</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42703.37320570182</v>
+        <v>75508.1840203124</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42778.56934454939</v>
+        <v>75641.14597304547</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>42854.84194163224</v>
+        <v>75776.01132123452</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>42932.20625039044</v>
+        <v>75912.80703604099</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>43010.67773624041</v>
+        <v>76051.5604634427</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>43090.27207941612</v>
+        <v>76192.29932925869</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>43171.00517784668</v>
+        <v>76335.05174423671</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>43252.89315006985</v>
+        <v>76479.84620920544</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>43335.95233818214</v>
+        <v>76626.71162029018</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>43420.19931082614</v>
+        <v>76775.67727419565</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>43505.65086621495</v>
+        <v>76926.77287355356</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>43592.32403519499</v>
+        <v>77080.02853233827</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>43680.23608434683</v>
+        <v>77235.47478134968</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>43769.40451912479</v>
+        <v>77393.14257376468</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>43859.84708703597</v>
+        <v>77553.06329075835</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>43951.58178085886</v>
+        <v>77715.26874719532</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>44044.6268419022</v>
+        <v>77879.7911973914</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>44139.0007633042</v>
+        <v>78046.66334094819</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>44234.72229337336</v>
+        <v>78215.9183286597</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>44331.81043897053</v>
+        <v>78387.58976849246</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>44430.2844689329</v>
+        <v>78561.71173164053</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>44530.16391754126</v>
+        <v>78738.31875865546</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>44631.46858802952</v>
+        <v>78917.44586565235</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>44734.21855613836</v>
+        <v>79099.12855059316</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>44838.4341737131</v>
+        <v>79283.40279964884</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>44944.13607234573</v>
+        <v>79470.30509363864</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>45051.34516706252</v>
+        <v>79659.87241455105</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>45160.08266005751</v>
+        <v>79852.14225214503</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>45270.37004447188</v>
+        <v>80047.15261063269</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>45382.22910822041</v>
+        <v>80244.9420154457</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>45495.68193786569</v>
+        <v>80445.54952008519</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>45610.75092253996</v>
+        <v>80649.01471305621</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>45727.45875791562</v>
+        <v>80855.37772488919</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>45845.82845022542</v>
+        <v>81064.67923524772</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>45965.88332033208</v>
+        <v>81276.96048012454</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>46087.64700784852</v>
+        <v>81492.2632591275</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>46211.14347530978</v>
+        <v>81710.62994285535</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>46336.39701239573</v>
+        <v>81932.10348036543</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>46463.43224020729</v>
+        <v>82156.72740673424</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>46592.27411559551</v>
+        <v>82384.54585071219</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>46722.94793554415</v>
+        <v>82615.60354247339</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>46855.47934160764</v>
+        <v>82849.94582146169</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>46989.89432440373</v>
+        <v>83087.61864433585</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>47126.21922816231</v>
+        <v>83328.66859301266</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>47264.48075533202</v>
+        <v>83573.14288281108</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>47404.70597124307</v>
+        <v>83821.08937069839</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>47546.92230882974</v>
+        <v>84072.55656364029</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>47691.15757341158</v>
+        <v>84327.59362705456</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>47837.4399475352</v>
+        <v>84586.25039337244</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>47985.7979958764</v>
+        <v>84848.577370707</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>48136.26067020511</v>
+        <v>85114.62575163179</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>48288.85731441265</v>
+        <v>85384.44742206976</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>48443.61766960273</v>
+        <v>85658.09497029641</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>48600.57187924751</v>
+        <v>85935.62169605489</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>48759.7504944092</v>
+        <v>86217.08161979038</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>48921.18447902858</v>
+        <v>86502.52949200073</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>49084.9052152813</v>
+        <v>86792.02080270738</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>49250.9445090031</v>
+        <v>87085.6117910481</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>49419.33459518495</v>
+        <v>87383.35945499429</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>49590.10814353977</v>
+        <v>87685.32156119286</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>49763.29826414103</v>
+        <v>87991.55665493742</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>49938.93851313531</v>
+        <v>88302.124070269</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>50117.06289852958</v>
+        <v>88617.08394020869</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>50297.70588605465</v>
+        <v>88936.49720712601</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>50480.90240510611</v>
+        <v>89260.4256332432</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>50666.68785476434</v>
+        <v>89588.93181128023</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>50855.09810989453</v>
+        <v>89922.07917524032</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>51046.16952732878</v>
+        <v>90259.93201134178</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>51239.93895213129</v>
+        <v>90602.55546909572</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>51436.4437239488</v>
+        <v>90950.01557253522</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>51635.72168344716</v>
+        <v>91302.37923159599</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>51837.81117883674</v>
+        <v>91659.71425365479</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>52042.75107248678</v>
+        <v>92022.08935522557</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>52250.58074763283</v>
+        <v>92389.57417381863</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>52461.34011517693</v>
+        <v>92762.23927996535</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>52675.06962058385</v>
+        <v>93140.1561894117</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>52891.81025087463</v>
+        <v>93523.39737548486</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>53111.60354172023</v>
+        <v>93912.03628163537</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>53334.49158463687</v>
+        <v>94306.14733416059</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>53560.51703428533</v>
+        <v>94705.80595511118</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>53789.72311587682</v>
+        <v>95111.08857538609</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>54022.15363268791</v>
+        <v>95522.07264802059</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>54257.85297368663</v>
+        <v>95938.83666167044</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>54496.86612127213</v>
+        <v>96361.46015429772</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>54739.23865913168</v>
+        <v>96790.02372706305</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>54985.01678021688</v>
+        <v>97224.60905842971</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>55234.24729484171</v>
+        <v>97665.29891848154</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>55486.97763890646</v>
+        <v>98112.17718346624</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>55743.25588225004</v>
+        <v>98565.32885056241</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>56003.13073713387</v>
+        <v>99024.84005288115</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>56266.65156686078</v>
+        <v>99490.79807470668</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>56533.86839453276</v>
+        <v>99963.29136698088</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>56804.83191195063</v>
+        <v>100442.4095630406</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>57079.59348865996</v>
+        <v>100928.2434946118</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>57358.2051811468</v>
+        <v>101420.8852080702</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>57640.71974218717</v>
+        <v>101920.4279809724</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>57927.1906303556</v>
+        <v>102426.9663388695</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>58217.67201969492</v>
+        <v>102940.5960724051</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>58512.21880955492</v>
+        <v>103461.4142547113</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>58810.88663460159</v>
+        <v>103989.5192591084</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>59113.73187500407</v>
+        <v>104525.0107771165</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>59420.81166680342</v>
+        <v>105067.9898367896</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>59732.18391246874</v>
+        <v>105618.5588213815</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>60047.90729164622</v>
+        <v>106176.821488352</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>60368.0412721073</v>
+        <v>106742.882988725</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>60692.64612090057</v>
+        <v>107316.8498868083</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>61021.78291571571</v>
+        <v>107898.8301802865</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>61355.51355646421</v>
+        <v>108488.9333206979</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>61693.90077708392</v>
+        <v>109087.270234309</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>62037.00815757566</v>
+        <v>109693.953343395</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>62384.90013627721</v>
+        <v>110309.096587945</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>62737.64202238353</v>
+        <v>110932.8154477993</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>63095.30000872118</v>
+        <v>111565.2269652366</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>63457.94118478364</v>
+        <v>112206.4497680249</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>63825.63355003814</v>
+        <v>112856.6040929481</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>64198.44602751022</v>
+        <v>113515.8118098286</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>64576.4484776579</v>
+        <v>114184.1964460585</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>64959.71171254248</v>
+        <v>114861.8832116564</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>65348.30751030758</v>
+        <v>115548.9990248692</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>65742.3086299752</v>
+        <v>116245.6725383353</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>66141.78882657092</v>
+        <v>116952.0341658283</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>66546.82286658774</v>
+        <v>117668.2161096003</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>66957.48654380091</v>
+        <v>118394.3523883458</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>67373.85669544563</v>
+        <v>119130.5788658073</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>67796.01121876917</v>
+        <v>119877.0332800423</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>68224.02908797089</v>
+        <v>120633.8552733771</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>68657.99037154294</v>
+        <v>121401.186423069</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>69097.97625002581</v>
+        <v>122179.1702727005</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>69544.06903419252</v>
+        <v>122967.9523643339</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>69996.35218367616</v>
+        <v>123767.6802714477</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>70454.91032605675</v>
+        <v>124578.5036326866</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>70919.82927642237</v>
+        <v>125400.5741864491</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>71391.19605742123</v>
+        <v>126234.0458063438</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>71869.0989198225</v>
+        <v>127079.0745375452</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>72353.62736360246</v>
+        <v>127935.8186340776</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>72844.87215957408</v>
+        <v>128804.438597062</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>73342.92537158052</v>
+        <v>129685.0972139571</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>73847.88037927017</v>
+        <v>130577.9595988312</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>74359.83190147451</v>
+        <v>131483.1932336983</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>74878.87602020979</v>
+        <v>132400.9680109586</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>75405.11020532348</v>
+        <v>133331.4562769778</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>75938.63333980861</v>
+        <v>134274.8328768483</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>76479.54574580869</v>
+        <v>135231.2752003712</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>77027.94921133728</v>
+        <v>136200.9632293014</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>77583.94701773688</v>
+        <v>137184.0795859012</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>78147.6439679031</v>
+        <v>138180.8095828457</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>78719.14641529952</v>
+        <v>139191.3412745272</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>79298.5622937913</v>
+        <v>140215.8655098073</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>79886.00114832567</v>
+        <v>141254.5759862654</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>80481.57416648757</v>
+        <v>142307.6693059963</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>81085.39421096102</v>
+        <v>143375.3450330082</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>81697.57585292676</v>
+        <v>144457.805752276</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>82318.23540642801</v>
+        <v>145555.2571305076</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>82947.49096373697</v>
+        <v>146667.9079786786</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>83585.4624317562</v>
+        <v>147795.9703163975</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>84232.27156948886</v>
+        <v>148939.6594381602</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>84888.04202661416</v>
+        <v>150099.19398156</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>85552.89938320503</v>
+        <v>151274.7959975154</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>86226.97119062435</v>
+        <v>152466.6910225841</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>86910.38701364095</v>
+        <v>153675.1081534312</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>87603.27847380268</v>
+        <v>154900.2801235229</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>88305.77929410995</v>
+        <v>156142.4433821178</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>89018.02534503007</v>
+        <v>157401.8381756287</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>89740.1546918964</v>
+        <v>158678.7086314354</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>90472.30764373632</v>
+        <v>159973.3028442215</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>91214.62680357379</v>
+        <v>161285.8729649193</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>91967.25712025235</v>
+        <v>162616.6752923438</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>92730.34594182612</v>
+        <v>163965.9703675991</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>93504.04307056872</v>
+        <v>165334.0230713437</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>94288.50081964795</v>
+        <v>166721.1027240052</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>95083.87407151863</v>
+        <v>168127.4831890283</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>95890.32033808452</v>
+        <v>169553.4429792544</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>96707.99982268317</v>
+        <v>170999.2653665234</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>97537.07548394649</v>
+        <v>172465.2384945918</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>98377.71310159359</v>
+        <v>173951.6554954675</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>99230.08134421038</v>
+        <v>175458.8146092583</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>100094.3518390738</v>
+        <v>176987.0193076346</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>100970.699244078</v>
+        <v>178536.5784210101</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>101859.3013218218</v>
+        <v>180107.8062695437</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>102760.339015917</v>
+        <v>181701.0227980658</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>103673.9965295757</v>
+        <v>183316.5537150396</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>104600.4614065418</v>
+        <v>184954.7306356622</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>105539.9246144246</v>
+        <v>186615.8912292156</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>106492.5806304978</v>
+        <v>188300.3793707782</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>107458.6275300289</v>
+        <v>190008.5452974058</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>108438.2670771977</v>
+        <v>191740.7457688974</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>109431.7048186712</v>
+        <v>193497.3442332524</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>110439.1501798983</v>
+        <v>195278.710996939</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>111460.8165641839</v>
+        <v>197085.2234000786</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>112496.9214546123</v>
+        <v>198917.2659966659</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>113547.6865188778</v>
+        <v>200775.2307399311</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>114613.3377170905</v>
+        <v>202659.5171729606</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>115694.1054126141</v>
+        <v>204570.5326246837</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>116790.2244860047</v>
+        <v>206508.6924113375</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>117901.9344521065</v>
+        <v>208474.4200435149</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>119029.4795803663</v>
+        <v>210468.1474389068</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>120173.109018426</v>
+        <v>212490.3151408371</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>121333.0769190504</v>
+        <v>214541.3725426986</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>122509.6425704457</v>
+        <v>216621.7781183797</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>123703.0705300222</v>
+        <v>218731.9996587861</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>124913.6307616536</v>
+        <v>220872.5145145421</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>126141.5987764808</v>
+        <v>223043.8098449601</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>127387.2557773069</v>
+        <v>225246.3828733597</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>128650.888806626</v>
+        <v>227480.7411488139</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>129932.7908983252</v>
+        <v>229747.4028143873</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>131233.2612330949</v>
+        <v>232046.8968819343</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>132552.6052975801</v>
+        <v>234379.7635135089</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>133891.1350472961</v>
+        <v>236746.5543094342</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>135249.1690733326</v>
+        <v>239147.8326030684</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>136627.0327728614</v>
+        <v>241584.1737622963</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>138025.0585234552</v>
+        <v>244056.1654977613</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>139443.5858612236</v>
+        <v>246564.4081778446</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>140882.9616627594</v>
+        <v>249109.5151503831</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>142343.5403308845</v>
+        <v>251692.1130711065</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>143825.6839841755</v>
+        <v>254312.8422387569</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>145329.7626502394</v>
+        <v>256972.3569368376</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>146856.1544627004</v>
+        <v>259671.3257819267</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>148405.2458618501</v>
+        <v>262410.4320784673</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>149977.4317988991</v>
+        <v>265190.3741799265</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>151573.1159437627</v>
+        <v>268011.8658561993</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>153192.7108962921</v>
+        <v>270875.6366671109</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>154836.6384008565</v>
+        <v>273782.4323418405</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>156505.3295641657</v>
+        <v>276733.0151640753</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>158199.2250762064</v>
+        <v>279728.1643626701</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>159918.77543415</v>
+        <v>282768.6765075623</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>161664.4411690749</v>
+        <v>285855.3659106622</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>163436.6930753275</v>
+        <v>288989.0650314101</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>165236.0124423264</v>
+        <v>292170.6248866514</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>167062.8912885973</v>
+        <v>295400.9154644607</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>168917.8325978055</v>
+        <v>298680.8261414907</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>170801.3505565254</v>
+        <v>302011.2661033995</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>172713.9707934761</v>
+        <v>305393.1647678678</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>174656.2306199147</v>
+        <v>308827.4722096603</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>176628.679270863</v>
+        <v>312315.1595871654</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>178631.8781468183</v>
+        <v>315857.2195697881</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>180666.4010555615</v>
+        <v>319454.6667655149</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>182732.8344536633</v>
+        <v>323108.5381479459</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>184831.7776872454</v>
+        <v>326819.8934820098</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>186963.8432315334</v>
+        <v>330589.8157475412</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>189129.6569287014</v>
+        <v>334419.4115598373</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>191329.8582234778</v>
+        <v>338309.8115862578</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>193565.1003959469</v>
+        <v>342262.170957864</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>195836.0507909473</v>
+        <v>346277.6696750424</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>198143.3910434315</v>
+        <v>350357.5130059856</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>200487.8172991153</v>
+        <v>354502.931876844</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>202870.0404297045</v>
+        <v>358715.1832522916</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>205290.7862419516</v>
+        <v>362995.55050518</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>207750.7956797542</v>
+        <v>367345.3437738885</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>210250.8250184641</v>
+        <v>371765.900305902</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>212791.6460505362</v>
+        <v>376258.5847860772</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>215374.0462616067</v>
+        <v>380824.7896479816</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>217998.8289960407</v>
+        <v>385465.9353666183</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>220666.8136109567</v>
+        <v>390183.4707307696</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>223378.8356176792</v>
+        <v>394978.8730931149</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>226135.7468095364</v>
+        <v>399853.6485962035</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>228938.4153748749</v>
+        <v>404809.332372287</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>231787.7259941138</v>
+        <v>409847.4887149289</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>234684.5799196228</v>
+        <v>414969.7112202478</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>237629.8950371634</v>
+        <v>420177.6228955574</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>240624.6059075895</v>
+        <v>425472.8762330986</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>243669.663787462</v>
+        <v>430857.1532464947</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>246766.0366271911</v>
+        <v>436332.1654674618</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>249914.7090452793</v>
+        <v>441899.6539002715</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>253116.6822772063</v>
+        <v>447561.388931362</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>256372.9740974476</v>
+        <v>453319.1701914563</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>259684.6187130981</v>
+        <v>459174.8263674667</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>263052.6666275361</v>
+        <v>465130.2149614209</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>266478.1844725258</v>
+        <v>471187.2219935915</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>269962.2548071432</v>
+        <v>477347.7616469524</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>273505.9758818803</v>
+        <v>480261.5680698872</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>277110.461366266</v>
+        <v>483229.6504293308</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>280776.8400383239</v>
+        <v>486253.0876555882</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>284506.2554341852</v>
+        <v>489332.9727301306</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>288299.8654561615</v>
+        <v>492470.412255797</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>292158.8419375892</v>
+        <v>495666.5259861783</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>296084.3701627576</v>
+        <v>498922.4463126518</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>300077.6483402564</v>
+        <v>502239.3177075557</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>304139.8870280794</v>
+        <v>505618.2961220078</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>308272.3085088674</v>
+        <v>509060.548336915</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>312476.1461136995</v>
+        <v>512567.2512657451</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>316752.6434928783</v>
+        <v>516139.591207683</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>321103.0538322148</v>
+        <v>519778.763049844</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>325528.6390133778</v>
+        <v>523485.9694172901</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>330030.6687169362</v>
+        <v>527262.4197696463</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>334610.4194668072</v>
+        <v>531109.3294432182</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>339269.1736149127</v>
+        <v>535027.9186375855</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>344008.2182649396</v>
+        <v>539019.4113457541</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>348828.8441342273</v>
+        <v>543085.0342270704</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>353732.3443529022</v>
+        <v>547226.0154222029</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>358720.0131995425</v>
+        <v>551443.5833096534</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>363793.1447727734</v>
+        <v>555738.9652033857</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>368953.0315983786</v>
+        <v>560113.3859913339</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>374200.9631716546</v>
+        <v>564568.0667147035</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>379538.2244349424</v>
+        <v>569104.2230881717</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>384966.0941904457</v>
+        <v>573723.063961275</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>390485.8434486625</v>
+        <v>578425.7897214774</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>396098.733712963</v>
+        <v>583213.59063963</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>401806.0152010925</v>
+        <v>588087.6451587446</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>407608.9250046</v>
+        <v>593049.1181272614</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>413508.6851874563</v>
+        <v>598099.1589781981</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>419506.5008253857</v>
+        <v>603238.8998558706</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>425603.5579877014</v>
+        <v>608469.4536920873</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>431801.0216637248</v>
+        <v>613791.9122340331</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>438100.0336361447</v>
+        <v>619207.3440263047</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>444501.7103039828</v>
+        <v>624716.792349873</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>451007.1404581182</v>
+        <v>630321.2731209942</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>457617.3830126533</v>
+        <v>636021.7727534489</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>464333.4646956848</v>
+        <v>641819.2459877126</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>471156.3777033868</v>
+        <v>647714.6136910171</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>478087.0773216033</v>
+        <v>653708.7606325237</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>485126.4795194823</v>
+        <v>659802.5332381369</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>492275.4585199777</v>
+        <v>665996.7373297896</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>499534.8443523562</v>
+        <v>672292.1358542857</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>506905.4203921661</v>
+        <v>678689.4466071081</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>514387.9208943802</v>
+        <v>685189.3399568311</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>521983.0285257566</v>
+        <v>691792.4365760597</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>529691.3719026812</v>
+        <v>698499.3051850552</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>537513.52314106</v>
+        <v>705310.4603144403</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>545449.9954250338</v>
+        <v>712226.360093582</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>553501.2406015298</v>
+        <v>719247.4040714607</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>561667.6468078581</v>
+        <v>726373.9310769903</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>569949.5361397436</v>
+        <v>733606.2171259039</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>578347.1623673313</v>
+        <v>740944.4733814613</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>586860.7087068351</v>
+        <v>748388.8441763042</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>585381.8088380942</v>
+        <v>745830.9282853617</v>
       </c>
       <c r="C358" t="n">
         <v>9648.301437308586</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>583884.8511107493</v>
+        <v>743245.0833921334</v>
       </c>
       <c r="C359" t="n">
         <v>19424.62119803925</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>582369.4787264174</v>
+        <v>740630.9265352946</v>
       </c>
       <c r="C360" t="n">
         <v>29329.26056832849</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>580835.3242494451</v>
+        <v>737988.068887747</v>
       </c>
       <c r="C361" t="n">
         <v>39362.45581773478</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>579282.0093018222</v>
+        <v>735316.1157232041</v>
       </c>
       <c r="C362" t="n">
         <v>49524.37674104178</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>577709.1442514133</v>
+        <v>732614.6663789561</v>
       </c>
       <c r="C363" t="n">
         <v>59815.12530430865</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>576116.3278939002</v>
+        <v>729883.3142146238</v>
       </c>
       <c r="C364" t="n">
         <v>70234.7344021099</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>574503.1471289052</v>
+        <v>727121.6465668175</v>
       </c>
       <c r="C365" t="n">
         <v>80783.16673264901</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>572869.1766308837</v>
+        <v>724329.2446996424</v>
       </c>
       <c r="C366" t="n">
         <v>91460.3137971572</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>571213.9785154823</v>
+        <v>721505.6837511102</v>
       </c>
       <c r="C367" t="n">
         <v>102265.9950296666</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>569537.102002196</v>
+        <v>718650.5326756021</v>
       </c>
       <c r="C368" t="n">
         <v>113199.9570628435</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>567838.0830742847</v>
+        <v>715763.3541826417</v>
       </c>
       <c r="C369" t="n">
         <v>124261.8731351666</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>566116.4441370746</v>
+        <v>712843.7046723536</v>
       </c>
       <c r="C370" t="n">
         <v>135451.3426442309</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>564371.6936759191</v>
+        <v>709891.1341681323</v>
       </c>
       <c r="C371" t="n">
         <v>146767.8908504464</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>562603.3259152797</v>
+        <v>706905.1862471782</v>
       </c>
       <c r="C372" t="n">
         <v>158210.9687348266</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>560810.8204805735</v>
+        <v>703885.3979697427</v>
       </c>
       <c r="C373" t="n">
         <v>158210.0594106697</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>558993.642064627</v>
+        <v>700831.2998080881</v>
       </c>
       <c r="C374" t="n">
         <v>158209.0071995849</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>557151.2401008066</v>
+        <v>697742.4155763703</v>
       </c>
       <c r="C375" t="n">
         <v>158207.7912228612</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>555283.048445105</v>
+        <v>694618.2623628586</v>
       </c>
       <c r="C376" t="n">
         <v>158206.3878105488</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>553388.4850697136</v>
+        <v>691458.3504661375</v>
       </c>
       <c r="C377" t="n">
         <v>158204.7701689575</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>551466.9517708543</v>
+        <v>688262.1833371588</v>
       </c>
       <c r="C378" t="n">
         <v>158202.9080145816</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>549517.8338939142</v>
+        <v>685029.2575292781</v>
       </c>
       <c r="C379" t="n">
         <v>158200.7671719147</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>547540.5000791877</v>
+        <v>681759.0626586732</v>
       </c>
       <c r="C380" t="n">
         <v>158198.3091325429</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>545534.3020318224</v>
+        <v>678451.0813778127</v>
       </c>
       <c r="C381" t="n">
         <v>158195.4905728498</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>543498.5743198475</v>
+        <v>675104.7893649332</v>
       </c>
       <c r="C382" t="n">
         <v>158192.2628276239</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>541432.6342044616</v>
+        <v>671719.6553327873</v>
       </c>
       <c r="C383" t="n">
         <v>158188.5713168494</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>539335.7815070582</v>
+        <v>668295.1410602309</v>
       </c>
       <c r="C384" t="n">
         <v>158184.3549229649</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>537207.2985177615</v>
+        <v>664830.7014505072</v>
       </c>
       <c r="C385" t="n">
         <v>158179.5453159233</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>535046.4499505608</v>
+        <v>661325.7846204436</v>
       </c>
       <c r="C386" t="n">
         <v>158174.0662234558</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>532852.4829504155</v>
+        <v>657779.8320250503</v>
       </c>
       <c r="C387" t="n">
         <v>158167.8326440614</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>530624.6271580133</v>
+        <v>654192.278622342</v>
       </c>
       <c r="C388" t="n">
         <v>158160.7500003999</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>528362.0948381288</v>
+        <v>650562.5530835267</v>
       </c>
       <c r="C389" t="n">
         <v>158152.7132309717</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>526064.0810778231</v>
+        <v>646890.0780539745</v>
       </c>
       <c r="C390" t="n">
         <v>158143.6058182291</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>523729.76406096</v>
+        <v>643174.2704706956</v>
       </c>
       <c r="C391" t="n">
         <v>158133.2987515735</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>521358.3054257656</v>
+        <v>639414.5419423048</v>
       </c>
       <c r="C392" t="n">
         <v>158121.6494240747</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>518948.8507123571</v>
+        <v>635610.2991977225</v>
       </c>
       <c r="C393" t="n">
         <v>158108.5004621878</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>516500.5299073452</v>
+        <v>631760.9446100513</v>
       </c>
       <c r="C394" t="n">
         <v>158093.6784882521</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>514012.4580927725</v>
+        <v>627865.8768023031</v>
       </c>
       <c r="C395" t="n">
         <v>158076.9928161431</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>511483.7362067336</v>
+        <v>623924.4913417628</v>
       </c>
       <c r="C396" t="n">
         <v>158058.2340811059</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>508913.4519231005</v>
+        <v>619936.1815299216</v>
       </c>
       <c r="C397" t="n">
         <v>158037.172805533</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>506300.6806577789</v>
+        <v>615900.3392949591</v>
       </c>
       <c r="C398" t="n">
         <v>158013.5579032688</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>503644.4867088659</v>
+        <v>611816.356193785</v>
       </c>
       <c r="C399" t="n">
         <v>157987.1151259142</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>500943.9245379872</v>
+        <v>607683.6245305834</v>
       </c>
       <c r="C400" t="n">
         <v>157957.5454555819</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>498198.0401999015</v>
+        <v>603501.538598725</v>
       </c>
       <c r="C401" t="n">
         <v>157924.5234496047</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>495405.8729272196</v>
+        <v>599269.4960527038</v>
       </c>
       <c r="C402" t="n">
         <v>157887.6955438265</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>492566.4568767598</v>
+        <v>594986.8994165291</v>
       </c>
       <c r="C403" t="n">
         <v>157846.6783223004</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>489678.8230436571</v>
+        <v>590653.1577346569</v>
       </c>
       <c r="C404" t="n">
         <v>157801.0567624879</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>486742.0013488419</v>
+        <v>586267.6883711345</v>
       </c>
       <c r="C405" t="n">
         <v>157750.3824663634</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>483755.0229049399</v>
+        <v>581829.9189621308</v>
       </c>
       <c r="C406" t="n">
         <v>157694.1718892072</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>480716.9224649496</v>
+        <v>577339.2895264301</v>
       </c>
       <c r="C407" t="n">
         <v>157631.9045792661</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>477626.7410572972</v>
+        <v>572795.2547377701</v>
       </c>
       <c r="C408" t="n">
         <v>157563.0214428982</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>474483.5288099909</v>
+        <v>568197.2863621307</v>
       </c>
       <c r="C409" t="n">
         <v>157486.9230512559</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>471286.3479656354</v>
+        <v>563544.8758621877</v>
       </c>
       <c r="C410" t="n">
         <v>157402.9680059945</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>468034.276087997</v>
+        <v>558837.5371701603</v>
       </c>
       <c r="C411" t="n">
         <v>157310.4713829067</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>464726.4094596446</v>
+        <v>554074.8096292099</v>
       </c>
       <c r="C412" t="n">
         <v>157208.7032737424</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>461361.866668932</v>
+        <v>549256.2611023545</v>
       </c>
       <c r="C413" t="n">
         <v>157096.8874477773</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>457939.7923832349</v>
+        <v>544381.4912466098</v>
       </c>
       <c r="C414" t="n">
         <v>156974.2001558984</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>454459.3613039121</v>
+        <v>539450.1349486837</v>
       </c>
       <c r="C415" t="n">
         <v>156839.7691010672</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>450919.782296929</v>
+        <v>534461.8659171275</v>
       </c>
       <c r="C416" t="n">
         <v>156692.6725999819</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>447320.3026914942</v>
+        <v>529416.4004243029</v>
       </c>
       <c r="C417" t="n">
         <v>156531.9389615385</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>443660.2127373719</v>
+        <v>524313.501189941</v>
       </c>
       <c r="C418" t="n">
         <v>156356.5461082924</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>439938.8502098261</v>
+        <v>519152.9813964111</v>
       </c>
       <c r="C419" t="n">
         <v>156165.4214674908</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>436155.6051493587</v>
+        <v>513934.7088241126</v>
       </c>
       <c r="C420" t="n">
         <v>155957.4421583752</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>432309.9247216106</v>
+        <v>508658.6100936549</v>
       </c>
       <c r="C421" t="n">
         <v>155731.4355023032</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>428401.3181809578</v>
+        <v>503324.6749997309</v>
       </c>
       <c r="C422" t="n">
         <v>155486.1798817955</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>424429.3619195012</v>
+        <v>497932.9609198101</v>
       </c>
       <c r="C423" t="n">
         <v>155220.4059738429</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>420393.7045813255</v>
+        <v>492483.5972789999</v>
       </c>
       <c r="C424" t="n">
         <v>154932.7983817029</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>416294.0722201059</v>
+        <v>486976.790050684</v>
       </c>
       <c r="C425" t="n">
         <v>154621.9976879372</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>412130.2734763881</v>
+        <v>481412.8262708341</v>
       </c>
       <c r="C426" t="n">
         <v>154286.6029496006</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>407902.2047491857</v>
+        <v>475792.0785422462</v>
       </c>
       <c r="C427" t="n">
         <v>153925.1746542521</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>403609.8553349334</v>
+        <v>470115.0095033852</v>
       </c>
       <c r="C428" t="n">
         <v>153536.2381528334</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>399253.3125053397</v>
+        <v>464382.1762350446</v>
       </c>
       <c r="C429" t="n">
         <v>153118.2875824346</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>394832.7664943115</v>
+        <v>458594.2345766898</v>
       </c>
       <c r="C430" t="n">
         <v>152669.7902885505</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>390348.5153628921</v>
+        <v>452751.9433231279</v>
       </c>
       <c r="C431" t="n">
         <v>152189.1917526294</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>385800.9697100994</v>
+        <v>446856.1682711066</v>
       </c>
       <c r="C432" t="n">
         <v>151674.9210265501</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>381190.6571966641</v>
+        <v>440907.8860845612</v>
       </c>
       <c r="C433" t="n">
         <v>151125.3966711477</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>376518.2268480072</v>
+        <v>434908.1879465587</v>
       </c>
       <c r="C434" t="n">
         <v>150539.0331910728</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>371784.4531023313</v>
+        <v>428858.2829655228</v>
       </c>
       <c r="C435" t="n">
         <v>149914.2479531548</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>366990.2395694977</v>
+        <v>422759.5013030968</v>
       </c>
       <c r="C436" t="n">
         <v>149249.4685700793</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>362136.6224663969</v>
+        <v>416613.2969910168</v>
       </c>
       <c r="C437" t="n">
         <v>148543.1407256335</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>357224.7736948282</v>
+        <v>410421.2504046491</v>
       </c>
       <c r="C438" t="n">
         <v>147793.7364120816</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>352256.0035284889</v>
+        <v>404185.0703613956</v>
       </c>
       <c r="C439" t="n">
         <v>146999.7625444524</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>347231.7628765517</v>
+        <v>397906.5958129998</v>
       </c>
       <c r="C440" t="n">
         <v>146159.7699107352</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>342153.645092469</v>
+        <v>391587.7971019121</v>
       </c>
       <c r="C441" t="n">
         <v>145272.3624112362</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>337023.3872981148</v>
+        <v>385230.7767532813</v>
       </c>
       <c r="C442" t="n">
         <v>144336.2065347459</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>331842.871195135</v>
+        <v>378837.7697758442</v>
       </c>
       <c r="C443" t="n">
         <v>143350.041013762</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>326614.1233374411</v>
+        <v>372411.1434469884</v>
       </c>
       <c r="C444" t="n">
         <v>142312.6865958921</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>321339.3148411312</v>
+        <v>365953.3965595368</v>
       </c>
       <c r="C445" t="n">
         <v>141223.0558638132</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>316020.7605107696</v>
+        <v>359467.158110384</v>
       </c>
       <c r="C446" t="n">
         <v>140080.1630318518</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>310660.9173638477</v>
+        <v>352955.1854139165</v>
       </c>
       <c r="C447" t="n">
         <v>138883.1336434678</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>305262.3825384338</v>
+        <v>346420.3616262663</v>
       </c>
       <c r="C448" t="n">
         <v>137631.2140907412</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>299827.8905724111</v>
+        <v>339865.6926697338</v>
       </c>
       <c r="C449" t="n">
         <v>136323.7808744498</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>294360.3100463298</v>
+        <v>333294.3035502716</v>
       </c>
       <c r="C450" t="n">
         <v>134960.3495215538</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>288862.6395857145</v>
+        <v>326709.4340646259</v>
       </c>
       <c r="C451" t="n">
         <v>133540.5830759315</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>283338.0032226493</v>
+        <v>320114.4338976339</v>
       </c>
       <c r="C452" t="n">
         <v>132064.3000780877</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72114.86845643715</v>
+        <v>73096.02312931385</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72199.16045598732</v>
+        <v>73181.46195878988</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>72284.66366572774</v>
+        <v>73268.12847750637</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>72371.39537238918</v>
+        <v>73356.04020738768</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>72459.37310616417</v>
+        <v>73445.2149171324</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>72548.61464404879</v>
+        <v>73535.6706256005</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>72639.13801322764</v>
+        <v>73627.42560524434</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>72730.96149450299</v>
+        <v>73720.49838558467</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>72824.10362576906</v>
+        <v>73814.90775673187</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>72918.58320553102</v>
+        <v>73910.67277295321</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73014.41929646982</v>
+        <v>74007.81275628576</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73111.63122905382</v>
+        <v>74106.34730019741</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>73210.2386051963</v>
+        <v>74206.29627329418</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>73310.26130196149</v>
+        <v>74307.67982307663</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>73411.71947531759</v>
+        <v>74410.51837974372</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>73514.633563939</v>
+        <v>74514.83266004703</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>73619.02429305707</v>
+        <v>74620.64367119392</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>73724.912678361</v>
+        <v>74727.97271480129</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>73832.32002994863</v>
+        <v>74836.84139090034</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>73941.26795632826</v>
+        <v>74947.27160199262</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74051.77836847182</v>
+        <v>75059.2855571585</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74163.87348391998</v>
+        <v>75172.90577621818</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>74277.57583093985</v>
+        <v>75288.15509394584</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>74392.90825273648</v>
+        <v>75405.05666433838</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>74509.89391171731</v>
+        <v>75523.63396493798</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>74628.55629381166</v>
+        <v>75643.91080121048</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>74748.91921284537</v>
+        <v>75765.91131097933</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>74871.00681497085</v>
+        <v>75889.65996891608</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>74994.84358315401</v>
+        <v>76015.18159108803</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75120.45434171749</v>
+        <v>76142.50133956397</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>75247.86426094259</v>
+        <v>76271.64472707787</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>75377.09886172877</v>
+        <v>76402.63762175228</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>75508.1840203124</v>
+        <v>76535.5062518812</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>75641.14597304547</v>
+        <v>76670.27721077393</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>75776.01132123452</v>
+        <v>76806.97746165948</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>75912.80703604099</v>
+        <v>76945.63434265381</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76051.5604634427</v>
+        <v>77086.27557178886</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>76192.29932925869</v>
+        <v>77228.92925210577</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>76335.05174423671</v>
+        <v>77373.6238768114</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>76479.84620920544</v>
+        <v>77520.38833450076</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>76626.71162029018</v>
+        <v>77669.25191444386</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>76775.67727419565</v>
+        <v>77820.24431193984</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>76926.77287355356</v>
+        <v>77973.39563373801</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77080.02853233827</v>
+        <v>78128.73640352656</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>77235.47478134968</v>
+        <v>78286.29756749053</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>77393.14257376468</v>
+        <v>78446.11049993832</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>77553.06329075835</v>
+        <v>78608.20700899999</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>77715.26874719532</v>
+        <v>78772.61934239522</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>77879.7911973914</v>
+        <v>78939.38019327428</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78046.66334094819</v>
+        <v>79108.52270613125</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>78215.9183286597</v>
+        <v>79280.08048279116</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>78387.58976849246</v>
+        <v>79454.08758847199</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>78561.71173164053</v>
+        <v>79630.5785579214</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>78738.31875865546</v>
+        <v>79809.58840163038</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>78917.44586565235</v>
+        <v>79991.15261212381</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79099.12855059316</v>
+        <v>80175.30717032918</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79283.40279964884</v>
+        <v>80362.088552025</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>79470.30509363864</v>
+        <v>80551.53373436842</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>79659.87241455105</v>
+        <v>80743.68020250413</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>79852.14225214503</v>
+        <v>80938.56595625578</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80047.15261063269</v>
+        <v>81136.22951689977</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>80244.9420154457</v>
+        <v>81336.70993402319</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>80445.54952008519</v>
+        <v>81540.04679246733</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>80649.01471305621</v>
+        <v>81746.28021935635</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>80855.37772488919</v>
+        <v>81955.45089121428</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81064.67923524772</v>
+        <v>82167.60004116951</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>81276.96048012454</v>
+        <v>82382.76946624875</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>81492.2632591275</v>
+        <v>82601.00153476198</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>81710.62994285535</v>
+        <v>82822.33919377853</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>81932.10348036543</v>
+        <v>83046.82597669699</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>82156.72740673424</v>
+        <v>83274.50601090748</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>82384.54585071219</v>
+        <v>83505.42402555193</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>82615.60354247339</v>
+        <v>83739.62535937777</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>82849.94582146169</v>
+        <v>83977.15596869243</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83087.61864433585</v>
+        <v>84218.06243541528</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>83328.66859301266</v>
+        <v>84462.39197523045</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>83573.14288281108</v>
+        <v>84710.19244584242</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>83821.08937069839</v>
+        <v>84961.51235533376</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84072.55656364029</v>
+        <v>85216.40087062855</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>84327.59362705456</v>
+        <v>85474.90782606216</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>84586.25039337244</v>
+        <v>85737.08373205778</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>84848.577370707</v>
+        <v>86002.97978391392</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>85114.62575163179</v>
+        <v>86272.64787070166</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>85384.44742206976</v>
+        <v>86546.14058427489</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>85658.09497029641</v>
+        <v>86823.51122839567</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85935.62169605489</v>
+        <v>87104.81382797398</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>86217.08161979038</v>
+        <v>87390.10313842705</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>86502.52949200073</v>
+        <v>87679.43465515719</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>86792.02080270738</v>
+        <v>87972.86462315236</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>87085.6117910481</v>
+        <v>88270.45004670865</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>87383.35945499429</v>
+        <v>88572.24869927984</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>87685.32156119286</v>
+        <v>88878.31913345387</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>87991.55665493742</v>
+        <v>89188.720691059</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>88302.124070269</v>
+        <v>89503.51351340194</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>88617.08394020869</v>
+        <v>89822.75855164016</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>88936.49720712601</v>
+        <v>90146.51757729097</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>89260.4256332432</v>
+        <v>90474.85319287922</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>89588.93181128023</v>
+        <v>90807.82884272616</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89922.07917524032</v>
+        <v>91145.50882388304</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90259.93201134178</v>
+        <v>91487.95829721035</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90602.55546909572</v>
+        <v>91835.24329860724</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>90950.01557253522</v>
+        <v>92187.43075039283</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>91302.37923159599</v>
+        <v>92544.58847284221</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>91659.71425365479</v>
+        <v>92906.78519588152</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>92022.08935522557</v>
+        <v>93274.09057094299</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>92389.57417381863</v>
+        <v>93646.57518298624</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>92762.23927996535</v>
+        <v>94024.31056268596</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>93140.1561894117</v>
+        <v>94407.36919879139</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>93523.39737548486</v>
+        <v>94795.82455066148</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>93912.03628163537</v>
+        <v>95189.75106097729</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>94306.14733416059</v>
+        <v>95589.22416863899</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>94705.80595511118</v>
+        <v>95994.32032184736</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>95111.08857538609</v>
+        <v>96405.11699137777</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>95522.07264802059</v>
+        <v>96821.69268404815</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>95938.83666167044</v>
+        <v>97244.12695638703</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>96361.46015429772</v>
+        <v>97672.50042850577</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>96790.02372706305</v>
+        <v>98106.89479817955</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>97224.60905842971</v>
+        <v>98547.392855143</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>97665.29891848154</v>
+        <v>98994.07849560383</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>98112.17718346624</v>
+        <v>99447.03673698283</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>98565.32885056241</v>
+        <v>99906.35373288294</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>99024.84005288115</v>
+        <v>100372.1167882945</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>99490.79807470668</v>
+        <v>100844.4143750428</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>99963.29136698088</v>
+        <v>101323.3361474841</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>100442.4095630406</v>
+        <v>101808.9729584561</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>100928.2434946118</v>
+        <v>102301.416875491</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>101420.8852080702</v>
+        <v>102800.7611972956</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>101920.4279809724</v>
+        <v>103307.1004705095</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>102426.9663388695</v>
+        <v>103820.5305067452</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>102940.5960724051</v>
+        <v>104341.1483999207</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>103461.4142547113</v>
+        <v>104869.052543891</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>103989.5192591084</v>
+        <v>105404.3426503889</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>104525.0107771165</v>
+        <v>105947.1197672813</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>105067.9898367896</v>
+        <v>106497.4862971541</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>105618.5588213815</v>
+        <v>107055.5460162304</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>106176.821488352</v>
+        <v>107621.4040936357</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>106742.882988725</v>
+        <v>108195.1671110207</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>107316.8498868083</v>
+        <v>108776.9430825472</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>107898.8301802865</v>
+        <v>109366.8414752563</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>108488.9333206979</v>
+        <v>109964.9732298231</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>109087.270234309</v>
+        <v>110571.4507817144</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>109693.953343395</v>
+        <v>111186.388082761</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>110309.096587945</v>
+        <v>111809.9006231551</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>110932.8154477993</v>
+        <v>112442.1054538918</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>111565.2269652366</v>
+        <v>113083.1212096617</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>112206.4497680249</v>
+        <v>113733.0681322157</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>112856.6040929481</v>
+        <v>114392.0680942127</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>113515.8118098286</v>
+        <v>115060.2446235678</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>114184.1964460585</v>
+        <v>115737.7229283178</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>114861.8832116564</v>
+        <v>116424.6299220189</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>115548.9990248692</v>
+        <v>117121.0942496973</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>116245.6725383353</v>
+        <v>117827.2463143671</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>116952.0341658283</v>
+        <v>118543.2183041388</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>117668.2161096003</v>
+        <v>119269.1442199349</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>118394.3523883458</v>
+        <v>120005.1599038334</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>119130.5788658073</v>
+        <v>120751.4030680633</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>119877.0332800423</v>
+        <v>121508.0133246688</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>120633.8552733771</v>
+        <v>122275.1322158721</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>121401.186423069</v>
+        <v>123052.9032451516</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>122179.1702727005</v>
+        <v>123841.4719090637</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>122967.9523643339</v>
+        <v>124640.9857298349</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>123767.6802714477</v>
+        <v>125451.5942887464</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>124578.5036326866</v>
+        <v>126273.4492603422</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>125400.5741864491</v>
+        <v>127106.7044474892</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>126234.0458063438</v>
+        <v>127951.5158173144</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>127079.0745375452</v>
+        <v>128808.041538056</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>127935.8186340776</v>
+        <v>129676.4420168542</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>128804.438597062</v>
+        <v>130556.8799385187</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>129685.0972139571</v>
+        <v>131449.5203053035</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>130577.9595988312</v>
+        <v>132354.5304777269</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>131483.1932336983</v>
+        <v>133272.0802164697</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>132400.9680109586</v>
+        <v>134202.3417253934</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>133331.4562769778</v>
+        <v>135145.4896957121</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>134274.8328768483</v>
+        <v>136101.7013513633</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>135231.2752003712</v>
+        <v>137071.1564956143</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>136200.9632293014</v>
+        <v>138054.0375589517</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>137184.0795859012</v>
+        <v>139050.5296482944</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>138180.8095828457</v>
+        <v>140060.8205975783</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>139191.3412745272</v>
+        <v>141085.1010197589</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>140215.8655098073</v>
+        <v>142123.5643602808</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>141254.5759862654</v>
+        <v>143176.4069520649</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>142307.6693059963</v>
+        <v>144243.8280720643</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>143375.3450330082</v>
+        <v>145326.0299994436</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>144457.805752276</v>
+        <v>146423.2180754362</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>145555.2571305076</v>
+        <v>147535.6007649362</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>146667.9079786786</v>
+        <v>148663.3897198851</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>147795.9703163975</v>
+        <v>149806.7998445118</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>148939.6594381602</v>
+        <v>150966.0493624889</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150099.19398156</v>
+        <v>152141.359886071</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>151274.7959975154</v>
+        <v>153332.9564872776</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>152466.6910225841</v>
+        <v>154541.0677711907</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>153675.1081534312</v>
+        <v>155765.925951437</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>154900.2801235229</v>
+        <v>157007.7669279246</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>156142.4433821178</v>
+        <v>158266.8303669084</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>157401.8381756287</v>
+        <v>159543.3597834604</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>158678.7086314354</v>
+        <v>160837.602626421</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>159973.3028442215</v>
+        <v>162149.8103659115</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>161285.8729649193</v>
+        <v>163480.2385834897</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>162616.6752923438</v>
+        <v>164829.1470650288</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>163965.9703675991</v>
+        <v>166196.7998964099</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>165334.0230713437</v>
+        <v>167583.4655621103</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>166721.1027240052</v>
+        <v>168989.4170467809</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>168127.4831890283</v>
+        <v>170414.9319398994</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>169553.4429792544</v>
+        <v>171860.2925435981</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>170999.2653665234</v>
+        <v>173325.785983755</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>172465.2384945918</v>
+        <v>174811.7043244502</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>173951.6554954675</v>
+        <v>176318.344685882</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>175458.8146092583</v>
+        <v>177846.0093658468</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>176987.0193076346</v>
+        <v>179395.0059648812</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>178536.5784210101</v>
+        <v>180965.6475151736</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>180107.8062695437</v>
+        <v>182558.252613347</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>181701.0227980658</v>
+        <v>184173.1455572231</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>183316.5537150396</v>
+        <v>185810.6564866728</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>184954.7306356622</v>
+        <v>187471.1215286644</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>186615.8912292156</v>
+        <v>189154.88294662</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>188300.3793707782</v>
+        <v>190862.2892941902</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>190008.5452974058</v>
+        <v>192593.695573561</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>191740.7457688974</v>
+        <v>194349.4633984063</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>193497.3442332524</v>
+        <v>196129.9611615959</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>195278.710996939</v>
+        <v>197935.5642077815</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>197085.2234000786</v>
+        <v>199766.655010964</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>198917.2659966659</v>
+        <v>201623.6233571648</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>200775.2307399311</v>
+        <v>203506.866532311</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>202659.5171729606</v>
+        <v>205416.7895154498</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>204570.5326246837</v>
+        <v>207353.8051774006</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>206508.6924113375</v>
+        <v>209318.3344849611</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>208474.4200435149</v>
+        <v>211310.8067107736</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>210468.1474389068</v>
+        <v>213331.6596489599</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>212490.3151408371</v>
+        <v>215381.3398366309</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>214541.3725426986</v>
+        <v>217460.3027813747</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>216621.7781183797</v>
+        <v>219569.0131948202</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>218731.9996587861</v>
+        <v>221707.945232375</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>220872.5145145421</v>
+        <v>223877.5827392298</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>223043.8098449601</v>
+        <v>226078.4195027145</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>225246.3828733597</v>
+        <v>228310.9595110925</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>227480.7411488139</v>
+        <v>230575.7172188658</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>229747.4028143873</v>
+        <v>232873.2178186648</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>232046.8968819343</v>
+        <v>235203.9975197837</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>234379.7635135089</v>
+        <v>237568.6038334205</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>236746.5543094342</v>
+        <v>239967.5958646646</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>239147.8326030684</v>
+        <v>242401.5446112732</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>241584.1737622963</v>
+        <v>244871.0332692665</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>244056.1654977613</v>
+        <v>247376.6575453498</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>246564.4081778446</v>
+        <v>249919.0259761825</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>249109.5151503831</v>
+        <v>252498.7602544698</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>251692.1130711065</v>
+        <v>255116.49556187</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>254312.8422387569</v>
+        <v>257772.8809086721</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>256972.3569368376</v>
+        <v>260468.5794801959</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>259671.3257819267</v>
+        <v>263204.268989844</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>262410.4320784673</v>
+        <v>265980.6420387186</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>265190.3741799265</v>
+        <v>268798.4064816942</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>268011.8658561993</v>
+        <v>271658.2857998211</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>270875.6366671109</v>
+        <v>274561.0194789086</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>273782.4323418405</v>
+        <v>277507.3633941104</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>276733.0151640753</v>
+        <v>280498.0902003213</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>279728.1643626701</v>
+        <v>283533.9897281486</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>282768.6765075623</v>
+        <v>286615.869385216</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>285855.3659106622</v>
+        <v>289744.5545625079</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>288989.0650314101</v>
+        <v>292920.8890454429</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>292170.6248866514</v>
+        <v>296145.735429327</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>295400.9154644607</v>
+        <v>299419.9755388072</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>298680.8261414907</v>
+        <v>302744.5108508987</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>302011.2661033995</v>
+        <v>306120.2629211328</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>305393.1647678678</v>
+        <v>309548.1738123285</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>308827.4722096603</v>
+        <v>313029.2065254378</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>312315.1595871654</v>
+        <v>316564.3454318889</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>315857.2195697881</v>
+        <v>320154.5967067918</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>319454.6667655149</v>
+        <v>323800.9887623244</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>323108.5381479459</v>
+        <v>327504.5726805712</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>326819.8934820098</v>
+        <v>331266.4226450305</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>330589.8157475412</v>
+        <v>335087.6363699567</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>334419.4115598373</v>
+        <v>338969.335526638</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>338309.8115862578</v>
+        <v>342912.6661656626</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>342262.170957864</v>
+        <v>346918.7991341614</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>346277.6696750424</v>
+        <v>350988.9304869476</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>350357.5130059856</v>
+        <v>355124.2818904207</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>354502.931876844</v>
+        <v>359326.1010180255</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>358715.1832522916</v>
+        <v>363595.6619359964</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>362995.55050518</v>
+        <v>367934.2654780395</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>367345.3437738885</v>
+        <v>372343.2396075467</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>371765.900305902</v>
+        <v>376823.9397658464</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>376258.5847860772</v>
+        <v>381377.7492049357</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>380824.7896479816</v>
+        <v>386006.0793030564</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>385465.9353666183</v>
+        <v>390710.3698614024</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>390183.4707307696</v>
+        <v>395492.0893801677</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>394978.8730931149</v>
+        <v>400352.7353120686</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>399853.6485962035</v>
+        <v>405293.8342913899</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>404809.332372287</v>
+        <v>410316.9423365356</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>409847.4887149289</v>
+        <v>415423.6450239756</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>414969.7112202478</v>
+        <v>420615.5576314079</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>420177.6228955574</v>
+        <v>425894.325247878</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>425472.8762330986</v>
+        <v>431261.6228485152</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>430857.1532464947</v>
+        <v>436719.1553314808</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>436332.1654674618</v>
+        <v>442268.6575146382</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>441899.6539002715</v>
+        <v>447911.8940893909</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>447561.388931362</v>
+        <v>453650.6595290675</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>453319.1701914563</v>
+        <v>459486.7779491634</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>459174.8263674667</v>
+        <v>465422.1029166837</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>465130.2149614209</v>
+        <v>471458.5172057938</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>471187.2219935915</v>
+        <v>477597.9324969056</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>477347.7616469524</v>
+        <v>483842.2890162984</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>480261.5680698872</v>
+        <v>487774.2929643356</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>483229.6504293308</v>
+        <v>491776.831684494</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>486253.0876555882</v>
+        <v>495851.2664641761</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>489332.9727301306</v>
+        <v>499998.9763489693</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>492470.412255797</v>
+        <v>504221.3576301666</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>495666.5259861783</v>
+        <v>508519.8232805142</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>498922.4463126518</v>
+        <v>512895.802336216</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>502239.3177075557</v>
+        <v>517350.7392232375</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>505618.2961220078</v>
+        <v>521886.0930259772</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>509060.548336915</v>
+        <v>526503.3366964204</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>512567.2512657451</v>
+        <v>531203.9562019227</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>516139.591207683</v>
+        <v>535989.4496098225</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>519778.763049844</v>
+        <v>540861.3261071657</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>523485.9694172901</v>
+        <v>545821.1049538802</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>527262.4197696463</v>
+        <v>550870.3143678374</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>531109.3294432182</v>
+        <v>556010.4903403362</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>535027.9186375855</v>
+        <v>561243.1753806552</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>539019.4113457541</v>
+        <v>566569.9171884373</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>543085.0342270704</v>
+        <v>571992.2672528309</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>547226.0154222029</v>
+        <v>577511.7793774307</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>551443.5833096534</v>
+        <v>583130.0081302606</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>555738.9652033857</v>
+        <v>588848.5072181913</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>560113.3859913339</v>
+        <v>594668.8277854053</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>564568.0667147035</v>
+        <v>600592.5166357127</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>569104.2230881717</v>
+        <v>606621.1143787462</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>573723.063961275</v>
+        <v>612756.1535003186</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>578425.7897214774</v>
+        <v>618999.1563574523</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>583213.59063963</v>
+        <v>625351.6330988746</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>588087.6451587446</v>
+        <v>631815.0795120485</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>593049.1181272614</v>
+        <v>638390.9747981017</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>598099.1589781981</v>
+        <v>645080.7792763154</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>603238.8998558706</v>
+        <v>651885.9320201679</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>608469.4536920873</v>
+        <v>658807.8484272438</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>613791.9122340331</v>
+        <v>665847.9177256671</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>619207.3440263047</v>
+        <v>673007.5004200665</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>624716.792349873</v>
+        <v>680287.9256804314</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>630321.2731209942</v>
+        <v>687690.4886775924</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>636021.7727534489</v>
+        <v>695216.4478694282</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>641819.2459877126</v>
+        <v>702867.0222422618</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>647714.6136910171</v>
+        <v>710643.38851231</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>653708.7606325237</v>
+        <v>718546.6782923995</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>659802.5332381369</v>
+        <v>726577.975229563</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>665996.7373297896</v>
+        <v>734738.3121194806</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>672292.1358542857</v>
+        <v>743028.6680041056</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>678689.4466071081</v>
+        <v>751449.9652591795</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>685189.3399568311</v>
+        <v>760003.0666786599</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>691792.4365760597</v>
+        <v>768688.7725634604</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>698499.3051850552</v>
+        <v>777507.8178221663</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>705310.4603144403</v>
+        <v>786460.8690917511</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>712226.360093582</v>
+        <v>795548.5218865266</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>719247.4040714607</v>
+        <v>804771.2977838902</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>726373.9310769903</v>
+        <v>814129.6416555821</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>733606.2171259039</v>
+        <v>823623.9189534331</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>740944.4733814613</v>
+        <v>833254.4130587152</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>748388.8441763042</v>
+        <v>843021.3227043352</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>745830.9282853617</v>
+        <v>840411.943525213</v>
       </c>
       <c r="C358" t="n">
-        <v>9648.301437308586</v>
+        <v>11950.42033208524</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>743245.0833921334</v>
+        <v>837773.0874308408</v>
       </c>
       <c r="C359" t="n">
-        <v>19424.62119803925</v>
+        <v>24059.40461296947</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>740630.9265352946</v>
+        <v>835104.2938754096</v>
       </c>
       <c r="C360" t="n">
-        <v>29329.26056832849</v>
+        <v>36327.32601672845</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>737988.068887747</v>
+        <v>832405.09258928</v>
       </c>
       <c r="C361" t="n">
-        <v>39362.45581773478</v>
+        <v>48754.4771876741</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>735316.1157232041</v>
+        <v>829675.0033973887</v>
       </c>
       <c r="C362" t="n">
-        <v>49524.37674104178</v>
+        <v>61341.06843422683</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>732614.6663789561</v>
+        <v>826913.5360314563</v>
       </c>
       <c r="C363" t="n">
-        <v>59815.12530430865</v>
+        <v>74087.22605190867</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>729883.3142146238</v>
+        <v>824120.1899360485</v>
       </c>
       <c r="C364" t="n">
-        <v>70234.7344021099</v>
+        <v>86992.99078405609</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>727121.6465668175</v>
+        <v>821294.4540686851</v>
       </c>
       <c r="C365" t="n">
-        <v>80783.16673264901</v>
+        <v>100058.3164285318</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>724329.2446996424</v>
+        <v>818435.8066942418</v>
       </c>
       <c r="C366" t="n">
-        <v>91460.3137971572</v>
+        <v>113283.0685983765</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>721505.6837511102</v>
+        <v>815543.7151740702</v>
       </c>
       <c r="C367" t="n">
-        <v>102265.9950296666</v>
+        <v>126667.023643943</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>718650.5326756021</v>
+        <v>812617.6357503423</v>
       </c>
       <c r="C368" t="n">
-        <v>113199.9570628435</v>
+        <v>140209.8677435542</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>715763.3541826417</v>
+        <v>809657.0133263316</v>
       </c>
       <c r="C369" t="n">
-        <v>124261.8731351666</v>
+        <v>153911.1961692327</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>712843.7046723536</v>
+        <v>806661.2812434596</v>
       </c>
       <c r="C370" t="n">
-        <v>135451.3426442309</v>
+        <v>167770.5127334207</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>709891.1341681323</v>
+        <v>803629.8610561558</v>
       </c>
       <c r="C371" t="n">
-        <v>146767.8908504464</v>
+        <v>181787.2294219806</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>706905.1862471782</v>
+        <v>800562.1623057594</v>
       </c>
       <c r="C372" t="n">
-        <v>158210.9687348266</v>
+        <v>195960.6662180515</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>703885.3979697427</v>
+        <v>797457.5822949111</v>
       </c>
       <c r="C373" t="n">
-        <v>158210.0594106697</v>
+        <v>195959.5399259302</v>
       </c>
       <c r="D373" t="n">
-        <v>12525.3417161311</v>
+        <v>15282.01582293391</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>700831.2998080881</v>
+        <v>794315.5058641214</v>
       </c>
       <c r="C374" t="n">
-        <v>158209.0071995849</v>
+        <v>195958.2366535538</v>
       </c>
       <c r="D374" t="n">
-        <v>25186.38696932843</v>
+        <v>30729.60186723779</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>697742.4155763703</v>
+        <v>791135.305172452</v>
       </c>
       <c r="C375" t="n">
-        <v>158207.7912228612</v>
+        <v>195956.7305404771</v>
       </c>
       <c r="D375" t="n">
-        <v>37982.32355470503</v>
+        <v>46341.76717168955</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>694618.2623628586</v>
+        <v>787916.339484504</v>
       </c>
       <c r="C376" t="n">
-        <v>158206.3878105488</v>
+        <v>195954.9922690165</v>
       </c>
       <c r="D376" t="n">
-        <v>50912.26298326901</v>
+        <v>62117.42770176621</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>691458.3504661375</v>
+        <v>784657.9549662051</v>
       </c>
       <c r="C377" t="n">
-        <v>158204.7701689575</v>
+        <v>195952.9886524123</v>
       </c>
       <c r="D377" t="n">
-        <v>63975.24155666468</v>
+        <v>78055.4076609223</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>688262.1833371588</v>
+        <v>781359.4844921893</v>
       </c>
       <c r="C378" t="n">
-        <v>158202.9080145816</v>
+        <v>195950.682181407</v>
       </c>
       <c r="D378" t="n">
-        <v>77170.22165326608</v>
+        <v>94154.44105973691</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>685029.2575292781</v>
+        <v>778020.2474678589</v>
       </c>
       <c r="C379" t="n">
-        <v>158200.7671719147</v>
+        <v>195948.0305260974</v>
       </c>
       <c r="D379" t="n">
-        <v>90496.09322670892</v>
+        <v>110413.1735442541</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>681759.0626586732</v>
+        <v>774639.5496695836</v>
       </c>
       <c r="C380" t="n">
-        <v>158198.3091325429</v>
+        <v>195944.9859898258</v>
       </c>
       <c r="D380" t="n">
-        <v>103951.6755170675</v>
+        <v>126830.1644837687</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>678451.0813778127</v>
+        <v>771216.6831068047</v>
       </c>
       <c r="C381" t="n">
-        <v>158195.4905728498</v>
+        <v>195941.4949118072</v>
       </c>
       <c r="D381" t="n">
-        <v>117535.7189739657</v>
+        <v>143403.8893171909</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>675104.7893649332</v>
+        <v>767750.9259101946</v>
       </c>
       <c r="C382" t="n">
-        <v>158192.2628276239</v>
+        <v>195937.4970151387</v>
       </c>
       <c r="D382" t="n">
-        <v>131246.9073899446</v>
+        <v>160132.7421559412</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>671719.6553327873</v>
+        <v>764241.5422503705</v>
       </c>
       <c r="C383" t="n">
-        <v>158188.5713168494</v>
+        <v>195932.924696819</v>
       </c>
       <c r="D383" t="n">
-        <v>131246.6615748056</v>
+        <v>160132.4422399047</v>
       </c>
       <c r="E383" t="n">
-        <v>14792.36548681183</v>
+        <v>18236.07607853063</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>668295.1410602309</v>
+        <v>760687.782292049</v>
       </c>
       <c r="C384" t="n">
-        <v>158184.3549229649</v>
+        <v>195927.7022564202</v>
       </c>
       <c r="D384" t="n">
-        <v>131246.3685154246</v>
+        <v>160132.0846817478</v>
       </c>
       <c r="E384" t="n">
-        <v>29717.68544224445</v>
+        <v>36636.05885656182</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>664830.7014505072</v>
+        <v>757088.8821889082</v>
       </c>
       <c r="C385" t="n">
-        <v>158179.5453159233</v>
+        <v>195921.745060104</v>
       </c>
       <c r="D385" t="n">
-        <v>131246.0197160279</v>
+        <v>160131.6591158815</v>
       </c>
       <c r="E385" t="n">
-        <v>44774.36399157561</v>
+        <v>55197.9809345676</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>661325.7846204436</v>
+        <v>753444.064124796</v>
       </c>
       <c r="C386" t="n">
-        <v>158174.0662234558</v>
+        <v>195914.9586367682</v>
       </c>
       <c r="D386" t="n">
-        <v>131245.6052695541</v>
+        <v>160131.1534548214</v>
       </c>
       <c r="E386" t="n">
-        <v>59960.74680662612</v>
+        <v>73919.80285141096</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>657779.8320250503</v>
+        <v>749752.5364073183</v>
       </c>
       <c r="C387" t="n">
-        <v>158167.8326440614</v>
+        <v>195907.2377032526</v>
       </c>
       <c r="D387" t="n">
-        <v>131245.1136452721</v>
+        <v>160130.553630064</v>
       </c>
       <c r="E387" t="n">
-        <v>75275.1246716508</v>
+        <v>92799.41748038583</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>654192.278622342</v>
+        <v>746013.4936202219</v>
       </c>
       <c r="C388" t="n">
-        <v>158160.7500003999</v>
+        <v>195898.4651157285</v>
       </c>
       <c r="D388" t="n">
-        <v>131244.5314483911</v>
+        <v>160129.8432987892</v>
       </c>
       <c r="E388" t="n">
-        <v>90715.73726942047</v>
+        <v>111834.6546967111</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>650562.5530835267</v>
+        <v>742226.1168413325</v>
       </c>
       <c r="C389" t="n">
-        <v>158152.7132309717</v>
+        <v>195888.5107446506</v>
       </c>
       <c r="D389" t="n">
-        <v>131243.8431486402</v>
+        <v>160129.0035127041</v>
       </c>
       <c r="E389" t="n">
-        <v>106280.7771806942</v>
+        <v>131023.286308093</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>646890.0780539745</v>
+        <v>738389.5739332025</v>
       </c>
       <c r="C390" t="n">
-        <v>158143.6058182291</v>
+        <v>195877.2302709715</v>
       </c>
       <c r="D390" t="n">
-        <v>131243.0307745767</v>
+        <v>160128.0123450718</v>
       </c>
       <c r="E390" t="n">
-        <v>121968.3940892228</v>
+        <v>150363.0312386673</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>643174.2704706956</v>
+        <v>734503.0199139232</v>
       </c>
       <c r="C391" t="n">
-        <v>158133.2987515735</v>
+        <v>195864.4639017068</v>
       </c>
       <c r="D391" t="n">
-        <v>131242.0735701663</v>
+        <v>160126.8444717094</v>
       </c>
       <c r="E391" t="n">
-        <v>137776.6991833312</v>
+        <v>169851.5609552838</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>639414.5419423048</v>
+        <v>730565.5974159031</v>
       </c>
       <c r="C392" t="n">
-        <v>158121.6494240747</v>
+        <v>195850.0350034078</v>
       </c>
       <c r="D392" t="n">
-        <v>131240.9476099687</v>
+        <v>160125.4707014806</v>
       </c>
       <c r="E392" t="n">
-        <v>153703.7697440292</v>
+        <v>189486.5051237445</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>635610.2991977225</v>
+        <v>726576.4372406866</v>
       </c>
       <c r="C393" t="n">
-        <v>158108.5004621878</v>
+        <v>195833.7486526445</v>
       </c>
       <c r="D393" t="n">
-        <v>131239.6253690627</v>
+        <v>160123.8574515666</v>
       </c>
       <c r="E393" t="n">
-        <v>153703.5800103192</v>
+        <v>189486.2712194123</v>
       </c>
       <c r="F393" t="n">
-        <v>12477.97423064338</v>
+        <v>16696.75256591634</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>631760.9446100513</v>
+        <v>722534.659018139</v>
       </c>
       <c r="C394" t="n">
-        <v>158093.6784882521</v>
+        <v>195815.390103232</v>
       </c>
       <c r="D394" t="n">
-        <v>131238.0752436582</v>
+        <v>160121.9661625705</v>
       </c>
       <c r="E394" t="n">
-        <v>153703.3502118803</v>
+        <v>189485.9879231526</v>
       </c>
       <c r="F394" t="n">
-        <v>25045.29232706106</v>
+        <v>33513.05598139705</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>627865.8768023031</v>
+        <v>718439.3719785463</v>
       </c>
       <c r="C395" t="n">
-        <v>158076.9928161431</v>
+        <v>195794.7231706614</v>
       </c>
       <c r="D395" t="n">
-        <v>131236.2610181775</v>
+        <v>160119.7526483103</v>
       </c>
       <c r="E395" t="n">
-        <v>153703.0724171616</v>
+        <v>189485.6454569238</v>
       </c>
       <c r="F395" t="n">
-        <v>37700.40871194858</v>
+        <v>50446.84211251697</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>623924.4913417628</v>
+        <v>714289.6758463404</v>
       </c>
       <c r="C396" t="n">
-        <v>158058.2340811059</v>
+        <v>195771.4885350056</v>
       </c>
       <c r="D396" t="n">
-        <v>131234.1412744521</v>
+        <v>160117.1663749865</v>
       </c>
       <c r="E396" t="n">
-        <v>153702.7372396757</v>
+        <v>189485.2322490336</v>
       </c>
       <c r="F396" t="n">
-        <v>50441.76810510342</v>
+        <v>67496.02984192225</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>619936.1815299216</v>
+        <v>710084.6618642632</v>
       </c>
       <c r="C397" t="n">
-        <v>158037.172805533</v>
+        <v>195745.4019644873</v>
       </c>
       <c r="D397" t="n">
-        <v>131231.6687385702</v>
+        <v>160114.149664279</v>
       </c>
       <c r="E397" t="n">
-        <v>153702.3335949895</v>
+        <v>189484.7346345572</v>
       </c>
       <c r="F397" t="n">
-        <v>63267.80985730368</v>
+        <v>84658.53086798485</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>615900.3392949591</v>
+        <v>705823.4139568594</v>
       </c>
       <c r="C398" t="n">
-        <v>158013.5579032688</v>
+        <v>195716.1524629049</v>
       </c>
       <c r="D398" t="n">
-        <v>131228.789560851</v>
+        <v>160110.6368148527</v>
       </c>
       <c r="E398" t="n">
-        <v>153701.8484218126</v>
+        <v>189484.1365114934</v>
       </c>
       <c r="F398" t="n">
-        <v>76176.97239109922</v>
+        <v>101932.2556470164</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>611816.356193785</v>
+        <v>701505.0100421436</v>
       </c>
       <c r="C399" t="n">
-        <v>157987.1151259142</v>
+        <v>195683.4003452199</v>
       </c>
       <c r="D399" t="n">
-        <v>131225.4425244008</v>
+        <v>160106.5531367263</v>
       </c>
       <c r="E399" t="n">
-        <v>153701.2663627431</v>
+        <v>189483.4189471875</v>
       </c>
       <c r="F399" t="n">
-        <v>89167.69773757725</v>
+        <v>119315.1194639052</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>607683.6245305834</v>
+        <v>697128.5235002254</v>
       </c>
       <c r="C400" t="n">
-        <v>157957.5454555819</v>
+        <v>195646.775246818</v>
       </c>
       <c r="D400" t="n">
-        <v>131221.5581777482</v>
+        <v>160101.8138930113</v>
       </c>
       <c r="E400" t="n">
-        <v>153700.5693998437</v>
+        <v>189482.559729068</v>
       </c>
       <c r="F400" t="n">
-        <v>102238.4361574196</v>
+        <v>136805.0486155437</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>603501.538598725</v>
+        <v>692693.0248074938</v>
       </c>
       <c r="C401" t="n">
-        <v>157924.5234496047</v>
+        <v>195605.8740732591</v>
       </c>
       <c r="D401" t="n">
-        <v>131217.0578871636</v>
+        <v>160096.3231436585</v>
       </c>
       <c r="E401" t="n">
-        <v>153699.7364398103</v>
+        <v>189481.5328532411</v>
       </c>
       <c r="F401" t="n">
-        <v>115387.6508338631</v>
+        <v>154399.9866904697</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>599269.4960527038</v>
+        <v>688197.5833447007</v>
       </c>
       <c r="C402" t="n">
-        <v>157887.6955438265</v>
+        <v>195560.2588987271</v>
       </c>
       <c r="D402" t="n">
-        <v>131211.8528044474</v>
+        <v>160089.9724860691</v>
       </c>
       <c r="E402" t="n">
-        <v>153698.7428430924</v>
+        <v>189480.3079439895</v>
       </c>
       <c r="F402" t="n">
-        <v>128613.8226243765</v>
+        <v>172097.9009270756</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>594986.8994165291</v>
+        <v>683641.2693869632</v>
       </c>
       <c r="C403" t="n">
-        <v>157846.6783223004</v>
+        <v>195509.4548228724</v>
       </c>
       <c r="D403" t="n">
-        <v>131205.8427462434</v>
+        <v>160082.639687759</v>
       </c>
       <c r="E403" t="n">
-        <v>153697.55989092</v>
+        <v>189478.8495967202</v>
       </c>
       <c r="F403" t="n">
-        <v>128613.7100235687</v>
+        <v>172097.750256158</v>
       </c>
       <c r="G403" t="n">
-        <v>9407.880085329012</v>
+        <v>12249.59789225457</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>590653.1577346569</v>
+        <v>679023.1562832126</v>
       </c>
       <c r="C404" t="n">
-        <v>157801.0567624879</v>
+        <v>195452.9477973085</v>
       </c>
       <c r="D404" t="n">
-        <v>131198.9149812938</v>
+        <v>160074.1872067028</v>
       </c>
       <c r="E404" t="n">
-        <v>153696.1541837965</v>
+        <v>189477.1166364259</v>
       </c>
       <c r="F404" t="n">
-        <v>128613.5717934781</v>
+        <v>172097.565290748</v>
       </c>
       <c r="G404" t="n">
-        <v>18868.10970948671</v>
+        <v>24567.35787784793</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>586267.6883711345</v>
+        <v>674342.3228321011</v>
       </c>
       <c r="C405" t="n">
-        <v>157750.3824663634</v>
+        <v>195390.1824346533</v>
       </c>
       <c r="D405" t="n">
-        <v>131190.9429225231</v>
+        <v>160064.4605955623</v>
       </c>
       <c r="E405" t="n">
-        <v>153694.4869646448</v>
+        <v>189475.0612832562</v>
       </c>
       <c r="F405" t="n">
-        <v>128613.4024574894</v>
+        <v>172097.3387025975</v>
       </c>
       <c r="G405" t="n">
-        <v>28379.67623630365</v>
+        <v>36951.96144657647</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>581829.9189621308</v>
+        <v>669597.8558607004</v>
       </c>
       <c r="C406" t="n">
-        <v>157694.1718892072</v>
+        <v>195320.559814704</v>
       </c>
       <c r="D406" t="n">
-        <v>131181.7847214228</v>
+        <v>160053.2867867116</v>
       </c>
       <c r="E406" t="n">
-        <v>153692.5133594479</v>
+        <v>189472.6282163778</v>
       </c>
       <c r="F406" t="n">
-        <v>128613.1954522967</v>
+        <v>172097.0617093597</v>
       </c>
       <c r="G406" t="n">
-        <v>37941.59395049852</v>
+        <v>49402.12514077249</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>577339.2895264301</v>
+        <v>664788.8530115361</v>
       </c>
       <c r="C407" t="n">
-        <v>157631.9045792661</v>
+        <v>195243.4353040759</v>
       </c>
       <c r="D407" t="n">
-        <v>131171.2817629145</v>
+        <v>160040.472255839</v>
       </c>
       <c r="E407" t="n">
-        <v>153690.1815279206</v>
+        <v>189469.7535269191</v>
       </c>
       <c r="F407" t="n">
-        <v>128612.9429308814</v>
+        <v>172096.7238109549</v>
       </c>
       <c r="G407" t="n">
-        <v>47552.90760535745</v>
+        <v>61916.60517458554</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>572795.2547377701</v>
+        <v>659914.4257426354</v>
       </c>
       <c r="C408" t="n">
-        <v>157563.0214428982</v>
+        <v>195158.1164074041</v>
       </c>
       <c r="D408" t="n">
-        <v>131159.2570597157</v>
+        <v>160025.8010629315</v>
       </c>
       <c r="E408" t="n">
-        <v>153687.4317165009</v>
+        <v>189466.3635504954</v>
       </c>
       <c r="F408" t="n">
-        <v>128612.6355336924</v>
+        <v>172096.312483386</v>
       </c>
       <c r="G408" t="n">
-        <v>57212.69596595062</v>
+        <v>74494.20204745313</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>568197.2863621307</v>
+        <v>654973.7025442182</v>
       </c>
       <c r="C409" t="n">
-        <v>157486.9230512559</v>
+        <v>195063.8606699947</v>
       </c>
       <c r="D409" t="n">
-        <v>131145.5135462119</v>
+        <v>160009.0327706496</v>
       </c>
       <c r="E409" t="n">
-        <v>153684.1952057663</v>
+        <v>189462.37356958</v>
       </c>
       <c r="F409" t="n">
-        <v>128612.2621236732</v>
+        <v>172095.8128241801</v>
       </c>
       <c r="G409" t="n">
-        <v>66920.07533717586</v>
+        <v>87133.76513781509</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>563544.8758621877</v>
+        <v>649965.8323745438</v>
       </c>
       <c r="C410" t="n">
-        <v>157402.9680059945</v>
+        <v>194959.8736535866</v>
       </c>
       <c r="D410" t="n">
-        <v>131129.8322729724</v>
+        <v>159989.9002414777</v>
       </c>
       <c r="E410" t="n">
-        <v>153680.3931442833</v>
+        <v>189457.6863758705</v>
       </c>
       <c r="F410" t="n">
-        <v>128611.8094803379</v>
+        <v>172095.2071430309</v>
       </c>
       <c r="G410" t="n">
-        <v>76674.20306541101</v>
+        <v>99834.19726246549</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>558837.5371701603</v>
+        <v>644889.9883161611</v>
       </c>
       <c r="C411" t="n">
-        <v>157310.4713829067</v>
+        <v>194845.3070086304</v>
       </c>
       <c r="D411" t="n">
-        <v>131111.97050433</v>
+        <v>159968.1073166056</v>
       </c>
       <c r="E411" t="n">
-        <v>153675.935260904</v>
+        <v>189452.1906828032</v>
       </c>
       <c r="F411" t="n">
-        <v>128611.261947628</v>
+        <v>172094.474490598</v>
       </c>
       <c r="G411" t="n">
-        <v>86474.28100210028</v>
+        <v>112594.4591863398</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>554074.8096292099</v>
+        <v>639745.3714524228</v>
       </c>
       <c r="C412" t="n">
-        <v>157208.7032737424</v>
+        <v>194719.2566681826</v>
       </c>
       <c r="D412" t="n">
-        <v>131091.6597228891</v>
+        <v>159943.3263812514</v>
       </c>
       <c r="E412" t="n">
-        <v>153670.7184476456</v>
+        <v>189445.7593785232</v>
       </c>
       <c r="F412" t="n">
-        <v>128610.6010298021</v>
+        <v>172093.5901177661</v>
       </c>
       <c r="G412" t="n">
-        <v>96319.55891702158</v>
+        <v>125413.5740667845</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>549256.2611023545</v>
+        <v>634531.2149626287</v>
       </c>
       <c r="C413" t="n">
-        <v>157096.8874477773</v>
+        <v>194580.7611901191</v>
       </c>
       <c r="D413" t="n">
-        <v>131068.6035464191</v>
+        <v>159915.1958230905</v>
       </c>
       <c r="E413" t="n">
-        <v>153664.6252055539</v>
+        <v>189438.247609939</v>
       </c>
       <c r="F413" t="n">
-        <v>128609.8049291176</v>
+        <v>172092.5248570195</v>
       </c>
       <c r="G413" t="n">
-        <v>96319.49438286414</v>
+        <v>125413.4900396209</v>
       </c>
       <c r="H413" t="n">
-        <v>9991.868392263759</v>
+        <v>13385.84678924146</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>544381.4912466098</v>
+        <v>629246.7884325469</v>
       </c>
       <c r="C414" t="n">
-        <v>156974.2001558984</v>
+        <v>194428.8002758705</v>
       </c>
       <c r="D414" t="n">
-        <v>131042.4755643529</v>
+        <v>159883.3173925929</v>
       </c>
       <c r="E414" t="n">
-        <v>153657.5219463724</v>
+        <v>189429.4906890156</v>
       </c>
       <c r="F414" t="n">
-        <v>128608.848018578</v>
+        <v>172091.2444169245</v>
       </c>
       <c r="G414" t="n">
-        <v>96319.41429817016</v>
+        <v>125413.3857647694</v>
       </c>
       <c r="H414" t="n">
-        <v>20028.06152275848</v>
+        <v>26831.07428003343</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>539450.1349486837</v>
+        <v>623891.4023753279</v>
       </c>
       <c r="C415" t="n">
-        <v>156839.7691010672</v>
+        <v>194262.293495236</v>
       </c>
       <c r="D415" t="n">
-        <v>131012.9171030119</v>
+        <v>159847.2534764018</v>
       </c>
       <c r="E415" t="n">
-        <v>153649.2571434448</v>
+        <v>189419.3018132001</v>
       </c>
       <c r="F415" t="n">
-        <v>128607.7002425307</v>
+        <v>172089.7085800725</v>
       </c>
       <c r="G415" t="n">
-        <v>96319.31514169772</v>
+        <v>125413.2566573717</v>
       </c>
       <c r="H415" t="n">
-        <v>30107.99020201236</v>
+        <v>40334.89315053039</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>534461.8659171275</v>
+        <v>618464.412955998</v>
       </c>
       <c r="C416" t="n">
-        <v>156692.6725999819</v>
+        <v>194080.0992480133</v>
       </c>
       <c r="D416" t="n">
-        <v>130979.5349307347</v>
+        <v>159806.5242973897</v>
       </c>
       <c r="E416" t="n">
-        <v>153639.6593260777</v>
+        <v>189407.4695928665</v>
       </c>
       <c r="F416" t="n">
-        <v>128606.3264374423</v>
+        <v>172087.8702942088</v>
       </c>
       <c r="G416" t="n">
-        <v>96319.19265072068</v>
+        <v>125413.0971671146</v>
       </c>
       <c r="H416" t="n">
-        <v>40231.12741942333</v>
+        <v>53896.59737830504</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>529416.4004243029</v>
+        <v>612965.226910802</v>
       </c>
       <c r="C417" t="n">
-        <v>156531.9389615385</v>
+        <v>193881.0139941596</v>
       </c>
       <c r="D417" t="n">
-        <v>130941.8989162736</v>
+        <v>159760.6050576961</v>
       </c>
       <c r="E417" t="n">
-        <v>153628.5349126224</v>
+        <v>189393.7553799314</v>
       </c>
       <c r="F417" t="n">
-        <v>128604.6855647417</v>
+        <v>172085.6746457032</v>
       </c>
       <c r="G417" t="n">
-        <v>96319.0416780215</v>
+        <v>125412.9005920263</v>
       </c>
       <c r="H417" t="n">
-        <v>50397.01147461366</v>
+        <v>67515.56843534281</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>524313.501189941</v>
+        <v>607393.30665063</v>
       </c>
       <c r="C418" t="n">
-        <v>156356.5461082924</v>
+        <v>193663.7717849319</v>
       </c>
       <c r="D418" t="n">
-        <v>130899.5396561295</v>
+        <v>159708.9230438685</v>
       </c>
       <c r="E418" t="n">
-        <v>153615.665878794</v>
+        <v>189377.8903933502</v>
       </c>
       <c r="F418" t="n">
-        <v>128602.7298472409</v>
+        <v>172083.0577039949</v>
       </c>
       <c r="G418" t="n">
-        <v>96318.85602422517</v>
+        <v>125412.6588601663</v>
       </c>
       <c r="H418" t="n">
-        <v>60605.248994738</v>
+        <v>81191.27933025105</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>519152.9813964111</v>
+        <v>601748.175535698</v>
       </c>
       <c r="C419" t="n">
-        <v>156165.4214674908</v>
+        <v>193427.04412792</v>
       </c>
       <c r="D419" t="n">
-        <v>130851.9460889083</v>
+        <v>159650.854716167</v>
       </c>
       <c r="E419" t="n">
-        <v>153600.8072592806</v>
+        <v>189359.5726390932</v>
       </c>
       <c r="F419" t="n">
-        <v>128600.4038003156</v>
+        <v>172079.9452252181</v>
       </c>
       <c r="G419" t="n">
-        <v>96318.62824183695</v>
+        <v>125412.3622744704</v>
       </c>
       <c r="H419" t="n">
-        <v>70855.51782389496</v>
+        <v>94923.29847912882</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>513934.7088241126</v>
+        <v>596029.4233065036</v>
       </c>
       <c r="C420" t="n">
-        <v>155957.4421583752</v>
+        <v>193169.4402190395</v>
       </c>
       <c r="D420" t="n">
-        <v>130798.5631172641</v>
+        <v>159585.7228071277</v>
       </c>
       <c r="E420" t="n">
-        <v>153583.6844824951</v>
+        <v>189338.4636244184</v>
       </c>
       <c r="F420" t="n">
-        <v>128597.6431487908</v>
+        <v>172076.251202889</v>
       </c>
       <c r="G420" t="n">
-        <v>96318.34940693156</v>
+        <v>125411.9992154774</v>
       </c>
       <c r="H420" t="n">
-        <v>81147.56977023173</v>
+        <v>108711.2933857917</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>508658.6100936549</v>
+        <v>590236.7116538625</v>
       </c>
       <c r="C421" t="n">
-        <v>155731.4355023032</v>
+        <v>192889.5075743707</v>
       </c>
       <c r="D421" t="n">
-        <v>130738.7892605442</v>
+        <v>159512.7934575823</v>
       </c>
       <c r="E421" t="n">
-        <v>153563.9905404175</v>
+        <v>189314.1848688445</v>
       </c>
       <c r="F421" t="n">
-        <v>128594.3736203364</v>
+        <v>172071.8762533499</v>
       </c>
       <c r="G421" t="n">
-        <v>96318.00885400441</v>
+        <v>125411.5557960906</v>
       </c>
       <c r="H421" t="n">
-        <v>91481.23319574437</v>
+        <v>122555.0341112599</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>503324.6749997309</v>
+        <v>584369.7799086538</v>
       </c>
       <c r="C422" t="n">
-        <v>155486.1798817955</v>
+        <v>192585.7330941766</v>
       </c>
       <c r="D422" t="n">
-        <v>130671.9743638043</v>
+        <v>159431.2734214565</v>
       </c>
       <c r="E422" t="n">
-        <v>153541.3829978752</v>
+        <v>189286.3142171819</v>
       </c>
       <c r="F422" t="n">
-        <v>128590.509606161</v>
+        <v>172066.7058236466</v>
       </c>
       <c r="G422" t="n">
-        <v>96317.59386903617</v>
+        <v>125411.0154619296</v>
       </c>
       <c r="H422" t="n">
-        <v>101856.4154331297</v>
+        <v>136454.3965115522</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>497932.9609198101</v>
+        <v>578428.4508296299</v>
       </c>
       <c r="C423" t="n">
-        <v>155220.4059738429</v>
+        <v>192256.5445904829</v>
       </c>
       <c r="D423" t="n">
-        <v>130597.4173914159</v>
+        <v>159340.3073737771</v>
       </c>
       <c r="E423" t="n">
-        <v>153515.4808483121</v>
+        <v>189254.3819633141</v>
       </c>
       <c r="F423" t="n">
-        <v>128585.9526799287</v>
+        <v>172060.6082096945</v>
       </c>
       <c r="G423" t="n">
-        <v>96317.08933534911</v>
+        <v>125410.3585302156</v>
       </c>
       <c r="H423" t="n">
-        <v>112273.1050133939</v>
+        <v>150409.3652219551</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>492483.5972789999</v>
+        <v>572412.6364654596</v>
       </c>
       <c r="C424" t="n">
-        <v>154932.7983817029</v>
+        <v>191900.3128082251</v>
       </c>
       <c r="D424" t="n">
-        <v>130514.3643359786</v>
+        <v>159238.9753593619</v>
       </c>
       <c r="E424" t="n">
-        <v>153485.8612261149</v>
+        <v>189217.8667971437</v>
       </c>
       <c r="F424" t="n">
-        <v>128580.5899661306</v>
+        <v>172053.4323729991</v>
       </c>
       <c r="G424" t="n">
-        <v>96316.47732635048</v>
+        <v>125409.5616594996</v>
       </c>
       <c r="H424" t="n">
-        <v>122731.3736871784</v>
+        <v>164420.0363649409</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>486976.790050684</v>
+        <v>566322.3440649575</v>
       </c>
       <c r="C425" t="n">
-        <v>154621.9976879372</v>
+        <v>191515.3539681497</v>
       </c>
       <c r="D425" t="n">
-        <v>130422.0062756464</v>
+        <v>159126.2904225865</v>
       </c>
       <c r="E425" t="n">
-        <v>153452.0559888896</v>
+        <v>189176.191591211</v>
       </c>
       <c r="F425" t="n">
-        <v>128574.2923496492</v>
+        <v>172045.0055448778</v>
       </c>
       <c r="G425" t="n">
-        <v>96315.73663877367</v>
+        <v>125408.5972419159</v>
       </c>
       <c r="H425" t="n">
-        <v>133231.3782220427</v>
+        <v>178486.6199579412</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>481412.8262708341</v>
+        <v>560157.6820073447</v>
       </c>
       <c r="C426" t="n">
-        <v>154286.6029496006</v>
+        <v>191099.932857363</v>
       </c>
       <c r="D426" t="n">
-        <v>130319.4776152256</v>
+        <v>159001.1964613705</v>
       </c>
       <c r="E426" t="n">
-        <v>153413.5481867013</v>
+        <v>189128.7190479623</v>
       </c>
       <c r="F426" t="n">
-        <v>128566.9125189918</v>
+        <v>172035.1306081142</v>
       </c>
       <c r="G426" t="n">
-        <v>96314.84225955218</v>
+        <v>125407.4327090215</v>
       </c>
       <c r="H426" t="n">
-        <v>143773.3619571149</v>
+        <v>192609.4419960705</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>475792.0785422462</v>
+        <v>553918.8657222989</v>
       </c>
       <c r="C427" t="n">
-        <v>153925.1746542521</v>
+        <v>190652.266490657</v>
       </c>
       <c r="D427" t="n">
-        <v>130205.8545484574</v>
+        <v>158862.5663510266</v>
       </c>
       <c r="E427" t="n">
-        <v>153369.7684391945</v>
+        <v>189074.7472334513</v>
       </c>
       <c r="F427" t="n">
-        <v>128558.2828366593</v>
+        <v>172023.5832473035</v>
       </c>
       <c r="G427" t="n">
-        <v>96313.76475900352</v>
+        <v>125406.0297416867</v>
       </c>
       <c r="H427" t="n">
-        <v>154357.6560957118</v>
+        <v>206788.9461838179</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>470115.0095033852</v>
+        <v>547606.2235676139</v>
       </c>
       <c r="C428" t="n">
-        <v>153536.2381528334</v>
+        <v>190170.5283624854</v>
       </c>
       <c r="D428" t="n">
-        <v>130080.1537807003</v>
+        <v>158709.2003858214</v>
       </c>
       <c r="E428" t="n">
-        <v>153320.0912456659</v>
+        <v>189013.5050283852</v>
       </c>
       <c r="F428" t="n">
-        <v>128548.2130313911</v>
+        <v>172010.1088608492</v>
       </c>
       <c r="G428" t="n">
-        <v>96312.46960257743</v>
+        <v>125404.343373952</v>
       </c>
       <c r="H428" t="n">
-        <v>164984.6807156634</v>
+        <v>221025.6952885508</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>464382.1762350446</v>
+        <v>541220.2026304459</v>
       </c>
       <c r="C429" t="n">
-        <v>153118.2875824346</v>
+        <v>189652.8533057147</v>
       </c>
       <c r="D429" t="n">
-        <v>129941.3315527265</v>
+        <v>158539.8250879213</v>
       </c>
       <c r="E429" t="n">
-        <v>153263.8312575427</v>
+        <v>188944.147532824</v>
       </c>
       <c r="F429" t="n">
-        <v>128536.4877086085</v>
+        <v>171994.4192296929</v>
       </c>
       <c r="G429" t="n">
-        <v>96310.91637304638</v>
+        <v>125402.3209802759</v>
       </c>
       <c r="H429" t="n">
-        <v>175654.9454761659</v>
+        <v>235320.3720874681</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>458594.2345766898</v>
+        <v>534761.3744164415</v>
       </c>
       <c r="C430" t="n">
-        <v>152669.7902885505</v>
+        <v>189097.3429690463</v>
       </c>
       <c r="D430" t="n">
-        <v>129788.283007482</v>
+        <v>158353.092434784</v>
       </c>
       <c r="E430" t="n">
-        <v>153200.2395472793</v>
+        <v>188865.7514664639</v>
       </c>
       <c r="F430" t="n">
-        <v>128522.8636772933</v>
+        <v>171976.1889404155</v>
       </c>
       <c r="G430" t="n">
-        <v>96309.05789470786</v>
+        <v>125399.9011351958</v>
       </c>
       <c r="H430" t="n">
-        <v>186369.0499990898</v>
+        <v>249673.7798784294</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>452751.9433231279</v>
+        <v>528230.4403895373</v>
       </c>
       <c r="C431" t="n">
-        <v>152189.1917526294</v>
+        <v>188502.0719202963</v>
       </c>
       <c r="D431" t="n">
-        <v>129619.8419423781</v>
+        <v>158147.5795569331</v>
       </c>
       <c r="E431" t="n">
-        <v>153128.4999123711</v>
+        <v>188777.3106122139</v>
       </c>
       <c r="F431" t="n">
-        <v>128507.0670938074</v>
+        <v>171955.0515633882</v>
       </c>
       <c r="G431" t="n">
-        <v>96306.83925094403</v>
+        <v>125397.0123341348</v>
       </c>
       <c r="H431" t="n">
-        <v>197127.6839017283</v>
+        <v>264086.8425238262</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>446856.1682711066</v>
+        <v>521628.2373239108</v>
       </c>
       <c r="C432" t="n">
-        <v>151674.9210265501</v>
+        <v>187865.0943775581</v>
       </c>
       <c r="D432" t="n">
-        <v>129434.780989923</v>
+        <v>157921.7889583433</v>
       </c>
       <c r="E432" t="n">
-        <v>153047.7252579413</v>
+        <v>188677.7313566369</v>
       </c>
       <c r="F432" t="n">
-        <v>128488.7904257982</v>
+        <v>171930.5955901799</v>
       </c>
       <c r="G432" t="n">
-        <v>96304.19668636947</v>
+        <v>125393.5715639348</v>
       </c>
       <c r="H432" t="n">
-        <v>207931.6264570254</v>
+        <v>278560.603995399</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>440907.8860845612</v>
+        <v>514955.7424284804</v>
       </c>
       <c r="C433" t="n">
-        <v>151125.3966711477</v>
+        <v>187184.451564681</v>
       </c>
       <c r="D433" t="n">
-        <v>129231.8122692129</v>
+        <v>157674.1493113181</v>
       </c>
       <c r="E433" t="n">
-        <v>152956.9541061039</v>
+        <v>188565.8283866814</v>
       </c>
       <c r="F433" t="n">
-        <v>128467.689242356</v>
+        <v>171902.3601384735</v>
       </c>
       <c r="G433" t="n">
-        <v>96301.05638481511</v>
+        <v>125389.4827117223</v>
       </c>
       <c r="H433" t="n">
-        <v>218781.7458564129</v>
+        <v>293096.2273866788</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>434908.1879465587</v>
+        <v>508214.0782035147</v>
       </c>
       <c r="C434" t="n">
-        <v>150539.0331910728</v>
+        <v>186458.1796815095</v>
       </c>
       <c r="D434" t="n">
-        <v>129009.5885499336</v>
+        <v>157403.0168766729</v>
       </c>
       <c r="E434" t="n">
-        <v>152855.1472849764</v>
+        <v>188440.320607885</v>
       </c>
       <c r="F434" t="n">
-        <v>128443.3788400063</v>
+        <v>171869.8304373131</v>
       </c>
       <c r="G434" t="n">
-        <v>96297.33311457044</v>
+        <v>125384.6348009361</v>
       </c>
       <c r="H434" t="n">
-        <v>229678.9980494461</v>
+        <v>307694.9933584772</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>428858.2829655228</v>
+        <v>501404.5169883492</v>
       </c>
       <c r="C435" t="n">
-        <v>149914.2479531548</v>
+        <v>185684.3184729936</v>
       </c>
       <c r="D435" t="n">
-        <v>128766.704969024</v>
+        <v>157106.6775982155</v>
       </c>
       <c r="E435" t="n">
-        <v>152741.1848547049</v>
+        <v>188299.8273547688</v>
       </c>
       <c r="F435" t="n">
-        <v>128415.4307179188</v>
+        <v>171832.4331105874</v>
       </c>
       <c r="G435" t="n">
-        <v>96292.92873266643</v>
+        <v>125378.9000438177</v>
       </c>
       <c r="H435" t="n">
-        <v>240624.4251335848</v>
+        <v>322358.2979817179</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>422759.5013030968</v>
+        <v>494528.4851589269</v>
       </c>
       <c r="C436" t="n">
-        <v>149249.4685700793</v>
+        <v>184860.9203746365</v>
       </c>
       <c r="D436" t="n">
-        <v>128501.7013379838</v>
+        <v>156783.3499178636</v>
       </c>
       <c r="E436" t="n">
-        <v>152613.8633320883</v>
+        <v>188142.864969345</v>
       </c>
       <c r="F436" t="n">
-        <v>128383.3689199027</v>
+        <v>171789.5312822619</v>
       </c>
       <c r="G436" t="n">
-        <v>96287.73054055452</v>
+        <v>125372.131700412</v>
       </c>
       <c r="H436" t="n">
-        <v>251619.1532666101</v>
+        <v>337087.6499407558</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>416613.2969910168</v>
+        <v>487587.5669339215</v>
       </c>
       <c r="C437" t="n">
-        <v>148543.1407256335</v>
+        <v>183986.060204872</v>
       </c>
       <c r="D437" t="n">
-        <v>128213.0650759356</v>
+        <v>156431.1883542384</v>
       </c>
       <c r="E437" t="n">
-        <v>152471.893279233</v>
+        <v>187967.8438284025</v>
       </c>
       <c r="F437" t="n">
-        <v>128346.6662653024</v>
+        <v>171740.4195329471</v>
       </c>
       <c r="G437" t="n">
-        <v>96281.60948435281</v>
+        <v>125364.1617351842</v>
       </c>
       <c r="H437" t="n">
-        <v>262664.3900734655</v>
+        <v>351884.6670593892</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>410421.2504046491</v>
+        <v>480583.5077485524</v>
       </c>
       <c r="C438" t="n">
-        <v>147793.7364120816</v>
+        <v>183057.8453679066</v>
       </c>
       <c r="D438" t="n">
-        <v>127899.2347999469</v>
+        <v>156048.287883172</v>
       </c>
       <c r="E438" t="n">
-        <v>152313.8973250283</v>
+        <v>187773.0659043749</v>
       </c>
       <c r="F438" t="n">
-        <v>128304.7404957928</v>
+        <v>171684.3187439328</v>
       </c>
       <c r="G438" t="n">
-        <v>96274.41819391683</v>
+        <v>125354.7982637786</v>
       </c>
       <c r="H438" t="n">
-        <v>273761.4215186315</v>
+        <v>366751.0721108603</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>404185.0703613956</v>
+        <v>473518.2171559075</v>
       </c>
       <c r="C439" t="n">
-        <v>146999.7625444524</v>
+        <v>182074.4265234073</v>
       </c>
       <c r="D439" t="n">
-        <v>127558.6045997658</v>
+        <v>155632.68915326</v>
       </c>
       <c r="E439" t="n">
-        <v>152138.408690986</v>
+        <v>187556.7229479921</v>
       </c>
       <c r="F439" t="n">
-        <v>128256.9503702461</v>
+        <v>171620.3708717383</v>
       </c>
       <c r="G439" t="n">
-        <v>96265.9888563788</v>
+        <v>125343.8227842441</v>
       </c>
       <c r="H439" t="n">
-        <v>284911.6082146713</v>
+        <v>381688.687872512</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>397906.5958129998</v>
+        <v>466393.7712166395</v>
       </c>
       <c r="C440" t="n">
-        <v>146159.7699107352</v>
+        <v>181034.0086722444</v>
       </c>
       <c r="D440" t="n">
-        <v>127189.5290190219</v>
+        <v>155182.3845633643</v>
       </c>
       <c r="E440" t="n">
-        <v>151943.8702950279</v>
+        <v>187316.8953834251</v>
       </c>
       <c r="F440" t="n">
-        <v>128202.5917452692</v>
+        <v>171547.633703486</v>
       </c>
       <c r="G440" t="n">
-        <v>96256.13092151034</v>
+        <v>125330.9871892863</v>
       </c>
       <c r="H440" t="n">
-        <v>296116.3811372063</v>
+        <v>396699.4313852488</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>391587.7971019121</v>
+        <v>459212.4143393104</v>
       </c>
       <c r="C441" t="n">
-        <v>145272.3624112362</v>
+        <v>179934.8626003927</v>
       </c>
       <c r="D441" t="n">
-        <v>126790.3287590919</v>
+        <v>154695.3252218285</v>
       </c>
       <c r="E441" t="n">
-        <v>151728.6345079928</v>
+        <v>187051.5520081079</v>
       </c>
       <c r="F441" t="n">
-        <v>128140.8936846025</v>
+        <v>171465.0756508961</v>
       </c>
       <c r="G441" t="n">
-        <v>96244.62863832597</v>
+        <v>125316.0105587837</v>
       </c>
       <c r="H441" t="n">
-        <v>307377.2367164536</v>
+        <v>411785.3073777998</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>385230.7767532813</v>
+        <v>451976.560535436</v>
       </c>
       <c r="C442" t="n">
-        <v>144336.2065347459</v>
+        <v>178775.3366161454</v>
       </c>
       <c r="D442" t="n">
-        <v>126359.2971152521</v>
+        <v>154169.4287991495</v>
       </c>
       <c r="E442" t="n">
-        <v>151490.9636378804</v>
+        <v>186758.5505897152</v>
       </c>
       <c r="F442" t="n">
-        <v>128071.0146462776</v>
+        <v>171371.57064833</v>
       </c>
       <c r="G442" t="n">
-        <v>96231.23842477535</v>
+        <v>125298.5757349765</v>
       </c>
       <c r="H442" t="n">
-        <v>318695.7312755384</v>
+        <v>426948.4008158675</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>378837.7697758442</v>
+        <v>444688.7940554243</v>
       </c>
       <c r="C443" t="n">
-        <v>143350.041013762</v>
+        <v>177553.8685091067</v>
       </c>
       <c r="D443" t="n">
-        <v>125894.7071474698</v>
+        <v>153602.5882769718</v>
       </c>
       <c r="E443" t="n">
-        <v>151229.0312160171</v>
+        <v>186435.6394517507</v>
       </c>
       <c r="F443" t="n">
-        <v>127992.0388021378</v>
+        <v>171265.8932279482</v>
       </c>
       <c r="G443" t="n">
-        <v>96215.68607518989</v>
+        <v>125278.325686403</v>
       </c>
       <c r="H443" t="n">
-        <v>330073.4747861415</v>
+        <v>442190.8685367336</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>372411.1434469884</v>
+        <v>437351.8693741068</v>
       </c>
       <c r="C444" t="n">
-        <v>142312.6865958921</v>
+        <v>176268.997653087</v>
       </c>
       <c r="D444" t="n">
-        <v>125394.8195802669</v>
+        <v>152992.6815866143</v>
       </c>
       <c r="E444" t="n">
-        <v>150940.9241573267</v>
+        <v>186080.4601367369</v>
       </c>
       <c r="F444" t="n">
-        <v>127902.9725499462</v>
+        <v>171146.713852568</v>
       </c>
       <c r="G444" t="n">
-        <v>96197.66381336152</v>
+        <v>125254.859670839</v>
       </c>
       <c r="H444" t="n">
-        <v>341512.1239127577</v>
+        <v>457514.9299308294</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>365953.3965595368</v>
+        <v>429968.7104974226</v>
       </c>
       <c r="C445" t="n">
-        <v>141223.0558638132</v>
+        <v>174919.3771691386</v>
       </c>
       <c r="D445" t="n">
-        <v>124857.8914175882</v>
+        <v>152337.5821199652</v>
       </c>
       <c r="E445" t="n">
-        <v>150624.6458636227</v>
+        <v>185690.5512319632</v>
       </c>
       <c r="F445" t="n">
-        <v>127802.7412837085</v>
+        <v>171012.5945940406</v>
       </c>
       <c r="G445" t="n">
-        <v>96176.82720274069</v>
+        <v>125227.7292121993</v>
       </c>
       <c r="H445" t="n">
-        <v>353013.3743178696</v>
+        <v>472922.8566331792</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>359467.158110384</v>
+        <v>422542.409565034</v>
       </c>
       <c r="C446" t="n">
-        <v>140080.1630318518</v>
+        <v>173503.7860596349</v>
       </c>
       <c r="D446" t="n">
-        <v>124282.1852495981</v>
+        <v>151635.1700845911</v>
       </c>
       <c r="E446" t="n">
-        <v>150278.120334221</v>
+        <v>185263.3534370632</v>
       </c>
       <c r="F446" t="n">
-        <v>127690.1864929138</v>
+        <v>170861.985251749</v>
       </c>
       <c r="G446" t="n">
-        <v>96152.79192924136</v>
+        <v>125196.4339115655</v>
       </c>
       <c r="H446" t="n">
-        <v>364578.9522018338</v>
+        <v>488416.9611896054</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>352955.1854139165</v>
+        <v>415076.2247271833</v>
       </c>
       <c r="C447" t="n">
-        <v>138883.1336434678</v>
+        <v>172021.1412196082</v>
       </c>
       <c r="D447" t="n">
-        <v>123665.9792189088</v>
+        <v>150883.3446634088</v>
       </c>
       <c r="E447" t="n">
-        <v>149899.1973421461</v>
+        <v>184796.2159452574</v>
       </c>
       <c r="F447" t="n">
-        <v>127564.0632659835</v>
+        <v>170693.2200119797</v>
       </c>
       <c r="G447" t="n">
-        <v>96125.13047651725</v>
+        <v>125160.4171182058</v>
       </c>
       <c r="H447" t="n">
-        <v>376210.6050532175</v>
+        <v>503999.5846651927</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>346420.3616262663</v>
+        <v>407573.577277973</v>
       </c>
       <c r="C448" t="n">
-        <v>137631.2140907412</v>
+        <v>170470.5092276198</v>
       </c>
       <c r="D448" t="n">
-        <v>123007.577604009</v>
+        <v>150080.0369273983</v>
       </c>
       <c r="E448" t="n">
-        <v>149485.6587267207</v>
+        <v>184286.4042008795</v>
       </c>
       <c r="F448" t="n">
-        <v>127423.0382771997</v>
+        <v>170504.5147542343</v>
       </c>
       <c r="G448" t="n">
-        <v>96093.36871829655</v>
+        <v>125119.0614925998</v>
       </c>
       <c r="H448" t="n">
-        <v>387910.0915877973</v>
+        <v>519673.0831658265</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>339865.6926697338</v>
+        <v>400038.0480313939</v>
       </c>
       <c r="C449" t="n">
-        <v>136323.7808744498</v>
+        <v>168851.1178153246</v>
       </c>
       <c r="D449" t="n">
-        <v>122305.3219677471</v>
+        <v>149223.2234377289</v>
       </c>
       <c r="E449" t="n">
-        <v>149035.2258443731</v>
+        <v>183731.1090847545</v>
       </c>
       <c r="F449" t="n">
-        <v>127265.6883395757</v>
+        <v>170293.965114829</v>
       </c>
       <c r="G449" t="n">
-        <v>96056.98245739566</v>
+        <v>125071.6845000366</v>
       </c>
       <c r="H449" t="n">
-        <v>399679.1708575079</v>
+        <v>535439.8132477362</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>333294.3035502716</v>
+        <v>392473.3729308501</v>
       </c>
       <c r="C450" t="n">
-        <v>134960.3495215538</v>
+        <v>167162.3669126999</v>
       </c>
       <c r="D450" t="n">
-        <v>121557.6028087408</v>
+        <v>148310.9404615026</v>
       </c>
       <c r="E450" t="n">
-        <v>148545.5682090647</v>
+        <v>183127.4575661465</v>
       </c>
       <c r="F450" t="n">
-        <v>127090.4996084092</v>
+        <v>170059.5454211707</v>
       </c>
       <c r="G450" t="n">
-        <v>96015.39394632247</v>
+        <v>125017.5338802409</v>
       </c>
       <c r="H450" t="n">
-        <v>411519.5905142796</v>
+        <v>551302.1161948586</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>326709.4340646259</v>
+        <v>384883.4378875836</v>
       </c>
       <c r="C451" t="n">
-        <v>133540.5830759315</v>
+        <v>165403.8391646996</v>
       </c>
       <c r="D451" t="n">
-        <v>120762.8716436991</v>
+        <v>147341.2987132455</v>
       </c>
       <c r="E451" t="n">
-        <v>148014.3133418712</v>
+        <v>182472.5248453543</v>
       </c>
       <c r="F451" t="n">
-        <v>126895.8675214433</v>
+        <v>169799.1086116863</v>
       </c>
       <c r="G451" t="n">
-        <v>95967.96842985961</v>
+        <v>124955.7831456191</v>
       </c>
       <c r="H451" t="n">
-        <v>423433.0742181201</v>
+        <v>567262.3011497771</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>320114.4338976339</v>
+        <v>377272.2728482582</v>
       </c>
       <c r="C452" t="n">
-        <v>132064.3000780877</v>
+        <v>163575.3098149507</v>
       </c>
       <c r="D452" t="n">
-        <v>119919.6534389826</v>
+        <v>146312.4985225035</v>
       </c>
       <c r="E452" t="n">
-        <v>147439.057836007</v>
+        <v>181763.347994709</v>
       </c>
       <c r="F452" t="n">
-        <v>126680.0975615113</v>
+        <v>169510.3872563163</v>
       </c>
       <c r="G452" t="n">
-        <v>95914.01075561038</v>
+        <v>124885.5271679962</v>
       </c>
       <c r="H452" t="n">
-        <v>435421.3081838876</v>
+        <v>583322.6270907787</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73096.02312931385</v>
+        <v>72899.79219473852</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73181.46195878988</v>
+        <v>72985.00165822938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73268.12847750637</v>
+        <v>73071.43551515065</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73356.04020738768</v>
+        <v>73159.11124038798</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73445.2149171324</v>
+        <v>73248.04655493874</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73535.6706256005</v>
+        <v>73338.25942929013</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73627.42560524434</v>
+        <v>73429.76808684101</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73720.49838558467</v>
+        <v>73522.59100736833</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73814.90775673187</v>
+        <v>73616.74693053936</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>73910.67277295321</v>
+        <v>73712.25485946878</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74007.81275628576</v>
+        <v>73809.1340643226</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>74106.34730019741</v>
+        <v>73907.40408596869</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74206.29627329418</v>
+        <v>74007.08473967461</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74307.67982307663</v>
+        <v>74108.19611885359</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74410.51837974372</v>
+        <v>74210.75859885852</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>74514.83266004703</v>
+        <v>74314.79284082547</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74620.64367119392</v>
+        <v>74420.31979556658</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>74727.97271480129</v>
+        <v>74527.36070751326</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74836.84139090034</v>
+        <v>74635.93711870999</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74947.27160199262</v>
+        <v>74746.07087285978</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75059.2855571585</v>
+        <v>74857.78411942119</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75172.90577621818</v>
+        <v>74971.09931775859</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75288.15509394584</v>
+        <v>75086.03924134467</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75405.05666433838</v>
+        <v>75202.62698201802</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75523.63396493798</v>
+        <v>75320.88595429386</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>75643.91080121048</v>
+        <v>75440.83989973071</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75765.91131097933</v>
+        <v>75562.51289135251</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75889.65996891608</v>
+        <v>75685.929338127</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76015.18159108803</v>
+        <v>75811.11398950122</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76142.50133956397</v>
+        <v>75938.09193999469</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76271.64472707787</v>
+        <v>76066.88863385083</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76402.63762175228</v>
+        <v>76197.52986974754</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>76535.5062518812</v>
+        <v>76330.04180556748</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>76670.27721077393</v>
+        <v>76464.45096322824</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76806.97746165948</v>
+        <v>76600.78423357454</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76945.63434265381</v>
+        <v>76739.06888133126</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77086.27557178886</v>
+        <v>76879.33255011967</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77228.92925210577</v>
+        <v>77021.60326753634</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77373.6238768114</v>
+        <v>77165.90945029646</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77520.38833450076</v>
+        <v>77312.27990944171</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>77669.25191444386</v>
+        <v>77460.74385561311</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>77820.24431193984</v>
+        <v>77611.330904391</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>77973.39563373801</v>
+        <v>77764.07108170111</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78128.73640352656</v>
+        <v>77918.99482928892</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78286.29756749053</v>
+        <v>78076.13301026235</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78446.11049993832</v>
+        <v>78235.51691470361</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>78608.20700899999</v>
+        <v>78397.17826535169</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>78772.61934239522</v>
+        <v>78561.14922335526</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>78939.38019327428</v>
+        <v>78727.4623940977</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79108.52270613125</v>
+        <v>78896.15083309465</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79280.08048279116</v>
+        <v>79067.24805196481</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79454.08758847199</v>
+        <v>79240.7880244761</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79630.5785579214</v>
+        <v>79416.80519266523</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79809.58840163038</v>
+        <v>79595.33447303536</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>79991.15261212381</v>
+        <v>79776.41126282947</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80175.30717032918</v>
+        <v>79960.07144638199</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80362.088552025</v>
+        <v>80146.35140154978</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>80551.53373436842</v>
+        <v>80335.28800622249</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80743.68020250413</v>
+        <v>80526.91864491356</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80938.56595625578</v>
+        <v>80721.2812154336</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81136.22951689977</v>
+        <v>80918.4141356464</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81336.70993402319</v>
+        <v>81118.3563503077</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>81540.04679246733</v>
+        <v>81321.14733799089</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>81746.28021935635</v>
+        <v>81526.82711809629</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81955.45089121428</v>
+        <v>81735.43625794922</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82167.60004116951</v>
+        <v>81947.01587998515</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82382.76946624875</v>
+        <v>82161.60766902384</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>82601.00153476198</v>
+        <v>82379.25387963501</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82822.33919377853</v>
+        <v>82599.99734359393</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83046.82597669699</v>
+        <v>82823.88147743056</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83274.50601090748</v>
+        <v>83050.95029007285</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>83505.42402555193</v>
+        <v>83281.24839058401</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>83739.62535937777</v>
+        <v>83514.8209959969</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83977.15596869243</v>
+        <v>83751.71393924631</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84218.06243541528</v>
+        <v>83991.97367719941</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84462.39197523045</v>
+        <v>84235.64729878695</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84710.19244584242</v>
+        <v>84482.78253323618</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84961.51235533376</v>
+        <v>84733.42775840679</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85216.40087062855</v>
+        <v>84987.63200923093</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>85474.90782606216</v>
+        <v>85245.4449862607</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>85737.08373205778</v>
+        <v>85506.91706432076</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86002.97978391392</v>
+        <v>85772.09930127249</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86272.64787070166</v>
+        <v>86041.04344688762</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>86546.14058427489</v>
+        <v>86313.80195183393</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86823.51122839567</v>
+        <v>86590.42797677577</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87104.81382797398</v>
+        <v>86870.9754015902</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87390.10313842705</v>
+        <v>87155.49883469965</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87679.43465515719</v>
+        <v>87444.05362252594</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87972.86462315236</v>
+        <v>87736.69585906347</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88270.45004670865</v>
+        <v>88033.48239557659</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88572.24869927984</v>
+        <v>88334.47085042266</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88878.31913345387</v>
+        <v>88639.71961900177</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89188.720691059</v>
+        <v>88949.28788383468</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>89503.51351340194</v>
+        <v>89263.23562477532</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>89822.75855164016</v>
+        <v>89581.62362935384</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90146.51757729097</v>
+        <v>89904.51350325803</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>90474.85319287922</v>
+        <v>90231.96768095203</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>90807.82884272616</v>
+        <v>90564.04943643701</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91145.50882388304</v>
+        <v>90900.82289415439</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91487.95829721035</v>
+        <v>91242.35304003663</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91835.24329860724</v>
+        <v>91588.70573270496</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92187.43075039283</v>
+        <v>91939.94771482133</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92544.58847284221</v>
+        <v>92296.14662459295</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>92906.78519588152</v>
+        <v>92657.37100743609</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93274.09057094299</v>
+        <v>93023.69032779943</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93646.57518298624</v>
+        <v>93395.17498115271</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94024.31056268596</v>
+        <v>93771.89630614183</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>94407.36919879139</v>
+        <v>94153.92659691558</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>94795.82455066148</v>
+        <v>94541.33911562614</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95189.75106097729</v>
+        <v>94934.20810510896</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95589.22416863899</v>
+        <v>95332.60880174332</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>95994.32032184736</v>
+        <v>95736.61744850007</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96405.11699137777</v>
+        <v>96146.31130817943</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>96821.69268404815</v>
+        <v>96561.76867684266</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97244.12695638703</v>
+        <v>96983.06889744378</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97672.50042850577</v>
+        <v>97410.29237366415</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98106.89479817955</v>
+        <v>97843.5205839563</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>98547.392855143</v>
+        <v>98282.83609580027</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98994.07849560383</v>
+        <v>98728.32258017933</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>99447.03673698283</v>
+        <v>99180.06482627954</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>99906.35373288294</v>
+        <v>99638.14875641884</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>100372.1167882945</v>
+        <v>100102.6614412118</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>100844.4143750428</v>
+        <v>100573.6911149756</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>101323.3361474841</v>
+        <v>101051.3271913834</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>101808.9729584561</v>
+        <v>101535.660279373</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102301.416875491</v>
+        <v>102026.7821993151</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>102800.7611972956</v>
+        <v>102524.7859994505</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>103307.1004705095</v>
+        <v>103029.7659726021</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>103820.5305067452</v>
+        <v>103541.8176731701</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>104341.1483999207</v>
+        <v>104061.0379344175</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>104869.052543891</v>
+        <v>104587.524886055</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>105404.3426503889</v>
+        <v>105121.3779721328</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105947.1197672813</v>
+        <v>105662.6979692484</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>106497.4862971541</v>
+        <v>106211.5870050812</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107055.5460162304</v>
+        <v>106768.1485772605</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>107621.4040936357</v>
+        <v>107332.487572579</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>108195.1671110207</v>
+        <v>107904.7102865615</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>108776.9430825472</v>
+        <v>108484.9244433994</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>109366.8414752563</v>
+        <v>109073.2392162624</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>109964.9732298231</v>
+        <v>109669.7652479981</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>110571.4507817144</v>
+        <v>110274.6146722334</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>111186.388082761</v>
+        <v>110887.9011348878</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>111809.9006231551</v>
+        <v>111509.7398161131</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>112442.1054538918</v>
+        <v>112140.2474526733</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113083.1212096617</v>
+        <v>112779.5423607767</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>113733.0681322157</v>
+        <v>113427.7444593775</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>114392.0680942127</v>
+        <v>114084.9752939598</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>115060.2446235678</v>
+        <v>114751.35806082</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115737.7229283178</v>
+        <v>115427.017631866</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>116424.6299220189</v>
+        <v>116112.0805799465</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>117121.0942496973</v>
+        <v>116806.6752047317</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>117827.2463143671</v>
+        <v>117510.9315591607</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>118543.2183041388</v>
+        <v>118224.9814764768</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>119269.1442199349</v>
+        <v>118948.958597868</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120005.1599038334</v>
+        <v>119682.998400736</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>120751.4030680633</v>
+        <v>120427.238227612</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>121508.0133246688</v>
+        <v>121181.8173157434</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>122275.1322158721</v>
+        <v>121946.8768273732</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123052.9032451516</v>
+        <v>122722.559880735</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>123841.4719090637</v>
+        <v>123509.0115817911</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>124640.9857298349</v>
+        <v>124306.3790567347</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>125451.5942887464</v>
+        <v>125114.8114852866</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>126273.4492603422</v>
+        <v>125934.4601348111</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>127106.7044474892</v>
+        <v>126765.4783952812</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>127951.5158173144</v>
+        <v>127608.0218151203</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>128808.041538056</v>
+        <v>128462.2481379538</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>129676.4420168542</v>
+        <v>129328.3173402989</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>130556.8799385187</v>
+        <v>130206.3916702274</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>131449.5203053035</v>
+        <v>131096.6356870342</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>132354.5304777269</v>
+        <v>131999.2163019477</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>133272.0802164697</v>
+        <v>132914.3028199155</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>134202.3417253934</v>
+        <v>133842.0669825064</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>135145.4896957121</v>
+        <v>134782.6830119653</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>136101.7013513633</v>
+        <v>135736.3276564603</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>137071.1564956143</v>
+        <v>136703.1802365657</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>138054.0375589517</v>
+        <v>137683.4226930217</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>139050.5296482944</v>
+        <v>138677.2396358158</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>140060.8205975783</v>
+        <v>139684.8183946318</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>141085.1010197589</v>
+        <v>140706.3490707125</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>142123.5643602808</v>
+        <v>141742.0245901861</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>143176.4069520649</v>
+        <v>142792.0407589049</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>144243.8280720643</v>
+        <v>143856.5963188507</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>145326.0299994436</v>
+        <v>144935.8930061565</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>146423.2180754362</v>
+        <v>146030.1356108041</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>147535.6007649362</v>
+        <v>147139.5320380505</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>148663.3897198851</v>
+        <v>148264.2933716438</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>149806.7998445118</v>
+        <v>149404.6339388889</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150966.0493624889</v>
+        <v>150560.7713776232</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>152141.359886071</v>
+        <v>151732.9267051688</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>153332.9564872776</v>
+        <v>152921.3243893252</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>154541.0677711907</v>
+        <v>154126.1924214693</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>155765.925951437</v>
+        <v>155347.7623918359</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>157007.7669279246</v>
+        <v>156586.2695670444</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>158266.8303669084</v>
+        <v>157841.9529699503</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>159543.3597834604</v>
+        <v>159115.055461894</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160837.602626421</v>
+        <v>160405.8238274239</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>162149.8103659115</v>
+        <v>161714.5088615736</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>163480.2385834897</v>
+        <v>163041.3654597757</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>164829.1470650288</v>
+        <v>164386.6527104918</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>166196.7998964099</v>
+        <v>165750.6339906478</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>167583.4655621103</v>
+        <v>167133.5770639571</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>168989.4170467809</v>
+        <v>168535.7541822258</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>170414.9319398994</v>
+        <v>169957.4421897251</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>171860.2925435981</v>
+        <v>171398.9226307292</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>173325.785983755</v>
+        <v>172860.4818603087</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>174811.7043244502</v>
+        <v>174342.4111584785</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>176318.344685882</v>
+        <v>175845.0068477991</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177846.0093658468</v>
+        <v>177368.5704145291</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>179395.0059648812</v>
+        <v>178913.408633432</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>180965.6475151736</v>
+        <v>180479.8336963408</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>182558.252613347</v>
+        <v>182068.1633445863</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>184173.1455572231</v>
+        <v>183678.7210053917</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>185810.6564866728</v>
+        <v>185311.8359323462</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>187471.1215286644</v>
+        <v>186967.843350064</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>189154.88294662</v>
+        <v>188647.0846031391</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>190862.2892941902</v>
+        <v>190349.9073095077</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192593.695573561</v>
+        <v>192076.6655183301</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>194349.4633984063</v>
+        <v>193827.7198725045</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>196129.9611615959</v>
+        <v>195603.4377759273</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>197935.5642077815</v>
+        <v>197404.1935656132</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199766.655010964</v>
+        <v>199230.368688787</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>201623.6233571648</v>
+        <v>201082.3518850651</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>203506.866532311</v>
+        <v>202960.5393738349</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>205416.7895154498</v>
+        <v>204865.3350469521</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>207353.8051774006</v>
+        <v>206797.1506668572</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>209318.3344849611</v>
+        <v>208756.4060702363</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>211310.8067107736</v>
+        <v>210743.5293773219</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>213331.6596489599</v>
+        <v>212758.9572069494</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>215381.3398366309</v>
+        <v>214803.1348974722</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>217460.3027813747</v>
+        <v>216876.5167336396</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>219569.0131948202</v>
+        <v>218979.5661795321</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221707.945232375</v>
+        <v>221112.7561176574</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>223877.5827392298</v>
+        <v>223276.5690942922</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>226078.4195027145</v>
+        <v>225471.4975711637</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>228310.9595110925</v>
+        <v>227698.0441835461</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>230575.7172188658</v>
+        <v>229956.7220048555</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>232873.2178186648</v>
+        <v>232248.0548178093</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>235203.9975197837</v>
+        <v>234572.5773922137</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>237568.6038334205</v>
+        <v>236930.8357694382</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>239967.5958646646</v>
+        <v>239323.3875536185</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>242401.5446112732</v>
+        <v>241750.8022096323</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>244871.0332692665</v>
+        <v>244213.6613678721</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>247376.6575453498</v>
+        <v>246712.5591358322</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>249919.0259761825</v>
+        <v>249248.1024165149</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>252498.7602544698</v>
+        <v>251820.9112336526</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>255116.49556187</v>
+        <v>254431.6190637173</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>257772.8809086721</v>
+        <v>257080.8731746891</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>260468.5794801959</v>
+        <v>259769.3349715243</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>263204.268989844</v>
+        <v>262497.6803482606</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>265980.6420387186</v>
+        <v>265266.6000466684</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>268798.4064816942</v>
+        <v>268076.8000213408</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>271658.2857998211</v>
+        <v>270929.0018110967</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>274561.0194789086</v>
+        <v>273823.942916549</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>277507.3633941104</v>
+        <v>276762.3771836566</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>280498.0902003213</v>
+        <v>279745.0751930721</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>283533.9897281486</v>
+        <v>282772.8246550528</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>286615.869385216</v>
+        <v>285846.4308096854</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>289744.5545625079</v>
+        <v>288966.7168321389</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>292920.8890454429</v>
+        <v>292134.5242426364</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>296145.735429327</v>
+        <v>295350.7133207919</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>299419.9755388072</v>
+        <v>298616.163523938</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>302744.5108508987</v>
+        <v>301931.773909017</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>306120.2629211328</v>
+        <v>305298.4635575862</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>309548.1738123285</v>
+        <v>308717.1720034364</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>313029.2065254378</v>
+        <v>312188.8596622822</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>316564.3454318889</v>
+        <v>315714.5082629443</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>320154.5967067918</v>
+        <v>319295.1212793913</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>323800.9887623244</v>
+        <v>322931.7243629627</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>327504.5726805712</v>
+        <v>326625.3657740459</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>331266.4226450305</v>
+        <v>330377.1168124262</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>335087.6363699567</v>
+        <v>334188.0722454734</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>338969.335526638</v>
+        <v>338059.3507332779</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>342912.6661656626</v>
+        <v>341992.0952497817</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>346918.7991341614</v>
+        <v>345987.4734989019</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350988.9304869476</v>
+        <v>350046.6783245666</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>355124.2818904207</v>
+        <v>354170.9281135336</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>359326.1010180255</v>
+        <v>358361.4671897893</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>363595.6619359964</v>
+        <v>362619.5661992554</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>367934.2654780395</v>
+        <v>366946.5224834676</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>372343.2396075467</v>
+        <v>371343.6604408153</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>376823.9397658464</v>
+        <v>375812.3318738576</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>381377.7492049357</v>
+        <v>380353.9163211639</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>386006.0793030564</v>
+        <v>384969.8213720414</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>390710.3698614024</v>
+        <v>389661.4829624455</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>395492.0893801677</v>
+        <v>394430.3656502883</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>400352.7353120686</v>
+        <v>399277.9628682778</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>405293.8342913899</v>
+        <v>404205.7971523528</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>410316.9423365356</v>
+        <v>409215.420343686</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>415423.6450239756</v>
+        <v>414308.413762166</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>420615.5576314079</v>
+        <v>419486.388349176</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>425894.325247878</v>
+        <v>424750.9847774141</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>431261.6228485152</v>
+        <v>430103.8735254318</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>436719.1553314808</v>
+        <v>435546.7549144839</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>442268.6575146382</v>
+        <v>441081.3591052031</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>447911.8940893909</v>
+        <v>446709.4460515669</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>453650.6595290675</v>
+        <v>452432.8054095266</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>459486.7779491634</v>
+        <v>458253.2563976218</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>465422.1029166837</v>
+        <v>464172.6476068405</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>471458.5172057938</v>
+        <v>470192.8567569195</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>477597.9324969056</v>
+        <v>476315.7903962428</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>483842.2890162984</v>
+        <v>482543.3835424295</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>487774.2929643356</v>
+        <v>486662.3058521277</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>491776.831684494</v>
+        <v>490854.705623184</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495851.2664641761</v>
+        <v>495121.994506433</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499998.9763489693</v>
+        <v>499465.602572725</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>504221.3576301666</v>
+        <v>503886.977786318</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508519.8232805142</v>
+        <v>508387.5854245374</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512895.802336216</v>
+        <v>512968.9074416516</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517350.7392232375</v>
+        <v>517632.4417749274</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>521886.0930259772</v>
+        <v>522379.7015908585</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>526503.3366964204</v>
+        <v>527212.2144695966</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>531203.9562019227</v>
+        <v>532131.5215256566</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>535989.4496098225</v>
+        <v>537139.1764630314</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>540861.3261071657</v>
+        <v>542236.7445629059</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>545821.1049538802</v>
+        <v>547425.801602256</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>550870.3143678374</v>
+        <v>552707.9327016899</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>556010.4903403362</v>
+        <v>558084.7311010066</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>561243.1753806552</v>
+        <v>563557.7968610579</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>566569.9171884373</v>
+        <v>569128.7354906151</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>571992.2672528309</v>
+        <v>574799.1564971184</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>577511.7793774307</v>
+        <v>580570.6718602997</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>583130.0081302606</v>
+        <v>586444.8944278829</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>588848.5072181913</v>
+        <v>592423.4362327168</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>594668.8277854053</v>
+        <v>598507.9067309257</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>600592.5166357127</v>
+        <v>604699.9109608541</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>606621.1143787462</v>
+        <v>611001.0476228328</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>612756.1535003186</v>
+        <v>617412.9070800239</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>618999.1563574523</v>
+        <v>623937.0692808781</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>625351.6330988746</v>
+        <v>630575.1016039945</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>631815.0795120485</v>
+        <v>637328.5566264887</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>638390.9747981017</v>
+        <v>644198.9698172469</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>645080.7792763154</v>
+        <v>651187.8571567928</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>651885.9320201679</v>
+        <v>658296.7126858013</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>658807.8484272438</v>
+        <v>665527.0059846418</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>665847.9177256671</v>
+        <v>672880.1795866917</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>673007.5004200665</v>
+        <v>680357.6463285178</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>680287.9256804314</v>
+        <v>687960.7866403908</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>687690.4886775924</v>
+        <v>695690.9457809831</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>695216.4478694282</v>
+        <v>703549.4310204874</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>702867.0222422618</v>
+        <v>711537.5087767668</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>710643.38851231</v>
+        <v>719656.401709552</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>718546.6782923995</v>
+        <v>727907.2857780879</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>726577.975229563</v>
+        <v>736291.2872680207</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>734738.3121194806</v>
+        <v>744809.4797936984</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>743028.6680041056</v>
+        <v>753462.8812824461</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>751449.9652591795</v>
+        <v>762252.4509477376</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>760003.0666786599</v>
+        <v>771179.0862585554</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>768688.7725634604</v>
+        <v>780243.6199125723</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>777507.8178221663</v>
+        <v>789446.8168211119</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>786460.8690917511</v>
+        <v>798789.371114176</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>795548.5218865266</v>
+        <v>808271.9031740894</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>804771.2977838902</v>
+        <v>817894.9567066066</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>814129.6416555821</v>
+        <v>827658.9958585403</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>823623.9189534331</v>
+        <v>837564.4023911911</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>833254.4130587152</v>
+        <v>847611.4729190406</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>843021.3227043352</v>
+        <v>857800.4162232814</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>840411.943525213</v>
+        <v>855194.6797232194</v>
       </c>
       <c r="C358" t="n">
-        <v>11950.42033208524</v>
+        <v>12517.42050166554</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>837773.0874308408</v>
+        <v>852559.3097507226</v>
       </c>
       <c r="C359" t="n">
-        <v>24059.40461296947</v>
+        <v>25200.9281842307</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>835104.2938754096</v>
+        <v>849893.8323911073</v>
       </c>
       <c r="C360" t="n">
-        <v>36327.32601672845</v>
+        <v>38050.91392740487</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>832405.09258928</v>
+        <v>847197.7632695065</v>
       </c>
       <c r="C361" t="n">
-        <v>48754.4771876741</v>
+        <v>51067.6842603149</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>829675.0033973887</v>
+        <v>844470.6073399507</v>
       </c>
       <c r="C362" t="n">
-        <v>61341.06843422683</v>
+        <v>64251.45946968378</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>826913.5360314563</v>
+        <v>841711.8586677974</v>
       </c>
       <c r="C363" t="n">
-        <v>74087.22605190867</v>
+        <v>77602.37184325643</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>824120.1899360485</v>
+        <v>838921.0002056231</v>
       </c>
       <c r="C364" t="n">
-        <v>86992.99078405609</v>
+        <v>91120.46405747946</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>821294.4540686851</v>
+        <v>836097.5035627889</v>
       </c>
       <c r="C365" t="n">
-        <v>100058.3164285318</v>
+        <v>104805.687718107</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>818435.8066942418</v>
+        <v>833240.8287690439</v>
       </c>
       <c r="C366" t="n">
-        <v>113283.0685983765</v>
+        <v>118657.9020620501</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>815543.7151740702</v>
+        <v>830350.4240326026</v>
       </c>
       <c r="C367" t="n">
-        <v>126667.023643943</v>
+        <v>132676.8728283704</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>812617.6357503423</v>
+        <v>827425.7254933302</v>
       </c>
       <c r="C368" t="n">
-        <v>140209.8677435542</v>
+        <v>146862.271305794</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>809657.0133263316</v>
+        <v>824466.1569717878</v>
       </c>
       <c r="C369" t="n">
-        <v>153911.1961692327</v>
+        <v>161213.6735636018</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>806661.2812434596</v>
+        <v>821471.129715094</v>
       </c>
       <c r="C370" t="n">
-        <v>167770.5127334207</v>
+        <v>175730.5598720994</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>803629.8610561558</v>
+        <v>818440.0421407238</v>
       </c>
       <c r="C371" t="n">
-        <v>181787.2294219806</v>
+        <v>190412.3143182046</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>800562.1623057594</v>
+        <v>815372.2795795979</v>
       </c>
       <c r="C372" t="n">
-        <v>195960.6662180515</v>
+        <v>205258.2246209462</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>797457.5822949111</v>
+        <v>812267.2140200299</v>
       </c>
       <c r="C373" t="n">
-        <v>195959.5399259302</v>
+        <v>205257.0448907193</v>
       </c>
       <c r="D373" t="n">
-        <v>15282.01582293391</v>
+        <v>15772.82400814409</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>794315.5058641214</v>
+        <v>809124.2038543338</v>
       </c>
       <c r="C374" t="n">
-        <v>195958.2366535538</v>
+        <v>205255.6797832244</v>
       </c>
       <c r="D374" t="n">
-        <v>30729.60186723779</v>
+        <v>31716.53580968639</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>791135.305172452</v>
+        <v>805942.5936301737</v>
       </c>
       <c r="C375" t="n">
-        <v>195956.7305404771</v>
+        <v>205254.1022110403</v>
       </c>
       <c r="D375" t="n">
-        <v>46341.76717168955</v>
+        <v>47830.1126169832</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>787916.339484504</v>
+        <v>802721.7138090092</v>
       </c>
       <c r="C376" t="n">
-        <v>195954.9922690165</v>
+        <v>205252.2814654753</v>
       </c>
       <c r="D376" t="n">
-        <v>62117.42770176621</v>
+        <v>64112.43557988098</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>784657.9549662051</v>
+        <v>799460.880534265</v>
       </c>
       <c r="C377" t="n">
-        <v>195952.9886524123</v>
+        <v>205250.1827851894</v>
       </c>
       <c r="D377" t="n">
-        <v>78055.4076609223</v>
+        <v>80562.29113910877</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>781359.4844921893</v>
+        <v>796159.3954122094</v>
       </c>
       <c r="C378" t="n">
-        <v>195950.682181407</v>
+        <v>205247.7668812593</v>
       </c>
       <c r="D378" t="n">
-        <v>94154.44105973691</v>
+        <v>97178.37264582107</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>778020.2474678589</v>
+        <v>792816.5453088111</v>
       </c>
       <c r="C379" t="n">
-        <v>195948.0305260974</v>
+        <v>205244.9894153951</v>
       </c>
       <c r="D379" t="n">
-        <v>110413.1735442541</v>
+        <v>113959.2822486585</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>774639.5496695836</v>
+        <v>789431.602166207</v>
       </c>
       <c r="C380" t="n">
-        <v>195944.9859898258</v>
+        <v>205241.8004279213</v>
       </c>
       <c r="D380" t="n">
-        <v>126830.1644837687</v>
+        <v>130903.5330485865</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>771216.6831068047</v>
+        <v>786003.8228427855</v>
       </c>
       <c r="C381" t="n">
-        <v>195941.4949118072</v>
+        <v>205238.1437120613</v>
       </c>
       <c r="D381" t="n">
-        <v>143403.8893171909</v>
+        <v>148009.5515206173</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>767750.9259101946</v>
+        <v>782532.4489812193</v>
       </c>
       <c r="C382" t="n">
-        <v>195937.4970151387</v>
+        <v>205233.9561310112</v>
       </c>
       <c r="D382" t="n">
-        <v>160132.7421559412</v>
+        <v>165275.6802003017</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>764241.5422503705</v>
+        <v>779016.7069092117</v>
       </c>
       <c r="C383" t="n">
-        <v>195932.924696819</v>
+        <v>205229.1668742751</v>
       </c>
       <c r="D383" t="n">
-        <v>160132.4422399047</v>
+        <v>165275.3706519465</v>
       </c>
       <c r="E383" t="n">
-        <v>18236.07607853063</v>
+        <v>17616.7086923559</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>760687.782292049</v>
+        <v>775455.8075780594</v>
       </c>
       <c r="C384" t="n">
-        <v>195927.7022564202</v>
+        <v>205223.6966497391</v>
       </c>
       <c r="D384" t="n">
-        <v>160132.0846817478</v>
+        <v>165275.0016101954</v>
       </c>
       <c r="E384" t="n">
-        <v>36636.05885656182</v>
+        <v>35391.75718135403</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>757088.8821889082</v>
+        <v>771848.9465445672</v>
       </c>
       <c r="C385" t="n">
-        <v>195921.745060104</v>
+        <v>205217.4568080241</v>
       </c>
       <c r="D385" t="n">
-        <v>160131.6591158815</v>
+        <v>165274.5623765503</v>
       </c>
       <c r="E385" t="n">
-        <v>55197.9809345676</v>
+        <v>53323.24488793446</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>753444.064124796</v>
+        <v>768195.3040022178</v>
       </c>
       <c r="C386" t="n">
-        <v>195914.9586367682</v>
+        <v>205210.3483957477</v>
       </c>
       <c r="D386" t="n">
-        <v>160131.1534548214</v>
+        <v>165274.0404753168</v>
       </c>
       <c r="E386" t="n">
-        <v>73919.80285141096</v>
+        <v>71409.20161891608</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>749752.5364073183</v>
+        <v>764494.0448679131</v>
       </c>
       <c r="C387" t="n">
-        <v>195907.2377032526</v>
+        <v>205202.2611344803</v>
       </c>
       <c r="D387" t="n">
-        <v>160130.553630064</v>
+        <v>165273.4213861571</v>
       </c>
       <c r="E387" t="n">
-        <v>92799.41748038583</v>
+        <v>89647.59181373206</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>746013.4936202219</v>
+        <v>760744.3189309775</v>
       </c>
       <c r="C388" t="n">
-        <v>195898.4651157285</v>
+        <v>205193.072322382</v>
       </c>
       <c r="D388" t="n">
-        <v>160129.8432987892</v>
+        <v>165272.6882413734</v>
       </c>
       <c r="E388" t="n">
-        <v>111834.6546967111</v>
+        <v>108036.3190533978</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>742226.1168413325</v>
+        <v>756945.2610715042</v>
       </c>
       <c r="C389" t="n">
-        <v>195888.5107446506</v>
+        <v>205182.6456557754</v>
       </c>
       <c r="D389" t="n">
-        <v>160129.0035127041</v>
+        <v>165271.8214841158</v>
       </c>
       <c r="E389" t="n">
-        <v>131023.286308093</v>
+        <v>126573.2308236126</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>738389.5739332025</v>
+        <v>753095.9915554904</v>
       </c>
       <c r="C390" t="n">
-        <v>195877.2302709715</v>
+        <v>205170.8299682451</v>
       </c>
       <c r="D390" t="n">
-        <v>160128.0123450718</v>
+        <v>165270.7984834328</v>
       </c>
       <c r="E390" t="n">
-        <v>150363.0312386673</v>
+        <v>145256.1235226349</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>734503.0199139232</v>
+        <v>749195.6164145505</v>
       </c>
       <c r="C391" t="n">
-        <v>195864.4639017068</v>
+        <v>205157.4578852618</v>
       </c>
       <c r="D391" t="n">
-        <v>160126.8444717094</v>
+        <v>165269.5931018114</v>
       </c>
       <c r="E391" t="n">
-        <v>169851.5609552838</v>
+        <v>164082.7477032693</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>730565.5974159031</v>
+        <v>745243.2279183201</v>
       </c>
       <c r="C392" t="n">
-        <v>195850.0350034078</v>
+        <v>205142.3443928185</v>
       </c>
       <c r="D392" t="n">
-        <v>160125.4707014806</v>
+        <v>165268.1752105923</v>
       </c>
       <c r="E392" t="n">
-        <v>189486.5051237445</v>
+        <v>183050.8135369975</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>726576.4372406866</v>
+        <v>741237.9051479703</v>
       </c>
       <c r="C393" t="n">
-        <v>195833.7486526445</v>
+        <v>205125.2853191392</v>
       </c>
       <c r="D393" t="n">
-        <v>160123.8574515666</v>
+        <v>165266.5101483865</v>
       </c>
       <c r="E393" t="n">
-        <v>189486.2712194123</v>
+        <v>183050.5875769573</v>
       </c>
       <c r="F393" t="n">
-        <v>16696.75256591634</v>
+        <v>17037.71284776708</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>722534.659018139</v>
+        <v>737178.7146794884</v>
       </c>
       <c r="C394" t="n">
-        <v>195815.390103232</v>
+        <v>205106.0557291825</v>
       </c>
       <c r="D394" t="n">
-        <v>160121.9661625705</v>
+        <v>165264.5581173959</v>
       </c>
       <c r="E394" t="n">
-        <v>189485.9879231526</v>
+        <v>183050.3139025298</v>
       </c>
       <c r="F394" t="n">
-        <v>33513.05598139705</v>
+        <v>34197.41786362452</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>718439.3719785463</v>
+        <v>733064.7113856192</v>
       </c>
       <c r="C395" t="n">
-        <v>195794.7231706614</v>
+        <v>205084.4082324187</v>
       </c>
       <c r="D395" t="n">
-        <v>160119.7526483103</v>
+        <v>165262.2735123236</v>
       </c>
       <c r="E395" t="n">
-        <v>189485.6454569238</v>
+        <v>183049.9830677733</v>
       </c>
       <c r="F395" t="n">
-        <v>50446.84211251697</v>
+        <v>51477.00468079239</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>714289.6758463404</v>
+        <v>728894.9393655111</v>
       </c>
       <c r="C396" t="n">
-        <v>195771.4885350056</v>
+        <v>205060.0712052158</v>
       </c>
       <c r="D396" t="n">
-        <v>160117.1663749865</v>
+        <v>165259.60417639</v>
       </c>
       <c r="E396" t="n">
-        <v>189485.2322490336</v>
+        <v>183049.5838940146</v>
       </c>
       <c r="F396" t="n">
-        <v>67496.02984192225</v>
+        <v>68874.34968393069</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>710084.6618642632</v>
+        <v>724668.4330112368</v>
       </c>
       <c r="C397" t="n">
-        <v>195745.4019644873</v>
+        <v>205032.7469301235</v>
       </c>
       <c r="D397" t="n">
-        <v>160114.149664279</v>
+        <v>165256.4905788369</v>
       </c>
       <c r="E397" t="n">
-        <v>189484.7346345572</v>
+        <v>183049.1031804427</v>
       </c>
       <c r="F397" t="n">
-        <v>84658.53086798485</v>
+        <v>86387.32192671692</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>705823.4139568594</v>
+        <v>720384.2182203962</v>
       </c>
       <c r="C398" t="n">
-        <v>195716.1524629049</v>
+        <v>205002.1096554004</v>
       </c>
       <c r="D398" t="n">
-        <v>160110.6368148527</v>
+        <v>165252.8649082179</v>
       </c>
       <c r="E398" t="n">
-        <v>189484.1365114934</v>
+        <v>183048.525371942</v>
       </c>
       <c r="F398" t="n">
-        <v>101932.2556470164</v>
+        <v>104013.7891954044</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>701505.0100421436</v>
+        <v>716041.3137639982</v>
       </c>
       <c r="C399" t="n">
-        <v>195683.4003452199</v>
+        <v>204967.8035792967</v>
       </c>
       <c r="D399" t="n">
-        <v>160106.5531367263</v>
+        <v>165248.6500757547</v>
       </c>
       <c r="E399" t="n">
-        <v>189483.4189471875</v>
+        <v>183047.8321788839</v>
       </c>
       <c r="F399" t="n">
-        <v>119315.1194639052</v>
+        <v>121751.6242034264</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>697128.5235002254</v>
+        <v>711638.7328187182</v>
       </c>
       <c r="C400" t="n">
-        <v>195646.775246818</v>
+        <v>204929.4407648623</v>
       </c>
       <c r="D400" t="n">
-        <v>160101.8138930113</v>
+        <v>165243.7586230881</v>
       </c>
       <c r="E400" t="n">
-        <v>189482.559729068</v>
+        <v>183047.0021431212</v>
       </c>
       <c r="F400" t="n">
-        <v>136805.0486155437</v>
+        <v>139598.7109010937</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>692693.0248074938</v>
+        <v>707175.4846724446</v>
       </c>
       <c r="C401" t="n">
-        <v>195605.8740732591</v>
+        <v>204886.5989924209</v>
       </c>
       <c r="D401" t="n">
-        <v>160096.3231436585</v>
+        <v>165238.0915288894</v>
       </c>
       <c r="E401" t="n">
-        <v>189481.5328532411</v>
+        <v>183046.0101439529</v>
       </c>
       <c r="F401" t="n">
-        <v>154399.9866904697</v>
+        <v>157552.9508834708</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>688197.5833447007</v>
+        <v>702650.5766117616</v>
       </c>
       <c r="C402" t="n">
-        <v>195560.2588987271</v>
+        <v>204838.8195583083</v>
       </c>
       <c r="D402" t="n">
-        <v>160089.9724860691</v>
+        <v>165231.5369090242</v>
       </c>
       <c r="E402" t="n">
-        <v>189480.3079439895</v>
+        <v>183044.8268373375</v>
       </c>
       <c r="F402" t="n">
-        <v>172097.9009270756</v>
+        <v>175612.2698784248</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>683641.2693869632</v>
+        <v>698063.0159996524</v>
       </c>
       <c r="C403" t="n">
-        <v>195509.4548228724</v>
+        <v>204785.6050300324</v>
       </c>
       <c r="D403" t="n">
-        <v>160082.639687759</v>
+        <v>165223.9686053022</v>
       </c>
       <c r="E403" t="n">
-        <v>189478.8495967202</v>
+        <v>183043.4180211588</v>
       </c>
       <c r="F403" t="n">
-        <v>172097.750256158</v>
+        <v>175612.1161306935</v>
       </c>
       <c r="G403" t="n">
-        <v>12249.59789225457</v>
+        <v>9406.084988786117</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>679023.1562832126</v>
+        <v>693411.812551224</v>
       </c>
       <c r="C404" t="n">
-        <v>195452.9477973085</v>
+        <v>204726.416969644</v>
       </c>
       <c r="D404" t="n">
-        <v>160074.1872067028</v>
+        <v>165215.2446582996</v>
       </c>
       <c r="E404" t="n">
-        <v>189477.1166364259</v>
+        <v>183041.7439188712</v>
       </c>
       <c r="F404" t="n">
-        <v>172097.565290748</v>
+        <v>175611.9273881502</v>
       </c>
       <c r="G404" t="n">
-        <v>24567.35787784793</v>
+        <v>18864.50952770259</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>674342.3228321011</v>
+        <v>688695.9808146869</v>
       </c>
       <c r="C405" t="n">
-        <v>195390.1824346533</v>
+        <v>204660.6736388268</v>
       </c>
       <c r="D405" t="n">
-        <v>160064.4605955623</v>
+        <v>165205.2056603367</v>
       </c>
       <c r="E405" t="n">
-        <v>189475.0612832562</v>
+        <v>183039.7583734121</v>
       </c>
       <c r="F405" t="n">
-        <v>172097.3387025975</v>
+        <v>175611.6961728988</v>
       </c>
       <c r="G405" t="n">
-        <v>36951.96144657647</v>
+        <v>28374.26117379879</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>669597.8558607004</v>
+        <v>683914.5428641294</v>
       </c>
       <c r="C406" t="n">
-        <v>195320.559814704</v>
+        <v>204587.7477009842</v>
       </c>
       <c r="D406" t="n">
-        <v>160053.2867867116</v>
+        <v>165193.6729854237</v>
       </c>
       <c r="E406" t="n">
-        <v>189472.6282163778</v>
+        <v>183037.4079428566</v>
       </c>
       <c r="F406" t="n">
-        <v>172097.0617093597</v>
+        <v>175611.4135232502</v>
       </c>
       <c r="G406" t="n">
-        <v>49402.12514077249</v>
+        <v>37934.35439987556</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>664788.8530115361</v>
+        <v>679066.5312098087</v>
       </c>
       <c r="C407" t="n">
-        <v>195243.4353040759</v>
+        <v>204506.9639374269</v>
       </c>
       <c r="D407" t="n">
-        <v>160040.472255839</v>
+        <v>165180.4468938829</v>
       </c>
       <c r="E407" t="n">
-        <v>189469.7535269191</v>
+        <v>183034.6308889248</v>
       </c>
       <c r="F407" t="n">
-        <v>172096.7238109549</v>
+        <v>175611.068724705</v>
       </c>
       <c r="G407" t="n">
-        <v>61916.60517458554</v>
+        <v>47543.8341414875</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>659914.4257426354</v>
+        <v>674150.9919307521</v>
       </c>
       <c r="C408" t="n">
-        <v>195158.1164074041</v>
+        <v>204417.5969966246</v>
       </c>
       <c r="D408" t="n">
-        <v>160025.8010629315</v>
+        <v>165165.3045104173</v>
       </c>
       <c r="E408" t="n">
-        <v>189466.3635504954</v>
+        <v>183031.3560491581</v>
       </c>
       <c r="F408" t="n">
-        <v>172096.312483386</v>
+        <v>175610.648997517</v>
       </c>
       <c r="G408" t="n">
-        <v>74494.20204745313</v>
+        <v>57201.77933948358</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>654973.7025442182</v>
+        <v>669166.9880334095</v>
       </c>
       <c r="C409" t="n">
-        <v>195063.8606699947</v>
+        <v>204318.8691973455</v>
       </c>
       <c r="D409" t="n">
-        <v>160009.0327706496</v>
+        <v>165147.997675629</v>
       </c>
       <c r="E409" t="n">
-        <v>189462.37356958</v>
+        <v>183027.5015833635</v>
       </c>
       <c r="F409" t="n">
-        <v>172095.8128241801</v>
+        <v>175610.139134893</v>
       </c>
       <c r="G409" t="n">
-        <v>87133.76513781509</v>
+        <v>66907.30646737752</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>649965.8323745438</v>
+        <v>664113.6030389034</v>
       </c>
       <c r="C410" t="n">
-        <v>194959.8736535866</v>
+        <v>204209.9484083754</v>
       </c>
       <c r="D410" t="n">
-        <v>159989.9002414777</v>
+        <v>165128.2506724224</v>
       </c>
       <c r="E410" t="n">
-        <v>189457.6863758705</v>
+        <v>183022.9735848066</v>
       </c>
       <c r="F410" t="n">
-        <v>172095.2071430309</v>
+        <v>175609.521085278</v>
       </c>
       <c r="G410" t="n">
-        <v>99834.19726246549</v>
+        <v>76659.57303233199</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>644889.9883161611</v>
+        <v>658989.9448001187</v>
       </c>
       <c r="C411" t="n">
-        <v>194845.3070086304</v>
+        <v>204089.9460293352</v>
       </c>
       <c r="D411" t="n">
-        <v>159968.1073166056</v>
+        <v>165105.7578303384</v>
       </c>
       <c r="E411" t="n">
-        <v>189452.1906828032</v>
+        <v>183017.6645466445</v>
       </c>
       <c r="F411" t="n">
-        <v>172094.474490598</v>
+        <v>175608.7734715298</v>
       </c>
       <c r="G411" t="n">
-        <v>112594.4591863398</v>
+        <v>86457.78103808414</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>639745.3714524228</v>
+        <v>653795.1495484473</v>
       </c>
       <c r="C412" t="n">
-        <v>194719.2566681826</v>
+        <v>203957.915098881</v>
       </c>
       <c r="D412" t="n">
-        <v>159943.3263812514</v>
+        <v>165080.1810126837</v>
       </c>
       <c r="E412" t="n">
-        <v>189445.7593785232</v>
+        <v>183011.4516742302</v>
       </c>
       <c r="F412" t="n">
-        <v>172093.5901177661</v>
+        <v>175607.8710391376</v>
       </c>
       <c r="G412" t="n">
-        <v>125413.5740667845</v>
+        <v>96301.18039756162</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>634531.2149626287</v>
+        <v>648528.3861684209</v>
       </c>
       <c r="C413" t="n">
-        <v>194580.7611901191</v>
+        <v>203812.8485582636</v>
       </c>
       <c r="D413" t="n">
-        <v>159915.1958230905</v>
+        <v>165051.1469933329</v>
       </c>
       <c r="E413" t="n">
-        <v>189438.247609939</v>
+        <v>183004.1950342414</v>
       </c>
       <c r="F413" t="n">
-        <v>172092.5248570195</v>
+        <v>175606.7840249629</v>
       </c>
       <c r="G413" t="n">
-        <v>125413.4900396209</v>
+        <v>96301.11587571779</v>
       </c>
       <c r="H413" t="n">
-        <v>13385.84678924146</v>
+        <v>10538.58768877724</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>629246.7884325469</v>
+        <v>643188.8606968162</v>
       </c>
       <c r="C414" t="n">
-        <v>194428.8002758705</v>
+        <v>203653.6776997825</v>
       </c>
       <c r="D414" t="n">
-        <v>159883.3173925929</v>
+        <v>165018.2447322882</v>
       </c>
       <c r="E414" t="n">
-        <v>189429.4906890156</v>
+        <v>182995.7355320828</v>
       </c>
       <c r="F414" t="n">
-        <v>172091.2444169245</v>
+        <v>175605.4774373154</v>
       </c>
       <c r="G414" t="n">
-        <v>125413.3857647694</v>
+        <v>96301.03580630462</v>
       </c>
       <c r="H414" t="n">
-        <v>26831.07428003343</v>
+        <v>21123.92540690743</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>623891.4023753279</v>
+        <v>637775.8210409976</v>
       </c>
       <c r="C415" t="n">
-        <v>194262.293495236</v>
+        <v>203479.2708310982</v>
       </c>
       <c r="D415" t="n">
-        <v>159847.2534764018</v>
+        <v>164981.0225614885</v>
       </c>
       <c r="E415" t="n">
-        <v>189419.3018132001</v>
+        <v>182985.8927097359</v>
       </c>
       <c r="F415" t="n">
-        <v>172089.7085800725</v>
+        <v>175603.9102375164</v>
       </c>
       <c r="G415" t="n">
-        <v>125413.2566573717</v>
+        <v>96300.93666875199</v>
       </c>
       <c r="H415" t="n">
-        <v>40334.89315053039</v>
+        <v>31755.39172657845</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>618464.412955998</v>
+        <v>632288.5619093759</v>
       </c>
       <c r="C416" t="n">
-        <v>194080.0992480133</v>
+        <v>203288.4321875948</v>
       </c>
       <c r="D416" t="n">
-        <v>159806.5242973897</v>
+        <v>164938.9852949395</v>
       </c>
       <c r="E416" t="n">
-        <v>189407.4695928665</v>
+        <v>182974.4623571808</v>
       </c>
       <c r="F416" t="n">
-        <v>172087.8702942088</v>
+        <v>175602.0344124688</v>
       </c>
       <c r="G416" t="n">
-        <v>125413.0971671146</v>
+        <v>96300.81420114716</v>
       </c>
       <c r="H416" t="n">
-        <v>53896.59737830504</v>
+        <v>42432.43080105325</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>612965.226910802</v>
+        <v>626726.4299448646</v>
       </c>
       <c r="C417" t="n">
-        <v>193881.0139941596</v>
+        <v>203079.9011260156</v>
       </c>
       <c r="D417" t="n">
-        <v>159760.6050576961</v>
+        <v>164891.5912799962</v>
       </c>
       <c r="E417" t="n">
-        <v>189393.7553799314</v>
+        <v>182961.213931742</v>
       </c>
       <c r="F417" t="n">
-        <v>172085.6746457032</v>
+        <v>175599.7939271644</v>
       </c>
       <c r="G417" t="n">
-        <v>125412.9005920263</v>
+        <v>96300.66325725477</v>
       </c>
       <c r="H417" t="n">
-        <v>67515.56843534281</v>
+        <v>53154.55566736102</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>607393.30665063</v>
+        <v>621088.8290501154</v>
       </c>
       <c r="C418" t="n">
-        <v>193663.7717849319</v>
+        <v>202852.3516333577</v>
       </c>
       <c r="D418" t="n">
-        <v>159708.9230438685</v>
+        <v>164838.24940953</v>
       </c>
       <c r="E418" t="n">
-        <v>189377.8903933502</v>
+        <v>182945.8877812146</v>
       </c>
       <c r="F418" t="n">
-        <v>172083.0577039949</v>
+        <v>175597.1235455325</v>
       </c>
       <c r="G418" t="n">
-        <v>125412.6588601663</v>
+        <v>96300.47763888263</v>
       </c>
       <c r="H418" t="n">
-        <v>81191.27933025105</v>
+        <v>63921.3514287014</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>601748.175535698</v>
+        <v>615375.2258911708</v>
       </c>
       <c r="C419" t="n">
-        <v>193427.04412792</v>
+        <v>202604.3921855017</v>
       </c>
       <c r="D419" t="n">
-        <v>159650.854716167</v>
+        <v>164778.3161177513</v>
       </c>
       <c r="E419" t="n">
-        <v>189359.5726390932</v>
+        <v>182928.1921684493</v>
       </c>
       <c r="F419" t="n">
-        <v>172079.9452252181</v>
+        <v>175593.9475075913</v>
       </c>
       <c r="G419" t="n">
-        <v>125412.3622744704</v>
+        <v>96300.24989995704</v>
       </c>
       <c r="H419" t="n">
-        <v>94923.29847912882</v>
+        <v>74732.47830195447</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>596029.4233065036</v>
+        <v>609585.1555639241</v>
       </c>
       <c r="C420" t="n">
-        <v>193169.4402190395</v>
+        <v>202334.5659902111</v>
       </c>
       <c r="D420" t="n">
-        <v>159585.7228071277</v>
+        <v>164711.0923855883</v>
       </c>
       <c r="E420" t="n">
-        <v>189338.4636244184</v>
+        <v>182907.8000972215</v>
       </c>
       <c r="F420" t="n">
-        <v>172076.251202889</v>
+        <v>175590.1780505399</v>
       </c>
       <c r="G420" t="n">
-        <v>125411.9992154774</v>
+        <v>96299.97111825553</v>
       </c>
       <c r="H420" t="n">
-        <v>108711.2933857917</v>
+        <v>85587.67451509704</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>590236.7116538625</v>
+        <v>603718.2274055296</v>
       </c>
       <c r="C421" t="n">
-        <v>192889.5075743707</v>
+        <v>202041.3516489502</v>
       </c>
       <c r="D421" t="n">
-        <v>159512.7934575823</v>
+        <v>164635.8207847252</v>
       </c>
       <c r="E421" t="n">
-        <v>189314.1848688445</v>
+        <v>182884.3459417049</v>
       </c>
       <c r="F421" t="n">
-        <v>172071.8762533499</v>
+        <v>175585.713761231</v>
       </c>
       <c r="G421" t="n">
-        <v>125411.5557960906</v>
+        <v>96299.6306303085</v>
       </c>
       <c r="H421" t="n">
-        <v>122555.0341112599</v>
+        <v>96486.75903870759</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>584369.7799086538</v>
+        <v>597774.1309305839</v>
       </c>
       <c r="C422" t="n">
-        <v>192585.7330941766</v>
+        <v>201723.1642713853</v>
       </c>
       <c r="D422" t="n">
-        <v>159431.2734214565</v>
+        <v>164551.6825926275</v>
       </c>
       <c r="E422" t="n">
-        <v>189286.3142171819</v>
+        <v>182857.4218847262</v>
       </c>
       <c r="F422" t="n">
-        <v>172066.7058236466</v>
+        <v>175580.4377474532</v>
       </c>
       <c r="G422" t="n">
-        <v>125411.0154619296</v>
+        <v>96299.21572452263</v>
       </c>
       <c r="H422" t="n">
-        <v>136454.3965115522</v>
+        <v>107429.6341350595</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>578428.4508296299</v>
+        <v>591752.6418696081</v>
       </c>
       <c r="C423" t="n">
-        <v>192256.5445904829</v>
+        <v>201378.3570754422</v>
       </c>
       <c r="D423" t="n">
-        <v>159340.3073737771</v>
+        <v>164457.7950140916</v>
       </c>
       <c r="E423" t="n">
-        <v>189254.3819633141</v>
+        <v>182826.5741731979</v>
       </c>
       <c r="F423" t="n">
-        <v>172060.6082096945</v>
+        <v>175574.2156156247</v>
       </c>
       <c r="G423" t="n">
-        <v>125410.3585302156</v>
+        <v>96298.71128710451</v>
       </c>
       <c r="H423" t="n">
-        <v>150409.3652219551</v>
+        <v>118416.2877076168</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>572412.6364654596</v>
+        <v>585653.6282850425</v>
       </c>
       <c r="C424" t="n">
-        <v>191900.3128082251</v>
+        <v>201005.2235043488</v>
       </c>
       <c r="D424" t="n">
-        <v>159238.9753593619</v>
+        <v>164353.2085479943</v>
       </c>
       <c r="E424" t="n">
-        <v>189217.8667971437</v>
+        <v>182791.2992027214</v>
       </c>
       <c r="F424" t="n">
-        <v>172053.4323729991</v>
+        <v>175566.8932429313</v>
       </c>
       <c r="G424" t="n">
-        <v>125409.5616594996</v>
+        <v>96298.09939488191</v>
       </c>
       <c r="H424" t="n">
-        <v>164420.0363649409</v>
+        <v>129446.7954329592</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>566322.3440649575</v>
+        <v>579477.0567377178</v>
       </c>
       <c r="C425" t="n">
-        <v>191515.3539681497</v>
+        <v>200601.9998901869</v>
       </c>
       <c r="D425" t="n">
-        <v>159126.2904225865</v>
+        <v>164236.9045409366</v>
       </c>
       <c r="E425" t="n">
-        <v>189176.191591211</v>
+        <v>182751.0394473086</v>
       </c>
       <c r="F425" t="n">
-        <v>172045.0055448778</v>
+        <v>175558.2943326232</v>
       </c>
       <c r="G425" t="n">
-        <v>125408.5972419159</v>
+        <v>96297.35884863407</v>
       </c>
       <c r="H425" t="n">
-        <v>178486.6199579412</v>
+        <v>140521.3226564064</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>560157.6820073447</v>
+        <v>573222.9984745368</v>
       </c>
       <c r="C426" t="n">
-        <v>191099.932857363</v>
+        <v>200166.8686910753</v>
       </c>
       <c r="D426" t="n">
-        <v>159001.1964613705</v>
+        <v>164107.7929723057</v>
       </c>
       <c r="E426" t="n">
-        <v>189128.7190479623</v>
+        <v>182705.1792544856</v>
       </c>
       <c r="F426" t="n">
-        <v>172035.1306081142</v>
+        <v>175548.2177422023</v>
       </c>
       <c r="G426" t="n">
-        <v>125407.4327090215</v>
+        <v>96296.46464006706</v>
       </c>
       <c r="H426" t="n">
-        <v>192609.4419960705</v>
+        <v>151640.126031733</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>553918.8657222989</v>
+        <v>566891.6356059825</v>
       </c>
       <c r="C427" t="n">
-        <v>190652.266490657</v>
+        <v>199697.9623262117</v>
       </c>
       <c r="D427" t="n">
-        <v>158862.5663510266</v>
+        <v>163964.7105178691</v>
       </c>
       <c r="E427" t="n">
-        <v>189074.7472334513</v>
+        <v>182653.0405306865</v>
       </c>
       <c r="F427" t="n">
-        <v>172023.5832473035</v>
+        <v>175536.4345755735</v>
       </c>
       <c r="G427" t="n">
-        <v>125406.0297416867</v>
+        <v>96295.38734511391</v>
       </c>
       <c r="H427" t="n">
-        <v>206788.9461838179</v>
+        <v>162803.5548845166</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>547606.2235676139</v>
+        <v>560483.2672400287</v>
       </c>
       <c r="C428" t="n">
-        <v>190170.5283624854</v>
+        <v>199193.3676295867</v>
       </c>
       <c r="D428" t="n">
-        <v>158709.2003858214</v>
+        <v>163806.4189412834</v>
       </c>
       <c r="E428" t="n">
-        <v>189013.5050283852</v>
+        <v>182593.8783468</v>
       </c>
       <c r="F428" t="n">
-        <v>172010.1088608492</v>
+        <v>175522.6850319841</v>
       </c>
       <c r="G428" t="n">
-        <v>125404.343373952</v>
+        <v>96294.09243581368</v>
       </c>
       <c r="H428" t="n">
-        <v>221025.6952885508</v>
+        <v>174012.0522777436</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>541220.2026304459</v>
+        <v>553998.3155371449</v>
       </c>
       <c r="C429" t="n">
-        <v>189652.8533057147</v>
+        <v>198651.130939265</v>
       </c>
       <c r="D429" t="n">
-        <v>158539.8250879213</v>
+        <v>163631.603864787</v>
       </c>
       <c r="E429" t="n">
-        <v>188944.147532824</v>
+        <v>182526.8764989423</v>
       </c>
       <c r="F429" t="n">
-        <v>171994.4192296929</v>
+        <v>175506.6750067247</v>
       </c>
       <c r="G429" t="n">
-        <v>125402.3209802759</v>
+        <v>96292.53950265086</v>
       </c>
       <c r="H429" t="n">
-        <v>235320.3720874681</v>
+        <v>185266.1557573379</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>534761.3744164415</v>
+        <v>547437.3316493294</v>
       </c>
       <c r="C430" t="n">
-        <v>189097.3429690463</v>
+        <v>198069.2638346888</v>
       </c>
       <c r="D430" t="n">
-        <v>158353.092434784</v>
+        <v>163438.8739717785</v>
       </c>
       <c r="E430" t="n">
-        <v>188865.7514664639</v>
+        <v>182451.1430649653</v>
       </c>
       <c r="F430" t="n">
-        <v>171976.1889404155</v>
+        <v>175488.0724411891</v>
       </c>
       <c r="G430" t="n">
-        <v>125399.9011351958</v>
+        <v>96290.68137892446</v>
       </c>
       <c r="H430" t="n">
-        <v>249673.7798784294</v>
+        <v>196566.4977543344</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>528230.4403895373</v>
+        <v>540801.001504563</v>
       </c>
       <c r="C431" t="n">
-        <v>188502.0719202963</v>
+        <v>197445.7495295337</v>
       </c>
       <c r="D431" t="n">
-        <v>158147.5795569331</v>
+        <v>163226.7606948844</v>
       </c>
       <c r="E431" t="n">
-        <v>188777.3106122139</v>
+        <v>182365.7060027862</v>
       </c>
       <c r="F431" t="n">
-        <v>171955.0515633882</v>
+        <v>175466.5034229789</v>
       </c>
       <c r="G431" t="n">
-        <v>125397.0123341348</v>
+        <v>96288.46315849505</v>
       </c>
       <c r="H431" t="n">
-        <v>264086.8425238262</v>
+        <v>207913.8056194171</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>521628.2373239108</v>
+        <v>534090.1513967032</v>
       </c>
       <c r="C432" t="n">
-        <v>187865.0943775581</v>
+        <v>196778.5499222392</v>
       </c>
       <c r="D432" t="n">
-        <v>157921.7889583433</v>
+        <v>162993.7184434228</v>
       </c>
       <c r="E432" t="n">
-        <v>188677.7313566369</v>
+        <v>182269.5088422925</v>
       </c>
       <c r="F432" t="n">
-        <v>171930.5955901799</v>
+        <v>175441.5480403503</v>
       </c>
       <c r="G432" t="n">
-        <v>125393.5715639348</v>
+        <v>96285.82109814235</v>
       </c>
       <c r="H432" t="n">
-        <v>278560.603995399</v>
+        <v>219308.9012645586</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>514955.7424284804</v>
+        <v>527305.7533397339</v>
       </c>
       <c r="C433" t="n">
-        <v>187184.451564681</v>
+        <v>196065.6133004748</v>
       </c>
       <c r="D433" t="n">
-        <v>157674.1493113181</v>
+        <v>162738.125423809</v>
       </c>
       <c r="E433" t="n">
-        <v>188565.8283866814</v>
+        <v>182161.4065282295</v>
       </c>
       <c r="F433" t="n">
-        <v>171902.3601384735</v>
+        <v>175412.7359994219</v>
       </c>
       <c r="G433" t="n">
-        <v>125389.4827117223</v>
+        <v>96282.68139578192</v>
       </c>
       <c r="H433" t="n">
-        <v>293096.2273866788</v>
+        <v>230752.7003855199</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>508214.0782035147</v>
+        <v>520448.9301444152</v>
       </c>
       <c r="C434" t="n">
-        <v>186458.1796815095</v>
+        <v>195304.8826895369</v>
       </c>
       <c r="D434" t="n">
-        <v>157403.0168766729</v>
+        <v>162458.2851053519</v>
       </c>
       <c r="E434" t="n">
-        <v>188440.320607885</v>
+        <v>182040.1614770377</v>
       </c>
       <c r="F434" t="n">
-        <v>171869.8304373131</v>
+        <v>175379.5420172264</v>
       </c>
       <c r="G434" t="n">
-        <v>125384.6348009361</v>
+        <v>96278.95883596611</v>
       </c>
       <c r="H434" t="n">
-        <v>307694.9933584772</v>
+        <v>242246.2112379964</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>501404.5169883492</v>
+        <v>513520.9601747932</v>
       </c>
       <c r="C435" t="n">
-        <v>185684.3184729936</v>
+        <v>194494.3048280274</v>
       </c>
       <c r="D435" t="n">
-        <v>157106.6775982155</v>
+        <v>162152.4283820002</v>
       </c>
       <c r="E435" t="n">
-        <v>188299.8273547688</v>
+        <v>181904.4399159556</v>
       </c>
       <c r="F435" t="n">
-        <v>171832.4331105874</v>
+        <v>175341.3810088801</v>
       </c>
       <c r="G435" t="n">
-        <v>125378.9000438177</v>
+        <v>96274.55529445235</v>
       </c>
       <c r="H435" t="n">
-        <v>322358.2979817179</v>
+        <v>253790.5329392932</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>494528.4851589269</v>
+        <v>506523.281741749</v>
       </c>
       <c r="C436" t="n">
-        <v>184860.9203746365</v>
+        <v>193631.8397472189</v>
       </c>
       <c r="D436" t="n">
-        <v>156783.3499178636</v>
+        <v>161818.7164778744</v>
       </c>
       <c r="E436" t="n">
-        <v>188142.864969345</v>
+        <v>181752.8085777357</v>
       </c>
       <c r="F436" t="n">
-        <v>171789.5312822619</v>
+        <v>175297.603092859</v>
       </c>
       <c r="G436" t="n">
-        <v>125372.131700412</v>
+        <v>96269.35809419584</v>
       </c>
       <c r="H436" t="n">
-        <v>337087.6499407558</v>
+        <v>265386.853266517</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>487587.5669339215</v>
+        <v>499457.4970908007</v>
       </c>
       <c r="C437" t="n">
-        <v>183986.060204872</v>
+        <v>192715.4709232957</v>
       </c>
       <c r="D437" t="n">
-        <v>156431.1883542384</v>
+        <v>161455.2446407915</v>
       </c>
       <c r="E437" t="n">
-        <v>187967.8438284025</v>
+        <v>181583.7318288939</v>
       </c>
       <c r="F437" t="n">
-        <v>171740.4195329471</v>
+        <v>175247.4884445779</v>
       </c>
       <c r="G437" t="n">
-        <v>125364.1617351842</v>
+        <v>96263.23820593914</v>
       </c>
       <c r="H437" t="n">
-        <v>351884.6670593892</v>
+        <v>277036.4459215284</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>480583.5077485524</v>
+        <v>492325.3759417474</v>
       </c>
       <c r="C438" t="n">
-        <v>183057.8453679066</v>
+        <v>191743.215964281</v>
       </c>
       <c r="D438" t="n">
-        <v>156048.287883172</v>
+        <v>161060.0466634603</v>
       </c>
       <c r="E438" t="n">
-        <v>187773.0659043749</v>
+        <v>181395.5693134209</v>
       </c>
       <c r="F438" t="n">
-        <v>171684.3187439328</v>
+        <v>175190.2420351348</v>
       </c>
       <c r="G438" t="n">
-        <v>125354.7982637786</v>
+        <v>96256.04828765722</v>
       </c>
       <c r="H438" t="n">
-        <v>366751.0721108603</v>
+        <v>288740.667232184</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>473518.2171559075</v>
+        <v>485128.8585384749</v>
       </c>
       <c r="C439" t="n">
-        <v>182074.4265234073</v>
+        <v>190713.1377859586</v>
       </c>
       <c r="D439" t="n">
-        <v>155632.68915326</v>
+        <v>160631.1002665411</v>
       </c>
       <c r="E439" t="n">
-        <v>187556.7229479921</v>
+        <v>181186.5741971564</v>
       </c>
       <c r="F439" t="n">
-        <v>171620.3708717383</v>
+        <v>175124.988299154</v>
       </c>
       <c r="G439" t="n">
-        <v>125343.8227842441</v>
+        <v>96247.6205585022</v>
       </c>
       <c r="H439" t="n">
-        <v>381688.687872512</v>
+        <v>300500.9522588997</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>466393.7712166395</v>
+        <v>477870.0581683223</v>
       </c>
       <c r="C440" t="n">
-        <v>181034.0086722444</v>
+        <v>189623.3562235914</v>
       </c>
       <c r="D440" t="n">
-        <v>155182.3845633643</v>
+        <v>160166.333371337</v>
       </c>
       <c r="E440" t="n">
-        <v>187316.8953834251</v>
+        <v>180954.8921004608</v>
       </c>
       <c r="F440" t="n">
-        <v>171547.633703486</v>
+        <v>175050.7657830598</v>
       </c>
       <c r="G440" t="n">
-        <v>125330.9871892863</v>
+        <v>96237.76450460425</v>
       </c>
       <c r="H440" t="n">
-        <v>396699.4313852488</v>
+        <v>312318.8102751639</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>459212.4143393104</v>
+        <v>470551.2631118859</v>
       </c>
       <c r="C441" t="n">
-        <v>179934.8626003927</v>
+        <v>188472.0600187892</v>
       </c>
       <c r="D441" t="n">
-        <v>154695.3252218285</v>
+        <v>159663.6312825172</v>
       </c>
       <c r="E441" t="n">
-        <v>187051.5520081079</v>
+        <v>180698.5608082311</v>
       </c>
       <c r="F441" t="n">
-        <v>171465.0756508961</v>
+        <v>174966.5218327621</v>
       </c>
       <c r="G441" t="n">
-        <v>125316.0105587837</v>
+        <v>96226.2644161448</v>
       </c>
       <c r="H441" t="n">
-        <v>411785.3073777998</v>
+        <v>324195.8195905027</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>451976.560535436</v>
+        <v>463174.9379859645</v>
       </c>
       <c r="C442" t="n">
-        <v>178775.3366161454</v>
+        <v>187257.5191136075</v>
       </c>
       <c r="D442" t="n">
-        <v>154169.4287991495</v>
+        <v>159120.84479299</v>
       </c>
       <c r="E442" t="n">
-        <v>186758.5505897152</v>
+        <v>180415.5108466032</v>
       </c>
       <c r="F442" t="n">
-        <v>171371.57064833</v>
+        <v>174871.1073875123</v>
       </c>
       <c r="G442" t="n">
-        <v>125298.5757349765</v>
+        <v>96212.87675755084</v>
       </c>
       <c r="H442" t="n">
-        <v>426948.4008158675</v>
+        <v>336133.621684475</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>444688.7940554243</v>
+        <v>455743.7244445782</v>
       </c>
       <c r="C443" t="n">
-        <v>177553.8685091067</v>
+        <v>185978.0971769476</v>
       </c>
       <c r="D443" t="n">
-        <v>153602.5882769718</v>
+        <v>158535.7992138868</v>
       </c>
       <c r="E443" t="n">
-        <v>186435.6394517507</v>
+        <v>180103.5670146878</v>
       </c>
       <c r="F443" t="n">
-        <v>171265.8932279482</v>
+        <v>174763.2719544931</v>
       </c>
       <c r="G443" t="n">
-        <v>125278.325686403</v>
+        <v>96197.3273754744</v>
       </c>
       <c r="H443" t="n">
-        <v>442190.8685367336</v>
+        <v>348133.9146206535</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>437351.8693741068</v>
+        <v>448260.4412055826</v>
       </c>
       <c r="C444" t="n">
-        <v>176268.997653087</v>
+        <v>184632.2642816852</v>
       </c>
       <c r="D444" t="n">
-        <v>152992.6815866143</v>
+        <v>157906.3043226459</v>
       </c>
       <c r="E444" t="n">
-        <v>186080.4601367369</v>
+        <v>179760.4509573077</v>
       </c>
       <c r="F444" t="n">
-        <v>171146.713852568</v>
+        <v>174641.6588463701</v>
       </c>
       <c r="G444" t="n">
-        <v>125254.859670839</v>
+        <v>96179.30855243347</v>
       </c>
       <c r="H444" t="n">
-        <v>457514.9299308294</v>
+        <v>360198.4457102878</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>429968.7104974226</v>
+        <v>440728.0833733727</v>
       </c>
       <c r="C445" t="n">
-        <v>174919.3771691386</v>
+        <v>183218.6096447946</v>
       </c>
       <c r="D445" t="n">
-        <v>152337.5821199652</v>
+        <v>157230.1652114837</v>
       </c>
       <c r="E445" t="n">
-        <v>185690.5512319632</v>
+        <v>179383.7848608091</v>
       </c>
       <c r="F445" t="n">
-        <v>171012.5945940406</v>
+        <v>174504.8007714166</v>
       </c>
       <c r="G445" t="n">
-        <v>125227.7292121993</v>
+        <v>96158.47591759969</v>
       </c>
       <c r="H445" t="n">
-        <v>472922.8566331792</v>
+        <v>372329.0033964458</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>422542.409565034</v>
+        <v>433149.8210314874</v>
       </c>
       <c r="C446" t="n">
-        <v>173503.7860596349</v>
+        <v>181735.8543371422</v>
       </c>
       <c r="D446" t="n">
-        <v>151635.1700845911</v>
+        <v>156505.194007192</v>
       </c>
       <c r="E446" t="n">
-        <v>185263.3534370632</v>
+        <v>178971.0963485237</v>
       </c>
       <c r="F446" t="n">
-        <v>170861.985251749</v>
+        <v>174351.1158727498</v>
       </c>
       <c r="G446" t="n">
-        <v>125196.4339115655</v>
+        <v>96134.44523021708</v>
       </c>
       <c r="H446" t="n">
-        <v>488416.9611896054</v>
+        <v>384527.4083309933</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>415076.2247271833</v>
+        <v>425528.9970826103</v>
       </c>
       <c r="C447" t="n">
-        <v>172021.1412196082</v>
+        <v>180182.8638647141</v>
       </c>
       <c r="D447" t="n">
-        <v>150883.3446634088</v>
+        <v>155729.2224213387</v>
       </c>
       <c r="E447" t="n">
-        <v>184796.2159452574</v>
+        <v>178519.8246452811</v>
       </c>
       <c r="F447" t="n">
-        <v>170693.2200119797</v>
+        <v>174178.904319484</v>
       </c>
       <c r="G447" t="n">
-        <v>125160.4171182058</v>
+        <v>96106.78905551287</v>
       </c>
       <c r="H447" t="n">
-        <v>503999.5846651927</v>
+        <v>396795.5036188208</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>407573.577277973</v>
+        <v>417869.1243174421</v>
       </c>
       <c r="C448" t="n">
-        <v>170470.5092276198</v>
+        <v>178558.660518917</v>
       </c>
       <c r="D448" t="n">
-        <v>150080.0369273983</v>
+        <v>154900.115077695</v>
       </c>
       <c r="E448" t="n">
-        <v>184286.4042008795</v>
+        <v>178027.3280714584</v>
       </c>
       <c r="F448" t="n">
-        <v>170504.5147542343</v>
+        <v>173986.345558034</v>
       </c>
       <c r="G448" t="n">
-        <v>125119.0614925998</v>
+        <v>96075.03335768216</v>
       </c>
       <c r="H448" t="n">
-        <v>519673.0831658265</v>
+        <v>409135.1442063411</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>400038.0480313939</v>
+        <v>410173.8816982348</v>
       </c>
       <c r="C449" t="n">
-        <v>168851.1178153246</v>
+        <v>176862.4353903279</v>
       </c>
       <c r="D449" t="n">
-        <v>149223.2234377289</v>
+        <v>154015.7835512168</v>
       </c>
       <c r="E449" t="n">
-        <v>183731.1090847545</v>
+        <v>177490.892916388</v>
       </c>
       <c r="F449" t="n">
-        <v>170293.965114829</v>
+        <v>173771.4963361732</v>
       </c>
       <c r="G449" t="n">
-        <v>125071.6845000366</v>
+        <v>96038.65403956229</v>
       </c>
       <c r="H449" t="n">
-        <v>535439.8132477362</v>
+        <v>421548.1853945183</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>392473.3729308501</v>
+        <v>402447.109847348</v>
       </c>
       <c r="C450" t="n">
-        <v>167162.3669126999</v>
+        <v>175093.5599379754</v>
       </c>
       <c r="D450" t="n">
-        <v>148310.9404615026</v>
+        <v>153074.2010403513</v>
       </c>
       <c r="E450" t="n">
-        <v>183127.4575661465</v>
+        <v>176907.7437285244</v>
       </c>
       <c r="F450" t="n">
-        <v>170059.5454211707</v>
+        <v>173532.2896155464</v>
       </c>
       <c r="G450" t="n">
-        <v>125017.5338802409</v>
+        <v>95997.07346389978</v>
       </c>
       <c r="H450" t="n">
-        <v>551302.1161948586</v>
+        <v>434036.4704605447</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>384883.4378875836</v>
+        <v>394692.8057360053</v>
       </c>
       <c r="C451" t="n">
-        <v>165403.8391646996</v>
+        <v>173251.5970049674</v>
       </c>
       <c r="D451" t="n">
-        <v>147341.2987132455</v>
+        <v>152073.4175819769</v>
       </c>
       <c r="E451" t="n">
-        <v>182472.5248453543</v>
+        <v>176275.0550456299</v>
       </c>
       <c r="F451" t="n">
-        <v>169799.1086116863</v>
+        <v>173266.5344899633</v>
       </c>
       <c r="G451" t="n">
-        <v>124955.7831456191</v>
+        <v>95949.65699659358</v>
       </c>
       <c r="H451" t="n">
-        <v>567262.3011497771</v>
+        <v>446601.8173769383</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>377272.2728482582</v>
+        <v>386915.1165734691</v>
       </c>
       <c r="C452" t="n">
-        <v>163575.3098149507</v>
+        <v>171336.3111711301</v>
       </c>
       <c r="D452" t="n">
-        <v>146312.4985225035</v>
+        <v>151011.5757061318</v>
       </c>
       <c r="E452" t="n">
-        <v>181763.347994709</v>
+        <v>175589.9645724722</v>
       </c>
       <c r="F452" t="n">
-        <v>169510.3872563163</v>
+        <v>172971.9172267325</v>
       </c>
       <c r="G452" t="n">
-        <v>124885.5271679962</v>
+        <v>95895.70961788742</v>
       </c>
       <c r="H452" t="n">
-        <v>583322.6270907787</v>
+        <v>459246.0046222023</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72899.79219473852</v>
+        <v>72114.86845643715</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72985.00165822938</v>
+        <v>72199.16045598732</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73071.43551515065</v>
+        <v>72284.66366572774</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73159.11124038798</v>
+        <v>72371.39537238918</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73248.04655493874</v>
+        <v>72459.37310616417</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73338.25942929013</v>
+        <v>72548.61464404879</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73429.76808684101</v>
+        <v>72639.13801322764</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73522.59100736833</v>
+        <v>72730.96149450299</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73616.74693053936</v>
+        <v>72824.10362576906</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>73712.25485946878</v>
+        <v>72918.58320553102</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73809.1340643226</v>
+        <v>73014.41929646982</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73907.40408596869</v>
+        <v>73111.63122905382</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74007.08473967461</v>
+        <v>73210.2386051963</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74108.19611885359</v>
+        <v>73310.26130196149</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74210.75859885852</v>
+        <v>73411.71947531759</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>74314.79284082547</v>
+        <v>73514.633563939</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74420.31979556658</v>
+        <v>73619.02429305707</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>74527.36070751326</v>
+        <v>73724.912678361</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74635.93711870999</v>
+        <v>73832.32002994863</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74746.07087285978</v>
+        <v>73941.26795632826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74857.78411942119</v>
+        <v>74051.77836847182</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74971.09931775859</v>
+        <v>74163.87348391998</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75086.03924134467</v>
+        <v>74277.57583093985</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75202.62698201802</v>
+        <v>74392.90825273648</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75320.88595429386</v>
+        <v>74509.89391171731</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>75440.83989973071</v>
+        <v>74628.55629381166</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75562.51289135251</v>
+        <v>74748.91921284537</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75685.929338127</v>
+        <v>74871.00681497085</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>75811.11398950122</v>
+        <v>74994.84358315401</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75938.09193999469</v>
+        <v>75120.45434171749</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76066.88863385083</v>
+        <v>75247.86426094259</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76197.52986974754</v>
+        <v>75377.09886172877</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>76330.04180556748</v>
+        <v>75508.1840203124</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>76464.45096322824</v>
+        <v>75641.14597304547</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76600.78423357454</v>
+        <v>75776.01132123452</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76739.06888133126</v>
+        <v>75912.80703604099</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76879.33255011967</v>
+        <v>76051.5604634427</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77021.60326753634</v>
+        <v>76192.29932925869</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77165.90945029646</v>
+        <v>76335.05174423671</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77312.27990944171</v>
+        <v>76479.84620920544</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>77460.74385561311</v>
+        <v>76626.71162029018</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>77611.330904391</v>
+        <v>76775.67727419565</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>77764.07108170111</v>
+        <v>76926.77287355356</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77918.99482928892</v>
+        <v>77080.02853233827</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78076.13301026235</v>
+        <v>77235.47478134968</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78235.51691470361</v>
+        <v>77393.14257376468</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>78397.17826535169</v>
+        <v>77553.06329075835</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>78561.14922335526</v>
+        <v>77715.26874719532</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>78727.4623940977</v>
+        <v>77879.7911973914</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78896.15083309465</v>
+        <v>78046.66334094819</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79067.24805196481</v>
+        <v>78215.9183286597</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79240.7880244761</v>
+        <v>78387.58976849246</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79416.80519266523</v>
+        <v>78561.71173164053</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79595.33447303536</v>
+        <v>78738.31875865546</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>79776.41126282947</v>
+        <v>78917.44586565235</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79960.07144638199</v>
+        <v>79099.12855059316</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80146.35140154978</v>
+        <v>79283.40279964884</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>80335.28800622249</v>
+        <v>79470.30509363864</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80526.91864491356</v>
+        <v>79659.87241455105</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80721.2812154336</v>
+        <v>79852.14225214503</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80918.4141356464</v>
+        <v>80047.15261063269</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81118.3563503077</v>
+        <v>80244.9420154457</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>81321.14733799089</v>
+        <v>80445.54952008519</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>81526.82711809629</v>
+        <v>80649.01471305621</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81735.43625794922</v>
+        <v>80855.37772488919</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81947.01587998515</v>
+        <v>81064.67923524772</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82161.60766902384</v>
+        <v>81276.96048012454</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>82379.25387963501</v>
+        <v>81492.2632591275</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82599.99734359393</v>
+        <v>81710.62994285535</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>82823.88147743056</v>
+        <v>81932.10348036543</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83050.95029007285</v>
+        <v>82156.72740673424</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>83281.24839058401</v>
+        <v>82384.54585071219</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>83514.8209959969</v>
+        <v>82615.60354247339</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83751.71393924631</v>
+        <v>82849.94582146169</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83991.97367719941</v>
+        <v>83087.61864433585</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84235.64729878695</v>
+        <v>83328.66859301266</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84482.78253323618</v>
+        <v>83573.14288281108</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84733.42775840679</v>
+        <v>83821.08937069839</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84987.63200923093</v>
+        <v>84072.55656364029</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>85245.4449862607</v>
+        <v>84327.59362705456</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>85506.91706432076</v>
+        <v>84586.25039337244</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>85772.09930127249</v>
+        <v>84848.577370707</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86041.04344688762</v>
+        <v>85114.62575163179</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>86313.80195183393</v>
+        <v>85384.44742206976</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86590.42797677577</v>
+        <v>85658.09497029641</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>86870.9754015902</v>
+        <v>85935.62169605489</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87155.49883469965</v>
+        <v>86217.08161979038</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87444.05362252594</v>
+        <v>86502.52949200073</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87736.69585906347</v>
+        <v>86792.02080270738</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88033.48239557659</v>
+        <v>87085.6117910481</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88334.47085042266</v>
+        <v>87383.35945499429</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88639.71961900177</v>
+        <v>87685.32156119286</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>88949.28788383468</v>
+        <v>87991.55665493742</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>89263.23562477532</v>
+        <v>88302.124070269</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>89581.62362935384</v>
+        <v>88617.08394020869</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>89904.51350325803</v>
+        <v>88936.49720712601</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>90231.96768095203</v>
+        <v>89260.4256332432</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>90564.04943643701</v>
+        <v>89588.93181128023</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90900.82289415439</v>
+        <v>89922.07917524032</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91242.35304003663</v>
+        <v>90259.93201134178</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91588.70573270496</v>
+        <v>90602.55546909572</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91939.94771482133</v>
+        <v>90950.01557253522</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92296.14662459295</v>
+        <v>91302.37923159599</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>92657.37100743609</v>
+        <v>91659.71425365479</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93023.69032779943</v>
+        <v>92022.08935522557</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93395.17498115271</v>
+        <v>92389.57417381863</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>93771.89630614183</v>
+        <v>92762.23927996535</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>94153.92659691558</v>
+        <v>93140.1561894117</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>94541.33911562614</v>
+        <v>93523.39737548486</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>94934.20810510896</v>
+        <v>93912.03628163537</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95332.60880174332</v>
+        <v>94306.14733416059</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>95736.61744850007</v>
+        <v>94705.80595511118</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96146.31130817943</v>
+        <v>95111.08857538609</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>96561.76867684266</v>
+        <v>95522.07264802059</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>96983.06889744378</v>
+        <v>95938.83666167044</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97410.29237366415</v>
+        <v>96361.46015429772</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>97843.5205839563</v>
+        <v>96790.02372706305</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>98282.83609580027</v>
+        <v>97224.60905842971</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98728.32258017933</v>
+        <v>97665.29891848154</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>99180.06482627954</v>
+        <v>98112.17718346624</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>99638.14875641884</v>
+        <v>98565.32885056241</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>100102.6614412118</v>
+        <v>99024.84005288115</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>100573.6911149756</v>
+        <v>99490.79807470668</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>101051.3271913834</v>
+        <v>99963.29136698088</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>101535.660279373</v>
+        <v>100442.4095630406</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102026.7821993151</v>
+        <v>100928.2434946118</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>102524.7859994505</v>
+        <v>101420.8852080702</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>103029.7659726021</v>
+        <v>101920.4279809724</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>103541.8176731701</v>
+        <v>102426.9663388695</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>104061.0379344175</v>
+        <v>102940.5960724051</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>104587.524886055</v>
+        <v>103461.4142547113</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>105121.3779721328</v>
+        <v>103989.5192591084</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105662.6979692484</v>
+        <v>104525.0107771165</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>106211.5870050812</v>
+        <v>105067.9898367896</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>106768.1485772605</v>
+        <v>105618.5588213815</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>107332.487572579</v>
+        <v>106176.821488352</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>107904.7102865615</v>
+        <v>106742.882988725</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>108484.9244433994</v>
+        <v>107316.8498868083</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>109073.2392162624</v>
+        <v>107898.8301802865</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>109669.7652479981</v>
+        <v>108488.9333206979</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>110274.6146722334</v>
+        <v>109087.270234309</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>110887.9011348878</v>
+        <v>109693.953343395</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>111509.7398161131</v>
+        <v>110309.096587945</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>112140.2474526733</v>
+        <v>110932.8154477993</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>112779.5423607767</v>
+        <v>111565.2269652366</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>113427.7444593775</v>
+        <v>112206.4497680249</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>114084.9752939598</v>
+        <v>112856.6040929481</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>114751.35806082</v>
+        <v>113515.8118098286</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115427.017631866</v>
+        <v>114184.1964460585</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>116112.0805799465</v>
+        <v>114861.8832116564</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>116806.6752047317</v>
+        <v>115548.9990248692</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>117510.9315591607</v>
+        <v>116245.6725383353</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>118224.9814764768</v>
+        <v>116952.0341658283</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>118948.958597868</v>
+        <v>117668.2161096003</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>119682.998400736</v>
+        <v>118394.3523883458</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>120427.238227612</v>
+        <v>119130.5788658073</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>121181.8173157434</v>
+        <v>119877.0332800423</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>121946.8768273732</v>
+        <v>120633.8552733771</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>122722.559880735</v>
+        <v>121401.186423069</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>123509.0115817911</v>
+        <v>122179.1702727005</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>124306.3790567347</v>
+        <v>122967.9523643339</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>125114.8114852866</v>
+        <v>123767.6802714477</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>125934.4601348111</v>
+        <v>124578.5036326866</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>126765.4783952812</v>
+        <v>125400.5741864491</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>127608.0218151203</v>
+        <v>126234.0458063438</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>128462.2481379538</v>
+        <v>127079.0745375452</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>129328.3173402989</v>
+        <v>127935.8186340776</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>130206.3916702274</v>
+        <v>128804.438597062</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>131096.6356870342</v>
+        <v>129685.0972139571</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>131999.2163019477</v>
+        <v>130577.9595988312</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>132914.3028199155</v>
+        <v>131483.1932336983</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>133842.0669825064</v>
+        <v>132400.9680109586</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>134782.6830119653</v>
+        <v>133331.4562769778</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>135736.3276564603</v>
+        <v>134274.8328768483</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>136703.1802365657</v>
+        <v>135231.2752003712</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>137683.4226930217</v>
+        <v>136200.9632293014</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>138677.2396358158</v>
+        <v>137184.0795859012</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>139684.8183946318</v>
+        <v>138180.8095828457</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>140706.3490707125</v>
+        <v>139191.3412745272</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>141742.0245901861</v>
+        <v>140215.8655098073</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>142792.0407589049</v>
+        <v>141254.5759862654</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>143856.5963188507</v>
+        <v>142307.6693059963</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>144935.8930061565</v>
+        <v>143375.3450330082</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>146030.1356108041</v>
+        <v>144457.805752276</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>147139.5320380505</v>
+        <v>145555.2571305076</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>148264.2933716438</v>
+        <v>146667.9079786786</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>149404.6339388889</v>
+        <v>147795.9703163975</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150560.7713776232</v>
+        <v>148939.6594381602</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>151732.9267051688</v>
+        <v>150099.19398156</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>152921.3243893252</v>
+        <v>151274.7959975154</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>154126.1924214693</v>
+        <v>152466.6910225841</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>155347.7623918359</v>
+        <v>153675.1081534312</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>156586.2695670444</v>
+        <v>154900.2801235229</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>157841.9529699503</v>
+        <v>156142.4433821178</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>159115.055461894</v>
+        <v>157401.8381756287</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160405.8238274239</v>
+        <v>158678.7086314354</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>161714.5088615736</v>
+        <v>159973.3028442215</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>163041.3654597757</v>
+        <v>161285.8729649193</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>164386.6527104918</v>
+        <v>162616.6752923438</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>165750.6339906478</v>
+        <v>163965.9703675991</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>167133.5770639571</v>
+        <v>165334.0230713437</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>168535.7541822258</v>
+        <v>166721.1027240052</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>169957.4421897251</v>
+        <v>168127.4831890283</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>171398.9226307292</v>
+        <v>169553.4429792544</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>172860.4818603087</v>
+        <v>170999.2653665234</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>174342.4111584785</v>
+        <v>172465.2384945918</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>175845.0068477991</v>
+        <v>173951.6554954675</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177368.5704145291</v>
+        <v>175458.8146092583</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>178913.408633432</v>
+        <v>176987.0193076346</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>180479.8336963408</v>
+        <v>178536.5784210101</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>182068.1633445863</v>
+        <v>180107.8062695437</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>183678.7210053917</v>
+        <v>181701.0227980658</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>185311.8359323462</v>
+        <v>183316.5537150396</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>186967.843350064</v>
+        <v>184954.7306356622</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>188647.0846031391</v>
+        <v>186615.8912292156</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>190349.9073095077</v>
+        <v>188300.3793707782</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192076.6655183301</v>
+        <v>190008.5452974058</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>193827.7198725045</v>
+        <v>191740.7457688974</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>195603.4377759273</v>
+        <v>193497.3442332524</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>197404.1935656132</v>
+        <v>195278.710996939</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199230.368688787</v>
+        <v>197085.2234000786</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>201082.3518850651</v>
+        <v>198917.2659966659</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>202960.5393738349</v>
+        <v>200775.2307399311</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>204865.3350469521</v>
+        <v>202659.5171729606</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>206797.1506668572</v>
+        <v>204570.5326246837</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>208756.4060702363</v>
+        <v>206508.6924113375</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>210743.5293773219</v>
+        <v>208474.4200435149</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>212758.9572069494</v>
+        <v>210468.1474389068</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>214803.1348974722</v>
+        <v>212490.3151408371</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>216876.5167336396</v>
+        <v>214541.3725426986</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>218979.5661795321</v>
+        <v>216621.7781183797</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221112.7561176574</v>
+        <v>218731.9996587861</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>223276.5690942922</v>
+        <v>220872.5145145421</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>225471.4975711637</v>
+        <v>223043.8098449601</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>227698.0441835461</v>
+        <v>225246.3828733597</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>229956.7220048555</v>
+        <v>227480.7411488139</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>232248.0548178093</v>
+        <v>229747.4028143873</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>234572.5773922137</v>
+        <v>232046.8968819343</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>236930.8357694382</v>
+        <v>234379.7635135089</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>239323.3875536185</v>
+        <v>236746.5543094342</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>241750.8022096323</v>
+        <v>239147.8326030684</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>244213.6613678721</v>
+        <v>241584.1737622963</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>246712.5591358322</v>
+        <v>244056.1654977613</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>249248.1024165149</v>
+        <v>246564.4081778446</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>251820.9112336526</v>
+        <v>249109.5151503831</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>254431.6190637173</v>
+        <v>251692.1130711065</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>257080.8731746891</v>
+        <v>254312.8422387569</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>259769.3349715243</v>
+        <v>256972.3569368376</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>262497.6803482606</v>
+        <v>259671.3257819267</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>265266.6000466684</v>
+        <v>262410.4320784673</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>268076.8000213408</v>
+        <v>265190.3741799265</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>270929.0018110967</v>
+        <v>268011.8658561993</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>273823.942916549</v>
+        <v>270875.6366671109</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>276762.3771836566</v>
+        <v>273782.4323418405</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>279745.0751930721</v>
+        <v>276733.0151640753</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>282772.8246550528</v>
+        <v>279728.1643626701</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>285846.4308096854</v>
+        <v>282768.6765075623</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>288966.7168321389</v>
+        <v>285855.3659106622</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>292134.5242426364</v>
+        <v>288989.0650314101</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>295350.7133207919</v>
+        <v>292170.6248866514</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>298616.163523938</v>
+        <v>295400.9154644607</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>301931.773909017</v>
+        <v>298680.8261414907</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>305298.4635575862</v>
+        <v>302011.2661033995</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>308717.1720034364</v>
+        <v>305393.1647678678</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>312188.8596622822</v>
+        <v>308827.4722096603</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>315714.5082629443</v>
+        <v>312315.1595871654</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>319295.1212793913</v>
+        <v>315857.2195697881</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>322931.7243629627</v>
+        <v>319454.6667655149</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>326625.3657740459</v>
+        <v>323108.5381479459</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>330377.1168124262</v>
+        <v>326819.8934820098</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>334188.0722454734</v>
+        <v>330589.8157475412</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>338059.3507332779</v>
+        <v>334419.4115598373</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>341992.0952497817</v>
+        <v>338309.8115862578</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>345987.4734989019</v>
+        <v>342262.170957864</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350046.6783245666</v>
+        <v>346277.6696750424</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>354170.9281135336</v>
+        <v>350357.5130059856</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>358361.4671897893</v>
+        <v>354502.931876844</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>362619.5661992554</v>
+        <v>358715.1832522916</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>366946.5224834676</v>
+        <v>362995.55050518</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>371343.6604408153</v>
+        <v>367345.3437738885</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>375812.3318738576</v>
+        <v>371765.900305902</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>380353.9163211639</v>
+        <v>376258.5847860772</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>384969.8213720414</v>
+        <v>380824.7896479816</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>389661.4829624455</v>
+        <v>385465.9353666183</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>394430.3656502883</v>
+        <v>390183.4707307696</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>399277.9628682778</v>
+        <v>394978.8730931149</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>404205.7971523528</v>
+        <v>399853.6485962035</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>409215.420343686</v>
+        <v>404809.332372287</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>414308.413762166</v>
+        <v>409847.4887149289</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>419486.388349176</v>
+        <v>414969.7112202478</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>424750.9847774141</v>
+        <v>420177.6228955574</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>430103.8735254318</v>
+        <v>425472.8762330986</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>435546.7549144839</v>
+        <v>430857.1532464947</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>441081.3591052031</v>
+        <v>436332.1654674618</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>446709.4460515669</v>
+        <v>441899.6539002715</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>452432.8054095266</v>
+        <v>447561.388931362</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>458253.2563976218</v>
+        <v>453319.1701914563</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>464172.6476068405</v>
+        <v>459174.8263674667</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>470192.8567569195</v>
+        <v>465130.2149614209</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>476315.7903962428</v>
+        <v>471187.2219935915</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>482543.3835424295</v>
+        <v>477347.7616469524</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>486662.3058521277</v>
+        <v>480261.5680698872</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>490854.705623184</v>
+        <v>483229.6504293308</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495121.994506433</v>
+        <v>486253.0876555882</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499465.602572725</v>
+        <v>489332.9727301306</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>503886.977786318</v>
+        <v>492470.412255797</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508387.5854245374</v>
+        <v>495666.5259861783</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512968.9074416516</v>
+        <v>498922.4463126518</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517632.4417749274</v>
+        <v>502239.3177075557</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>522379.7015908585</v>
+        <v>505618.2961220078</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>527212.2144695966</v>
+        <v>509060.548336915</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>532131.5215256566</v>
+        <v>512567.2512657451</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>537139.1764630314</v>
+        <v>516139.591207683</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>542236.7445629059</v>
+        <v>519778.763049844</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>547425.801602256</v>
+        <v>523485.9694172901</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>552707.9327016899</v>
+        <v>527262.4197696463</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>558084.7311010066</v>
+        <v>531109.3294432182</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>563557.7968610579</v>
+        <v>535027.9186375855</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>569128.7354906151</v>
+        <v>539019.4113457541</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>574799.1564971184</v>
+        <v>543085.0342270704</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>580570.6718602997</v>
+        <v>547226.0154222029</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>586444.8944278829</v>
+        <v>551443.5833096534</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>592423.4362327168</v>
+        <v>555738.9652033857</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>598507.9067309257</v>
+        <v>560113.3859913339</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>604699.9109608541</v>
+        <v>564568.0667147035</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>611001.0476228328</v>
+        <v>569104.2230881717</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>617412.9070800239</v>
+        <v>573723.063961275</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>623937.0692808781</v>
+        <v>578425.7897214774</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>630575.1016039945</v>
+        <v>583213.59063963</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>637328.5566264887</v>
+        <v>588087.6451587446</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>644198.9698172469</v>
+        <v>593049.1181272614</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>651187.8571567928</v>
+        <v>598099.1589781981</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>658296.7126858013</v>
+        <v>603238.8998558706</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>665527.0059846418</v>
+        <v>608469.4536920873</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>672880.1795866917</v>
+        <v>613791.9122340331</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>680357.6463285178</v>
+        <v>619207.3440263047</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>687960.7866403908</v>
+        <v>624716.792349873</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>695690.9457809831</v>
+        <v>630321.2731209942</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>703549.4310204874</v>
+        <v>636021.7727534489</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>711537.5087767668</v>
+        <v>641819.2459877126</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>719656.401709552</v>
+        <v>647714.6136910171</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>727907.2857780879</v>
+        <v>653708.7606325237</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>736291.2872680207</v>
+        <v>659802.5332381369</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>744809.4797936984</v>
+        <v>665996.7373297896</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>753462.8812824461</v>
+        <v>672292.1358542857</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>762252.4509477376</v>
+        <v>678689.4466071081</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>771179.0862585554</v>
+        <v>685189.3399568311</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>780243.6199125723</v>
+        <v>691792.4365760597</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>789446.8168211119</v>
+        <v>698499.3051850552</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>798789.371114176</v>
+        <v>705310.4603144403</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>808271.9031740894</v>
+        <v>712226.360093582</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>817894.9567066066</v>
+        <v>719247.4040714607</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>827658.9958585403</v>
+        <v>726373.9310769903</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>837564.4023911911</v>
+        <v>733606.2171259039</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>847611.4729190406</v>
+        <v>740944.4733814613</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>857800.4162232814</v>
+        <v>748388.8441763042</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>855194.6797232194</v>
+        <v>745830.9282853617</v>
       </c>
       <c r="C358" t="n">
-        <v>12517.42050166554</v>
+        <v>9648.301437308586</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>852559.3097507226</v>
+        <v>743245.0833921334</v>
       </c>
       <c r="C359" t="n">
-        <v>25200.9281842307</v>
+        <v>19424.62119803925</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>849893.8323911073</v>
+        <v>740630.9265352946</v>
       </c>
       <c r="C360" t="n">
-        <v>38050.91392740487</v>
+        <v>29329.26056832849</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>847197.7632695065</v>
+        <v>737988.068887747</v>
       </c>
       <c r="C361" t="n">
-        <v>51067.6842603149</v>
+        <v>39362.45581773478</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>844470.6073399507</v>
+        <v>735316.1157232041</v>
       </c>
       <c r="C362" t="n">
-        <v>64251.45946968378</v>
+        <v>49524.37674104178</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>841711.8586677974</v>
+        <v>732614.6663789561</v>
       </c>
       <c r="C363" t="n">
-        <v>77602.37184325643</v>
+        <v>59815.12530430865</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>838921.0002056231</v>
+        <v>729883.3142146238</v>
       </c>
       <c r="C364" t="n">
-        <v>91120.46405747946</v>
+        <v>70234.7344021099</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>836097.5035627889</v>
+        <v>727121.6465668175</v>
       </c>
       <c r="C365" t="n">
-        <v>104805.687718107</v>
+        <v>80783.16673264901</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>833240.8287690439</v>
+        <v>724329.2446996424</v>
       </c>
       <c r="C366" t="n">
-        <v>118657.9020620501</v>
+        <v>91460.3137971572</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>830350.4240326026</v>
+        <v>721505.6837511102</v>
       </c>
       <c r="C367" t="n">
-        <v>132676.8728283704</v>
+        <v>102265.9950296666</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>827425.7254933302</v>
+        <v>718650.5326756021</v>
       </c>
       <c r="C368" t="n">
-        <v>146862.271305794</v>
+        <v>113199.9570628435</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>824466.1569717878</v>
+        <v>715763.3541826417</v>
       </c>
       <c r="C369" t="n">
-        <v>161213.6735636018</v>
+        <v>124261.8731351666</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>821471.129715094</v>
+        <v>712843.7046723536</v>
       </c>
       <c r="C370" t="n">
-        <v>175730.5598720994</v>
+        <v>135451.3426442309</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>818440.0421407238</v>
+        <v>709891.1341681323</v>
       </c>
       <c r="C371" t="n">
-        <v>190412.3143182046</v>
+        <v>146767.8908504464</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>815372.2795795979</v>
+        <v>706905.1862471782</v>
       </c>
       <c r="C372" t="n">
-        <v>205258.2246209462</v>
+        <v>158210.9687348266</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>812267.2140200299</v>
+        <v>703885.3979697427</v>
       </c>
       <c r="C373" t="n">
-        <v>205257.0448907193</v>
+        <v>158210.0594106697</v>
       </c>
       <c r="D373" t="n">
-        <v>15772.82400814409</v>
+        <v>12525.3417161311</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>809124.2038543338</v>
+        <v>700831.2998080881</v>
       </c>
       <c r="C374" t="n">
-        <v>205255.6797832244</v>
+        <v>158209.0071995849</v>
       </c>
       <c r="D374" t="n">
-        <v>31716.53580968639</v>
+        <v>25186.38696932843</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>805942.5936301737</v>
+        <v>697742.4155763703</v>
       </c>
       <c r="C375" t="n">
-        <v>205254.1022110403</v>
+        <v>158207.7912228612</v>
       </c>
       <c r="D375" t="n">
-        <v>47830.1126169832</v>
+        <v>37982.32355470503</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>802721.7138090092</v>
+        <v>694618.2623628586</v>
       </c>
       <c r="C376" t="n">
-        <v>205252.2814654753</v>
+        <v>158206.3878105488</v>
       </c>
       <c r="D376" t="n">
-        <v>64112.43557988098</v>
+        <v>50912.26298326901</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>799460.880534265</v>
+        <v>691458.3504661375</v>
       </c>
       <c r="C377" t="n">
-        <v>205250.1827851894</v>
+        <v>158204.7701689575</v>
       </c>
       <c r="D377" t="n">
-        <v>80562.29113910877</v>
+        <v>63975.24155666468</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>796159.3954122094</v>
+        <v>688262.1833371588</v>
       </c>
       <c r="C378" t="n">
-        <v>205247.7668812593</v>
+        <v>158202.9080145816</v>
       </c>
       <c r="D378" t="n">
-        <v>97178.37264582107</v>
+        <v>77170.22165326608</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>792816.5453088111</v>
+        <v>685029.2575292781</v>
       </c>
       <c r="C379" t="n">
-        <v>205244.9894153951</v>
+        <v>158200.7671719147</v>
       </c>
       <c r="D379" t="n">
-        <v>113959.2822486585</v>
+        <v>90496.09322670892</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>789431.602166207</v>
+        <v>681759.0626586732</v>
       </c>
       <c r="C380" t="n">
-        <v>205241.8004279213</v>
+        <v>158198.3091325429</v>
       </c>
       <c r="D380" t="n">
-        <v>130903.5330485865</v>
+        <v>103951.6755170675</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>786003.8228427855</v>
+        <v>678451.0813778127</v>
       </c>
       <c r="C381" t="n">
-        <v>205238.1437120613</v>
+        <v>158195.4905728498</v>
       </c>
       <c r="D381" t="n">
-        <v>148009.5515206173</v>
+        <v>117535.7189739657</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>782532.4489812193</v>
+        <v>675104.7893649332</v>
       </c>
       <c r="C382" t="n">
-        <v>205233.9561310112</v>
+        <v>158192.2628276239</v>
       </c>
       <c r="D382" t="n">
-        <v>165275.6802003017</v>
+        <v>131246.9073899446</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>779016.7069092117</v>
+        <v>671719.6553327873</v>
       </c>
       <c r="C383" t="n">
-        <v>205229.1668742751</v>
+        <v>158188.5713168494</v>
       </c>
       <c r="D383" t="n">
-        <v>165275.3706519465</v>
+        <v>131246.6615748056</v>
       </c>
       <c r="E383" t="n">
-        <v>17616.7086923559</v>
+        <v>14792.36548681183</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>775455.8075780594</v>
+        <v>668295.1410602309</v>
       </c>
       <c r="C384" t="n">
-        <v>205223.6966497391</v>
+        <v>158184.3549229649</v>
       </c>
       <c r="D384" t="n">
-        <v>165275.0016101954</v>
+        <v>131246.3685154246</v>
       </c>
       <c r="E384" t="n">
-        <v>35391.75718135403</v>
+        <v>29717.68544224445</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>771848.9465445672</v>
+        <v>664830.7014505072</v>
       </c>
       <c r="C385" t="n">
-        <v>205217.4568080241</v>
+        <v>158179.5453159233</v>
       </c>
       <c r="D385" t="n">
-        <v>165274.5623765503</v>
+        <v>131246.0197160279</v>
       </c>
       <c r="E385" t="n">
-        <v>53323.24488793446</v>
+        <v>44774.36399157561</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>768195.3040022178</v>
+        <v>661325.7846204436</v>
       </c>
       <c r="C386" t="n">
-        <v>205210.3483957477</v>
+        <v>158174.0662234558</v>
       </c>
       <c r="D386" t="n">
-        <v>165274.0404753168</v>
+        <v>131245.6052695541</v>
       </c>
       <c r="E386" t="n">
-        <v>71409.20161891608</v>
+        <v>59960.74680662612</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>764494.0448679131</v>
+        <v>657779.8320250503</v>
       </c>
       <c r="C387" t="n">
-        <v>205202.2611344803</v>
+        <v>158167.8326440614</v>
       </c>
       <c r="D387" t="n">
-        <v>165273.4213861571</v>
+        <v>131245.1136452721</v>
       </c>
       <c r="E387" t="n">
-        <v>89647.59181373206</v>
+        <v>75275.1246716508</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>760744.3189309775</v>
+        <v>654192.278622342</v>
       </c>
       <c r="C388" t="n">
-        <v>205193.072322382</v>
+        <v>158160.7500003999</v>
       </c>
       <c r="D388" t="n">
-        <v>165272.6882413734</v>
+        <v>131244.5314483911</v>
       </c>
       <c r="E388" t="n">
-        <v>108036.3190533978</v>
+        <v>90715.73726942047</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>756945.2610715042</v>
+        <v>650562.5530835267</v>
       </c>
       <c r="C389" t="n">
-        <v>205182.6456557754</v>
+        <v>158152.7132309717</v>
       </c>
       <c r="D389" t="n">
-        <v>165271.8214841158</v>
+        <v>131243.8431486402</v>
       </c>
       <c r="E389" t="n">
-        <v>126573.2308236126</v>
+        <v>106280.7771806942</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>753095.9915554904</v>
+        <v>646890.0780539745</v>
       </c>
       <c r="C390" t="n">
-        <v>205170.8299682451</v>
+        <v>158143.6058182291</v>
       </c>
       <c r="D390" t="n">
-        <v>165270.7984834328</v>
+        <v>131243.0307745767</v>
       </c>
       <c r="E390" t="n">
-        <v>145256.1235226349</v>
+        <v>121968.3940892228</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>749195.6164145505</v>
+        <v>643174.2704706956</v>
       </c>
       <c r="C391" t="n">
-        <v>205157.4578852618</v>
+        <v>158133.2987515735</v>
       </c>
       <c r="D391" t="n">
-        <v>165269.5931018114</v>
+        <v>131242.0735701663</v>
       </c>
       <c r="E391" t="n">
-        <v>164082.7477032693</v>
+        <v>137776.6991833312</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>745243.2279183201</v>
+        <v>639414.5419423048</v>
       </c>
       <c r="C392" t="n">
-        <v>205142.3443928185</v>
+        <v>158121.6494240747</v>
       </c>
       <c r="D392" t="n">
-        <v>165268.1752105923</v>
+        <v>131240.9476099687</v>
       </c>
       <c r="E392" t="n">
-        <v>183050.8135369975</v>
+        <v>153703.7697440292</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>741237.9051479703</v>
+        <v>635610.2991977225</v>
       </c>
       <c r="C393" t="n">
-        <v>205125.2853191392</v>
+        <v>158108.5004621878</v>
       </c>
       <c r="D393" t="n">
-        <v>165266.5101483865</v>
+        <v>131239.6253690627</v>
       </c>
       <c r="E393" t="n">
-        <v>183050.5875769573</v>
+        <v>153703.5800103192</v>
       </c>
       <c r="F393" t="n">
-        <v>17037.71284776708</v>
+        <v>12477.97423064338</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>737178.7146794884</v>
+        <v>631760.9446100513</v>
       </c>
       <c r="C394" t="n">
-        <v>205106.0557291825</v>
+        <v>158093.6784882521</v>
       </c>
       <c r="D394" t="n">
-        <v>165264.5581173959</v>
+        <v>131238.0752436582</v>
       </c>
       <c r="E394" t="n">
-        <v>183050.3139025298</v>
+        <v>153703.3502118803</v>
       </c>
       <c r="F394" t="n">
-        <v>34197.41786362452</v>
+        <v>25045.29232706106</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>733064.7113856192</v>
+        <v>627865.8768023031</v>
       </c>
       <c r="C395" t="n">
-        <v>205084.4082324187</v>
+        <v>158076.9928161431</v>
       </c>
       <c r="D395" t="n">
-        <v>165262.2735123236</v>
+        <v>131236.2610181775</v>
       </c>
       <c r="E395" t="n">
-        <v>183049.9830677733</v>
+        <v>153703.0724171616</v>
       </c>
       <c r="F395" t="n">
-        <v>51477.00468079239</v>
+        <v>37700.40871194858</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>728894.9393655111</v>
+        <v>623924.4913417628</v>
       </c>
       <c r="C396" t="n">
-        <v>205060.0712052158</v>
+        <v>158058.2340811059</v>
       </c>
       <c r="D396" t="n">
-        <v>165259.60417639</v>
+        <v>131234.1412744521</v>
       </c>
       <c r="E396" t="n">
-        <v>183049.5838940146</v>
+        <v>153702.7372396757</v>
       </c>
       <c r="F396" t="n">
-        <v>68874.34968393069</v>
+        <v>50441.76810510342</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>724668.4330112368</v>
+        <v>619936.1815299216</v>
       </c>
       <c r="C397" t="n">
-        <v>205032.7469301235</v>
+        <v>158037.172805533</v>
       </c>
       <c r="D397" t="n">
-        <v>165256.4905788369</v>
+        <v>131231.6687385702</v>
       </c>
       <c r="E397" t="n">
-        <v>183049.1031804427</v>
+        <v>153702.3335949895</v>
       </c>
       <c r="F397" t="n">
-        <v>86387.32192671692</v>
+        <v>63267.80985730368</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>720384.2182203962</v>
+        <v>615900.3392949591</v>
       </c>
       <c r="C398" t="n">
-        <v>205002.1096554004</v>
+        <v>158013.5579032688</v>
       </c>
       <c r="D398" t="n">
-        <v>165252.8649082179</v>
+        <v>131228.789560851</v>
       </c>
       <c r="E398" t="n">
-        <v>183048.525371942</v>
+        <v>153701.8484218126</v>
       </c>
       <c r="F398" t="n">
-        <v>104013.7891954044</v>
+        <v>76176.97239109922</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>716041.3137639982</v>
+        <v>611816.356193785</v>
       </c>
       <c r="C399" t="n">
-        <v>204967.8035792967</v>
+        <v>157987.1151259142</v>
       </c>
       <c r="D399" t="n">
-        <v>165248.6500757547</v>
+        <v>131225.4425244008</v>
       </c>
       <c r="E399" t="n">
-        <v>183047.8321788839</v>
+        <v>153701.2663627431</v>
       </c>
       <c r="F399" t="n">
-        <v>121751.6242034264</v>
+        <v>89167.69773757725</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>711638.7328187182</v>
+        <v>607683.6245305834</v>
       </c>
       <c r="C400" t="n">
-        <v>204929.4407648623</v>
+        <v>157957.5454555819</v>
       </c>
       <c r="D400" t="n">
-        <v>165243.7586230881</v>
+        <v>131221.5581777482</v>
       </c>
       <c r="E400" t="n">
-        <v>183047.0021431212</v>
+        <v>153700.5693998437</v>
       </c>
       <c r="F400" t="n">
-        <v>139598.7109010937</v>
+        <v>102238.4361574196</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>707175.4846724446</v>
+        <v>603501.538598725</v>
       </c>
       <c r="C401" t="n">
-        <v>204886.5989924209</v>
+        <v>157924.5234496047</v>
       </c>
       <c r="D401" t="n">
-        <v>165238.0915288894</v>
+        <v>131217.0578871636</v>
       </c>
       <c r="E401" t="n">
-        <v>183046.0101439529</v>
+        <v>153699.7364398103</v>
       </c>
       <c r="F401" t="n">
-        <v>157552.9508834708</v>
+        <v>115387.6508338631</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>702650.5766117616</v>
+        <v>599269.4960527038</v>
       </c>
       <c r="C402" t="n">
-        <v>204838.8195583083</v>
+        <v>157887.6955438265</v>
       </c>
       <c r="D402" t="n">
-        <v>165231.5369090242</v>
+        <v>131211.8528044474</v>
       </c>
       <c r="E402" t="n">
-        <v>183044.8268373375</v>
+        <v>153698.7428430924</v>
       </c>
       <c r="F402" t="n">
-        <v>175612.2698784248</v>
+        <v>128613.8226243765</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>698063.0159996524</v>
+        <v>594986.8994165291</v>
       </c>
       <c r="C403" t="n">
-        <v>204785.6050300324</v>
+        <v>157846.6783223004</v>
       </c>
       <c r="D403" t="n">
-        <v>165223.9686053022</v>
+        <v>131205.8427462434</v>
       </c>
       <c r="E403" t="n">
-        <v>183043.4180211588</v>
+        <v>153697.55989092</v>
       </c>
       <c r="F403" t="n">
-        <v>175612.1161306935</v>
+        <v>128613.7100235687</v>
       </c>
       <c r="G403" t="n">
-        <v>9406.084988786117</v>
+        <v>9407.880085329012</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>693411.812551224</v>
+        <v>590653.1577346569</v>
       </c>
       <c r="C404" t="n">
-        <v>204726.416969644</v>
+        <v>157801.0567624879</v>
       </c>
       <c r="D404" t="n">
-        <v>165215.2446582996</v>
+        <v>131198.9149812938</v>
       </c>
       <c r="E404" t="n">
-        <v>183041.7439188712</v>
+        <v>153696.1541837965</v>
       </c>
       <c r="F404" t="n">
-        <v>175611.9273881502</v>
+        <v>128613.5717934781</v>
       </c>
       <c r="G404" t="n">
-        <v>18864.50952770259</v>
+        <v>18868.10970948671</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>688695.9808146869</v>
+        <v>586267.6883711345</v>
       </c>
       <c r="C405" t="n">
-        <v>204660.6736388268</v>
+        <v>157750.3824663634</v>
       </c>
       <c r="D405" t="n">
-        <v>165205.2056603367</v>
+        <v>131190.9429225231</v>
       </c>
       <c r="E405" t="n">
-        <v>183039.7583734121</v>
+        <v>153694.4869646448</v>
       </c>
       <c r="F405" t="n">
-        <v>175611.6961728988</v>
+        <v>128613.4024574894</v>
       </c>
       <c r="G405" t="n">
-        <v>28374.26117379879</v>
+        <v>28379.67623630365</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>683914.5428641294</v>
+        <v>581829.9189621308</v>
       </c>
       <c r="C406" t="n">
-        <v>204587.7477009842</v>
+        <v>157694.1718892072</v>
       </c>
       <c r="D406" t="n">
-        <v>165193.6729854237</v>
+        <v>131181.7847214228</v>
       </c>
       <c r="E406" t="n">
-        <v>183037.4079428566</v>
+        <v>153692.5133594479</v>
       </c>
       <c r="F406" t="n">
-        <v>175611.4135232502</v>
+        <v>128613.1954522967</v>
       </c>
       <c r="G406" t="n">
-        <v>37934.35439987556</v>
+        <v>37941.59395049852</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>679066.5312098087</v>
+        <v>577339.2895264301</v>
       </c>
       <c r="C407" t="n">
-        <v>204506.9639374269</v>
+        <v>157631.9045792661</v>
       </c>
       <c r="D407" t="n">
-        <v>165180.4468938829</v>
+        <v>131171.2817629145</v>
       </c>
       <c r="E407" t="n">
-        <v>183034.6308889248</v>
+        <v>153690.1815279206</v>
       </c>
       <c r="F407" t="n">
-        <v>175611.068724705</v>
+        <v>128612.9429308814</v>
       </c>
       <c r="G407" t="n">
-        <v>47543.8341414875</v>
+        <v>47552.90760535745</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>674150.9919307521</v>
+        <v>572795.2547377701</v>
       </c>
       <c r="C408" t="n">
-        <v>204417.5969966246</v>
+        <v>157563.0214428982</v>
       </c>
       <c r="D408" t="n">
-        <v>165165.3045104173</v>
+        <v>131159.2570597157</v>
       </c>
       <c r="E408" t="n">
-        <v>183031.3560491581</v>
+        <v>153687.4317165009</v>
       </c>
       <c r="F408" t="n">
-        <v>175610.648997517</v>
+        <v>128612.6355336924</v>
       </c>
       <c r="G408" t="n">
-        <v>57201.77933948358</v>
+        <v>57212.69596595062</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>669166.9880334095</v>
+        <v>568197.2863621307</v>
       </c>
       <c r="C409" t="n">
-        <v>204318.8691973455</v>
+        <v>157486.9230512559</v>
       </c>
       <c r="D409" t="n">
-        <v>165147.997675629</v>
+        <v>131145.5135462119</v>
       </c>
       <c r="E409" t="n">
-        <v>183027.5015833635</v>
+        <v>153684.1952057663</v>
       </c>
       <c r="F409" t="n">
-        <v>175610.139134893</v>
+        <v>128612.2621236732</v>
       </c>
       <c r="G409" t="n">
-        <v>66907.30646737752</v>
+        <v>66920.07533717586</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>664113.6030389034</v>
+        <v>563544.8758621877</v>
       </c>
       <c r="C410" t="n">
-        <v>204209.9484083754</v>
+        <v>157402.9680059945</v>
       </c>
       <c r="D410" t="n">
-        <v>165128.2506724224</v>
+        <v>131129.8322729724</v>
       </c>
       <c r="E410" t="n">
-        <v>183022.9735848066</v>
+        <v>153680.3931442833</v>
       </c>
       <c r="F410" t="n">
-        <v>175609.521085278</v>
+        <v>128611.8094803379</v>
       </c>
       <c r="G410" t="n">
-        <v>76659.57303233199</v>
+        <v>76674.20306541101</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>658989.9448001187</v>
+        <v>558837.5371701603</v>
       </c>
       <c r="C411" t="n">
-        <v>204089.9460293352</v>
+        <v>157310.4713829067</v>
       </c>
       <c r="D411" t="n">
-        <v>165105.7578303384</v>
+        <v>131111.97050433</v>
       </c>
       <c r="E411" t="n">
-        <v>183017.6645466445</v>
+        <v>153675.935260904</v>
       </c>
       <c r="F411" t="n">
-        <v>175608.7734715298</v>
+        <v>128611.261947628</v>
       </c>
       <c r="G411" t="n">
-        <v>86457.78103808414</v>
+        <v>86474.28100210028</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>653795.1495484473</v>
+        <v>554074.8096292099</v>
       </c>
       <c r="C412" t="n">
-        <v>203957.915098881</v>
+        <v>157208.7032737424</v>
       </c>
       <c r="D412" t="n">
-        <v>165080.1810126837</v>
+        <v>131091.6597228891</v>
       </c>
       <c r="E412" t="n">
-        <v>183011.4516742302</v>
+        <v>153670.7184476456</v>
       </c>
       <c r="F412" t="n">
-        <v>175607.8710391376</v>
+        <v>128610.6010298021</v>
       </c>
       <c r="G412" t="n">
-        <v>96301.18039756162</v>
+        <v>96319.55891702158</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>648528.3861684209</v>
+        <v>549256.2611023545</v>
       </c>
       <c r="C413" t="n">
-        <v>203812.8485582636</v>
+        <v>157096.8874477773</v>
       </c>
       <c r="D413" t="n">
-        <v>165051.1469933329</v>
+        <v>131068.6035464191</v>
       </c>
       <c r="E413" t="n">
-        <v>183004.1950342414</v>
+        <v>153664.6252055539</v>
       </c>
       <c r="F413" t="n">
-        <v>175606.7840249629</v>
+        <v>128609.8049291176</v>
       </c>
       <c r="G413" t="n">
-        <v>96301.11587571779</v>
+        <v>96319.49438286414</v>
       </c>
       <c r="H413" t="n">
-        <v>10538.58768877724</v>
+        <v>9991.868392263759</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>643188.8606968162</v>
+        <v>544381.4912466098</v>
       </c>
       <c r="C414" t="n">
-        <v>203653.6776997825</v>
+        <v>156974.2001558984</v>
       </c>
       <c r="D414" t="n">
-        <v>165018.2447322882</v>
+        <v>131042.4755643529</v>
       </c>
       <c r="E414" t="n">
-        <v>182995.7355320828</v>
+        <v>153657.5219463724</v>
       </c>
       <c r="F414" t="n">
-        <v>175605.4774373154</v>
+        <v>128608.848018578</v>
       </c>
       <c r="G414" t="n">
-        <v>96301.03580630462</v>
+        <v>96319.41429817016</v>
       </c>
       <c r="H414" t="n">
-        <v>21123.92540690743</v>
+        <v>20028.06152275848</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>637775.8210409976</v>
+        <v>539450.1349486837</v>
       </c>
       <c r="C415" t="n">
-        <v>203479.2708310982</v>
+        <v>156839.7691010672</v>
       </c>
       <c r="D415" t="n">
-        <v>164981.0225614885</v>
+        <v>131012.9171030119</v>
       </c>
       <c r="E415" t="n">
-        <v>182985.8927097359</v>
+        <v>153649.2571434448</v>
       </c>
       <c r="F415" t="n">
-        <v>175603.9102375164</v>
+        <v>128607.7002425307</v>
       </c>
       <c r="G415" t="n">
-        <v>96300.93666875199</v>
+        <v>96319.31514169772</v>
       </c>
       <c r="H415" t="n">
-        <v>31755.39172657845</v>
+        <v>30107.99020201236</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>632288.5619093759</v>
+        <v>534461.8659171275</v>
       </c>
       <c r="C416" t="n">
-        <v>203288.4321875948</v>
+        <v>156692.6725999819</v>
       </c>
       <c r="D416" t="n">
-        <v>164938.9852949395</v>
+        <v>130979.5349307347</v>
       </c>
       <c r="E416" t="n">
-        <v>182974.4623571808</v>
+        <v>153639.6593260777</v>
       </c>
       <c r="F416" t="n">
-        <v>175602.0344124688</v>
+        <v>128606.3264374423</v>
       </c>
       <c r="G416" t="n">
-        <v>96300.81420114716</v>
+        <v>96319.19265072068</v>
       </c>
       <c r="H416" t="n">
-        <v>42432.43080105325</v>
+        <v>40231.12741942333</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>626726.4299448646</v>
+        <v>529416.4004243029</v>
       </c>
       <c r="C417" t="n">
-        <v>203079.9011260156</v>
+        <v>156531.9389615385</v>
       </c>
       <c r="D417" t="n">
-        <v>164891.5912799962</v>
+        <v>130941.8989162736</v>
       </c>
       <c r="E417" t="n">
-        <v>182961.213931742</v>
+        <v>153628.5349126224</v>
       </c>
       <c r="F417" t="n">
-        <v>175599.7939271644</v>
+        <v>128604.6855647417</v>
       </c>
       <c r="G417" t="n">
-        <v>96300.66325725477</v>
+        <v>96319.0416780215</v>
       </c>
       <c r="H417" t="n">
-        <v>53154.55566736102</v>
+        <v>50397.01147461366</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>621088.8290501154</v>
+        <v>524313.501189941</v>
       </c>
       <c r="C418" t="n">
-        <v>202852.3516333577</v>
+        <v>156356.5461082924</v>
       </c>
       <c r="D418" t="n">
-        <v>164838.24940953</v>
+        <v>130899.5396561295</v>
       </c>
       <c r="E418" t="n">
-        <v>182945.8877812146</v>
+        <v>153615.665878794</v>
       </c>
       <c r="F418" t="n">
-        <v>175597.1235455325</v>
+        <v>128602.7298472409</v>
       </c>
       <c r="G418" t="n">
-        <v>96300.47763888263</v>
+        <v>96318.85602422517</v>
       </c>
       <c r="H418" t="n">
-        <v>63921.3514287014</v>
+        <v>60605.248994738</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>615375.2258911708</v>
+        <v>519152.9813964111</v>
       </c>
       <c r="C419" t="n">
-        <v>202604.3921855017</v>
+        <v>156165.4214674908</v>
       </c>
       <c r="D419" t="n">
-        <v>164778.3161177513</v>
+        <v>130851.9460889083</v>
       </c>
       <c r="E419" t="n">
-        <v>182928.1921684493</v>
+        <v>153600.8072592806</v>
       </c>
       <c r="F419" t="n">
-        <v>175593.9475075913</v>
+        <v>128600.4038003156</v>
       </c>
       <c r="G419" t="n">
-        <v>96300.24989995704</v>
+        <v>96318.62824183695</v>
       </c>
       <c r="H419" t="n">
-        <v>74732.47830195447</v>
+        <v>70855.51782389496</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>609585.1555639241</v>
+        <v>513934.7088241126</v>
       </c>
       <c r="C420" t="n">
-        <v>202334.5659902111</v>
+        <v>155957.4421583752</v>
       </c>
       <c r="D420" t="n">
-        <v>164711.0923855883</v>
+        <v>130798.5631172641</v>
       </c>
       <c r="E420" t="n">
-        <v>182907.8000972215</v>
+        <v>153583.6844824951</v>
       </c>
       <c r="F420" t="n">
-        <v>175590.1780505399</v>
+        <v>128597.6431487908</v>
       </c>
       <c r="G420" t="n">
-        <v>96299.97111825553</v>
+        <v>96318.34940693156</v>
       </c>
       <c r="H420" t="n">
-        <v>85587.67451509704</v>
+        <v>81147.56977023173</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>603718.2274055296</v>
+        <v>508658.6100936549</v>
       </c>
       <c r="C421" t="n">
-        <v>202041.3516489502</v>
+        <v>155731.4355023032</v>
       </c>
       <c r="D421" t="n">
-        <v>164635.8207847252</v>
+        <v>130738.7892605442</v>
       </c>
       <c r="E421" t="n">
-        <v>182884.3459417049</v>
+        <v>153563.9905404175</v>
       </c>
       <c r="F421" t="n">
-        <v>175585.713761231</v>
+        <v>128594.3736203364</v>
       </c>
       <c r="G421" t="n">
-        <v>96299.6306303085</v>
+        <v>96318.00885400441</v>
       </c>
       <c r="H421" t="n">
-        <v>96486.75903870759</v>
+        <v>91481.23319574437</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>597774.1309305839</v>
+        <v>503324.6749997309</v>
       </c>
       <c r="C422" t="n">
-        <v>201723.1642713853</v>
+        <v>155486.1798817955</v>
       </c>
       <c r="D422" t="n">
-        <v>164551.6825926275</v>
+        <v>130671.9743638043</v>
       </c>
       <c r="E422" t="n">
-        <v>182857.4218847262</v>
+        <v>153541.3829978752</v>
       </c>
       <c r="F422" t="n">
-        <v>175580.4377474532</v>
+        <v>128590.509606161</v>
       </c>
       <c r="G422" t="n">
-        <v>96299.21572452263</v>
+        <v>96317.59386903617</v>
       </c>
       <c r="H422" t="n">
-        <v>107429.6341350595</v>
+        <v>101856.4154331297</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>591752.6418696081</v>
+        <v>497932.9609198101</v>
       </c>
       <c r="C423" t="n">
-        <v>201378.3570754422</v>
+        <v>155220.4059738429</v>
       </c>
       <c r="D423" t="n">
-        <v>164457.7950140916</v>
+        <v>130597.4173914159</v>
       </c>
       <c r="E423" t="n">
-        <v>182826.5741731979</v>
+        <v>153515.4808483121</v>
       </c>
       <c r="F423" t="n">
-        <v>175574.2156156247</v>
+        <v>128585.9526799287</v>
       </c>
       <c r="G423" t="n">
-        <v>96298.71128710451</v>
+        <v>96317.08933534911</v>
       </c>
       <c r="H423" t="n">
-        <v>118416.2877076168</v>
+        <v>112273.1050133939</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>585653.6282850425</v>
+        <v>492483.5972789999</v>
       </c>
       <c r="C424" t="n">
-        <v>201005.2235043488</v>
+        <v>154932.7983817029</v>
       </c>
       <c r="D424" t="n">
-        <v>164353.2085479943</v>
+        <v>130514.3643359786</v>
       </c>
       <c r="E424" t="n">
-        <v>182791.2992027214</v>
+        <v>153485.8612261149</v>
       </c>
       <c r="F424" t="n">
-        <v>175566.8932429313</v>
+        <v>128580.5899661306</v>
       </c>
       <c r="G424" t="n">
-        <v>96298.09939488191</v>
+        <v>96316.47732635048</v>
       </c>
       <c r="H424" t="n">
-        <v>129446.7954329592</v>
+        <v>122731.3736871784</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>579477.0567377178</v>
+        <v>486976.790050684</v>
       </c>
       <c r="C425" t="n">
-        <v>200601.9998901869</v>
+        <v>154621.9976879372</v>
       </c>
       <c r="D425" t="n">
-        <v>164236.9045409366</v>
+        <v>130422.0062756464</v>
       </c>
       <c r="E425" t="n">
-        <v>182751.0394473086</v>
+        <v>153452.0559888896</v>
       </c>
       <c r="F425" t="n">
-        <v>175558.2943326232</v>
+        <v>128574.2923496492</v>
       </c>
       <c r="G425" t="n">
-        <v>96297.35884863407</v>
+        <v>96315.73663877367</v>
       </c>
       <c r="H425" t="n">
-        <v>140521.3226564064</v>
+        <v>133231.3782220427</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>573222.9984745368</v>
+        <v>481412.8262708341</v>
       </c>
       <c r="C426" t="n">
-        <v>200166.8686910753</v>
+        <v>154286.6029496006</v>
       </c>
       <c r="D426" t="n">
-        <v>164107.7929723057</v>
+        <v>130319.4776152256</v>
       </c>
       <c r="E426" t="n">
-        <v>182705.1792544856</v>
+        <v>153413.5481867013</v>
       </c>
       <c r="F426" t="n">
-        <v>175548.2177422023</v>
+        <v>128566.9125189918</v>
       </c>
       <c r="G426" t="n">
-        <v>96296.46464006706</v>
+        <v>96314.84225955218</v>
       </c>
       <c r="H426" t="n">
-        <v>151640.126031733</v>
+        <v>143773.3619571149</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>566891.6356059825</v>
+        <v>475792.0785422462</v>
       </c>
       <c r="C427" t="n">
-        <v>199697.9623262117</v>
+        <v>153925.1746542521</v>
       </c>
       <c r="D427" t="n">
-        <v>163964.7105178691</v>
+        <v>130205.8545484574</v>
       </c>
       <c r="E427" t="n">
-        <v>182653.0405306865</v>
+        <v>153369.7684391945</v>
       </c>
       <c r="F427" t="n">
-        <v>175536.4345755735</v>
+        <v>128558.2828366593</v>
       </c>
       <c r="G427" t="n">
-        <v>96295.38734511391</v>
+        <v>96313.76475900352</v>
       </c>
       <c r="H427" t="n">
-        <v>162803.5548845166</v>
+        <v>154357.6560957118</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>560483.2672400287</v>
+        <v>470115.0095033852</v>
       </c>
       <c r="C428" t="n">
-        <v>199193.3676295867</v>
+        <v>153536.2381528334</v>
       </c>
       <c r="D428" t="n">
-        <v>163806.4189412834</v>
+        <v>130080.1537807003</v>
       </c>
       <c r="E428" t="n">
-        <v>182593.8783468</v>
+        <v>153320.0912456659</v>
       </c>
       <c r="F428" t="n">
-        <v>175522.6850319841</v>
+        <v>128548.2130313911</v>
       </c>
       <c r="G428" t="n">
-        <v>96294.09243581368</v>
+        <v>96312.46960257743</v>
       </c>
       <c r="H428" t="n">
-        <v>174012.0522777436</v>
+        <v>164984.6807156634</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>553998.3155371449</v>
+        <v>464382.1762350446</v>
       </c>
       <c r="C429" t="n">
-        <v>198651.130939265</v>
+        <v>153118.2875824346</v>
       </c>
       <c r="D429" t="n">
-        <v>163631.603864787</v>
+        <v>129941.3315527265</v>
       </c>
       <c r="E429" t="n">
-        <v>182526.8764989423</v>
+        <v>153263.8312575427</v>
       </c>
       <c r="F429" t="n">
-        <v>175506.6750067247</v>
+        <v>128536.4877086085</v>
       </c>
       <c r="G429" t="n">
-        <v>96292.53950265086</v>
+        <v>96310.91637304638</v>
       </c>
       <c r="H429" t="n">
-        <v>185266.1557573379</v>
+        <v>175654.9454761659</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>547437.3316493294</v>
+        <v>458594.2345766898</v>
       </c>
       <c r="C430" t="n">
-        <v>198069.2638346888</v>
+        <v>152669.7902885505</v>
       </c>
       <c r="D430" t="n">
-        <v>163438.8739717785</v>
+        <v>129788.283007482</v>
       </c>
       <c r="E430" t="n">
-        <v>182451.1430649653</v>
+        <v>153200.2395472793</v>
       </c>
       <c r="F430" t="n">
-        <v>175488.0724411891</v>
+        <v>128522.8636772933</v>
       </c>
       <c r="G430" t="n">
-        <v>96290.68137892446</v>
+        <v>96309.05789470786</v>
       </c>
       <c r="H430" t="n">
-        <v>196566.4977543344</v>
+        <v>186369.0499990898</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>540801.001504563</v>
+        <v>452751.9433231279</v>
       </c>
       <c r="C431" t="n">
-        <v>197445.7495295337</v>
+        <v>152189.1917526294</v>
       </c>
       <c r="D431" t="n">
-        <v>163226.7606948844</v>
+        <v>129619.8419423781</v>
       </c>
       <c r="E431" t="n">
-        <v>182365.7060027862</v>
+        <v>153128.4999123711</v>
       </c>
       <c r="F431" t="n">
-        <v>175466.5034229789</v>
+        <v>128507.0670938074</v>
       </c>
       <c r="G431" t="n">
-        <v>96288.46315849505</v>
+        <v>96306.83925094403</v>
       </c>
       <c r="H431" t="n">
-        <v>207913.8056194171</v>
+        <v>197127.6839017283</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>534090.1513967032</v>
+        <v>446856.1682711066</v>
       </c>
       <c r="C432" t="n">
-        <v>196778.5499222392</v>
+        <v>151674.9210265501</v>
       </c>
       <c r="D432" t="n">
-        <v>162993.7184434228</v>
+        <v>129434.780989923</v>
       </c>
       <c r="E432" t="n">
-        <v>182269.5088422925</v>
+        <v>153047.7252579413</v>
       </c>
       <c r="F432" t="n">
-        <v>175441.5480403503</v>
+        <v>128488.7904257982</v>
       </c>
       <c r="G432" t="n">
-        <v>96285.82109814235</v>
+        <v>96304.19668636947</v>
       </c>
       <c r="H432" t="n">
-        <v>219308.9012645586</v>
+        <v>207931.6264570254</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>527305.7533397339</v>
+        <v>440907.8860845612</v>
       </c>
       <c r="C433" t="n">
-        <v>196065.6133004748</v>
+        <v>151125.3966711477</v>
       </c>
       <c r="D433" t="n">
-        <v>162738.125423809</v>
+        <v>129231.8122692129</v>
       </c>
       <c r="E433" t="n">
-        <v>182161.4065282295</v>
+        <v>152956.9541061039</v>
       </c>
       <c r="F433" t="n">
-        <v>175412.7359994219</v>
+        <v>128467.689242356</v>
       </c>
       <c r="G433" t="n">
-        <v>96282.68139578192</v>
+        <v>96301.05638481511</v>
       </c>
       <c r="H433" t="n">
-        <v>230752.7003855199</v>
+        <v>218781.7458564129</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>520448.9301444152</v>
+        <v>434908.1879465587</v>
       </c>
       <c r="C434" t="n">
-        <v>195304.8826895369</v>
+        <v>150539.0331910728</v>
       </c>
       <c r="D434" t="n">
-        <v>162458.2851053519</v>
+        <v>129009.5885499336</v>
       </c>
       <c r="E434" t="n">
-        <v>182040.1614770377</v>
+        <v>152855.1472849764</v>
       </c>
       <c r="F434" t="n">
-        <v>175379.5420172264</v>
+        <v>128443.3788400063</v>
       </c>
       <c r="G434" t="n">
-        <v>96278.95883596611</v>
+        <v>96297.33311457044</v>
       </c>
       <c r="H434" t="n">
-        <v>242246.2112379964</v>
+        <v>229678.9980494461</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>513520.9601747932</v>
+        <v>428858.2829655228</v>
       </c>
       <c r="C435" t="n">
-        <v>194494.3048280274</v>
+        <v>149914.2479531548</v>
       </c>
       <c r="D435" t="n">
-        <v>162152.4283820002</v>
+        <v>128766.704969024</v>
       </c>
       <c r="E435" t="n">
-        <v>181904.4399159556</v>
+        <v>152741.1848547049</v>
       </c>
       <c r="F435" t="n">
-        <v>175341.3810088801</v>
+        <v>128415.4307179188</v>
       </c>
       <c r="G435" t="n">
-        <v>96274.55529445235</v>
+        <v>96292.92873266643</v>
       </c>
       <c r="H435" t="n">
-        <v>253790.5329392932</v>
+        <v>240624.4251335848</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>506523.281741749</v>
+        <v>422759.5013030968</v>
       </c>
       <c r="C436" t="n">
-        <v>193631.8397472189</v>
+        <v>149249.4685700793</v>
       </c>
       <c r="D436" t="n">
-        <v>161818.7164778744</v>
+        <v>128501.7013379838</v>
       </c>
       <c r="E436" t="n">
-        <v>181752.8085777357</v>
+        <v>152613.8633320883</v>
       </c>
       <c r="F436" t="n">
-        <v>175297.603092859</v>
+        <v>128383.3689199027</v>
       </c>
       <c r="G436" t="n">
-        <v>96269.35809419584</v>
+        <v>96287.73054055452</v>
       </c>
       <c r="H436" t="n">
-        <v>265386.853266517</v>
+        <v>251619.1532666101</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>499457.4970908007</v>
+        <v>416613.2969910168</v>
       </c>
       <c r="C437" t="n">
-        <v>192715.4709232957</v>
+        <v>148543.1407256335</v>
       </c>
       <c r="D437" t="n">
-        <v>161455.2446407915</v>
+        <v>128213.0650759356</v>
       </c>
       <c r="E437" t="n">
-        <v>181583.7318288939</v>
+        <v>152471.893279233</v>
       </c>
       <c r="F437" t="n">
-        <v>175247.4884445779</v>
+        <v>128346.6662653024</v>
       </c>
       <c r="G437" t="n">
-        <v>96263.23820593914</v>
+        <v>96281.60948435281</v>
       </c>
       <c r="H437" t="n">
-        <v>277036.4459215284</v>
+        <v>262664.3900734655</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>492325.3759417474</v>
+        <v>410421.2504046491</v>
       </c>
       <c r="C438" t="n">
-        <v>191743.215964281</v>
+        <v>147793.7364120816</v>
       </c>
       <c r="D438" t="n">
-        <v>161060.0466634603</v>
+        <v>127899.2347999469</v>
       </c>
       <c r="E438" t="n">
-        <v>181395.5693134209</v>
+        <v>152313.8973250283</v>
       </c>
       <c r="F438" t="n">
-        <v>175190.2420351348</v>
+        <v>128304.7404957928</v>
       </c>
       <c r="G438" t="n">
-        <v>96256.04828765722</v>
+        <v>96274.41819391683</v>
       </c>
       <c r="H438" t="n">
-        <v>288740.667232184</v>
+        <v>273761.4215186315</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>485128.8585384749</v>
+        <v>404185.0703613956</v>
       </c>
       <c r="C439" t="n">
-        <v>190713.1377859586</v>
+        <v>146999.7625444524</v>
       </c>
       <c r="D439" t="n">
-        <v>160631.1002665411</v>
+        <v>127558.6045997658</v>
       </c>
       <c r="E439" t="n">
-        <v>181186.5741971564</v>
+        <v>152138.408690986</v>
       </c>
       <c r="F439" t="n">
-        <v>175124.988299154</v>
+        <v>128256.9503702461</v>
       </c>
       <c r="G439" t="n">
-        <v>96247.6205585022</v>
+        <v>96265.9888563788</v>
       </c>
       <c r="H439" t="n">
-        <v>300500.9522588997</v>
+        <v>284911.6082146713</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>477870.0581683223</v>
+        <v>397906.5958129998</v>
       </c>
       <c r="C440" t="n">
-        <v>189623.3562235914</v>
+        <v>146159.7699107352</v>
       </c>
       <c r="D440" t="n">
-        <v>160166.333371337</v>
+        <v>127189.5290190219</v>
       </c>
       <c r="E440" t="n">
-        <v>180954.8921004608</v>
+        <v>151943.8702950279</v>
       </c>
       <c r="F440" t="n">
-        <v>175050.7657830598</v>
+        <v>128202.5917452692</v>
       </c>
       <c r="G440" t="n">
-        <v>96237.76450460425</v>
+        <v>96256.13092151034</v>
       </c>
       <c r="H440" t="n">
-        <v>312318.8102751639</v>
+        <v>296116.3811372063</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>470551.2631118859</v>
+        <v>391587.7971019121</v>
       </c>
       <c r="C441" t="n">
-        <v>188472.0600187892</v>
+        <v>145272.3624112362</v>
       </c>
       <c r="D441" t="n">
-        <v>159663.6312825172</v>
+        <v>126790.3287590919</v>
       </c>
       <c r="E441" t="n">
-        <v>180698.5608082311</v>
+        <v>151728.6345079928</v>
       </c>
       <c r="F441" t="n">
-        <v>174966.5218327621</v>
+        <v>128140.8936846025</v>
       </c>
       <c r="G441" t="n">
-        <v>96226.2644161448</v>
+        <v>96244.62863832597</v>
       </c>
       <c r="H441" t="n">
-        <v>324195.8195905027</v>
+        <v>307377.2367164536</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>463174.9379859645</v>
+        <v>385230.7767532813</v>
       </c>
       <c r="C442" t="n">
-        <v>187257.5191136075</v>
+        <v>144336.2065347459</v>
       </c>
       <c r="D442" t="n">
-        <v>159120.84479299</v>
+        <v>126359.2971152521</v>
       </c>
       <c r="E442" t="n">
-        <v>180415.5108466032</v>
+        <v>151490.9636378804</v>
       </c>
       <c r="F442" t="n">
-        <v>174871.1073875123</v>
+        <v>128071.0146462776</v>
       </c>
       <c r="G442" t="n">
-        <v>96212.87675755084</v>
+        <v>96231.23842477535</v>
       </c>
       <c r="H442" t="n">
-        <v>336133.621684475</v>
+        <v>318695.7312755384</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>455743.7244445782</v>
+        <v>378837.7697758442</v>
       </c>
       <c r="C443" t="n">
-        <v>185978.0971769476</v>
+        <v>143350.041013762</v>
       </c>
       <c r="D443" t="n">
-        <v>158535.7992138868</v>
+        <v>125894.7071474698</v>
       </c>
       <c r="E443" t="n">
-        <v>180103.5670146878</v>
+        <v>151229.0312160171</v>
       </c>
       <c r="F443" t="n">
-        <v>174763.2719544931</v>
+        <v>127992.0388021378</v>
       </c>
       <c r="G443" t="n">
-        <v>96197.3273754744</v>
+        <v>96215.68607518989</v>
       </c>
       <c r="H443" t="n">
-        <v>348133.9146206535</v>
+        <v>330073.4747861415</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>448260.4412055826</v>
+        <v>372411.1434469884</v>
       </c>
       <c r="C444" t="n">
-        <v>184632.2642816852</v>
+        <v>142312.6865958921</v>
       </c>
       <c r="D444" t="n">
-        <v>157906.3043226459</v>
+        <v>125394.8195802669</v>
       </c>
       <c r="E444" t="n">
-        <v>179760.4509573077</v>
+        <v>150940.9241573267</v>
       </c>
       <c r="F444" t="n">
-        <v>174641.6588463701</v>
+        <v>127902.9725499462</v>
       </c>
       <c r="G444" t="n">
-        <v>96179.30855243347</v>
+        <v>96197.66381336152</v>
       </c>
       <c r="H444" t="n">
-        <v>360198.4457102878</v>
+        <v>341512.1239127577</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>440728.0833733727</v>
+        <v>365953.3965595368</v>
       </c>
       <c r="C445" t="n">
-        <v>183218.6096447946</v>
+        <v>141223.0558638132</v>
       </c>
       <c r="D445" t="n">
-        <v>157230.1652114837</v>
+        <v>124857.8914175882</v>
       </c>
       <c r="E445" t="n">
-        <v>179383.7848608091</v>
+        <v>150624.6458636227</v>
       </c>
       <c r="F445" t="n">
-        <v>174504.8007714166</v>
+        <v>127802.7412837085</v>
       </c>
       <c r="G445" t="n">
-        <v>96158.47591759969</v>
+        <v>96176.82720274069</v>
       </c>
       <c r="H445" t="n">
-        <v>372329.0033964458</v>
+        <v>353013.3743178696</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>433149.8210314874</v>
+        <v>359467.158110384</v>
       </c>
       <c r="C446" t="n">
-        <v>181735.8543371422</v>
+        <v>140080.1630318518</v>
       </c>
       <c r="D446" t="n">
-        <v>156505.194007192</v>
+        <v>124282.1852495981</v>
       </c>
       <c r="E446" t="n">
-        <v>178971.0963485237</v>
+        <v>150278.120334221</v>
       </c>
       <c r="F446" t="n">
-        <v>174351.1158727498</v>
+        <v>127690.1864929138</v>
       </c>
       <c r="G446" t="n">
-        <v>96134.44523021708</v>
+        <v>96152.79192924136</v>
       </c>
       <c r="H446" t="n">
-        <v>384527.4083309933</v>
+        <v>364578.9522018338</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>425528.9970826103</v>
+        <v>352955.1854139165</v>
       </c>
       <c r="C447" t="n">
-        <v>180182.8638647141</v>
+        <v>138883.1336434678</v>
       </c>
       <c r="D447" t="n">
-        <v>155729.2224213387</v>
+        <v>123665.9792189088</v>
       </c>
       <c r="E447" t="n">
-        <v>178519.8246452811</v>
+        <v>149899.1973421461</v>
       </c>
       <c r="F447" t="n">
-        <v>174178.904319484</v>
+        <v>127564.0632659835</v>
       </c>
       <c r="G447" t="n">
-        <v>96106.78905551287</v>
+        <v>96125.13047651725</v>
       </c>
       <c r="H447" t="n">
-        <v>396795.5036188208</v>
+        <v>376210.6050532175</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>417869.1243174421</v>
+        <v>346420.3616262663</v>
       </c>
       <c r="C448" t="n">
-        <v>178558.660518917</v>
+        <v>137631.2140907412</v>
       </c>
       <c r="D448" t="n">
-        <v>154900.115077695</v>
+        <v>123007.577604009</v>
       </c>
       <c r="E448" t="n">
-        <v>178027.3280714584</v>
+        <v>149485.6587267207</v>
       </c>
       <c r="F448" t="n">
-        <v>173986.345558034</v>
+        <v>127423.0382771997</v>
       </c>
       <c r="G448" t="n">
-        <v>96075.03335768216</v>
+        <v>96093.36871829655</v>
       </c>
       <c r="H448" t="n">
-        <v>409135.1442063411</v>
+        <v>387910.0915877973</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>410173.8816982348</v>
+        <v>339865.6926697338</v>
       </c>
       <c r="C449" t="n">
-        <v>176862.4353903279</v>
+        <v>136323.7808744498</v>
       </c>
       <c r="D449" t="n">
-        <v>154015.7835512168</v>
+        <v>122305.3219677471</v>
       </c>
       <c r="E449" t="n">
-        <v>177490.892916388</v>
+        <v>149035.2258443731</v>
       </c>
       <c r="F449" t="n">
-        <v>173771.4963361732</v>
+        <v>127265.6883395757</v>
       </c>
       <c r="G449" t="n">
-        <v>96038.65403956229</v>
+        <v>96056.98245739566</v>
       </c>
       <c r="H449" t="n">
-        <v>421548.1853945183</v>
+        <v>399679.1708575079</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>402447.109847348</v>
+        <v>333294.3035502716</v>
       </c>
       <c r="C450" t="n">
-        <v>175093.5599379754</v>
+        <v>134960.3495215538</v>
       </c>
       <c r="D450" t="n">
-        <v>153074.2010403513</v>
+        <v>121557.6028087408</v>
       </c>
       <c r="E450" t="n">
-        <v>176907.7437285244</v>
+        <v>148545.5682090647</v>
       </c>
       <c r="F450" t="n">
-        <v>173532.2896155464</v>
+        <v>127090.4996084092</v>
       </c>
       <c r="G450" t="n">
-        <v>95997.07346389978</v>
+        <v>96015.39394632247</v>
       </c>
       <c r="H450" t="n">
-        <v>434036.4704605447</v>
+        <v>411519.5905142796</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>394692.8057360053</v>
+        <v>326709.4340646259</v>
       </c>
       <c r="C451" t="n">
-        <v>173251.5970049674</v>
+        <v>133540.5830759315</v>
       </c>
       <c r="D451" t="n">
-        <v>152073.4175819769</v>
+        <v>120762.8716436991</v>
       </c>
       <c r="E451" t="n">
-        <v>176275.0550456299</v>
+        <v>148014.3133418712</v>
       </c>
       <c r="F451" t="n">
-        <v>173266.5344899633</v>
+        <v>126895.8675214433</v>
       </c>
       <c r="G451" t="n">
-        <v>95949.65699659358</v>
+        <v>95967.96842985961</v>
       </c>
       <c r="H451" t="n">
-        <v>446601.8173769383</v>
+        <v>423433.0742181201</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>386915.1165734691</v>
+        <v>320114.4338976339</v>
       </c>
       <c r="C452" t="n">
-        <v>171336.3111711301</v>
+        <v>132064.3000780877</v>
       </c>
       <c r="D452" t="n">
-        <v>151011.5757061318</v>
+        <v>119919.6534389826</v>
       </c>
       <c r="E452" t="n">
-        <v>175589.9645724722</v>
+        <v>147439.057836007</v>
       </c>
       <c r="F452" t="n">
-        <v>172971.9172267325</v>
+        <v>126680.0975615113</v>
       </c>
       <c r="G452" t="n">
-        <v>95895.70961788742</v>
+        <v>95914.01075561038</v>
       </c>
       <c r="H452" t="n">
-        <v>459246.0046222023</v>
+        <v>435421.3081838876</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72114.86845643715</v>
+        <v>72899.79219473852</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72199.16045598732</v>
+        <v>72985.00165822938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>72284.66366572774</v>
+        <v>73071.43551515065</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>72371.39537238918</v>
+        <v>73159.11124038798</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>72459.37310616417</v>
+        <v>73248.04655493874</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>72548.61464404879</v>
+        <v>73338.25942929013</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>72639.13801322764</v>
+        <v>73429.76808684101</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>72730.96149450299</v>
+        <v>73522.59100736833</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>72824.10362576906</v>
+        <v>73616.74693053936</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>72918.58320553102</v>
+        <v>73712.25485946878</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73014.41929646982</v>
+        <v>73809.1340643226</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73111.63122905382</v>
+        <v>73907.40408596869</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>73210.2386051963</v>
+        <v>74007.08473967461</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>73310.26130196149</v>
+        <v>74108.19611885359</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>73411.71947531759</v>
+        <v>74210.75859885852</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>73514.633563939</v>
+        <v>74314.79284082547</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>73619.02429305707</v>
+        <v>74420.31979556658</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>73724.912678361</v>
+        <v>74527.36070751326</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>73832.32002994863</v>
+        <v>74635.93711870999</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>73941.26795632826</v>
+        <v>74746.07087285978</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74051.77836847182</v>
+        <v>74857.78411942119</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74163.87348391998</v>
+        <v>74971.09931775859</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>74277.57583093985</v>
+        <v>75086.03924134467</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>74392.90825273648</v>
+        <v>75202.62698201802</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>74509.89391171731</v>
+        <v>75320.88595429386</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>74628.55629381166</v>
+        <v>75440.83989973071</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>74748.91921284537</v>
+        <v>75562.51289135251</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>74871.00681497085</v>
+        <v>75685.929338127</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>74994.84358315401</v>
+        <v>75811.11398950122</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75120.45434171749</v>
+        <v>75938.09193999469</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>75247.86426094259</v>
+        <v>76066.88863385083</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>75377.09886172877</v>
+        <v>76197.52986974754</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>75508.1840203124</v>
+        <v>76330.04180556748</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>75641.14597304547</v>
+        <v>76464.45096322824</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>75776.01132123452</v>
+        <v>76600.78423357454</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>75912.80703604099</v>
+        <v>76739.06888133126</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76051.5604634427</v>
+        <v>76879.33255011967</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>76192.29932925869</v>
+        <v>77021.60326753634</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>76335.05174423671</v>
+        <v>77165.90945029646</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>76479.84620920544</v>
+        <v>77312.27990944171</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>76626.71162029018</v>
+        <v>77460.74385561311</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>76775.67727419565</v>
+        <v>77611.330904391</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>76926.77287355356</v>
+        <v>77764.07108170111</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77080.02853233827</v>
+        <v>77918.99482928892</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>77235.47478134968</v>
+        <v>78076.13301026235</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>77393.14257376468</v>
+        <v>78235.51691470361</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>77553.06329075835</v>
+        <v>78397.17826535169</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>77715.26874719532</v>
+        <v>78561.14922335526</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>77879.7911973914</v>
+        <v>78727.4623940977</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78046.66334094819</v>
+        <v>78896.15083309465</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>78215.9183286597</v>
+        <v>79067.24805196481</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>78387.58976849246</v>
+        <v>79240.7880244761</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>78561.71173164053</v>
+        <v>79416.80519266523</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>78738.31875865546</v>
+        <v>79595.33447303536</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>78917.44586565235</v>
+        <v>79776.41126282947</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79099.12855059316</v>
+        <v>79960.07144638199</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79283.40279964884</v>
+        <v>80146.35140154978</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>79470.30509363864</v>
+        <v>80335.28800622249</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>79659.87241455105</v>
+        <v>80526.91864491356</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>79852.14225214503</v>
+        <v>80721.2812154336</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80047.15261063269</v>
+        <v>80918.4141356464</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>80244.9420154457</v>
+        <v>81118.3563503077</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>80445.54952008519</v>
+        <v>81321.14733799089</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>80649.01471305621</v>
+        <v>81526.82711809629</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>80855.37772488919</v>
+        <v>81735.43625794922</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81064.67923524772</v>
+        <v>81947.01587998515</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>81276.96048012454</v>
+        <v>82161.60766902384</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>81492.2632591275</v>
+        <v>82379.25387963501</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>81710.62994285535</v>
+        <v>82599.99734359393</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>81932.10348036543</v>
+        <v>82823.88147743056</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>82156.72740673424</v>
+        <v>83050.95029007285</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>82384.54585071219</v>
+        <v>83281.24839058401</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>82615.60354247339</v>
+        <v>83514.8209959969</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>82849.94582146169</v>
+        <v>83751.71393924631</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83087.61864433585</v>
+        <v>83991.97367719941</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>83328.66859301266</v>
+        <v>84235.64729878695</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>83573.14288281108</v>
+        <v>84482.78253323618</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>83821.08937069839</v>
+        <v>84733.42775840679</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84072.55656364029</v>
+        <v>84987.63200923093</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>84327.59362705456</v>
+        <v>85245.4449862607</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>84586.25039337244</v>
+        <v>85506.91706432076</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>84848.577370707</v>
+        <v>85772.09930127249</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>85114.62575163179</v>
+        <v>86041.04344688762</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>85384.44742206976</v>
+        <v>86313.80195183393</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>85658.09497029641</v>
+        <v>86590.42797677577</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85935.62169605489</v>
+        <v>86870.9754015902</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>86217.08161979038</v>
+        <v>87155.49883469965</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>86502.52949200073</v>
+        <v>87444.05362252594</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>86792.02080270738</v>
+        <v>87736.69585906347</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>87085.6117910481</v>
+        <v>88033.48239557659</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>87383.35945499429</v>
+        <v>88334.47085042266</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>87685.32156119286</v>
+        <v>88639.71961900177</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>87991.55665493742</v>
+        <v>88949.28788383468</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>88302.124070269</v>
+        <v>89263.23562477532</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>88617.08394020869</v>
+        <v>89581.62362935384</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>88936.49720712601</v>
+        <v>89904.51350325803</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>89260.4256332432</v>
+        <v>90231.96768095203</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>89588.93181128023</v>
+        <v>90564.04943643701</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89922.07917524032</v>
+        <v>90900.82289415439</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90259.93201134178</v>
+        <v>91242.35304003663</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90602.55546909572</v>
+        <v>91588.70573270496</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>90950.01557253522</v>
+        <v>91939.94771482133</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>91302.37923159599</v>
+        <v>92296.14662459295</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>91659.71425365479</v>
+        <v>92657.37100743609</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>92022.08935522557</v>
+        <v>93023.69032779943</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>92389.57417381863</v>
+        <v>93395.17498115271</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>92762.23927996535</v>
+        <v>93771.89630614183</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>93140.1561894117</v>
+        <v>94153.92659691558</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>93523.39737548486</v>
+        <v>94541.33911562614</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>93912.03628163537</v>
+        <v>94934.20810510896</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>94306.14733416059</v>
+        <v>95332.60880174332</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>94705.80595511118</v>
+        <v>95736.61744850007</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>95111.08857538609</v>
+        <v>96146.31130817943</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>95522.07264802059</v>
+        <v>96561.76867684266</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>95938.83666167044</v>
+        <v>96983.06889744378</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>96361.46015429772</v>
+        <v>97410.29237366415</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>96790.02372706305</v>
+        <v>97843.5205839563</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>97224.60905842971</v>
+        <v>98282.83609580027</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>97665.29891848154</v>
+        <v>98728.32258017933</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>98112.17718346624</v>
+        <v>99180.06482627954</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>98565.32885056241</v>
+        <v>99638.14875641884</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>99024.84005288115</v>
+        <v>100102.6614412118</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>99490.79807470668</v>
+        <v>100573.6911149756</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>99963.29136698088</v>
+        <v>101051.3271913834</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>100442.4095630406</v>
+        <v>101535.660279373</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>100928.2434946118</v>
+        <v>102026.7821993151</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>101420.8852080702</v>
+        <v>102524.7859994505</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>101920.4279809724</v>
+        <v>103029.7659726021</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>102426.9663388695</v>
+        <v>103541.8176731701</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>102940.5960724051</v>
+        <v>104061.0379344175</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>103461.4142547113</v>
+        <v>104587.524886055</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>103989.5192591084</v>
+        <v>105121.3779721328</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>104525.0107771165</v>
+        <v>105662.6979692484</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>105067.9898367896</v>
+        <v>106211.5870050812</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>105618.5588213815</v>
+        <v>106768.1485772605</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>106176.821488352</v>
+        <v>107332.487572579</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>106742.882988725</v>
+        <v>107904.7102865615</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>107316.8498868083</v>
+        <v>108484.9244433994</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>107898.8301802865</v>
+        <v>109073.2392162624</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>108488.9333206979</v>
+        <v>109669.7652479981</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>109087.270234309</v>
+        <v>110274.6146722334</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>109693.953343395</v>
+        <v>110887.9011348878</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>110309.096587945</v>
+        <v>111509.7398161131</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>110932.8154477993</v>
+        <v>112140.2474526733</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>111565.2269652366</v>
+        <v>112779.5423607767</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>112206.4497680249</v>
+        <v>113427.7444593775</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>112856.6040929481</v>
+        <v>114084.9752939598</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>113515.8118098286</v>
+        <v>114751.35806082</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>114184.1964460585</v>
+        <v>115427.017631866</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>114861.8832116564</v>
+        <v>116112.0805799465</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>115548.9990248692</v>
+        <v>116806.6752047317</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>116245.6725383353</v>
+        <v>117510.9315591607</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>116952.0341658283</v>
+        <v>118224.9814764768</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>117668.2161096003</v>
+        <v>118948.958597868</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>118394.3523883458</v>
+        <v>119682.998400736</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>119130.5788658073</v>
+        <v>120427.238227612</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>119877.0332800423</v>
+        <v>121181.8173157434</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>120633.8552733771</v>
+        <v>121946.8768273732</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>121401.186423069</v>
+        <v>122722.559880735</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>122179.1702727005</v>
+        <v>123509.0115817911</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>122967.9523643339</v>
+        <v>124306.3790567347</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>123767.6802714477</v>
+        <v>125114.8114852866</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>124578.5036326866</v>
+        <v>125934.4601348111</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>125400.5741864491</v>
+        <v>126765.4783952812</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>126234.0458063438</v>
+        <v>127608.0218151203</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>127079.0745375452</v>
+        <v>128462.2481379538</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>127935.8186340776</v>
+        <v>129328.3173402989</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>128804.438597062</v>
+        <v>130206.3916702274</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>129685.0972139571</v>
+        <v>131096.6356870342</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>130577.9595988312</v>
+        <v>131999.2163019477</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>131483.1932336983</v>
+        <v>132914.3028199155</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>132400.9680109586</v>
+        <v>133842.0669825064</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>133331.4562769778</v>
+        <v>134782.6830119653</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>134274.8328768483</v>
+        <v>135736.3276564603</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>135231.2752003712</v>
+        <v>136703.1802365657</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>136200.9632293014</v>
+        <v>137683.4226930217</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>137184.0795859012</v>
+        <v>138677.2396358158</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>138180.8095828457</v>
+        <v>139684.8183946318</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>139191.3412745272</v>
+        <v>140706.3490707125</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>140215.8655098073</v>
+        <v>141742.0245901861</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>141254.5759862654</v>
+        <v>142792.0407589049</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>142307.6693059963</v>
+        <v>143856.5963188507</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>143375.3450330082</v>
+        <v>144935.8930061565</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>144457.805752276</v>
+        <v>146030.1356108041</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>145555.2571305076</v>
+        <v>147139.5320380505</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>146667.9079786786</v>
+        <v>148264.2933716438</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>147795.9703163975</v>
+        <v>149404.6339388889</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>148939.6594381602</v>
+        <v>150560.7713776232</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150099.19398156</v>
+        <v>151732.9267051688</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>151274.7959975154</v>
+        <v>152921.3243893252</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>152466.6910225841</v>
+        <v>154126.1924214693</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>153675.1081534312</v>
+        <v>155347.7623918359</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>154900.2801235229</v>
+        <v>156586.2695670444</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>156142.4433821178</v>
+        <v>157841.9529699503</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>157401.8381756287</v>
+        <v>159115.055461894</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>158678.7086314354</v>
+        <v>160405.8238274239</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>159973.3028442215</v>
+        <v>161714.5088615736</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>161285.8729649193</v>
+        <v>163041.3654597757</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>162616.6752923438</v>
+        <v>164386.6527104918</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>163965.9703675991</v>
+        <v>165750.6339906478</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>165334.0230713437</v>
+        <v>167133.5770639571</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>166721.1027240052</v>
+        <v>168535.7541822258</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>168127.4831890283</v>
+        <v>169957.4421897251</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>169553.4429792544</v>
+        <v>171398.9226307292</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>170999.2653665234</v>
+        <v>172860.4818603087</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>172465.2384945918</v>
+        <v>174342.4111584785</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>173951.6554954675</v>
+        <v>175845.0068477991</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>175458.8146092583</v>
+        <v>177368.5704145291</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>176987.0193076346</v>
+        <v>178913.408633432</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>178536.5784210101</v>
+        <v>180479.8336963408</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>180107.8062695437</v>
+        <v>182068.1633445863</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>181701.0227980658</v>
+        <v>183678.7210053917</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>183316.5537150396</v>
+        <v>185311.8359323462</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>184954.7306356622</v>
+        <v>186967.843350064</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>186615.8912292156</v>
+        <v>188647.0846031391</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>188300.3793707782</v>
+        <v>190349.9073095077</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>190008.5452974058</v>
+        <v>192076.6655183301</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>191740.7457688974</v>
+        <v>193827.7198725045</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>193497.3442332524</v>
+        <v>195603.4377759273</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>195278.710996939</v>
+        <v>197404.1935656132</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>197085.2234000786</v>
+        <v>199230.368688787</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>198917.2659966659</v>
+        <v>201082.3518850651</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>200775.2307399311</v>
+        <v>202960.5393738349</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>202659.5171729606</v>
+        <v>204865.3350469521</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>204570.5326246837</v>
+        <v>206797.1506668572</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>206508.6924113375</v>
+        <v>208756.4060702363</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>208474.4200435149</v>
+        <v>210743.5293773219</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>210468.1474389068</v>
+        <v>212758.9572069494</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>212490.3151408371</v>
+        <v>214803.1348974722</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>214541.3725426986</v>
+        <v>216876.5167336396</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>216621.7781183797</v>
+        <v>218979.5661795321</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>218731.9996587861</v>
+        <v>221112.7561176574</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>220872.5145145421</v>
+        <v>223276.5690942922</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>223043.8098449601</v>
+        <v>225471.4975711637</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>225246.3828733597</v>
+        <v>227698.0441835461</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>227480.7411488139</v>
+        <v>229956.7220048555</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>229747.4028143873</v>
+        <v>232248.0548178093</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>232046.8968819343</v>
+        <v>234572.5773922137</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>234379.7635135089</v>
+        <v>236930.8357694382</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>236746.5543094342</v>
+        <v>239323.3875536185</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>239147.8326030684</v>
+        <v>241750.8022096323</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>241584.1737622963</v>
+        <v>244213.6613678721</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>244056.1654977613</v>
+        <v>246712.5591358322</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>246564.4081778446</v>
+        <v>249248.1024165149</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>249109.5151503831</v>
+        <v>251820.9112336526</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>251692.1130711065</v>
+        <v>254431.6190637173</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>254312.8422387569</v>
+        <v>257080.8731746891</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>256972.3569368376</v>
+        <v>259769.3349715243</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>259671.3257819267</v>
+        <v>262497.6803482606</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>262410.4320784673</v>
+        <v>265266.6000466684</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>265190.3741799265</v>
+        <v>268076.8000213408</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>268011.8658561993</v>
+        <v>270929.0018110967</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>270875.6366671109</v>
+        <v>273823.942916549</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>273782.4323418405</v>
+        <v>276762.3771836566</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>276733.0151640753</v>
+        <v>279745.0751930721</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>279728.1643626701</v>
+        <v>282772.8246550528</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>282768.6765075623</v>
+        <v>285846.4308096854</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>285855.3659106622</v>
+        <v>288966.7168321389</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>288989.0650314101</v>
+        <v>292134.5242426364</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>292170.6248866514</v>
+        <v>295350.7133207919</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>295400.9154644607</v>
+        <v>298616.163523938</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>298680.8261414907</v>
+        <v>301931.773909017</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>302011.2661033995</v>
+        <v>305298.4635575862</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>305393.1647678678</v>
+        <v>308717.1720034364</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>308827.4722096603</v>
+        <v>312188.8596622822</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>312315.1595871654</v>
+        <v>315714.5082629443</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>315857.2195697881</v>
+        <v>319295.1212793913</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>319454.6667655149</v>
+        <v>322931.7243629627</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>323108.5381479459</v>
+        <v>326625.3657740459</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>326819.8934820098</v>
+        <v>330377.1168124262</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>330589.8157475412</v>
+        <v>334188.0722454734</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>334419.4115598373</v>
+        <v>338059.3507332779</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>338309.8115862578</v>
+        <v>341992.0952497817</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>342262.170957864</v>
+        <v>345987.4734989019</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>346277.6696750424</v>
+        <v>350046.6783245666</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>350357.5130059856</v>
+        <v>354170.9281135336</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>354502.931876844</v>
+        <v>358361.4671897893</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>358715.1832522916</v>
+        <v>362619.5661992554</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>362995.55050518</v>
+        <v>366946.5224834676</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>367345.3437738885</v>
+        <v>371343.6604408153</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>371765.900305902</v>
+        <v>375812.3318738576</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>376258.5847860772</v>
+        <v>380353.9163211639</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>380824.7896479816</v>
+        <v>384969.8213720414</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>385465.9353666183</v>
+        <v>389661.4829624455</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>390183.4707307696</v>
+        <v>394430.3656502883</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>394978.8730931149</v>
+        <v>399277.9628682778</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>399853.6485962035</v>
+        <v>404205.7971523528</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>404809.332372287</v>
+        <v>409215.420343686</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>409847.4887149289</v>
+        <v>414308.413762166</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>414969.7112202478</v>
+        <v>419486.388349176</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>420177.6228955574</v>
+        <v>424750.9847774141</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>425472.8762330986</v>
+        <v>430103.8735254318</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>430857.1532464947</v>
+        <v>435546.7549144839</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>436332.1654674618</v>
+        <v>441081.3591052031</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>441899.6539002715</v>
+        <v>446709.4460515669</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>447561.388931362</v>
+        <v>452432.8054095266</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>453319.1701914563</v>
+        <v>458253.2563976218</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>459174.8263674667</v>
+        <v>464172.6476068405</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>465130.2149614209</v>
+        <v>470192.8567569195</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>471187.2219935915</v>
+        <v>476315.7903962428</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>477347.7616469524</v>
+        <v>482543.3835424295</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>480261.5680698872</v>
+        <v>486662.3058521277</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>483229.6504293308</v>
+        <v>490854.705623184</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>486253.0876555882</v>
+        <v>495121.994506433</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>489332.9727301306</v>
+        <v>499465.602572725</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>492470.412255797</v>
+        <v>503886.977786318</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>495666.5259861783</v>
+        <v>508387.5854245374</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>498922.4463126518</v>
+        <v>512968.9074416516</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>502239.3177075557</v>
+        <v>517632.4417749274</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>505618.2961220078</v>
+        <v>522379.7015908585</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>509060.548336915</v>
+        <v>527212.2144695966</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>512567.2512657451</v>
+        <v>532131.5215256566</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>516139.591207683</v>
+        <v>537139.1764630314</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>519778.763049844</v>
+        <v>542236.7445629059</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>523485.9694172901</v>
+        <v>547425.801602256</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>527262.4197696463</v>
+        <v>552707.9327016899</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>531109.3294432182</v>
+        <v>558084.7311010066</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>535027.9186375855</v>
+        <v>563557.7968610579</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>539019.4113457541</v>
+        <v>569128.7354906151</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>543085.0342270704</v>
+        <v>574799.1564971184</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>547226.0154222029</v>
+        <v>580570.6718602997</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>551443.5833096534</v>
+        <v>586444.8944278829</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>555738.9652033857</v>
+        <v>592423.4362327168</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>560113.3859913339</v>
+        <v>598507.9067309257</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>564568.0667147035</v>
+        <v>604699.9109608541</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>569104.2230881717</v>
+        <v>611001.0476228328</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>573723.063961275</v>
+        <v>617412.9070800239</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>578425.7897214774</v>
+        <v>623937.0692808781</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>583213.59063963</v>
+        <v>630575.1016039945</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>588087.6451587446</v>
+        <v>637328.5566264887</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>593049.1181272614</v>
+        <v>644198.9698172469</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>598099.1589781981</v>
+        <v>651187.8571567928</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>603238.8998558706</v>
+        <v>658296.7126858013</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>608469.4536920873</v>
+        <v>665527.0059846418</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>613791.9122340331</v>
+        <v>672880.1795866917</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>619207.3440263047</v>
+        <v>680357.6463285178</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>624716.792349873</v>
+        <v>687960.7866403908</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>630321.2731209942</v>
+        <v>695690.9457809831</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>636021.7727534489</v>
+        <v>703549.4310204874</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>641819.2459877126</v>
+        <v>711537.5087767668</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>647714.6136910171</v>
+        <v>719656.401709552</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>653708.7606325237</v>
+        <v>727907.2857780879</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>659802.5332381369</v>
+        <v>736291.2872680207</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>665996.7373297896</v>
+        <v>744809.4797936984</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>672292.1358542857</v>
+        <v>753462.8812824461</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>678689.4466071081</v>
+        <v>762252.4509477376</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>685189.3399568311</v>
+        <v>771179.0862585554</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>691792.4365760597</v>
+        <v>780243.6199125723</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>698499.3051850552</v>
+        <v>789446.8168211119</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>705310.4603144403</v>
+        <v>798789.371114176</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>712226.360093582</v>
+        <v>808271.9031740894</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>719247.4040714607</v>
+        <v>817894.9567066066</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>726373.9310769903</v>
+        <v>827658.9958585403</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>733606.2171259039</v>
+        <v>837564.4023911911</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>740944.4733814613</v>
+        <v>847611.4729190406</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>748388.8441763042</v>
+        <v>857800.4162232814</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>745830.9282853617</v>
+        <v>855194.6797232194</v>
       </c>
       <c r="C358" t="n">
-        <v>9648.301437308586</v>
+        <v>12517.42050166554</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>743245.0833921334</v>
+        <v>852559.3097507226</v>
       </c>
       <c r="C359" t="n">
-        <v>19424.62119803925</v>
+        <v>25200.9281842307</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>740630.9265352946</v>
+        <v>849893.8323911073</v>
       </c>
       <c r="C360" t="n">
-        <v>29329.26056832849</v>
+        <v>38050.91392740487</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>737988.068887747</v>
+        <v>847197.7632695065</v>
       </c>
       <c r="C361" t="n">
-        <v>39362.45581773478</v>
+        <v>51067.6842603149</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>735316.1157232041</v>
+        <v>844470.6073399507</v>
       </c>
       <c r="C362" t="n">
-        <v>49524.37674104178</v>
+        <v>64251.45946968378</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>732614.6663789561</v>
+        <v>841711.8586677974</v>
       </c>
       <c r="C363" t="n">
-        <v>59815.12530430865</v>
+        <v>77602.37184325643</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>729883.3142146238</v>
+        <v>838921.0002056231</v>
       </c>
       <c r="C364" t="n">
-        <v>70234.7344021099</v>
+        <v>91120.46405747946</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>727121.6465668175</v>
+        <v>836097.5035627889</v>
       </c>
       <c r="C365" t="n">
-        <v>80783.16673264901</v>
+        <v>104805.687718107</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>724329.2446996424</v>
+        <v>833240.8287690439</v>
       </c>
       <c r="C366" t="n">
-        <v>91460.3137971572</v>
+        <v>118657.9020620501</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>721505.6837511102</v>
+        <v>830350.4240326026</v>
       </c>
       <c r="C367" t="n">
-        <v>102265.9950296666</v>
+        <v>132676.8728283704</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>718650.5326756021</v>
+        <v>827425.7254933302</v>
       </c>
       <c r="C368" t="n">
-        <v>113199.9570628435</v>
+        <v>146862.271305794</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>715763.3541826417</v>
+        <v>824466.1569717878</v>
       </c>
       <c r="C369" t="n">
-        <v>124261.8731351666</v>
+        <v>161213.6735636018</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>712843.7046723536</v>
+        <v>821471.129715094</v>
       </c>
       <c r="C370" t="n">
-        <v>135451.3426442309</v>
+        <v>175730.5598720994</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>709891.1341681323</v>
+        <v>818440.0421407238</v>
       </c>
       <c r="C371" t="n">
-        <v>146767.8908504464</v>
+        <v>190412.3143182046</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>706905.1862471782</v>
+        <v>815372.2795795979</v>
       </c>
       <c r="C372" t="n">
-        <v>158210.9687348266</v>
+        <v>205258.2246209462</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>703885.3979697427</v>
+        <v>812267.2140200299</v>
       </c>
       <c r="C373" t="n">
-        <v>158210.0594106697</v>
+        <v>205257.0448907193</v>
       </c>
       <c r="D373" t="n">
-        <v>12525.3417161311</v>
+        <v>15772.82400814409</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>700831.2998080881</v>
+        <v>809124.2038543338</v>
       </c>
       <c r="C374" t="n">
-        <v>158209.0071995849</v>
+        <v>205255.6797832244</v>
       </c>
       <c r="D374" t="n">
-        <v>25186.38696932843</v>
+        <v>31716.53580968639</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>697742.4155763703</v>
+        <v>805942.5936301737</v>
       </c>
       <c r="C375" t="n">
-        <v>158207.7912228612</v>
+        <v>205254.1022110403</v>
       </c>
       <c r="D375" t="n">
-        <v>37982.32355470503</v>
+        <v>47830.1126169832</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>694618.2623628586</v>
+        <v>802721.7138090092</v>
       </c>
       <c r="C376" t="n">
-        <v>158206.3878105488</v>
+        <v>205252.2814654753</v>
       </c>
       <c r="D376" t="n">
-        <v>50912.26298326901</v>
+        <v>64112.43557988098</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>691458.3504661375</v>
+        <v>799460.880534265</v>
       </c>
       <c r="C377" t="n">
-        <v>158204.7701689575</v>
+        <v>205250.1827851894</v>
       </c>
       <c r="D377" t="n">
-        <v>63975.24155666468</v>
+        <v>80562.29113910877</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>688262.1833371588</v>
+        <v>796159.3954122094</v>
       </c>
       <c r="C378" t="n">
-        <v>158202.9080145816</v>
+        <v>205247.7668812593</v>
       </c>
       <c r="D378" t="n">
-        <v>77170.22165326608</v>
+        <v>97178.37264582107</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>685029.2575292781</v>
+        <v>792816.5453088111</v>
       </c>
       <c r="C379" t="n">
-        <v>158200.7671719147</v>
+        <v>205244.9894153951</v>
       </c>
       <c r="D379" t="n">
-        <v>90496.09322670892</v>
+        <v>113959.2822486585</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>681759.0626586732</v>
+        <v>789431.602166207</v>
       </c>
       <c r="C380" t="n">
-        <v>158198.3091325429</v>
+        <v>205241.8004279213</v>
       </c>
       <c r="D380" t="n">
-        <v>103951.6755170675</v>
+        <v>130903.5330485865</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>678451.0813778127</v>
+        <v>786003.8228427855</v>
       </c>
       <c r="C381" t="n">
-        <v>158195.4905728498</v>
+        <v>205238.1437120613</v>
       </c>
       <c r="D381" t="n">
-        <v>117535.7189739657</v>
+        <v>148009.5515206173</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>675104.7893649332</v>
+        <v>782532.4489812193</v>
       </c>
       <c r="C382" t="n">
-        <v>158192.2628276239</v>
+        <v>205233.9561310112</v>
       </c>
       <c r="D382" t="n">
-        <v>131246.9073899446</v>
+        <v>165275.6802003017</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>671719.6553327873</v>
+        <v>779016.7069092117</v>
       </c>
       <c r="C383" t="n">
-        <v>158188.5713168494</v>
+        <v>205229.1668742751</v>
       </c>
       <c r="D383" t="n">
-        <v>131246.6615748056</v>
+        <v>165275.3706519465</v>
       </c>
       <c r="E383" t="n">
-        <v>14792.36548681183</v>
+        <v>17616.7086923559</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>668295.1410602309</v>
+        <v>775455.8075780594</v>
       </c>
       <c r="C384" t="n">
-        <v>158184.3549229649</v>
+        <v>205223.6966497391</v>
       </c>
       <c r="D384" t="n">
-        <v>131246.3685154246</v>
+        <v>165275.0016101954</v>
       </c>
       <c r="E384" t="n">
-        <v>29717.68544224445</v>
+        <v>35391.75718135403</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>664830.7014505072</v>
+        <v>771848.9465445672</v>
       </c>
       <c r="C385" t="n">
-        <v>158179.5453159233</v>
+        <v>205217.4568080241</v>
       </c>
       <c r="D385" t="n">
-        <v>131246.0197160279</v>
+        <v>165274.5623765503</v>
       </c>
       <c r="E385" t="n">
-        <v>44774.36399157561</v>
+        <v>53323.24488793446</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>661325.7846204436</v>
+        <v>768195.3040022178</v>
       </c>
       <c r="C386" t="n">
-        <v>158174.0662234558</v>
+        <v>205210.3483957477</v>
       </c>
       <c r="D386" t="n">
-        <v>131245.6052695541</v>
+        <v>165274.0404753168</v>
       </c>
       <c r="E386" t="n">
-        <v>59960.74680662612</v>
+        <v>71409.20161891608</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>657779.8320250503</v>
+        <v>764494.0448679131</v>
       </c>
       <c r="C387" t="n">
-        <v>158167.8326440614</v>
+        <v>205202.2611344803</v>
       </c>
       <c r="D387" t="n">
-        <v>131245.1136452721</v>
+        <v>165273.4213861571</v>
       </c>
       <c r="E387" t="n">
-        <v>75275.1246716508</v>
+        <v>89647.59181373206</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>654192.278622342</v>
+        <v>760744.3189309775</v>
       </c>
       <c r="C388" t="n">
-        <v>158160.7500003999</v>
+        <v>205193.072322382</v>
       </c>
       <c r="D388" t="n">
-        <v>131244.5314483911</v>
+        <v>165272.6882413734</v>
       </c>
       <c r="E388" t="n">
-        <v>90715.73726942047</v>
+        <v>108036.3190533978</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>650562.5530835267</v>
+        <v>756945.2610715042</v>
       </c>
       <c r="C389" t="n">
-        <v>158152.7132309717</v>
+        <v>205182.6456557754</v>
       </c>
       <c r="D389" t="n">
-        <v>131243.8431486402</v>
+        <v>165271.8214841158</v>
       </c>
       <c r="E389" t="n">
-        <v>106280.7771806942</v>
+        <v>126573.2308236126</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>646890.0780539745</v>
+        <v>753095.9915554904</v>
       </c>
       <c r="C390" t="n">
-        <v>158143.6058182291</v>
+        <v>205170.8299682451</v>
       </c>
       <c r="D390" t="n">
-        <v>131243.0307745767</v>
+        <v>165270.7984834328</v>
       </c>
       <c r="E390" t="n">
-        <v>121968.3940892228</v>
+        <v>145256.1235226349</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>643174.2704706956</v>
+        <v>749195.6164145505</v>
       </c>
       <c r="C391" t="n">
-        <v>158133.2987515735</v>
+        <v>205157.4578852618</v>
       </c>
       <c r="D391" t="n">
-        <v>131242.0735701663</v>
+        <v>165269.5931018114</v>
       </c>
       <c r="E391" t="n">
-        <v>137776.6991833312</v>
+        <v>164082.7477032693</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>639414.5419423048</v>
+        <v>745243.2279183201</v>
       </c>
       <c r="C392" t="n">
-        <v>158121.6494240747</v>
+        <v>205142.3443928185</v>
       </c>
       <c r="D392" t="n">
-        <v>131240.9476099687</v>
+        <v>165268.1752105923</v>
       </c>
       <c r="E392" t="n">
-        <v>153703.7697440292</v>
+        <v>183050.8135369975</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>635610.2991977225</v>
+        <v>741237.9051479703</v>
       </c>
       <c r="C393" t="n">
-        <v>158108.5004621878</v>
+        <v>205125.2853191392</v>
       </c>
       <c r="D393" t="n">
-        <v>131239.6253690627</v>
+        <v>165266.5101483865</v>
       </c>
       <c r="E393" t="n">
-        <v>153703.5800103192</v>
+        <v>183050.5875769573</v>
       </c>
       <c r="F393" t="n">
-        <v>12477.97423064338</v>
+        <v>17037.71284776708</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>631760.9446100513</v>
+        <v>737178.7146794884</v>
       </c>
       <c r="C394" t="n">
-        <v>158093.6784882521</v>
+        <v>205106.0557291825</v>
       </c>
       <c r="D394" t="n">
-        <v>131238.0752436582</v>
+        <v>165264.5581173959</v>
       </c>
       <c r="E394" t="n">
-        <v>153703.3502118803</v>
+        <v>183050.3139025298</v>
       </c>
       <c r="F394" t="n">
-        <v>25045.29232706106</v>
+        <v>34197.41786362452</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>627865.8768023031</v>
+        <v>733064.7113856192</v>
       </c>
       <c r="C395" t="n">
-        <v>158076.9928161431</v>
+        <v>205084.4082324187</v>
       </c>
       <c r="D395" t="n">
-        <v>131236.2610181775</v>
+        <v>165262.2735123236</v>
       </c>
       <c r="E395" t="n">
-        <v>153703.0724171616</v>
+        <v>183049.9830677733</v>
       </c>
       <c r="F395" t="n">
-        <v>37700.40871194858</v>
+        <v>51477.00468079239</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>623924.4913417628</v>
+        <v>728894.9393655111</v>
       </c>
       <c r="C396" t="n">
-        <v>158058.2340811059</v>
+        <v>205060.0712052158</v>
       </c>
       <c r="D396" t="n">
-        <v>131234.1412744521</v>
+        <v>165259.60417639</v>
       </c>
       <c r="E396" t="n">
-        <v>153702.7372396757</v>
+        <v>183049.5838940146</v>
       </c>
       <c r="F396" t="n">
-        <v>50441.76810510342</v>
+        <v>68874.34968393069</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>619936.1815299216</v>
+        <v>724668.4330112368</v>
       </c>
       <c r="C397" t="n">
-        <v>158037.172805533</v>
+        <v>205032.7469301235</v>
       </c>
       <c r="D397" t="n">
-        <v>131231.6687385702</v>
+        <v>165256.4905788369</v>
       </c>
       <c r="E397" t="n">
-        <v>153702.3335949895</v>
+        <v>183049.1031804427</v>
       </c>
       <c r="F397" t="n">
-        <v>63267.80985730368</v>
+        <v>86387.32192671692</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>615900.3392949591</v>
+        <v>720384.2182203962</v>
       </c>
       <c r="C398" t="n">
-        <v>158013.5579032688</v>
+        <v>205002.1096554004</v>
       </c>
       <c r="D398" t="n">
-        <v>131228.789560851</v>
+        <v>165252.8649082179</v>
       </c>
       <c r="E398" t="n">
-        <v>153701.8484218126</v>
+        <v>183048.525371942</v>
       </c>
       <c r="F398" t="n">
-        <v>76176.97239109922</v>
+        <v>104013.7891954044</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>611816.356193785</v>
+        <v>716041.3137639982</v>
       </c>
       <c r="C399" t="n">
-        <v>157987.1151259142</v>
+        <v>204967.8035792967</v>
       </c>
       <c r="D399" t="n">
-        <v>131225.4425244008</v>
+        <v>165248.6500757547</v>
       </c>
       <c r="E399" t="n">
-        <v>153701.2663627431</v>
+        <v>183047.8321788839</v>
       </c>
       <c r="F399" t="n">
-        <v>89167.69773757725</v>
+        <v>121751.6242034264</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>607683.6245305834</v>
+        <v>711638.7328187182</v>
       </c>
       <c r="C400" t="n">
-        <v>157957.5454555819</v>
+        <v>204929.4407648623</v>
       </c>
       <c r="D400" t="n">
-        <v>131221.5581777482</v>
+        <v>165243.7586230881</v>
       </c>
       <c r="E400" t="n">
-        <v>153700.5693998437</v>
+        <v>183047.0021431212</v>
       </c>
       <c r="F400" t="n">
-        <v>102238.4361574196</v>
+        <v>139598.7109010937</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>603501.538598725</v>
+        <v>707175.4846724446</v>
       </c>
       <c r="C401" t="n">
-        <v>157924.5234496047</v>
+        <v>204886.5989924209</v>
       </c>
       <c r="D401" t="n">
-        <v>131217.0578871636</v>
+        <v>165238.0915288894</v>
       </c>
       <c r="E401" t="n">
-        <v>153699.7364398103</v>
+        <v>183046.0101439529</v>
       </c>
       <c r="F401" t="n">
-        <v>115387.6508338631</v>
+        <v>157552.9508834708</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>599269.4960527038</v>
+        <v>702650.5766117616</v>
       </c>
       <c r="C402" t="n">
-        <v>157887.6955438265</v>
+        <v>204838.8195583083</v>
       </c>
       <c r="D402" t="n">
-        <v>131211.8528044474</v>
+        <v>165231.5369090242</v>
       </c>
       <c r="E402" t="n">
-        <v>153698.7428430924</v>
+        <v>183044.8268373375</v>
       </c>
       <c r="F402" t="n">
-        <v>128613.8226243765</v>
+        <v>175612.2698784248</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>594986.8994165291</v>
+        <v>698063.0159996524</v>
       </c>
       <c r="C403" t="n">
-        <v>157846.6783223004</v>
+        <v>204785.6050300324</v>
       </c>
       <c r="D403" t="n">
-        <v>131205.8427462434</v>
+        <v>165223.9686053022</v>
       </c>
       <c r="E403" t="n">
-        <v>153697.55989092</v>
+        <v>183043.4180211588</v>
       </c>
       <c r="F403" t="n">
-        <v>128613.7100235687</v>
+        <v>175612.1161306935</v>
       </c>
       <c r="G403" t="n">
-        <v>9407.880085329012</v>
+        <v>9406.084988786117</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>590653.1577346569</v>
+        <v>693411.812551224</v>
       </c>
       <c r="C404" t="n">
-        <v>157801.0567624879</v>
+        <v>204726.416969644</v>
       </c>
       <c r="D404" t="n">
-        <v>131198.9149812938</v>
+        <v>165215.2446582996</v>
       </c>
       <c r="E404" t="n">
-        <v>153696.1541837965</v>
+        <v>183041.7439188712</v>
       </c>
       <c r="F404" t="n">
-        <v>128613.5717934781</v>
+        <v>175611.9273881502</v>
       </c>
       <c r="G404" t="n">
-        <v>18868.10970948671</v>
+        <v>18864.50952770259</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>586267.6883711345</v>
+        <v>688695.9808146869</v>
       </c>
       <c r="C405" t="n">
-        <v>157750.3824663634</v>
+        <v>204660.6736388268</v>
       </c>
       <c r="D405" t="n">
-        <v>131190.9429225231</v>
+        <v>165205.2056603367</v>
       </c>
       <c r="E405" t="n">
-        <v>153694.4869646448</v>
+        <v>183039.7583734121</v>
       </c>
       <c r="F405" t="n">
-        <v>128613.4024574894</v>
+        <v>175611.6961728988</v>
       </c>
       <c r="G405" t="n">
-        <v>28379.67623630365</v>
+        <v>28374.26117379879</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>581829.9189621308</v>
+        <v>683914.5428641294</v>
       </c>
       <c r="C406" t="n">
-        <v>157694.1718892072</v>
+        <v>204587.7477009842</v>
       </c>
       <c r="D406" t="n">
-        <v>131181.7847214228</v>
+        <v>165193.6729854237</v>
       </c>
       <c r="E406" t="n">
-        <v>153692.5133594479</v>
+        <v>183037.4079428566</v>
       </c>
       <c r="F406" t="n">
-        <v>128613.1954522967</v>
+        <v>175611.4135232502</v>
       </c>
       <c r="G406" t="n">
-        <v>37941.59395049852</v>
+        <v>37934.35439987556</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>577339.2895264301</v>
+        <v>679066.5312098087</v>
       </c>
       <c r="C407" t="n">
-        <v>157631.9045792661</v>
+        <v>204506.9639374269</v>
       </c>
       <c r="D407" t="n">
-        <v>131171.2817629145</v>
+        <v>165180.4468938829</v>
       </c>
       <c r="E407" t="n">
-        <v>153690.1815279206</v>
+        <v>183034.6308889248</v>
       </c>
       <c r="F407" t="n">
-        <v>128612.9429308814</v>
+        <v>175611.068724705</v>
       </c>
       <c r="G407" t="n">
-        <v>47552.90760535745</v>
+        <v>47543.8341414875</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>572795.2547377701</v>
+        <v>674150.9919307521</v>
       </c>
       <c r="C408" t="n">
-        <v>157563.0214428982</v>
+        <v>204417.5969966246</v>
       </c>
       <c r="D408" t="n">
-        <v>131159.2570597157</v>
+        <v>165165.3045104173</v>
       </c>
       <c r="E408" t="n">
-        <v>153687.4317165009</v>
+        <v>183031.3560491581</v>
       </c>
       <c r="F408" t="n">
-        <v>128612.6355336924</v>
+        <v>175610.648997517</v>
       </c>
       <c r="G408" t="n">
-        <v>57212.69596595062</v>
+        <v>57201.77933948358</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>568197.2863621307</v>
+        <v>669166.9880334095</v>
       </c>
       <c r="C409" t="n">
-        <v>157486.9230512559</v>
+        <v>204318.8691973455</v>
       </c>
       <c r="D409" t="n">
-        <v>131145.5135462119</v>
+        <v>165147.997675629</v>
       </c>
       <c r="E409" t="n">
-        <v>153684.1952057663</v>
+        <v>183027.5015833635</v>
       </c>
       <c r="F409" t="n">
-        <v>128612.2621236732</v>
+        <v>175610.139134893</v>
       </c>
       <c r="G409" t="n">
-        <v>66920.07533717586</v>
+        <v>66907.30646737752</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>563544.8758621877</v>
+        <v>664113.6030389034</v>
       </c>
       <c r="C410" t="n">
-        <v>157402.9680059945</v>
+        <v>204209.9484083754</v>
       </c>
       <c r="D410" t="n">
-        <v>131129.8322729724</v>
+        <v>165128.2506724224</v>
       </c>
       <c r="E410" t="n">
-        <v>153680.3931442833</v>
+        <v>183022.9735848066</v>
       </c>
       <c r="F410" t="n">
-        <v>128611.8094803379</v>
+        <v>175609.521085278</v>
       </c>
       <c r="G410" t="n">
-        <v>76674.20306541101</v>
+        <v>76659.57303233199</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>558837.5371701603</v>
+        <v>658989.9448001187</v>
       </c>
       <c r="C411" t="n">
-        <v>157310.4713829067</v>
+        <v>204089.9460293352</v>
       </c>
       <c r="D411" t="n">
-        <v>131111.97050433</v>
+        <v>165105.7578303384</v>
       </c>
       <c r="E411" t="n">
-        <v>153675.935260904</v>
+        <v>183017.6645466445</v>
       </c>
       <c r="F411" t="n">
-        <v>128611.261947628</v>
+        <v>175608.7734715298</v>
       </c>
       <c r="G411" t="n">
-        <v>86474.28100210028</v>
+        <v>86457.78103808414</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>554074.8096292099</v>
+        <v>653795.1495484473</v>
       </c>
       <c r="C412" t="n">
-        <v>157208.7032737424</v>
+        <v>203957.915098881</v>
       </c>
       <c r="D412" t="n">
-        <v>131091.6597228891</v>
+        <v>165080.1810126837</v>
       </c>
       <c r="E412" t="n">
-        <v>153670.7184476456</v>
+        <v>183011.4516742302</v>
       </c>
       <c r="F412" t="n">
-        <v>128610.6010298021</v>
+        <v>175607.8710391376</v>
       </c>
       <c r="G412" t="n">
-        <v>96319.55891702158</v>
+        <v>96301.18039756162</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>549256.2611023545</v>
+        <v>648528.3861684209</v>
       </c>
       <c r="C413" t="n">
-        <v>157096.8874477773</v>
+        <v>203812.8485582636</v>
       </c>
       <c r="D413" t="n">
-        <v>131068.6035464191</v>
+        <v>165051.1469933329</v>
       </c>
       <c r="E413" t="n">
-        <v>153664.6252055539</v>
+        <v>183004.1950342414</v>
       </c>
       <c r="F413" t="n">
-        <v>128609.8049291176</v>
+        <v>175606.7840249629</v>
       </c>
       <c r="G413" t="n">
-        <v>96319.49438286414</v>
+        <v>96301.11587571779</v>
       </c>
       <c r="H413" t="n">
-        <v>9991.868392263759</v>
+        <v>10538.58768877724</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>544381.4912466098</v>
+        <v>643188.8606968162</v>
       </c>
       <c r="C414" t="n">
-        <v>156974.2001558984</v>
+        <v>203653.6776997825</v>
       </c>
       <c r="D414" t="n">
-        <v>131042.4755643529</v>
+        <v>165018.2447322882</v>
       </c>
       <c r="E414" t="n">
-        <v>153657.5219463724</v>
+        <v>182995.7355320828</v>
       </c>
       <c r="F414" t="n">
-        <v>128608.848018578</v>
+        <v>175605.4774373154</v>
       </c>
       <c r="G414" t="n">
-        <v>96319.41429817016</v>
+        <v>96301.03580630462</v>
       </c>
       <c r="H414" t="n">
-        <v>20028.06152275848</v>
+        <v>21123.92540690743</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>539450.1349486837</v>
+        <v>637775.8210409976</v>
       </c>
       <c r="C415" t="n">
-        <v>156839.7691010672</v>
+        <v>203479.2708310982</v>
       </c>
       <c r="D415" t="n">
-        <v>131012.9171030119</v>
+        <v>164981.0225614885</v>
       </c>
       <c r="E415" t="n">
-        <v>153649.2571434448</v>
+        <v>182985.8927097359</v>
       </c>
       <c r="F415" t="n">
-        <v>128607.7002425307</v>
+        <v>175603.9102375164</v>
       </c>
       <c r="G415" t="n">
-        <v>96319.31514169772</v>
+        <v>96300.93666875199</v>
       </c>
       <c r="H415" t="n">
-        <v>30107.99020201236</v>
+        <v>31755.39172657845</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>534461.8659171275</v>
+        <v>632288.5619093759</v>
       </c>
       <c r="C416" t="n">
-        <v>156692.6725999819</v>
+        <v>203288.4321875948</v>
       </c>
       <c r="D416" t="n">
-        <v>130979.5349307347</v>
+        <v>164938.9852949395</v>
       </c>
       <c r="E416" t="n">
-        <v>153639.6593260777</v>
+        <v>182974.4623571808</v>
       </c>
       <c r="F416" t="n">
-        <v>128606.3264374423</v>
+        <v>175602.0344124688</v>
       </c>
       <c r="G416" t="n">
-        <v>96319.19265072068</v>
+        <v>96300.81420114716</v>
       </c>
       <c r="H416" t="n">
-        <v>40231.12741942333</v>
+        <v>42432.43080105325</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>529416.4004243029</v>
+        <v>626726.4299448646</v>
       </c>
       <c r="C417" t="n">
-        <v>156531.9389615385</v>
+        <v>203079.9011260156</v>
       </c>
       <c r="D417" t="n">
-        <v>130941.8989162736</v>
+        <v>164891.5912799962</v>
       </c>
       <c r="E417" t="n">
-        <v>153628.5349126224</v>
+        <v>182961.213931742</v>
       </c>
       <c r="F417" t="n">
-        <v>128604.6855647417</v>
+        <v>175599.7939271644</v>
       </c>
       <c r="G417" t="n">
-        <v>96319.0416780215</v>
+        <v>96300.66325725477</v>
       </c>
       <c r="H417" t="n">
-        <v>50397.01147461366</v>
+        <v>53154.55566736102</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>524313.501189941</v>
+        <v>621088.8290501154</v>
       </c>
       <c r="C418" t="n">
-        <v>156356.5461082924</v>
+        <v>202852.3516333577</v>
       </c>
       <c r="D418" t="n">
-        <v>130899.5396561295</v>
+        <v>164838.24940953</v>
       </c>
       <c r="E418" t="n">
-        <v>153615.665878794</v>
+        <v>182945.8877812146</v>
       </c>
       <c r="F418" t="n">
-        <v>128602.7298472409</v>
+        <v>175597.1235455325</v>
       </c>
       <c r="G418" t="n">
-        <v>96318.85602422517</v>
+        <v>96300.47763888263</v>
       </c>
       <c r="H418" t="n">
-        <v>60605.248994738</v>
+        <v>63921.3514287014</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>519152.9813964111</v>
+        <v>615375.2258911708</v>
       </c>
       <c r="C419" t="n">
-        <v>156165.4214674908</v>
+        <v>202604.3921855017</v>
       </c>
       <c r="D419" t="n">
-        <v>130851.9460889083</v>
+        <v>164778.3161177513</v>
       </c>
       <c r="E419" t="n">
-        <v>153600.8072592806</v>
+        <v>182928.1921684493</v>
       </c>
       <c r="F419" t="n">
-        <v>128600.4038003156</v>
+        <v>175593.9475075913</v>
       </c>
       <c r="G419" t="n">
-        <v>96318.62824183695</v>
+        <v>96300.24989995704</v>
       </c>
       <c r="H419" t="n">
-        <v>70855.51782389496</v>
+        <v>74732.47830195447</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>513934.7088241126</v>
+        <v>609585.1555639241</v>
       </c>
       <c r="C420" t="n">
-        <v>155957.4421583752</v>
+        <v>202334.5659902111</v>
       </c>
       <c r="D420" t="n">
-        <v>130798.5631172641</v>
+        <v>164711.0923855883</v>
       </c>
       <c r="E420" t="n">
-        <v>153583.6844824951</v>
+        <v>182907.8000972215</v>
       </c>
       <c r="F420" t="n">
-        <v>128597.6431487908</v>
+        <v>175590.1780505399</v>
       </c>
       <c r="G420" t="n">
-        <v>96318.34940693156</v>
+        <v>96299.97111825553</v>
       </c>
       <c r="H420" t="n">
-        <v>81147.56977023173</v>
+        <v>85587.67451509704</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>508658.6100936549</v>
+        <v>603718.2274055296</v>
       </c>
       <c r="C421" t="n">
-        <v>155731.4355023032</v>
+        <v>202041.3516489502</v>
       </c>
       <c r="D421" t="n">
-        <v>130738.7892605442</v>
+        <v>164635.8207847252</v>
       </c>
       <c r="E421" t="n">
-        <v>153563.9905404175</v>
+        <v>182884.3459417049</v>
       </c>
       <c r="F421" t="n">
-        <v>128594.3736203364</v>
+        <v>175585.713761231</v>
       </c>
       <c r="G421" t="n">
-        <v>96318.00885400441</v>
+        <v>96299.6306303085</v>
       </c>
       <c r="H421" t="n">
-        <v>91481.23319574437</v>
+        <v>96486.75903870759</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>503324.6749997309</v>
+        <v>597774.1309305839</v>
       </c>
       <c r="C422" t="n">
-        <v>155486.1798817955</v>
+        <v>201723.1642713853</v>
       </c>
       <c r="D422" t="n">
-        <v>130671.9743638043</v>
+        <v>164551.6825926275</v>
       </c>
       <c r="E422" t="n">
-        <v>153541.3829978752</v>
+        <v>182857.4218847262</v>
       </c>
       <c r="F422" t="n">
-        <v>128590.509606161</v>
+        <v>175580.4377474532</v>
       </c>
       <c r="G422" t="n">
-        <v>96317.59386903617</v>
+        <v>96299.21572452263</v>
       </c>
       <c r="H422" t="n">
-        <v>101856.4154331297</v>
+        <v>107429.6341350595</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>497932.9609198101</v>
+        <v>591752.6418696081</v>
       </c>
       <c r="C423" t="n">
-        <v>155220.4059738429</v>
+        <v>201378.3570754422</v>
       </c>
       <c r="D423" t="n">
-        <v>130597.4173914159</v>
+        <v>164457.7950140916</v>
       </c>
       <c r="E423" t="n">
-        <v>153515.4808483121</v>
+        <v>182826.5741731979</v>
       </c>
       <c r="F423" t="n">
-        <v>128585.9526799287</v>
+        <v>175574.2156156247</v>
       </c>
       <c r="G423" t="n">
-        <v>96317.08933534911</v>
+        <v>96298.71128710451</v>
       </c>
       <c r="H423" t="n">
-        <v>112273.1050133939</v>
+        <v>118416.2877076168</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>492483.5972789999</v>
+        <v>585653.6282850425</v>
       </c>
       <c r="C424" t="n">
-        <v>154932.7983817029</v>
+        <v>201005.2235043488</v>
       </c>
       <c r="D424" t="n">
-        <v>130514.3643359786</v>
+        <v>164353.2085479943</v>
       </c>
       <c r="E424" t="n">
-        <v>153485.8612261149</v>
+        <v>182791.2992027214</v>
       </c>
       <c r="F424" t="n">
-        <v>128580.5899661306</v>
+        <v>175566.8932429313</v>
       </c>
       <c r="G424" t="n">
-        <v>96316.47732635048</v>
+        <v>96298.09939488191</v>
       </c>
       <c r="H424" t="n">
-        <v>122731.3736871784</v>
+        <v>129446.7954329592</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>486976.790050684</v>
+        <v>579477.0567377178</v>
       </c>
       <c r="C425" t="n">
-        <v>154621.9976879372</v>
+        <v>200601.9998901869</v>
       </c>
       <c r="D425" t="n">
-        <v>130422.0062756464</v>
+        <v>164236.9045409366</v>
       </c>
       <c r="E425" t="n">
-        <v>153452.0559888896</v>
+        <v>182751.0394473086</v>
       </c>
       <c r="F425" t="n">
-        <v>128574.2923496492</v>
+        <v>175558.2943326232</v>
       </c>
       <c r="G425" t="n">
-        <v>96315.73663877367</v>
+        <v>96297.35884863407</v>
       </c>
       <c r="H425" t="n">
-        <v>133231.3782220427</v>
+        <v>140521.3226564064</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>481412.8262708341</v>
+        <v>573222.9984745368</v>
       </c>
       <c r="C426" t="n">
-        <v>154286.6029496006</v>
+        <v>200166.8686910753</v>
       </c>
       <c r="D426" t="n">
-        <v>130319.4776152256</v>
+        <v>164107.7929723057</v>
       </c>
       <c r="E426" t="n">
-        <v>153413.5481867013</v>
+        <v>182705.1792544856</v>
       </c>
       <c r="F426" t="n">
-        <v>128566.9125189918</v>
+        <v>175548.2177422023</v>
       </c>
       <c r="G426" t="n">
-        <v>96314.84225955218</v>
+        <v>96296.46464006706</v>
       </c>
       <c r="H426" t="n">
-        <v>143773.3619571149</v>
+        <v>151640.126031733</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>475792.0785422462</v>
+        <v>566891.6356059825</v>
       </c>
       <c r="C427" t="n">
-        <v>153925.1746542521</v>
+        <v>199697.9623262117</v>
       </c>
       <c r="D427" t="n">
-        <v>130205.8545484574</v>
+        <v>163964.7105178691</v>
       </c>
       <c r="E427" t="n">
-        <v>153369.7684391945</v>
+        <v>182653.0405306865</v>
       </c>
       <c r="F427" t="n">
-        <v>128558.2828366593</v>
+        <v>175536.4345755735</v>
       </c>
       <c r="G427" t="n">
-        <v>96313.76475900352</v>
+        <v>96295.38734511391</v>
       </c>
       <c r="H427" t="n">
-        <v>154357.6560957118</v>
+        <v>162803.5548845166</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>470115.0095033852</v>
+        <v>560483.2672400287</v>
       </c>
       <c r="C428" t="n">
-        <v>153536.2381528334</v>
+        <v>199193.3676295867</v>
       </c>
       <c r="D428" t="n">
-        <v>130080.1537807003</v>
+        <v>163806.4189412834</v>
       </c>
       <c r="E428" t="n">
-        <v>153320.0912456659</v>
+        <v>182593.8783468</v>
       </c>
       <c r="F428" t="n">
-        <v>128548.2130313911</v>
+        <v>175522.6850319841</v>
       </c>
       <c r="G428" t="n">
-        <v>96312.46960257743</v>
+        <v>96294.09243581368</v>
       </c>
       <c r="H428" t="n">
-        <v>164984.6807156634</v>
+        <v>174012.0522777436</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>464382.1762350446</v>
+        <v>553998.3155371449</v>
       </c>
       <c r="C429" t="n">
-        <v>153118.2875824346</v>
+        <v>198651.130939265</v>
       </c>
       <c r="D429" t="n">
-        <v>129941.3315527265</v>
+        <v>163631.603864787</v>
       </c>
       <c r="E429" t="n">
-        <v>153263.8312575427</v>
+        <v>182526.8764989423</v>
       </c>
       <c r="F429" t="n">
-        <v>128536.4877086085</v>
+        <v>175506.6750067247</v>
       </c>
       <c r="G429" t="n">
-        <v>96310.91637304638</v>
+        <v>96292.53950265086</v>
       </c>
       <c r="H429" t="n">
-        <v>175654.9454761659</v>
+        <v>185266.1557573379</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>458594.2345766898</v>
+        <v>547437.3316493294</v>
       </c>
       <c r="C430" t="n">
-        <v>152669.7902885505</v>
+        <v>198069.2638346888</v>
       </c>
       <c r="D430" t="n">
-        <v>129788.283007482</v>
+        <v>163438.8739717785</v>
       </c>
       <c r="E430" t="n">
-        <v>153200.2395472793</v>
+        <v>182451.1430649653</v>
       </c>
       <c r="F430" t="n">
-        <v>128522.8636772933</v>
+        <v>175488.0724411891</v>
       </c>
       <c r="G430" t="n">
-        <v>96309.05789470786</v>
+        <v>96290.68137892446</v>
       </c>
       <c r="H430" t="n">
-        <v>186369.0499990898</v>
+        <v>196566.4977543344</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>452751.9433231279</v>
+        <v>540801.001504563</v>
       </c>
       <c r="C431" t="n">
-        <v>152189.1917526294</v>
+        <v>197445.7495295337</v>
       </c>
       <c r="D431" t="n">
-        <v>129619.8419423781</v>
+        <v>163226.7606948844</v>
       </c>
       <c r="E431" t="n">
-        <v>153128.4999123711</v>
+        <v>182365.7060027862</v>
       </c>
       <c r="F431" t="n">
-        <v>128507.0670938074</v>
+        <v>175466.5034229789</v>
       </c>
       <c r="G431" t="n">
-        <v>96306.83925094403</v>
+        <v>96288.46315849505</v>
       </c>
       <c r="H431" t="n">
-        <v>197127.6839017283</v>
+        <v>207913.8056194171</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>446856.1682711066</v>
+        <v>534090.1513967032</v>
       </c>
       <c r="C432" t="n">
-        <v>151674.9210265501</v>
+        <v>196778.5499222392</v>
       </c>
       <c r="D432" t="n">
-        <v>129434.780989923</v>
+        <v>162993.7184434228</v>
       </c>
       <c r="E432" t="n">
-        <v>153047.7252579413</v>
+        <v>182269.5088422925</v>
       </c>
       <c r="F432" t="n">
-        <v>128488.7904257982</v>
+        <v>175441.5480403503</v>
       </c>
       <c r="G432" t="n">
-        <v>96304.19668636947</v>
+        <v>96285.82109814235</v>
       </c>
       <c r="H432" t="n">
-        <v>207931.6264570254</v>
+        <v>219308.9012645586</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>440907.8860845612</v>
+        <v>527305.7533397339</v>
       </c>
       <c r="C433" t="n">
-        <v>151125.3966711477</v>
+        <v>196065.6133004748</v>
       </c>
       <c r="D433" t="n">
-        <v>129231.8122692129</v>
+        <v>162738.125423809</v>
       </c>
       <c r="E433" t="n">
-        <v>152956.9541061039</v>
+        <v>182161.4065282295</v>
       </c>
       <c r="F433" t="n">
-        <v>128467.689242356</v>
+        <v>175412.7359994219</v>
       </c>
       <c r="G433" t="n">
-        <v>96301.05638481511</v>
+        <v>96282.68139578192</v>
       </c>
       <c r="H433" t="n">
-        <v>218781.7458564129</v>
+        <v>230752.7003855199</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>434908.1879465587</v>
+        <v>520448.9301444152</v>
       </c>
       <c r="C434" t="n">
-        <v>150539.0331910728</v>
+        <v>195304.8826895369</v>
       </c>
       <c r="D434" t="n">
-        <v>129009.5885499336</v>
+        <v>162458.2851053519</v>
       </c>
       <c r="E434" t="n">
-        <v>152855.1472849764</v>
+        <v>182040.1614770377</v>
       </c>
       <c r="F434" t="n">
-        <v>128443.3788400063</v>
+        <v>175379.5420172264</v>
       </c>
       <c r="G434" t="n">
-        <v>96297.33311457044</v>
+        <v>96278.95883596611</v>
       </c>
       <c r="H434" t="n">
-        <v>229678.9980494461</v>
+        <v>242246.2112379964</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>428858.2829655228</v>
+        <v>513520.9601747932</v>
       </c>
       <c r="C435" t="n">
-        <v>149914.2479531548</v>
+        <v>194494.3048280274</v>
       </c>
       <c r="D435" t="n">
-        <v>128766.704969024</v>
+        <v>162152.4283820002</v>
       </c>
       <c r="E435" t="n">
-        <v>152741.1848547049</v>
+        <v>181904.4399159556</v>
       </c>
       <c r="F435" t="n">
-        <v>128415.4307179188</v>
+        <v>175341.3810088801</v>
       </c>
       <c r="G435" t="n">
-        <v>96292.92873266643</v>
+        <v>96274.55529445235</v>
       </c>
       <c r="H435" t="n">
-        <v>240624.4251335848</v>
+        <v>253790.5329392932</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>422759.5013030968</v>
+        <v>506523.281741749</v>
       </c>
       <c r="C436" t="n">
-        <v>149249.4685700793</v>
+        <v>193631.8397472189</v>
       </c>
       <c r="D436" t="n">
-        <v>128501.7013379838</v>
+        <v>161818.7164778744</v>
       </c>
       <c r="E436" t="n">
-        <v>152613.8633320883</v>
+        <v>181752.8085777357</v>
       </c>
       <c r="F436" t="n">
-        <v>128383.3689199027</v>
+        <v>175297.603092859</v>
       </c>
       <c r="G436" t="n">
-        <v>96287.73054055452</v>
+        <v>96269.35809419584</v>
       </c>
       <c r="H436" t="n">
-        <v>251619.1532666101</v>
+        <v>265386.853266517</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>416613.2969910168</v>
+        <v>499457.4970908007</v>
       </c>
       <c r="C437" t="n">
-        <v>148543.1407256335</v>
+        <v>192715.4709232957</v>
       </c>
       <c r="D437" t="n">
-        <v>128213.0650759356</v>
+        <v>161455.2446407915</v>
       </c>
       <c r="E437" t="n">
-        <v>152471.893279233</v>
+        <v>181583.7318288939</v>
       </c>
       <c r="F437" t="n">
-        <v>128346.6662653024</v>
+        <v>175247.4884445779</v>
       </c>
       <c r="G437" t="n">
-        <v>96281.60948435281</v>
+        <v>96263.23820593914</v>
       </c>
       <c r="H437" t="n">
-        <v>262664.3900734655</v>
+        <v>277036.4459215284</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>410421.2504046491</v>
+        <v>492325.3759417474</v>
       </c>
       <c r="C438" t="n">
-        <v>147793.7364120816</v>
+        <v>191743.215964281</v>
       </c>
       <c r="D438" t="n">
-        <v>127899.2347999469</v>
+        <v>161060.0466634603</v>
       </c>
       <c r="E438" t="n">
-        <v>152313.8973250283</v>
+        <v>181395.5693134209</v>
       </c>
       <c r="F438" t="n">
-        <v>128304.7404957928</v>
+        <v>175190.2420351348</v>
       </c>
       <c r="G438" t="n">
-        <v>96274.41819391683</v>
+        <v>96256.04828765722</v>
       </c>
       <c r="H438" t="n">
-        <v>273761.4215186315</v>
+        <v>288740.667232184</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>404185.0703613956</v>
+        <v>485128.8585384749</v>
       </c>
       <c r="C439" t="n">
-        <v>146999.7625444524</v>
+        <v>190713.1377859586</v>
       </c>
       <c r="D439" t="n">
-        <v>127558.6045997658</v>
+        <v>160631.1002665411</v>
       </c>
       <c r="E439" t="n">
-        <v>152138.408690986</v>
+        <v>181186.5741971564</v>
       </c>
       <c r="F439" t="n">
-        <v>128256.9503702461</v>
+        <v>175124.988299154</v>
       </c>
       <c r="G439" t="n">
-        <v>96265.9888563788</v>
+        <v>96247.6205585022</v>
       </c>
       <c r="H439" t="n">
-        <v>284911.6082146713</v>
+        <v>300500.9522588997</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>397906.5958129998</v>
+        <v>477870.0581683223</v>
       </c>
       <c r="C440" t="n">
-        <v>146159.7699107352</v>
+        <v>189623.3562235914</v>
       </c>
       <c r="D440" t="n">
-        <v>127189.5290190219</v>
+        <v>160166.333371337</v>
       </c>
       <c r="E440" t="n">
-        <v>151943.8702950279</v>
+        <v>180954.8921004608</v>
       </c>
       <c r="F440" t="n">
-        <v>128202.5917452692</v>
+        <v>175050.7657830598</v>
       </c>
       <c r="G440" t="n">
-        <v>96256.13092151034</v>
+        <v>96237.76450460425</v>
       </c>
       <c r="H440" t="n">
-        <v>296116.3811372063</v>
+        <v>312318.8102751639</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>391587.7971019121</v>
+        <v>470551.2631118859</v>
       </c>
       <c r="C441" t="n">
-        <v>145272.3624112362</v>
+        <v>188472.0600187892</v>
       </c>
       <c r="D441" t="n">
-        <v>126790.3287590919</v>
+        <v>159663.6312825172</v>
       </c>
       <c r="E441" t="n">
-        <v>151728.6345079928</v>
+        <v>180698.5608082311</v>
       </c>
       <c r="F441" t="n">
-        <v>128140.8936846025</v>
+        <v>174966.5218327621</v>
       </c>
       <c r="G441" t="n">
-        <v>96244.62863832597</v>
+        <v>96226.2644161448</v>
       </c>
       <c r="H441" t="n">
-        <v>307377.2367164536</v>
+        <v>324195.8195905027</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>385230.7767532813</v>
+        <v>463174.9379859645</v>
       </c>
       <c r="C442" t="n">
-        <v>144336.2065347459</v>
+        <v>187257.5191136075</v>
       </c>
       <c r="D442" t="n">
-        <v>126359.2971152521</v>
+        <v>159120.84479299</v>
       </c>
       <c r="E442" t="n">
-        <v>151490.9636378804</v>
+        <v>180415.5108466032</v>
       </c>
       <c r="F442" t="n">
-        <v>128071.0146462776</v>
+        <v>174871.1073875123</v>
       </c>
       <c r="G442" t="n">
-        <v>96231.23842477535</v>
+        <v>96212.87675755084</v>
       </c>
       <c r="H442" t="n">
-        <v>318695.7312755384</v>
+        <v>336133.621684475</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>378837.7697758442</v>
+        <v>455743.7244445782</v>
       </c>
       <c r="C443" t="n">
-        <v>143350.041013762</v>
+        <v>185978.0971769476</v>
       </c>
       <c r="D443" t="n">
-        <v>125894.7071474698</v>
+        <v>158535.7992138868</v>
       </c>
       <c r="E443" t="n">
-        <v>151229.0312160171</v>
+        <v>180103.5670146878</v>
       </c>
       <c r="F443" t="n">
-        <v>127992.0388021378</v>
+        <v>174763.2719544931</v>
       </c>
       <c r="G443" t="n">
-        <v>96215.68607518989</v>
+        <v>96197.3273754744</v>
       </c>
       <c r="H443" t="n">
-        <v>330073.4747861415</v>
+        <v>348133.9146206535</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>372411.1434469884</v>
+        <v>448260.4412055826</v>
       </c>
       <c r="C444" t="n">
-        <v>142312.6865958921</v>
+        <v>184632.2642816852</v>
       </c>
       <c r="D444" t="n">
-        <v>125394.8195802669</v>
+        <v>157906.3043226459</v>
       </c>
       <c r="E444" t="n">
-        <v>150940.9241573267</v>
+        <v>179760.4509573077</v>
       </c>
       <c r="F444" t="n">
-        <v>127902.9725499462</v>
+        <v>174641.6588463701</v>
       </c>
       <c r="G444" t="n">
-        <v>96197.66381336152</v>
+        <v>96179.30855243347</v>
       </c>
       <c r="H444" t="n">
-        <v>341512.1239127577</v>
+        <v>360198.4457102878</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>365953.3965595368</v>
+        <v>440728.0833733727</v>
       </c>
       <c r="C445" t="n">
-        <v>141223.0558638132</v>
+        <v>183218.6096447946</v>
       </c>
       <c r="D445" t="n">
-        <v>124857.8914175882</v>
+        <v>157230.1652114837</v>
       </c>
       <c r="E445" t="n">
-        <v>150624.6458636227</v>
+        <v>179383.7848608091</v>
       </c>
       <c r="F445" t="n">
-        <v>127802.7412837085</v>
+        <v>174504.8007714166</v>
       </c>
       <c r="G445" t="n">
-        <v>96176.82720274069</v>
+        <v>96158.47591759969</v>
       </c>
       <c r="H445" t="n">
-        <v>353013.3743178696</v>
+        <v>372329.0033964458</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>359467.158110384</v>
+        <v>433149.8210314874</v>
       </c>
       <c r="C446" t="n">
-        <v>140080.1630318518</v>
+        <v>181735.8543371422</v>
       </c>
       <c r="D446" t="n">
-        <v>124282.1852495981</v>
+        <v>156505.194007192</v>
       </c>
       <c r="E446" t="n">
-        <v>150278.120334221</v>
+        <v>178971.0963485237</v>
       </c>
       <c r="F446" t="n">
-        <v>127690.1864929138</v>
+        <v>174351.1158727498</v>
       </c>
       <c r="G446" t="n">
-        <v>96152.79192924136</v>
+        <v>96134.44523021708</v>
       </c>
       <c r="H446" t="n">
-        <v>364578.9522018338</v>
+        <v>384527.4083309933</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>352955.1854139165</v>
+        <v>425528.9970826103</v>
       </c>
       <c r="C447" t="n">
-        <v>138883.1336434678</v>
+        <v>180182.8638647141</v>
       </c>
       <c r="D447" t="n">
-        <v>123665.9792189088</v>
+        <v>155729.2224213387</v>
       </c>
       <c r="E447" t="n">
-        <v>149899.1973421461</v>
+        <v>178519.8246452811</v>
       </c>
       <c r="F447" t="n">
-        <v>127564.0632659835</v>
+        <v>174178.904319484</v>
       </c>
       <c r="G447" t="n">
-        <v>96125.13047651725</v>
+        <v>96106.78905551287</v>
       </c>
       <c r="H447" t="n">
-        <v>376210.6050532175</v>
+        <v>396795.5036188208</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>346420.3616262663</v>
+        <v>417869.1243174421</v>
       </c>
       <c r="C448" t="n">
-        <v>137631.2140907412</v>
+        <v>178558.660518917</v>
       </c>
       <c r="D448" t="n">
-        <v>123007.577604009</v>
+        <v>154900.115077695</v>
       </c>
       <c r="E448" t="n">
-        <v>149485.6587267207</v>
+        <v>178027.3280714584</v>
       </c>
       <c r="F448" t="n">
-        <v>127423.0382771997</v>
+        <v>173986.345558034</v>
       </c>
       <c r="G448" t="n">
-        <v>96093.36871829655</v>
+        <v>96075.03335768216</v>
       </c>
       <c r="H448" t="n">
-        <v>387910.0915877973</v>
+        <v>409135.1442063411</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>339865.6926697338</v>
+        <v>410173.8816982348</v>
       </c>
       <c r="C449" t="n">
-        <v>136323.7808744498</v>
+        <v>176862.4353903279</v>
       </c>
       <c r="D449" t="n">
-        <v>122305.3219677471</v>
+        <v>154015.7835512168</v>
       </c>
       <c r="E449" t="n">
-        <v>149035.2258443731</v>
+        <v>177490.892916388</v>
       </c>
       <c r="F449" t="n">
-        <v>127265.6883395757</v>
+        <v>173771.4963361732</v>
       </c>
       <c r="G449" t="n">
-        <v>96056.98245739566</v>
+        <v>96038.65403956229</v>
       </c>
       <c r="H449" t="n">
-        <v>399679.1708575079</v>
+        <v>421548.1853945183</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>333294.3035502716</v>
+        <v>402447.109847348</v>
       </c>
       <c r="C450" t="n">
-        <v>134960.3495215538</v>
+        <v>175093.5599379754</v>
       </c>
       <c r="D450" t="n">
-        <v>121557.6028087408</v>
+        <v>153074.2010403513</v>
       </c>
       <c r="E450" t="n">
-        <v>148545.5682090647</v>
+        <v>176907.7437285244</v>
       </c>
       <c r="F450" t="n">
-        <v>127090.4996084092</v>
+        <v>173532.2896155464</v>
       </c>
       <c r="G450" t="n">
-        <v>96015.39394632247</v>
+        <v>95997.07346389978</v>
       </c>
       <c r="H450" t="n">
-        <v>411519.5905142796</v>
+        <v>434036.4704605447</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>326709.4340646259</v>
+        <v>394692.8057360053</v>
       </c>
       <c r="C451" t="n">
-        <v>133540.5830759315</v>
+        <v>173251.5970049674</v>
       </c>
       <c r="D451" t="n">
-        <v>120762.8716436991</v>
+        <v>152073.4175819769</v>
       </c>
       <c r="E451" t="n">
-        <v>148014.3133418712</v>
+        <v>176275.0550456299</v>
       </c>
       <c r="F451" t="n">
-        <v>126895.8675214433</v>
+        <v>173266.5344899633</v>
       </c>
       <c r="G451" t="n">
-        <v>95967.96842985961</v>
+        <v>95949.65699659358</v>
       </c>
       <c r="H451" t="n">
-        <v>423433.0742181201</v>
+        <v>446601.8173769383</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>320114.4338976339</v>
+        <v>386915.1165734691</v>
       </c>
       <c r="C452" t="n">
-        <v>132064.3000780877</v>
+        <v>171336.3111711301</v>
       </c>
       <c r="D452" t="n">
-        <v>119919.6534389826</v>
+        <v>151011.5757061318</v>
       </c>
       <c r="E452" t="n">
-        <v>147439.057836007</v>
+        <v>175589.9645724722</v>
       </c>
       <c r="F452" t="n">
-        <v>126680.0975615113</v>
+        <v>172971.9172267325</v>
       </c>
       <c r="G452" t="n">
-        <v>95914.01075561038</v>
+        <v>95895.70961788742</v>
       </c>
       <c r="H452" t="n">
-        <v>435421.3081838876</v>
+        <v>459246.0046222023</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_SFH.xlsx
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73248.04655493874</v>
+        <v>73248.04655493877</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73338.25942929013</v>
+        <v>73338.25942929015</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73429.76808684101</v>
+        <v>73429.76808684098</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73522.59100736833</v>
+        <v>73522.59100736832</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73616.74693053936</v>
+        <v>73616.74693053938</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>73712.25485946878</v>
+        <v>73712.25485946877</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73907.40408596869</v>
+        <v>73907.40408596868</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74007.08473967461</v>
+        <v>74007.08473967464</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74108.19611885359</v>
+        <v>74108.19611885358</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74210.75859885852</v>
+        <v>74210.75859885851</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>74314.79284082547</v>
+        <v>74314.79284082544</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74420.31979556658</v>
+        <v>74420.3197955666</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74635.93711870999</v>
+        <v>74635.93711871003</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74746.07087285978</v>
+        <v>74746.07087285974</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74971.09931775859</v>
+        <v>74971.09931775855</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75086.03924134467</v>
+        <v>75086.03924134465</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75202.62698201802</v>
+        <v>75202.626982018</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75320.88595429386</v>
+        <v>75320.88595429383</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75562.51289135251</v>
+        <v>75562.51289135253</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75685.929338127</v>
+        <v>75685.92933812701</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>75811.11398950122</v>
+        <v>75811.11398950125</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76197.52986974754</v>
+        <v>76197.52986974755</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>76464.45096322824</v>
+        <v>76464.45096322826</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76600.78423357454</v>
+        <v>76600.78423357449</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76739.06888133126</v>
+        <v>76739.06888133117</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76879.33255011967</v>
+        <v>76879.33255011965</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77021.60326753634</v>
+        <v>77021.60326753635</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77165.90945029646</v>
+        <v>77165.90945029653</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77312.27990944171</v>
+        <v>77312.27990944174</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77918.99482928892</v>
+        <v>77918.99482928893</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78076.13301026235</v>
+        <v>78076.13301026238</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78235.51691470361</v>
+        <v>78235.51691470364</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>78397.17826535169</v>
+        <v>78397.17826535167</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>78561.14922335526</v>
+        <v>78561.1492233553</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>78727.4623940977</v>
+        <v>78727.46239409775</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78896.15083309465</v>
+        <v>78896.15083309461</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79067.24805196481</v>
+        <v>79067.24805196482</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79240.7880244761</v>
+        <v>79240.78802447607</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79416.80519266523</v>
+        <v>79416.80519266527</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79595.33447303536</v>
+        <v>79595.33447303543</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79960.07144638199</v>
+        <v>79960.07144638206</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80146.35140154978</v>
+        <v>80146.35140154982</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80526.91864491356</v>
+        <v>80526.91864491357</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80721.2812154336</v>
+        <v>80721.28121543364</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80918.4141356464</v>
+        <v>80918.41413564634</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81118.3563503077</v>
+        <v>81118.35635030775</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>81526.82711809629</v>
+        <v>81526.82711809623</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81735.43625794922</v>
+        <v>81735.4362579493</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81947.01587998515</v>
+        <v>81947.01587998512</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82161.60766902384</v>
+        <v>82161.60766902393</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>82379.25387963501</v>
+        <v>82379.253879635</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82599.99734359393</v>
+        <v>82599.99734359395</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>82823.88147743056</v>
+        <v>82823.88147743061</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83050.95029007285</v>
+        <v>83050.95029007283</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>83281.24839058401</v>
+        <v>83281.24839058399</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83751.71393924631</v>
+        <v>83751.71393924637</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83991.97367719941</v>
+        <v>83991.97367719939</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84235.64729878695</v>
+        <v>84235.64729878699</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84482.78253323618</v>
+        <v>84482.78253323623</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84733.42775840679</v>
+        <v>84733.42775840675</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84987.63200923093</v>
+        <v>84987.63200923101</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>85245.4449862607</v>
+        <v>85245.44498626066</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>85506.91706432076</v>
+        <v>85506.91706432069</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>85772.09930127249</v>
+        <v>85772.09930127246</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86041.04344688762</v>
+        <v>86041.0434468876</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86590.42797677577</v>
+        <v>86590.42797677573</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>86870.9754015902</v>
+        <v>86870.97540159017</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87155.49883469965</v>
+        <v>87155.49883469964</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87444.05362252594</v>
+        <v>87444.05362252601</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87736.69585906347</v>
+        <v>87736.69585906336</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88033.48239557659</v>
+        <v>88033.48239557656</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88334.47085042266</v>
+        <v>88334.47085042277</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88639.71961900177</v>
+        <v>88639.71961900168</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>88949.28788383468</v>
+        <v>88949.28788383475</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>89263.23562477532</v>
+        <v>89263.23562477539</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>89581.62362935384</v>
+        <v>89581.62362935393</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>89904.51350325803</v>
+        <v>89904.51350325796</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>90231.96768095203</v>
+        <v>90231.96768095202</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>90564.04943643701</v>
+        <v>90564.04943643698</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90900.82289415439</v>
+        <v>90900.82289415451</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91242.35304003663</v>
+        <v>91242.35304003661</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91588.70573270496</v>
+        <v>91588.70573270493</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91939.94771482133</v>
+        <v>91939.94771482135</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92296.14662459295</v>
+        <v>92296.14662459293</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>92657.37100743609</v>
+        <v>92657.37100743601</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93023.69032779943</v>
+        <v>93023.69032779947</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93395.17498115271</v>
+        <v>93395.17498115274</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>94541.33911562614</v>
+        <v>94541.33911562616</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>94934.20810510896</v>
+        <v>94934.20810510895</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95332.60880174332</v>
+        <v>95332.60880174331</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>95736.61744850007</v>
+        <v>95736.61744850005</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96146.31130817943</v>
+        <v>96146.3113081794</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>96561.76867684266</v>
+        <v>96561.76867684258</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>96983.06889744378</v>
+        <v>96983.06889744371</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97410.29237366415</v>
+        <v>97410.29237366417</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>97843.5205839563</v>
+        <v>97843.52058395636</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98728.32258017933</v>
+        <v>98728.32258017927</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>99180.06482627954</v>
+        <v>99180.06482627953</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>101535.660279373</v>
+        <v>101535.6602793731</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102026.7821993151</v>
+        <v>102026.7821993152</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>104587.524886055</v>
+        <v>104587.5248860551</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>105121.3779721328</v>
+        <v>105121.3779721327</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105662.6979692484</v>
+        <v>105662.6979692483</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>106768.1485772605</v>
+        <v>106768.1485772606</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>109073.2392162624</v>
+        <v>109073.2392162623</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>109669.7652479981</v>
+        <v>109669.765247998</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>110887.9011348878</v>
+        <v>110887.9011348877</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115427.017631866</v>
+        <v>115427.0176318659</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>116112.0805799465</v>
+        <v>116112.0805799464</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>116806.6752047317</v>
+        <v>116806.6752047316</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>117510.9315591607</v>
+        <v>117510.9315591608</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>121181.8173157434</v>
+        <v>121181.8173157435</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>124306.3790567347</v>
+        <v>124306.3790567348</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>129328.3173402989</v>
+        <v>129328.317340299</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>131096.6356870342</v>
+        <v>131096.6356870343</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>132914.3028199155</v>
+        <v>132914.3028199154</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>137683.4226930217</v>
+        <v>137683.4226930216</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>138677.2396358158</v>
+        <v>138677.2396358156</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>140706.3490707125</v>
+        <v>140706.3490707126</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>141742.0245901861</v>
+        <v>141742.0245901862</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>142792.0407589049</v>
+        <v>142792.040758905</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>149404.6339388889</v>
+        <v>149404.6339388888</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>154126.1924214693</v>
+        <v>154126.1924214694</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>155347.7623918359</v>
+        <v>155347.7623918358</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>156586.2695670444</v>
+        <v>156586.2695670443</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>159115.055461894</v>
+        <v>159115.0554618941</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160405.8238274239</v>
+        <v>160405.8238274238</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>163041.3654597757</v>
+        <v>163041.3654597756</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>165750.6339906478</v>
+        <v>165750.6339906477</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>167133.5770639571</v>
+        <v>167133.5770639572</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>168535.7541822258</v>
+        <v>168535.7541822257</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>171398.9226307292</v>
+        <v>171398.9226307293</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>172860.4818603087</v>
+        <v>172860.4818603086</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177368.5704145291</v>
+        <v>177368.570414529</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>178913.408633432</v>
+        <v>178913.4086334319</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>180479.8336963408</v>
+        <v>180479.8336963409</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>186967.843350064</v>
+        <v>186967.8433500639</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192076.6655183301</v>
+        <v>192076.66551833</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>195603.4377759273</v>
+        <v>195603.4377759272</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199230.368688787</v>
+        <v>199230.3686887869</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>201082.3518850651</v>
+        <v>201082.351885065</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>202960.5393738349</v>
+        <v>202960.539373835</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>204865.3350469521</v>
+        <v>204865.3350469519</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>212758.9572069494</v>
+        <v>212758.9572069493</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>214803.1348974722</v>
+        <v>214803.1348974723</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>216876.5167336396</v>
+        <v>216876.5167336395</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>218979.5661795321</v>
+        <v>218979.5661795322</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221112.7561176574</v>
+        <v>221112.7561176572</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>225471.4975711637</v>
+        <v>225471.4975711635</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>227698.0441835461</v>
+        <v>227698.0441835459</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>234572.5773922137</v>
+        <v>234572.5773922138</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>236930.8357694382</v>
+        <v>236930.8357694383</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>241750.8022096323</v>
+        <v>241750.8022096322</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>244213.6613678721</v>
+        <v>244213.6613678723</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>249248.1024165149</v>
+        <v>249248.102416515</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>251820.9112336526</v>
+        <v>251820.9112336525</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>259769.3349715243</v>
+        <v>259769.3349715242</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>268076.8000213408</v>
+        <v>268076.8000213407</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>270929.0018110967</v>
+        <v>270929.0018110969</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>273823.942916549</v>
+        <v>273823.9429165489</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>276762.3771836566</v>
+        <v>276762.3771836565</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>282772.8246550528</v>
+        <v>282772.8246550529</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>292134.5242426364</v>
+        <v>292134.5242426362</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>295350.7133207919</v>
+        <v>295350.713320792</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>298616.163523938</v>
+        <v>298616.1635239379</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>301931.773909017</v>
+        <v>301931.7739090172</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>305298.4635575862</v>
+        <v>305298.4635575863</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>308717.1720034364</v>
+        <v>308717.1720034365</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>315714.5082629443</v>
+        <v>315714.5082629442</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>319295.1212793913</v>
+        <v>319295.1212793911</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>322931.7243629627</v>
+        <v>322931.7243629626</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>326625.3657740459</v>
+        <v>326625.365774046</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>330377.1168124262</v>
+        <v>330377.1168124264</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>338059.3507332779</v>
+        <v>338059.3507332778</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>341992.0952497817</v>
+        <v>341992.0952497818</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>345987.4734989019</v>
+        <v>345987.4734989018</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350046.6783245666</v>
+        <v>350046.6783245667</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>358361.4671897893</v>
+        <v>358361.4671897894</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>362619.5661992554</v>
+        <v>362619.5661992552</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>366946.5224834676</v>
+        <v>366946.5224834675</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>371343.6604408153</v>
+        <v>371343.6604408151</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>375812.3318738576</v>
+        <v>375812.3318738575</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>384969.8213720414</v>
+        <v>384969.8213720412</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>389661.4829624455</v>
+        <v>389661.4829624452</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>394430.3656502883</v>
+        <v>394430.3656502879</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>399277.9628682778</v>
+        <v>399277.9628682777</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>404205.7971523528</v>
+        <v>404205.7971523529</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>419486.388349176</v>
+        <v>419486.3883491759</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>424750.9847774141</v>
+        <v>424750.9847774136</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>430103.8735254318</v>
+        <v>430103.873525432</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>435546.7549144839</v>
+        <v>435546.7549144833</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>441081.3591052031</v>
+        <v>441081.359105203</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>446709.4460515669</v>
+        <v>446709.4460515672</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>464172.6476068405</v>
+        <v>464172.6476068402</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>470192.8567569195</v>
+        <v>470192.8567569191</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>476315.7903962428</v>
+        <v>476315.790396243</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>486662.3058521277</v>
+        <v>486662.3058521177</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>490854.705623184</v>
+        <v>490854.7056231646</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495121.994506433</v>
+        <v>495121.9945064042</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499465.602572725</v>
+        <v>499465.6025726871</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>503886.977786318</v>
+        <v>503886.9777862717</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508387.5854245374</v>
+        <v>508387.5854244833</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512968.9074416516</v>
+        <v>512968.9074415896</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517632.4417749274</v>
+        <v>517632.4417748582</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>522379.7015908585</v>
+        <v>522379.701590783</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>527212.2144695966</v>
+        <v>527212.2144695142</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>532131.5215256566</v>
+        <v>532131.5215255684</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>537139.1764630314</v>
+        <v>537139.1764629374</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>542236.7445629059</v>
+        <v>542236.7445628073</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>547425.801602256</v>
+        <v>547425.8016021528</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>552707.9327016899</v>
+        <v>552707.9327015823</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>558084.7311010066</v>
+        <v>558084.7311008958</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>563557.7968610579</v>
+        <v>563557.7968609438</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>569128.7354906151</v>
+        <v>569128.7354904988</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>574799.1564971184</v>
+        <v>574799.1564969999</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>580570.6718602997</v>
+        <v>580570.6718601794</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>586444.8944278829</v>
+        <v>586444.8944277614</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>592423.4362327168</v>
+        <v>592423.4362325955</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>598507.9067309257</v>
+        <v>598507.906730804</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>604699.9109608541</v>
+        <v>604699.9109607337</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>611001.0476228328</v>
+        <v>611001.0476227134</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>617412.9070800239</v>
+        <v>617412.9070799063</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>623937.0692808781</v>
+        <v>623937.0692807626</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>630575.1016039945</v>
+        <v>630575.1016038823</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>637328.5566264887</v>
+        <v>637328.5566263796</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>644198.9698172469</v>
+        <v>644198.9698171419</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>651187.8571567928</v>
+        <v>651187.857156693</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>658296.7126858013</v>
+        <v>658296.7126857066</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>665527.0059846418</v>
+        <v>665527.0059845528</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>672880.1795866917</v>
+        <v>672880.1795866094</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>680357.6463285178</v>
+        <v>680357.6463284424</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>687960.7866403908</v>
+        <v>687960.7866403231</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>695690.9457809831</v>
+        <v>695690.9457809243</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>703549.4310204874</v>
+        <v>703549.4310204375</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>711537.5087767668</v>
+        <v>711537.508776727</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>719656.401709552</v>
+        <v>719656.4017095227</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>727907.2857780879</v>
+        <v>727907.2857780696</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>736291.2872680207</v>
+        <v>736291.2872680139</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>744809.4797936984</v>
+        <v>744809.4797937046</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>753462.8812824461</v>
+        <v>753462.881282465</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>762252.4509477376</v>
+        <v>762252.45094777</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>771179.0862585554</v>
+        <v>771179.0862586022</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>780243.6199125723</v>
+        <v>780243.6199126334</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>789446.8168211119</v>
+        <v>789446.8168211892</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>798789.371114176</v>
+        <v>798789.3711142699</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>808271.9031740894</v>
+        <v>808271.9031742003</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>817894.9567066066</v>
+        <v>817894.9567067346</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>827658.9958585403</v>
+        <v>827658.9958586864</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>837564.4023911911</v>
+        <v>837564.4023913568</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>847611.4729190406</v>
+        <v>847611.4729192251</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>857800.4162232814</v>
+        <v>857800.4162234864</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>855194.6797232194</v>
+        <v>855194.6797235394</v>
       </c>
       <c r="C358" t="n">
-        <v>12517.42050166554</v>
+        <v>12517.42050157462</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>852559.3097507226</v>
+        <v>852559.309751161</v>
       </c>
       <c r="C359" t="n">
-        <v>25200.9281842307</v>
+        <v>25200.92818404546</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>849893.8323911073</v>
+        <v>849893.8323916686</v>
       </c>
       <c r="C360" t="n">
-        <v>38050.91392740487</v>
+        <v>38050.91392712194</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>847197.7632695065</v>
+        <v>847197.763270195</v>
       </c>
       <c r="C361" t="n">
-        <v>51067.6842603149</v>
+        <v>51067.68425993085</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>844470.6073399507</v>
+        <v>844470.6073407703</v>
       </c>
       <c r="C362" t="n">
-        <v>64251.45946968378</v>
+        <v>64251.45946919475</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>841711.8586677974</v>
+        <v>841711.8586687531</v>
       </c>
       <c r="C363" t="n">
-        <v>77602.37184325643</v>
+        <v>77602.37184265885</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>838921.0002056231</v>
+        <v>838921.0002067186</v>
       </c>
       <c r="C364" t="n">
-        <v>91120.46405747946</v>
+        <v>91120.46405676988</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>836097.5035627889</v>
+        <v>836097.5035640289</v>
       </c>
       <c r="C365" t="n">
-        <v>104805.687718107</v>
+        <v>104805.6877172813</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>833240.8287690439</v>
+        <v>833240.8287704323</v>
       </c>
       <c r="C366" t="n">
-        <v>118657.9020620501</v>
+        <v>118657.9020611049</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>830350.4240326026</v>
+        <v>830350.4240341433</v>
       </c>
       <c r="C367" t="n">
-        <v>132676.8728283704</v>
+        <v>132676.8728273023</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>827425.7254933302</v>
+        <v>827425.7254950281</v>
       </c>
       <c r="C368" t="n">
-        <v>146862.271305794</v>
+        <v>146862.2713045992</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>824466.1569717878</v>
+        <v>824466.1569736466</v>
       </c>
       <c r="C369" t="n">
-        <v>161213.6735636018</v>
+        <v>161213.6735622768</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>821471.129715094</v>
+        <v>821471.1297171179</v>
       </c>
       <c r="C370" t="n">
-        <v>175730.5598720994</v>
+        <v>175730.55987064</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>818440.0421407238</v>
+        <v>818440.0421429172</v>
       </c>
       <c r="C371" t="n">
-        <v>190412.3143182046</v>
+        <v>190412.3143166073</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>815372.2795795979</v>
+        <v>815372.2795819656</v>
       </c>
       <c r="C372" t="n">
-        <v>205258.2246209462</v>
+        <v>205258.2246192079</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>812267.2140200299</v>
+        <v>812267.2140225754</v>
       </c>
       <c r="C373" t="n">
-        <v>205257.0448907193</v>
+        <v>205257.0448889796</v>
       </c>
       <c r="D373" t="n">
-        <v>15772.82400814409</v>
+        <v>15772.82400799297</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>809124.2038543338</v>
+        <v>809124.2038570599</v>
       </c>
       <c r="C374" t="n">
-        <v>205255.6797832244</v>
+        <v>205255.679781483</v>
       </c>
       <c r="D374" t="n">
-        <v>31716.53580968639</v>
+        <v>31716.5358093811</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>805942.5936301737</v>
+        <v>805942.5936330864</v>
       </c>
       <c r="C375" t="n">
-        <v>205254.1022110403</v>
+        <v>205254.1022092969</v>
       </c>
       <c r="D375" t="n">
-        <v>47830.1126169832</v>
+        <v>47830.11261652035</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>802721.7138090092</v>
+        <v>802721.7138121109</v>
       </c>
       <c r="C376" t="n">
-        <v>205252.2814654753</v>
+        <v>205252.2814637298</v>
       </c>
       <c r="D376" t="n">
-        <v>64112.43557988098</v>
+        <v>64112.43557925666</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>799460.880534265</v>
+        <v>799460.8805375607</v>
       </c>
       <c r="C377" t="n">
-        <v>205250.1827851894</v>
+        <v>205250.1827834414</v>
       </c>
       <c r="D377" t="n">
-        <v>80562.29113910877</v>
+        <v>80562.29113832008</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>796159.3954122094</v>
+        <v>796159.3954157023</v>
       </c>
       <c r="C378" t="n">
-        <v>205247.7668812593</v>
+        <v>205247.7668795085</v>
       </c>
       <c r="D378" t="n">
-        <v>97178.37264582107</v>
+        <v>97178.37264486428</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>792816.5453088111</v>
+        <v>792816.5453125037</v>
       </c>
       <c r="C379" t="n">
-        <v>205244.9894153951</v>
+        <v>205244.989413641</v>
       </c>
       <c r="D379" t="n">
-        <v>113959.2822486585</v>
+        <v>113959.2822475312</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>789431.602166207</v>
+        <v>789431.6021701042</v>
       </c>
       <c r="C380" t="n">
-        <v>205241.8004279213</v>
+        <v>205241.8004261638</v>
       </c>
       <c r="D380" t="n">
-        <v>130903.5330485865</v>
+        <v>130903.5330472857</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>786003.8228427855</v>
+        <v>786003.8228468893</v>
       </c>
       <c r="C381" t="n">
-        <v>205238.1437120613</v>
+        <v>205238.1437102996</v>
       </c>
       <c r="D381" t="n">
-        <v>148009.5515206173</v>
+        <v>148009.5515191399</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>782532.4489812193</v>
+        <v>782532.4489855338</v>
       </c>
       <c r="C382" t="n">
-        <v>205233.9561310112</v>
+        <v>205233.956129245</v>
       </c>
       <c r="D382" t="n">
-        <v>165275.6802003017</v>
+        <v>165275.6801986452</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>779016.7069092117</v>
+        <v>779016.7069137394</v>
       </c>
       <c r="C383" t="n">
-        <v>205229.1668742751</v>
+        <v>205229.1668725036</v>
       </c>
       <c r="D383" t="n">
-        <v>165275.3706519465</v>
+        <v>165275.3706502895</v>
       </c>
       <c r="E383" t="n">
-        <v>17616.7086923559</v>
+        <v>17616.7086921729</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>775455.8075780594</v>
+        <v>775455.8075828035</v>
       </c>
       <c r="C384" t="n">
-        <v>205223.6966497391</v>
+        <v>205223.6966479619</v>
       </c>
       <c r="D384" t="n">
-        <v>165275.0016101954</v>
+        <v>165275.0016085376</v>
       </c>
       <c r="E384" t="n">
-        <v>35391.75718135403</v>
+        <v>35391.75718098614</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>771848.9465445672</v>
+        <v>771848.9465495303</v>
       </c>
       <c r="C385" t="n">
-        <v>205217.4568080241</v>
+        <v>205217.4568062403</v>
       </c>
       <c r="D385" t="n">
-        <v>165274.5623765503</v>
+        <v>165274.5623748917</v>
       </c>
       <c r="E385" t="n">
-        <v>53323.24488793446</v>
+        <v>53323.24488737928</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>768195.3040022178</v>
+        <v>768195.3040074026</v>
       </c>
       <c r="C386" t="n">
-        <v>205210.3483957477</v>
+        <v>205210.3483939566</v>
       </c>
       <c r="D386" t="n">
-        <v>165274.0404753168</v>
+        <v>165274.0404736573</v>
       </c>
       <c r="E386" t="n">
-        <v>71409.20161891608</v>
+        <v>71409.20161817221</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>764494.0448679131</v>
+        <v>764494.0448733212</v>
       </c>
       <c r="C387" t="n">
-        <v>205202.2611344803</v>
+        <v>205202.2611326811</v>
       </c>
       <c r="D387" t="n">
-        <v>165273.4213861571</v>
+        <v>165273.4213844964</v>
       </c>
       <c r="E387" t="n">
-        <v>89647.59181373206</v>
+        <v>89647.59181279813</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>760744.3189309775</v>
+        <v>760744.3189366115</v>
       </c>
       <c r="C388" t="n">
-        <v>205193.072322382</v>
+        <v>205193.0723205736</v>
       </c>
       <c r="D388" t="n">
-        <v>165272.6882413734</v>
+        <v>165272.6882397114</v>
       </c>
       <c r="E388" t="n">
-        <v>108036.3190533978</v>
+        <v>108036.3190522723</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>756945.2610715042</v>
+        <v>756945.2610773658</v>
       </c>
       <c r="C389" t="n">
-        <v>205182.6456557754</v>
+        <v>205182.6456539569</v>
       </c>
       <c r="D389" t="n">
-        <v>165271.8214841158</v>
+        <v>165271.8214824523</v>
       </c>
       <c r="E389" t="n">
-        <v>126573.2308236126</v>
+        <v>126573.2308222951</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>753095.9915554904</v>
+        <v>753095.9915615814</v>
       </c>
       <c r="C390" t="n">
-        <v>205170.8299682451</v>
+        <v>205170.8299664152</v>
       </c>
       <c r="D390" t="n">
-        <v>165270.7984834328</v>
+        <v>165270.7984817674</v>
       </c>
       <c r="E390" t="n">
-        <v>145256.1235226349</v>
+        <v>145256.1235211245</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>749195.6164145505</v>
+        <v>749195.6164208722</v>
       </c>
       <c r="C391" t="n">
-        <v>205157.4578852618</v>
+        <v>205157.4578834191</v>
       </c>
       <c r="D391" t="n">
-        <v>165269.5931018114</v>
+        <v>165269.5931001441</v>
       </c>
       <c r="E391" t="n">
-        <v>164082.7477032693</v>
+        <v>164082.7477015668</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>745243.2279183201</v>
+        <v>745243.2279248742</v>
       </c>
       <c r="C392" t="n">
-        <v>205142.3443928185</v>
+        <v>205142.3443909617</v>
       </c>
       <c r="D392" t="n">
-        <v>165268.1752105923</v>
+        <v>165268.1752089225</v>
       </c>
       <c r="E392" t="n">
-        <v>183050.8135369975</v>
+        <v>183050.8135351024</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>741237.9051479703</v>
+        <v>741237.9051547571</v>
       </c>
       <c r="C393" t="n">
-        <v>205125.2853191392</v>
+        <v>205125.2853172669</v>
       </c>
       <c r="D393" t="n">
-        <v>165266.5101483865</v>
+        <v>165266.510146714</v>
       </c>
       <c r="E393" t="n">
-        <v>183050.5875769573</v>
+        <v>183050.5875750617</v>
       </c>
       <c r="F393" t="n">
-        <v>17037.71284776708</v>
+        <v>17037.71284759679</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>737178.7146794884</v>
+        <v>737178.7146865086</v>
       </c>
       <c r="C394" t="n">
-        <v>205106.0557291825</v>
+        <v>205106.0557272928</v>
       </c>
       <c r="D394" t="n">
-        <v>165264.5581173959</v>
+        <v>165264.5581157202</v>
       </c>
       <c r="E394" t="n">
-        <v>183050.3139025298</v>
+        <v>183050.3139006337</v>
       </c>
       <c r="F394" t="n">
-        <v>34197.41786362452</v>
+        <v>34197.41786328467</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>733064.7113856192</v>
+        <v>733064.7113928732</v>
       </c>
       <c r="C395" t="n">
-        <v>205084.4082324187</v>
+        <v>205084.4082305099</v>
       </c>
       <c r="D395" t="n">
-        <v>165262.2735123236</v>
+        <v>165262.2735106442</v>
       </c>
       <c r="E395" t="n">
-        <v>183049.9830677733</v>
+        <v>183049.9830658765</v>
       </c>
       <c r="F395" t="n">
-        <v>51477.00468079239</v>
+        <v>51477.00468028451</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>728894.9393655111</v>
+        <v>728894.9393729995</v>
       </c>
       <c r="C396" t="n">
-        <v>205060.0712052158</v>
+        <v>205060.0712032859</v>
       </c>
       <c r="D396" t="n">
-        <v>165259.60417639</v>
+        <v>165259.6041747064</v>
       </c>
       <c r="E396" t="n">
-        <v>183049.5838940146</v>
+        <v>183049.5838921171</v>
       </c>
       <c r="F396" t="n">
-        <v>68874.34968393069</v>
+        <v>68874.34968325686</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>724668.4330112368</v>
+        <v>724668.4330189584</v>
       </c>
       <c r="C397" t="n">
-        <v>205032.7469301235</v>
+        <v>205032.7469281702</v>
       </c>
       <c r="D397" t="n">
-        <v>165256.4905788369</v>
+        <v>165256.4905771486</v>
       </c>
       <c r="E397" t="n">
-        <v>183049.1031804427</v>
+        <v>183049.1031785443</v>
       </c>
       <c r="F397" t="n">
-        <v>86387.32192671692</v>
+        <v>86387.32192587954</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>720384.2182203962</v>
+        <v>720384.2182283512</v>
       </c>
       <c r="C398" t="n">
-        <v>205002.1096554004</v>
+        <v>205002.1096534215</v>
       </c>
       <c r="D398" t="n">
-        <v>165252.8649082179</v>
+        <v>165252.8649065241</v>
       </c>
       <c r="E398" t="n">
-        <v>183048.525371942</v>
+        <v>183048.5253700425</v>
       </c>
       <c r="F398" t="n">
-        <v>104013.7891954044</v>
+        <v>104013.7891944067</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>716041.3137639982</v>
+        <v>716041.3137721857</v>
       </c>
       <c r="C399" t="n">
-        <v>204967.8035792967</v>
+        <v>204967.8035772896</v>
       </c>
       <c r="D399" t="n">
-        <v>165248.6500757547</v>
+        <v>165248.6500740546</v>
       </c>
       <c r="E399" t="n">
-        <v>183047.8321788839</v>
+        <v>183047.8321769831</v>
       </c>
       <c r="F399" t="n">
-        <v>121751.6242034264</v>
+        <v>121751.6242022717</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>711638.7328187182</v>
+        <v>711638.7328271366</v>
       </c>
       <c r="C400" t="n">
-        <v>204929.4407648623</v>
+        <v>204929.4407628243</v>
       </c>
       <c r="D400" t="n">
-        <v>165243.7586230881</v>
+        <v>165243.7586213809</v>
       </c>
       <c r="E400" t="n">
-        <v>183047.0021431212</v>
+        <v>183047.0021412191</v>
       </c>
       <c r="F400" t="n">
-        <v>139598.7109010937</v>
+        <v>139598.7108997861</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>707175.4846724446</v>
+        <v>707175.4846810921</v>
       </c>
       <c r="C401" t="n">
-        <v>204886.5989924209</v>
+        <v>204886.5989903489</v>
       </c>
       <c r="D401" t="n">
-        <v>165238.0915288894</v>
+        <v>165238.0915271741</v>
       </c>
       <c r="E401" t="n">
-        <v>183046.0101439529</v>
+        <v>183046.0101420489</v>
       </c>
       <c r="F401" t="n">
-        <v>157552.9508834708</v>
+        <v>157552.9508820151</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>702650.5766117616</v>
+        <v>702650.5766206365</v>
       </c>
       <c r="C402" t="n">
-        <v>204838.8195583083</v>
+        <v>204838.8195561992</v>
       </c>
       <c r="D402" t="n">
-        <v>165231.5369090242</v>
+        <v>165231.5369072997</v>
       </c>
       <c r="E402" t="n">
-        <v>183044.8268373375</v>
+        <v>183044.8268354316</v>
       </c>
       <c r="F402" t="n">
-        <v>175612.2698784248</v>
+        <v>175612.2698768264</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>698063.0159996524</v>
+        <v>698063.0160087531</v>
       </c>
       <c r="C403" t="n">
-        <v>204785.6050300324</v>
+        <v>204785.6050278827</v>
       </c>
       <c r="D403" t="n">
-        <v>165223.9686053022</v>
+        <v>165223.9686035673</v>
       </c>
       <c r="E403" t="n">
-        <v>183043.4180211588</v>
+        <v>183043.4180192506</v>
       </c>
       <c r="F403" t="n">
-        <v>175612.1161306935</v>
+        <v>175612.1161290948</v>
       </c>
       <c r="G403" t="n">
-        <v>9406.084988786117</v>
+        <v>9406.084988715327</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>693411.812551224</v>
+        <v>693411.8125605473</v>
       </c>
       <c r="C404" t="n">
-        <v>204726.416969644</v>
+        <v>204726.4169674501</v>
       </c>
       <c r="D404" t="n">
-        <v>165215.2446582996</v>
+        <v>165215.2446565529</v>
       </c>
       <c r="E404" t="n">
-        <v>183041.7439188712</v>
+        <v>183041.7439169602</v>
       </c>
       <c r="F404" t="n">
-        <v>175611.9273881502</v>
+        <v>175611.9273865512</v>
       </c>
       <c r="G404" t="n">
-        <v>18864.50952770259</v>
+        <v>18864.50952756469</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>688695.9808146869</v>
+        <v>688695.9808242307</v>
       </c>
       <c r="C405" t="n">
-        <v>204660.6736388268</v>
+        <v>204660.673636585</v>
       </c>
       <c r="D405" t="n">
-        <v>165205.2056603367</v>
+        <v>165205.2056585768</v>
       </c>
       <c r="E405" t="n">
-        <v>183039.7583734121</v>
+        <v>183039.7583714979</v>
       </c>
       <c r="F405" t="n">
-        <v>175611.6961728988</v>
+        <v>175611.6961712994</v>
       </c>
       <c r="G405" t="n">
-        <v>28374.26117379879</v>
+        <v>28374.26117359747</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>683914.5428641294</v>
+        <v>683914.5428738899</v>
       </c>
       <c r="C406" t="n">
-        <v>204587.7477009842</v>
+        <v>204587.74769869</v>
       </c>
       <c r="D406" t="n">
-        <v>165193.6729854237</v>
+        <v>165193.6729836488</v>
       </c>
       <c r="E406" t="n">
-        <v>183037.4079428566</v>
+        <v>183037.4079409387</v>
       </c>
       <c r="F406" t="n">
-        <v>175611.4135232502</v>
+        <v>175611.4135216503</v>
       </c>
       <c r="G406" t="n">
-        <v>37934.35439987556</v>
+        <v>37934.35439961512</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>679066.5312098087</v>
+        <v>679066.5312197814</v>
       </c>
       <c r="C407" t="n">
-        <v>204506.9639374269</v>
+        <v>204506.9639350761</v>
       </c>
       <c r="D407" t="n">
-        <v>165180.4468938829</v>
+        <v>165180.4468920913</v>
       </c>
       <c r="E407" t="n">
-        <v>183034.6308889248</v>
+        <v>183034.6308870026</v>
       </c>
       <c r="F407" t="n">
-        <v>175611.068724705</v>
+        <v>175611.0687231046</v>
       </c>
       <c r="G407" t="n">
-        <v>47543.8341414875</v>
+        <v>47543.83414117288</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>674150.9919307521</v>
+        <v>674150.9919409339</v>
       </c>
       <c r="C408" t="n">
-        <v>204417.5969966246</v>
+        <v>204417.5969942124</v>
       </c>
       <c r="D408" t="n">
-        <v>165165.3045104173</v>
+        <v>165165.3045086068</v>
       </c>
       <c r="E408" t="n">
-        <v>183031.3560491581</v>
+        <v>183031.3560472309</v>
       </c>
       <c r="F408" t="n">
-        <v>175610.648997517</v>
+        <v>175610.6489959159</v>
       </c>
       <c r="G408" t="n">
-        <v>57201.77933948358</v>
+        <v>57201.77933911962</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>669166.9880334095</v>
+        <v>669166.9880437963</v>
       </c>
       <c r="C409" t="n">
-        <v>204318.8691973455</v>
+        <v>204318.8691948669</v>
       </c>
       <c r="D409" t="n">
-        <v>165147.997675629</v>
+        <v>165147.9976737974</v>
       </c>
       <c r="E409" t="n">
-        <v>183027.5015833635</v>
+        <v>183027.5015814305</v>
       </c>
       <c r="F409" t="n">
-        <v>175610.139134893</v>
+        <v>175610.1391332912</v>
       </c>
       <c r="G409" t="n">
-        <v>66907.30646737752</v>
+        <v>66907.30646696978</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>664113.6030389034</v>
+        <v>664113.6030494898</v>
       </c>
       <c r="C410" t="n">
-        <v>204209.9484083754</v>
+        <v>204209.9484058252</v>
       </c>
       <c r="D410" t="n">
-        <v>165128.2506724224</v>
+        <v>165128.2506705673</v>
       </c>
       <c r="E410" t="n">
-        <v>183022.9735848066</v>
+        <v>183022.973582867</v>
       </c>
       <c r="F410" t="n">
-        <v>175609.521085278</v>
+        <v>175609.5210836752</v>
       </c>
       <c r="G410" t="n">
-        <v>76659.57303233199</v>
+        <v>76659.5730318865</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>658989.9448001187</v>
+        <v>658989.9448109005</v>
       </c>
       <c r="C411" t="n">
-        <v>204089.9460293352</v>
+        <v>204089.9460267077</v>
       </c>
       <c r="D411" t="n">
-        <v>165105.7578303384</v>
+        <v>165105.757828457</v>
       </c>
       <c r="E411" t="n">
-        <v>183017.6645466445</v>
+        <v>183017.6645446973</v>
       </c>
       <c r="F411" t="n">
-        <v>175608.7734715298</v>
+        <v>175608.7734699259</v>
       </c>
       <c r="G411" t="n">
-        <v>86457.78103808414</v>
+        <v>86457.78103760726</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>653795.1495484473</v>
+        <v>653795.149559418</v>
       </c>
       <c r="C412" t="n">
-        <v>203957.915098881</v>
+        <v>203957.9150961706</v>
       </c>
       <c r="D412" t="n">
-        <v>165080.1810126837</v>
+        <v>165080.1810107731</v>
       </c>
       <c r="E412" t="n">
-        <v>183011.4516742302</v>
+        <v>183011.4516722743</v>
       </c>
       <c r="F412" t="n">
-        <v>175607.8710391376</v>
+        <v>175607.8710375324</v>
       </c>
       <c r="G412" t="n">
-        <v>96301.18039756162</v>
+        <v>96301.18039706053</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>648528.3861684209</v>
+        <v>648528.3861795751</v>
       </c>
       <c r="C413" t="n">
-        <v>203812.8485582636</v>
+        <v>203812.8485554639</v>
       </c>
       <c r="D413" t="n">
-        <v>165051.1469933329</v>
+        <v>165051.1469913897</v>
       </c>
       <c r="E413" t="n">
-        <v>183004.1950342414</v>
+        <v>183004.1950322754</v>
       </c>
       <c r="F413" t="n">
-        <v>175606.7840249629</v>
+        <v>175606.7840233562</v>
       </c>
       <c r="G413" t="n">
-        <v>96301.11587571779</v>
+        <v>96301.11587521662</v>
       </c>
       <c r="H413" t="n">
-        <v>10538.58768877724</v>
+        <v>10538.5876887597</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>643188.8606968162</v>
+        <v>643188.8607081486</v>
       </c>
       <c r="C414" t="n">
-        <v>203653.6776997825</v>
+        <v>203653.6776968873</v>
       </c>
       <c r="D414" t="n">
-        <v>165018.2447322882</v>
+        <v>165018.2447303091</v>
       </c>
       <c r="E414" t="n">
-        <v>182995.7355320828</v>
+        <v>182995.7355301055</v>
       </c>
       <c r="F414" t="n">
-        <v>175605.4774373154</v>
+        <v>175605.4774357069</v>
       </c>
       <c r="G414" t="n">
-        <v>96301.03580630462</v>
+        <v>96301.03580580336</v>
       </c>
       <c r="H414" t="n">
-        <v>21123.92540690743</v>
+        <v>21123.92540688069</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>637775.8210409976</v>
+        <v>637775.8210525006</v>
       </c>
       <c r="C415" t="n">
-        <v>203479.2708310982</v>
+        <v>203479.2708281007</v>
       </c>
       <c r="D415" t="n">
-        <v>164981.0225614885</v>
+        <v>164981.0225594696</v>
       </c>
       <c r="E415" t="n">
-        <v>182985.8927097359</v>
+        <v>182985.8927077456</v>
       </c>
       <c r="F415" t="n">
-        <v>175603.9102375164</v>
+        <v>175603.9102359057</v>
       </c>
       <c r="G415" t="n">
-        <v>96300.93666875199</v>
+        <v>96300.93666825061</v>
       </c>
       <c r="H415" t="n">
-        <v>31755.39172657845</v>
+        <v>31755.39172655137</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>632288.5619093759</v>
+        <v>632288.5619210434</v>
       </c>
       <c r="C416" t="n">
-        <v>203288.4321875948</v>
+        <v>203288.4321844881</v>
       </c>
       <c r="D416" t="n">
-        <v>164938.9852949395</v>
+        <v>164938.9852928766</v>
       </c>
       <c r="E416" t="n">
-        <v>182974.4623571808</v>
+        <v>182974.4623551757</v>
       </c>
       <c r="F416" t="n">
-        <v>175602.0344124688</v>
+        <v>175602.0344108555</v>
       </c>
       <c r="G416" t="n">
-        <v>96300.81420114716</v>
+        <v>96300.81420064565</v>
       </c>
       <c r="H416" t="n">
-        <v>42432.43080105325</v>
+        <v>42432.43080103554</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>626726.4299448646</v>
+        <v>626726.4299566888</v>
       </c>
       <c r="C417" t="n">
-        <v>203079.9011260156</v>
+        <v>203079.9011227924</v>
       </c>
       <c r="D417" t="n">
-        <v>164891.5912799962</v>
+        <v>164891.5912778849</v>
       </c>
       <c r="E417" t="n">
-        <v>182961.213931742</v>
+        <v>182961.2139297201</v>
       </c>
       <c r="F417" t="n">
-        <v>175599.7939271644</v>
+        <v>175599.7939255483</v>
       </c>
       <c r="G417" t="n">
-        <v>96300.66325725477</v>
+        <v>96300.66325675308</v>
       </c>
       <c r="H417" t="n">
-        <v>53154.55566736102</v>
+        <v>53154.55566736334</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>621088.8290501154</v>
+        <v>621088.8290620896</v>
       </c>
       <c r="C418" t="n">
-        <v>202852.3516333577</v>
+        <v>202852.3516300106</v>
       </c>
       <c r="D418" t="n">
-        <v>164838.24940953</v>
+        <v>164838.2494073655</v>
       </c>
       <c r="E418" t="n">
-        <v>182945.8877812146</v>
+        <v>182945.8877791737</v>
       </c>
       <c r="F418" t="n">
-        <v>175597.1235455325</v>
+        <v>175597.1235439128</v>
       </c>
       <c r="G418" t="n">
-        <v>96300.47763888263</v>
+        <v>96300.47763838072</v>
       </c>
       <c r="H418" t="n">
-        <v>63921.3514287014</v>
+        <v>63921.35142873446</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>615375.2258911708</v>
+        <v>615375.2259032865</v>
       </c>
       <c r="C419" t="n">
-        <v>202604.3921855017</v>
+        <v>202604.3921820229</v>
       </c>
       <c r="D419" t="n">
-        <v>164778.3161177513</v>
+        <v>164778.3161155285</v>
       </c>
       <c r="E419" t="n">
-        <v>182928.1921684493</v>
+        <v>182928.192166387</v>
       </c>
       <c r="F419" t="n">
-        <v>175593.9475075913</v>
+        <v>175593.9475059676</v>
       </c>
       <c r="G419" t="n">
-        <v>96300.24989995704</v>
+        <v>96300.2498994549</v>
       </c>
       <c r="H419" t="n">
-        <v>74732.47830195447</v>
+        <v>74732.47830202978</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>609585.1555639241</v>
+        <v>609585.1555761745</v>
       </c>
       <c r="C420" t="n">
-        <v>202334.5659902111</v>
+        <v>202334.5659865928</v>
       </c>
       <c r="D420" t="n">
-        <v>164711.0923855883</v>
+        <v>164711.0923833015</v>
       </c>
       <c r="E420" t="n">
-        <v>182907.8000972215</v>
+        <v>182907.800095135</v>
       </c>
       <c r="F420" t="n">
-        <v>175590.1780505399</v>
+        <v>175590.1780489115</v>
       </c>
       <c r="G420" t="n">
-        <v>96299.97111825553</v>
+        <v>96299.97111775308</v>
       </c>
       <c r="H420" t="n">
-        <v>85587.67451509704</v>
+        <v>85587.67451522696</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>603718.2274055296</v>
+        <v>603718.2274179059</v>
       </c>
       <c r="C421" t="n">
-        <v>202041.3516489502</v>
+        <v>202041.3516451842</v>
       </c>
       <c r="D421" t="n">
-        <v>164635.8207847252</v>
+        <v>164635.8207823686</v>
       </c>
       <c r="E421" t="n">
-        <v>182884.3459417049</v>
+        <v>182884.3459395912</v>
       </c>
       <c r="F421" t="n">
-        <v>175585.713761231</v>
+        <v>175585.7137595973</v>
       </c>
       <c r="G421" t="n">
-        <v>96299.6306303085</v>
+        <v>96299.63062980573</v>
       </c>
       <c r="H421" t="n">
-        <v>96486.75903870759</v>
+        <v>96486.75903890467</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>597774.1309305839</v>
+        <v>597774.1309430777</v>
       </c>
       <c r="C422" t="n">
-        <v>201723.1642713853</v>
+        <v>201723.1642674633</v>
       </c>
       <c r="D422" t="n">
-        <v>164551.6825926275</v>
+        <v>164551.6825901947</v>
       </c>
       <c r="E422" t="n">
-        <v>182857.4218847262</v>
+        <v>182857.4218825819</v>
       </c>
       <c r="F422" t="n">
-        <v>175580.4377474532</v>
+        <v>175580.4377458131</v>
       </c>
       <c r="G422" t="n">
-        <v>96299.21572452263</v>
+        <v>96299.21572401941</v>
       </c>
       <c r="H422" t="n">
-        <v>107429.6341350595</v>
+        <v>107429.634135337</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>591752.6418696081</v>
+        <v>591752.6418822106</v>
       </c>
       <c r="C423" t="n">
-        <v>201378.3570754422</v>
+        <v>201378.3570713557</v>
       </c>
       <c r="D423" t="n">
-        <v>164457.7950140916</v>
+        <v>164457.7950115759</v>
       </c>
       <c r="E423" t="n">
-        <v>182826.5741731979</v>
+        <v>182826.5741710195</v>
       </c>
       <c r="F423" t="n">
-        <v>175574.2156156247</v>
+        <v>175574.2156139775</v>
       </c>
       <c r="G423" t="n">
-        <v>96298.71128710451</v>
+        <v>96298.71128660075</v>
       </c>
       <c r="H423" t="n">
-        <v>118416.2877076168</v>
+        <v>118416.2877079888</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>585653.6282850425</v>
+        <v>585653.6282977447</v>
       </c>
       <c r="C424" t="n">
-        <v>201005.2235043488</v>
+        <v>201005.2235000892</v>
       </c>
       <c r="D424" t="n">
-        <v>164353.2085479943</v>
+        <v>164353.2085453887</v>
       </c>
       <c r="E424" t="n">
-        <v>182791.2992027214</v>
+        <v>182791.2992005048</v>
       </c>
       <c r="F424" t="n">
-        <v>175566.8932429313</v>
+        <v>175566.8932412757</v>
       </c>
       <c r="G424" t="n">
-        <v>96298.09939488191</v>
+        <v>96298.09939437755</v>
       </c>
       <c r="H424" t="n">
-        <v>129446.7954329592</v>
+        <v>129446.7954334404</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>579477.0567377178</v>
+        <v>579477.0567505104</v>
       </c>
       <c r="C425" t="n">
-        <v>200601.9998901869</v>
+        <v>200601.9998857457</v>
       </c>
       <c r="D425" t="n">
-        <v>164236.9045409366</v>
+        <v>164236.9045382335</v>
       </c>
       <c r="E425" t="n">
-        <v>182751.0394473086</v>
+        <v>182751.0394450495</v>
       </c>
       <c r="F425" t="n">
-        <v>175558.2943326232</v>
+        <v>175558.294330958</v>
       </c>
       <c r="G425" t="n">
-        <v>96297.35884863407</v>
+        <v>96297.35884812901</v>
       </c>
       <c r="H425" t="n">
-        <v>140521.3226564064</v>
+        <v>140521.322657012</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>573222.9984745368</v>
+        <v>573222.9984874111</v>
       </c>
       <c r="C426" t="n">
-        <v>200166.8686910753</v>
+        <v>200166.8686864438</v>
       </c>
       <c r="D426" t="n">
-        <v>164107.7929723057</v>
+        <v>164107.7929694972</v>
       </c>
       <c r="E426" t="n">
-        <v>182705.1792544856</v>
+        <v>182705.1792521791</v>
       </c>
       <c r="F426" t="n">
-        <v>175548.2177422023</v>
+        <v>175548.217740526</v>
       </c>
       <c r="G426" t="n">
-        <v>96296.46464006706</v>
+        <v>96296.46463956118</v>
       </c>
       <c r="H426" t="n">
-        <v>151640.126031733</v>
+        <v>151640.1260324787</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>566891.6356059825</v>
+        <v>566891.6356189287</v>
       </c>
       <c r="C427" t="n">
-        <v>199697.9623262117</v>
+        <v>199697.9623213809</v>
       </c>
       <c r="D427" t="n">
-        <v>163964.7105178691</v>
+        <v>163964.7105149469</v>
       </c>
       <c r="E427" t="n">
-        <v>182653.0405306865</v>
+        <v>182653.0405283276</v>
       </c>
       <c r="F427" t="n">
-        <v>175536.4345755735</v>
+        <v>175536.4345738847</v>
       </c>
       <c r="G427" t="n">
-        <v>96295.38734511391</v>
+        <v>96295.38734460699</v>
       </c>
       <c r="H427" t="n">
-        <v>162803.5548845166</v>
+        <v>162803.5548854193</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>560483.2672400287</v>
+        <v>560483.2672530375</v>
       </c>
       <c r="C428" t="n">
-        <v>199193.3676295867</v>
+        <v>199193.3676245482</v>
       </c>
       <c r="D428" t="n">
-        <v>163806.4189412834</v>
+        <v>163806.4189382388</v>
       </c>
       <c r="E428" t="n">
-        <v>182593.8783468</v>
+        <v>182593.8783443829</v>
       </c>
       <c r="F428" t="n">
-        <v>175522.6850319841</v>
+        <v>175522.6850302809</v>
       </c>
       <c r="G428" t="n">
-        <v>96294.09243581368</v>
+        <v>96294.09243530559</v>
       </c>
       <c r="H428" t="n">
-        <v>174012.0522777436</v>
+        <v>174012.05227882</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>553998.3155371449</v>
+        <v>553998.3155502063</v>
       </c>
       <c r="C429" t="n">
-        <v>198651.130939265</v>
+        <v>198651.1309340101</v>
       </c>
       <c r="D429" t="n">
-        <v>163631.603864787</v>
+        <v>163631.603861611</v>
       </c>
       <c r="E429" t="n">
-        <v>182526.8764989423</v>
+        <v>182526.8764964611</v>
       </c>
       <c r="F429" t="n">
-        <v>175506.6750067247</v>
+        <v>175506.6750050052</v>
       </c>
       <c r="G429" t="n">
-        <v>96292.53950265086</v>
+        <v>96292.53950214139</v>
       </c>
       <c r="H429" t="n">
-        <v>185266.1557573379</v>
+        <v>185266.1557586056</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>547437.3316493294</v>
+        <v>547437.3316624342</v>
       </c>
       <c r="C430" t="n">
-        <v>198069.2638346888</v>
+        <v>198069.263829209</v>
       </c>
       <c r="D430" t="n">
-        <v>163438.8739717785</v>
+        <v>163438.8739684617</v>
       </c>
       <c r="E430" t="n">
-        <v>182451.1430649653</v>
+        <v>182451.1430624134</v>
       </c>
       <c r="F430" t="n">
-        <v>175488.0724411891</v>
+        <v>175488.072439451</v>
       </c>
       <c r="G430" t="n">
-        <v>96290.68137892446</v>
+        <v>96290.68137841336</v>
       </c>
       <c r="H430" t="n">
-        <v>196566.4977543344</v>
+        <v>196566.4977558119</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>540801.001504563</v>
+        <v>540801.0015177015</v>
       </c>
       <c r="C431" t="n">
-        <v>197445.7495295337</v>
+        <v>197445.7495238208</v>
       </c>
       <c r="D431" t="n">
-        <v>163226.7606948844</v>
+        <v>163226.760691417</v>
       </c>
       <c r="E431" t="n">
-        <v>182365.7060027862</v>
+        <v>182365.7060001565</v>
       </c>
       <c r="F431" t="n">
-        <v>175466.5034229789</v>
+        <v>175466.5034212198</v>
       </c>
       <c r="G431" t="n">
-        <v>96288.46315849505</v>
+        <v>96288.46315798207</v>
       </c>
       <c r="H431" t="n">
-        <v>207913.8056194171</v>
+        <v>207913.8056211229</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>534090.1513967032</v>
+        <v>534090.1514098654</v>
       </c>
       <c r="C432" t="n">
-        <v>196778.5499222392</v>
+        <v>196778.5499162849</v>
       </c>
       <c r="D432" t="n">
-        <v>162993.7184434228</v>
+        <v>162993.7184397947</v>
       </c>
       <c r="E432" t="n">
-        <v>182269.5088422925</v>
+        <v>182269.5088395775</v>
       </c>
       <c r="F432" t="n">
-        <v>175441.5480403503</v>
+        <v>175441.5480385675</v>
       </c>
       <c r="G432" t="n">
-        <v>96285.82109814235</v>
+        <v>96285.82109762714</v>
       </c>
       <c r="H432" t="n">
-        <v>219308.9012645586</v>
+        <v>219308.9012665115</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>527305.7533397339</v>
+        <v>527305.7533529098</v>
       </c>
       <c r="C433" t="n">
-        <v>196065.6133004748</v>
+        <v>196065.6132942716</v>
       </c>
       <c r="D433" t="n">
-        <v>162738.125423809</v>
+        <v>162738.1254200101</v>
       </c>
       <c r="E433" t="n">
-        <v>182161.4065282295</v>
+        <v>182161.4065254213</v>
       </c>
       <c r="F433" t="n">
-        <v>175412.7359994219</v>
+        <v>175412.7359976124</v>
       </c>
       <c r="G433" t="n">
-        <v>96282.68139578192</v>
+        <v>96282.68139526414</v>
       </c>
       <c r="H433" t="n">
-        <v>230752.7003855199</v>
+        <v>230752.7003877398</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>520448.9301444152</v>
+        <v>520448.930157595</v>
       </c>
       <c r="C434" t="n">
-        <v>195304.8826895369</v>
+        <v>195304.8826830771</v>
       </c>
       <c r="D434" t="n">
-        <v>162458.2851053519</v>
+        <v>162458.2851013714</v>
       </c>
       <c r="E434" t="n">
-        <v>182040.1614770377</v>
+        <v>182040.1614741276</v>
       </c>
       <c r="F434" t="n">
-        <v>175379.5420172264</v>
+        <v>175379.5420153867</v>
       </c>
       <c r="G434" t="n">
-        <v>96278.95883596611</v>
+        <v>96278.95883544532</v>
       </c>
       <c r="H434" t="n">
-        <v>242246.2112379964</v>
+        <v>242246.2112405038</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>513520.9601747932</v>
+        <v>513520.9601879675</v>
       </c>
       <c r="C435" t="n">
-        <v>194494.3048280274</v>
+        <v>194494.3048213042</v>
       </c>
       <c r="D435" t="n">
-        <v>162152.4283820002</v>
+        <v>162152.4283778275</v>
       </c>
       <c r="E435" t="n">
-        <v>181904.4399159556</v>
+        <v>181904.4399129346</v>
       </c>
       <c r="F435" t="n">
-        <v>175341.3810088801</v>
+        <v>175341.3810070066</v>
       </c>
       <c r="G435" t="n">
-        <v>96274.55529445235</v>
+        <v>96274.55529392812</v>
       </c>
       <c r="H435" t="n">
-        <v>253790.5329392932</v>
+        <v>253790.5329421084</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>506523.281741749</v>
+        <v>506523.2817549083</v>
       </c>
       <c r="C436" t="n">
-        <v>193631.8397472189</v>
+        <v>193631.8397402254</v>
       </c>
       <c r="D436" t="n">
-        <v>161818.7164778744</v>
+        <v>161818.7164734984</v>
       </c>
       <c r="E436" t="n">
-        <v>181752.8085777357</v>
+        <v>181752.8085745941</v>
       </c>
       <c r="F436" t="n">
-        <v>175297.603092859</v>
+        <v>175297.6030909478</v>
       </c>
       <c r="G436" t="n">
-        <v>96269.35809419584</v>
+        <v>96269.3580936676</v>
       </c>
       <c r="H436" t="n">
-        <v>265386.853266517</v>
+        <v>265386.8532696604</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>499457.4970908007</v>
+        <v>499457.4971039348</v>
       </c>
       <c r="C437" t="n">
-        <v>192715.4709232957</v>
+        <v>192715.4709160261</v>
       </c>
       <c r="D437" t="n">
-        <v>161455.2446407915</v>
+        <v>161455.2446362012</v>
       </c>
       <c r="E437" t="n">
-        <v>181583.7318288939</v>
+        <v>181583.7318256219</v>
       </c>
       <c r="F437" t="n">
-        <v>175247.4884445779</v>
+        <v>175247.4884426245</v>
       </c>
       <c r="G437" t="n">
-        <v>96263.23820593914</v>
+        <v>96263.23820540635</v>
       </c>
       <c r="H437" t="n">
-        <v>277036.4459215284</v>
+        <v>277036.4459250214</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>492325.3759417474</v>
+        <v>492325.3759548474</v>
       </c>
       <c r="C438" t="n">
-        <v>191743.215964281</v>
+        <v>191743.2159567296</v>
       </c>
       <c r="D438" t="n">
-        <v>161060.0466634603</v>
+        <v>161060.0466586446</v>
       </c>
       <c r="E438" t="n">
-        <v>181395.5693134209</v>
+        <v>181395.5693100076</v>
       </c>
       <c r="F438" t="n">
-        <v>175190.2420351348</v>
+        <v>175190.2420331345</v>
       </c>
       <c r="G438" t="n">
-        <v>96256.04828765722</v>
+        <v>96256.04828711912</v>
       </c>
       <c r="H438" t="n">
-        <v>288740.667232184</v>
+        <v>288740.6672360476</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>485128.8585384749</v>
+        <v>485128.8585515307</v>
       </c>
       <c r="C439" t="n">
-        <v>190713.1377859586</v>
+        <v>190713.1377781207</v>
       </c>
       <c r="D439" t="n">
-        <v>160631.1002665411</v>
+        <v>160631.100261489</v>
       </c>
       <c r="E439" t="n">
-        <v>181186.5741971564</v>
+        <v>181186.5741935909</v>
       </c>
       <c r="F439" t="n">
-        <v>175124.988299154</v>
+        <v>175124.9882971014</v>
       </c>
       <c r="G439" t="n">
-        <v>96247.6205585022</v>
+        <v>96247.62055795809</v>
       </c>
       <c r="H439" t="n">
-        <v>300500.9522588997</v>
+        <v>300500.9522631551</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>477870.0581683223</v>
+        <v>477870.0581813258</v>
       </c>
       <c r="C440" t="n">
-        <v>189623.3562235914</v>
+        <v>189623.3562154628</v>
       </c>
       <c r="D440" t="n">
-        <v>160166.333371337</v>
+        <v>160166.3333660375</v>
       </c>
       <c r="E440" t="n">
-        <v>180954.8921004608</v>
+        <v>180954.8920967316</v>
       </c>
       <c r="F440" t="n">
-        <v>175050.7657830598</v>
+        <v>175050.7657809496</v>
       </c>
       <c r="G440" t="n">
-        <v>96237.76450460425</v>
+        <v>96237.76450405322</v>
       </c>
       <c r="H440" t="n">
-        <v>312318.8102751639</v>
+        <v>312318.810279833</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>470551.2631118859</v>
+        <v>470551.2631248276</v>
       </c>
       <c r="C441" t="n">
-        <v>188472.0600187892</v>
+        <v>188472.0600103665</v>
       </c>
       <c r="D441" t="n">
-        <v>159663.6312825172</v>
+        <v>159663.6312769594</v>
       </c>
       <c r="E441" t="n">
-        <v>180698.5608082311</v>
+        <v>180698.5608043262</v>
       </c>
       <c r="F441" t="n">
-        <v>174966.5218327621</v>
+        <v>174966.521830588</v>
       </c>
       <c r="G441" t="n">
-        <v>96226.2644161448</v>
+        <v>96226.26441558592</v>
       </c>
       <c r="H441" t="n">
-        <v>324195.8195905027</v>
+        <v>324195.8195956071</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>463174.9379859645</v>
+        <v>463174.9379988357</v>
       </c>
       <c r="C442" t="n">
-        <v>187257.5191136075</v>
+        <v>187257.5191048883</v>
       </c>
       <c r="D442" t="n">
-        <v>159120.84479299</v>
+        <v>159120.8447871634</v>
       </c>
       <c r="E442" t="n">
-        <v>180415.5108466032</v>
+        <v>180415.5108425102</v>
       </c>
       <c r="F442" t="n">
-        <v>174871.1073875123</v>
+        <v>174871.1073852679</v>
       </c>
       <c r="G442" t="n">
-        <v>96212.87675755084</v>
+        <v>96212.87675698302</v>
       </c>
       <c r="H442" t="n">
-        <v>336133.621684475</v>
+        <v>336133.621690036</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>455743.7244445782</v>
+        <v>455743.7244573704</v>
       </c>
       <c r="C443" t="n">
-        <v>185978.0971769476</v>
+        <v>185978.0971679301</v>
       </c>
       <c r="D443" t="n">
-        <v>158535.7992138868</v>
+        <v>158535.7992077809</v>
       </c>
       <c r="E443" t="n">
-        <v>180103.5670146878</v>
+        <v>180103.5670103941</v>
       </c>
       <c r="F443" t="n">
-        <v>174763.2719544931</v>
+        <v>174763.2719521714</v>
       </c>
       <c r="G443" t="n">
-        <v>96197.3273754744</v>
+        <v>96197.32737489646</v>
       </c>
       <c r="H443" t="n">
-        <v>348133.9146206535</v>
+        <v>348133.9146266924</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>448260.4412055826</v>
+        <v>448260.4412182876</v>
       </c>
       <c r="C444" t="n">
-        <v>184632.2642816852</v>
+        <v>184632.2642723685</v>
       </c>
       <c r="D444" t="n">
-        <v>157906.3043226459</v>
+        <v>157906.304316251</v>
       </c>
       <c r="E444" t="n">
-        <v>179760.4509573077</v>
+        <v>179760.4509528003</v>
       </c>
       <c r="F444" t="n">
-        <v>174641.6588463701</v>
+        <v>174641.6588439636</v>
       </c>
       <c r="G444" t="n">
-        <v>96179.30855243347</v>
+        <v>96179.30855184412</v>
       </c>
       <c r="H444" t="n">
-        <v>360198.4457102878</v>
+        <v>360198.4457168258</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>440728.0833733727</v>
+        <v>440728.083385982</v>
       </c>
       <c r="C445" t="n">
-        <v>183218.6096447946</v>
+        <v>183218.6096351791</v>
       </c>
       <c r="D445" t="n">
-        <v>157230.1652114837</v>
+        <v>157230.1652047902</v>
       </c>
       <c r="E445" t="n">
-        <v>179383.7848608091</v>
+        <v>179383.7848560747</v>
       </c>
       <c r="F445" t="n">
-        <v>174504.8007714166</v>
+        <v>174504.8007689175</v>
       </c>
       <c r="G445" t="n">
-        <v>96158.47591759969</v>
+        <v>96158.47591699743</v>
       </c>
       <c r="H445" t="n">
-        <v>372329.0033964458</v>
+        <v>372329.0034035036</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>433149.8210314874</v>
+        <v>433149.8210439937</v>
       </c>
       <c r="C446" t="n">
-        <v>181735.8543371422</v>
+        <v>181735.854327229</v>
       </c>
       <c r="D446" t="n">
-        <v>156505.194007192</v>
+        <v>156505.194000191</v>
       </c>
       <c r="E446" t="n">
-        <v>178971.0963485237</v>
+        <v>178971.096343549</v>
       </c>
       <c r="F446" t="n">
-        <v>174351.1158727498</v>
+        <v>174351.1158701497</v>
       </c>
       <c r="G446" t="n">
-        <v>96134.44523021708</v>
+        <v>96134.44522960033</v>
       </c>
       <c r="H446" t="n">
-        <v>384527.4083309933</v>
+        <v>384527.4083385914</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>425528.9970826103</v>
+        <v>425528.9970950058</v>
       </c>
       <c r="C447" t="n">
-        <v>180182.8638647141</v>
+        <v>180182.8638545055</v>
       </c>
       <c r="D447" t="n">
-        <v>155729.2224213387</v>
+        <v>155729.222414022</v>
       </c>
       <c r="E447" t="n">
-        <v>178519.8246452811</v>
+        <v>178519.8246400526</v>
       </c>
       <c r="F447" t="n">
-        <v>174178.904319484</v>
+        <v>174178.9043167738</v>
       </c>
       <c r="G447" t="n">
-        <v>96106.78905551287</v>
+        <v>96106.78905487986</v>
       </c>
       <c r="H447" t="n">
-        <v>396795.5036188208</v>
+        <v>396795.5036269785</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>417869.1243174421</v>
+        <v>417869.1243297197</v>
       </c>
       <c r="C448" t="n">
-        <v>178558.660518917</v>
+        <v>178558.6605084163</v>
       </c>
       <c r="D448" t="n">
-        <v>154900.115077695</v>
+        <v>154900.1150700551</v>
       </c>
       <c r="E448" t="n">
-        <v>178027.3280714584</v>
+        <v>178027.3280659624</v>
       </c>
       <c r="F448" t="n">
-        <v>173986.345558034</v>
+        <v>173986.3455552046</v>
       </c>
       <c r="G448" t="n">
-        <v>96075.03335768216</v>
+        <v>96075.03335703096</v>
       </c>
       <c r="H448" t="n">
-        <v>409135.1442063411</v>
+        <v>409135.1442150777</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>410173.8816982348</v>
+        <v>410173.8817103878</v>
       </c>
       <c r="C449" t="n">
-        <v>176862.4353903279</v>
+        <v>176862.4353795397</v>
       </c>
       <c r="D449" t="n">
-        <v>154015.7835512168</v>
+        <v>154015.7835432471</v>
       </c>
       <c r="E449" t="n">
-        <v>177490.892916388</v>
+        <v>177490.8929106111</v>
       </c>
       <c r="F449" t="n">
-        <v>173771.4963361732</v>
+        <v>173771.4963332149</v>
       </c>
       <c r="G449" t="n">
-        <v>96038.65403956229</v>
+        <v>96038.65403889082</v>
       </c>
       <c r="H449" t="n">
-        <v>421548.1853945183</v>
+        <v>421548.1854038526</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>402447.109847348</v>
+        <v>402447.1098593696</v>
       </c>
       <c r="C450" t="n">
-        <v>175093.5599379754</v>
+        <v>175093.5599269052</v>
       </c>
       <c r="D450" t="n">
-        <v>153074.2010403513</v>
+        <v>153074.201032046</v>
       </c>
       <c r="E450" t="n">
-        <v>176907.7437285244</v>
+        <v>176907.7437224533</v>
       </c>
       <c r="F450" t="n">
-        <v>173532.2896155464</v>
+        <v>173532.2896124488</v>
       </c>
       <c r="G450" t="n">
-        <v>95997.07346389978</v>
+        <v>95997.07346320577</v>
       </c>
       <c r="H450" t="n">
-        <v>434036.4704605447</v>
+        <v>434036.470470494</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>394692.8057360053</v>
+        <v>394692.8057478896</v>
       </c>
       <c r="C451" t="n">
-        <v>173251.5970049674</v>
+        <v>173251.596993622</v>
       </c>
       <c r="D451" t="n">
-        <v>152073.4175819769</v>
+        <v>152073.4175733312</v>
       </c>
       <c r="E451" t="n">
-        <v>176275.0550456299</v>
+        <v>176275.0550392517</v>
       </c>
       <c r="F451" t="n">
-        <v>173266.5344899633</v>
+        <v>173266.534486716</v>
       </c>
       <c r="G451" t="n">
-        <v>95949.65699659358</v>
+        <v>95949.65699587451</v>
       </c>
       <c r="H451" t="n">
-        <v>446601.8173769383</v>
+        <v>446601.8173875188</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>386915.1165734691</v>
+        <v>386915.1165852098</v>
       </c>
       <c r="C452" t="n">
-        <v>171336.3111711301</v>
+        <v>171336.3111595175</v>
       </c>
       <c r="D452" t="n">
-        <v>151011.5757061318</v>
+        <v>151011.5756971422</v>
       </c>
       <c r="E452" t="n">
-        <v>175589.9645724722</v>
+        <v>175589.964565774</v>
       </c>
       <c r="F452" t="n">
-        <v>172971.9172267325</v>
+        <v>172971.9172233245</v>
       </c>
       <c r="G452" t="n">
-        <v>95895.70961788742</v>
+        <v>95895.70961714066</v>
       </c>
       <c r="H452" t="n">
-        <v>459246.0046222023</v>
+        <v>459246.0046334303</v>
       </c>
     </row>
   </sheetData>
